--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF9131-8531-4C01-BDE3-595D36ADD08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384143AD-4885-4929-BAD1-8EF9B2044E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordEvolution" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,21 +1019,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1.0700000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>7.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>9.1400000000000009E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0.1052</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.13919999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0.16010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0.18420000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0.21190000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0.28029999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.32239999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0.37079999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0.42649999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0.49049999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0.56409999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.64880000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0.74620000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0.85820000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1.1351</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1.3053999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1.5012999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1.7264999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1.9854999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>2.2833999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>2.6259999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>3.0199000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>3.4728999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>3.9939</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4.593</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>5.282</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>6.0742999999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>6.9854999999999992</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>8.0334000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9.2385000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>10.6243</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>12.218</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>14.050699999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>16.1584</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>18.5822</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>21.369600000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>24.575100000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>28.261400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>32.500700000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>37.375900000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>42.982300000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>49.429700000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>56.844200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>65.370900000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>75.176599999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>86.453099999999992</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>99.42110000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>114.3343</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>131.4845</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>151.2072</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>173.88829999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>199.9716</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>229.96739999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>264.46260000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>304.13199999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>349.7518</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>402.21460000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>462.54680000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>531.9289</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>611.7183</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>703.47609999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>808.99759999999992</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>930.3472999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -3245,6 +3245,806 @@
       <c r="D151">
         <f>ROUNDUP(VLOOKUP(A151,Balance!G:M,7,FALSE),0)</f>
         <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f>VLOOKUP(A152,Balance!G:H,2,FALSE)</f>
+        <v>2100</v>
+      </c>
+      <c r="C152">
+        <v>91</v>
+      </c>
+      <c r="D152">
+        <f>ROUNDUP(VLOOKUP(A152,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f>VLOOKUP(A153,Balance!G:H,2,FALSE)</f>
+        <v>2120</v>
+      </c>
+      <c r="C153">
+        <v>91</v>
+      </c>
+      <c r="D153">
+        <f>ROUNDUP(VLOOKUP(A153,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f>VLOOKUP(A154,Balance!G:H,2,FALSE)</f>
+        <v>2140</v>
+      </c>
+      <c r="C154">
+        <v>91</v>
+      </c>
+      <c r="D154">
+        <f>ROUNDUP(VLOOKUP(A154,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f>VLOOKUP(A155,Balance!G:H,2,FALSE)</f>
+        <v>2160</v>
+      </c>
+      <c r="C155">
+        <v>91</v>
+      </c>
+      <c r="D155">
+        <f>ROUNDUP(VLOOKUP(A155,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f>VLOOKUP(A156,Balance!G:H,2,FALSE)</f>
+        <v>2180</v>
+      </c>
+      <c r="C156">
+        <v>91</v>
+      </c>
+      <c r="D156">
+        <f>ROUNDUP(VLOOKUP(A156,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f>VLOOKUP(A157,Balance!G:H,2,FALSE)</f>
+        <v>2200</v>
+      </c>
+      <c r="C157">
+        <v>91</v>
+      </c>
+      <c r="D157">
+        <f>ROUNDUP(VLOOKUP(A157,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f>VLOOKUP(A158,Balance!G:H,2,FALSE)</f>
+        <v>2220</v>
+      </c>
+      <c r="C158">
+        <v>91</v>
+      </c>
+      <c r="D158">
+        <f>ROUNDUP(VLOOKUP(A158,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f>VLOOKUP(A159,Balance!G:H,2,FALSE)</f>
+        <v>2240</v>
+      </c>
+      <c r="C159">
+        <v>91</v>
+      </c>
+      <c r="D159">
+        <f>ROUNDUP(VLOOKUP(A159,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f>VLOOKUP(A160,Balance!G:H,2,FALSE)</f>
+        <v>2260</v>
+      </c>
+      <c r="C160">
+        <v>91</v>
+      </c>
+      <c r="D160">
+        <f>ROUNDUP(VLOOKUP(A160,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f>VLOOKUP(A161,Balance!G:H,2,FALSE)</f>
+        <v>2280</v>
+      </c>
+      <c r="C161">
+        <v>91</v>
+      </c>
+      <c r="D161">
+        <f>ROUNDUP(VLOOKUP(A161,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f>VLOOKUP(A162,Balance!G:H,2,FALSE)</f>
+        <v>2300</v>
+      </c>
+      <c r="C162">
+        <v>91</v>
+      </c>
+      <c r="D162">
+        <f>ROUNDUP(VLOOKUP(A162,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f>VLOOKUP(A163,Balance!G:H,2,FALSE)</f>
+        <v>2320</v>
+      </c>
+      <c r="C163">
+        <v>91</v>
+      </c>
+      <c r="D163">
+        <f>ROUNDUP(VLOOKUP(A163,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f>VLOOKUP(A164,Balance!G:H,2,FALSE)</f>
+        <v>2340</v>
+      </c>
+      <c r="C164">
+        <v>91</v>
+      </c>
+      <c r="D164">
+        <f>ROUNDUP(VLOOKUP(A164,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f>VLOOKUP(A165,Balance!G:H,2,FALSE)</f>
+        <v>2360</v>
+      </c>
+      <c r="C165">
+        <v>91</v>
+      </c>
+      <c r="D165">
+        <f>ROUNDUP(VLOOKUP(A165,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f>VLOOKUP(A166,Balance!G:H,2,FALSE)</f>
+        <v>2380</v>
+      </c>
+      <c r="C166">
+        <v>91</v>
+      </c>
+      <c r="D166">
+        <f>ROUNDUP(VLOOKUP(A166,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f>VLOOKUP(A167,Balance!G:H,2,FALSE)</f>
+        <v>2400</v>
+      </c>
+      <c r="C167">
+        <v>91</v>
+      </c>
+      <c r="D167">
+        <f>ROUNDUP(VLOOKUP(A167,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f>VLOOKUP(A168,Balance!G:H,2,FALSE)</f>
+        <v>2420</v>
+      </c>
+      <c r="C168">
+        <v>91</v>
+      </c>
+      <c r="D168">
+        <f>ROUNDUP(VLOOKUP(A168,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f>VLOOKUP(A169,Balance!G:H,2,FALSE)</f>
+        <v>2440</v>
+      </c>
+      <c r="C169">
+        <v>91</v>
+      </c>
+      <c r="D169">
+        <f>ROUNDUP(VLOOKUP(A169,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f>VLOOKUP(A170,Balance!G:H,2,FALSE)</f>
+        <v>2460</v>
+      </c>
+      <c r="C170">
+        <v>91</v>
+      </c>
+      <c r="D170">
+        <f>ROUNDUP(VLOOKUP(A170,Balance!G:M,7,FALSE),0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f>VLOOKUP(A171,Balance!G:H,2,FALSE)</f>
+        <v>2480</v>
+      </c>
+      <c r="C171">
+        <v>91</v>
+      </c>
+      <c r="D171">
+        <f>ROUNDUP(VLOOKUP(A171,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f>VLOOKUP(A172,Balance!G:H,2,FALSE)</f>
+        <v>2500</v>
+      </c>
+      <c r="C172">
+        <v>91</v>
+      </c>
+      <c r="D172">
+        <f>ROUNDUP(VLOOKUP(A172,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f>VLOOKUP(A173,Balance!G:H,2,FALSE)</f>
+        <v>2520</v>
+      </c>
+      <c r="C173">
+        <v>91</v>
+      </c>
+      <c r="D173">
+        <f>ROUNDUP(VLOOKUP(A173,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f>VLOOKUP(A174,Balance!G:H,2,FALSE)</f>
+        <v>2540</v>
+      </c>
+      <c r="C174">
+        <v>91</v>
+      </c>
+      <c r="D174">
+        <f>ROUNDUP(VLOOKUP(A174,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f>VLOOKUP(A175,Balance!G:H,2,FALSE)</f>
+        <v>2560</v>
+      </c>
+      <c r="C175">
+        <v>91</v>
+      </c>
+      <c r="D175">
+        <f>ROUNDUP(VLOOKUP(A175,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f>VLOOKUP(A176,Balance!G:H,2,FALSE)</f>
+        <v>2580</v>
+      </c>
+      <c r="C176">
+        <v>91</v>
+      </c>
+      <c r="D176">
+        <f>ROUNDUP(VLOOKUP(A176,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f>VLOOKUP(A177,Balance!G:H,2,FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="C177">
+        <v>91</v>
+      </c>
+      <c r="D177">
+        <f>ROUNDUP(VLOOKUP(A177,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f>VLOOKUP(A178,Balance!G:H,2,FALSE)</f>
+        <v>2620</v>
+      </c>
+      <c r="C178">
+        <v>91</v>
+      </c>
+      <c r="D178">
+        <f>ROUNDUP(VLOOKUP(A178,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f>VLOOKUP(A179,Balance!G:H,2,FALSE)</f>
+        <v>2640</v>
+      </c>
+      <c r="C179">
+        <v>91</v>
+      </c>
+      <c r="D179">
+        <f>ROUNDUP(VLOOKUP(A179,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f>VLOOKUP(A180,Balance!G:H,2,FALSE)</f>
+        <v>2660</v>
+      </c>
+      <c r="C180">
+        <v>91</v>
+      </c>
+      <c r="D180">
+        <f>ROUNDUP(VLOOKUP(A180,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f>VLOOKUP(A181,Balance!G:H,2,FALSE)</f>
+        <v>2680</v>
+      </c>
+      <c r="C181">
+        <v>91</v>
+      </c>
+      <c r="D181">
+        <f>ROUNDUP(VLOOKUP(A181,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f>VLOOKUP(A182,Balance!G:H,2,FALSE)</f>
+        <v>2700</v>
+      </c>
+      <c r="C182">
+        <v>91</v>
+      </c>
+      <c r="D182">
+        <f>ROUNDUP(VLOOKUP(A182,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f>VLOOKUP(A183,Balance!G:H,2,FALSE)</f>
+        <v>2720</v>
+      </c>
+      <c r="C183">
+        <v>91</v>
+      </c>
+      <c r="D183">
+        <f>ROUNDUP(VLOOKUP(A183,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f>VLOOKUP(A184,Balance!G:H,2,FALSE)</f>
+        <v>2740</v>
+      </c>
+      <c r="C184">
+        <v>91</v>
+      </c>
+      <c r="D184">
+        <f>ROUNDUP(VLOOKUP(A184,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f>VLOOKUP(A185,Balance!G:H,2,FALSE)</f>
+        <v>2760</v>
+      </c>
+      <c r="C185">
+        <v>91</v>
+      </c>
+      <c r="D185">
+        <f>ROUNDUP(VLOOKUP(A185,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f>VLOOKUP(A186,Balance!G:H,2,FALSE)</f>
+        <v>2780</v>
+      </c>
+      <c r="C186">
+        <v>91</v>
+      </c>
+      <c r="D186">
+        <f>ROUNDUP(VLOOKUP(A186,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f>VLOOKUP(A187,Balance!G:H,2,FALSE)</f>
+        <v>2800</v>
+      </c>
+      <c r="C187">
+        <v>91</v>
+      </c>
+      <c r="D187">
+        <f>ROUNDUP(VLOOKUP(A187,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f>VLOOKUP(A188,Balance!G:H,2,FALSE)</f>
+        <v>2820</v>
+      </c>
+      <c r="C188">
+        <v>91</v>
+      </c>
+      <c r="D188">
+        <f>ROUNDUP(VLOOKUP(A188,Balance!G:M,7,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f>VLOOKUP(A189,Balance!G:H,2,FALSE)</f>
+        <v>2840</v>
+      </c>
+      <c r="C189">
+        <v>91</v>
+      </c>
+      <c r="D189">
+        <f>ROUNDUP(VLOOKUP(A189,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f>VLOOKUP(A190,Balance!G:H,2,FALSE)</f>
+        <v>2860</v>
+      </c>
+      <c r="C190">
+        <v>91</v>
+      </c>
+      <c r="D190">
+        <f>ROUNDUP(VLOOKUP(A190,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f>VLOOKUP(A191,Balance!G:H,2,FALSE)</f>
+        <v>2880</v>
+      </c>
+      <c r="C191">
+        <v>91</v>
+      </c>
+      <c r="D191">
+        <f>ROUNDUP(VLOOKUP(A191,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f>VLOOKUP(A192,Balance!G:H,2,FALSE)</f>
+        <v>2900</v>
+      </c>
+      <c r="C192">
+        <v>91</v>
+      </c>
+      <c r="D192">
+        <f>ROUNDUP(VLOOKUP(A192,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f>VLOOKUP(A193,Balance!G:H,2,FALSE)</f>
+        <v>2920</v>
+      </c>
+      <c r="C193">
+        <v>91</v>
+      </c>
+      <c r="D193">
+        <f>ROUNDUP(VLOOKUP(A193,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f>VLOOKUP(A194,Balance!G:H,2,FALSE)</f>
+        <v>2940</v>
+      </c>
+      <c r="C194">
+        <v>91</v>
+      </c>
+      <c r="D194">
+        <f>ROUNDUP(VLOOKUP(A194,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f>VLOOKUP(A195,Balance!G:H,2,FALSE)</f>
+        <v>2960</v>
+      </c>
+      <c r="C195">
+        <v>91</v>
+      </c>
+      <c r="D195">
+        <f>ROUNDUP(VLOOKUP(A195,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f>VLOOKUP(A196,Balance!G:H,2,FALSE)</f>
+        <v>2980</v>
+      </c>
+      <c r="C196">
+        <v>91</v>
+      </c>
+      <c r="D196">
+        <f>ROUNDUP(VLOOKUP(A196,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f>VLOOKUP(A197,Balance!G:H,2,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="C197">
+        <v>91</v>
+      </c>
+      <c r="D197">
+        <f>ROUNDUP(VLOOKUP(A197,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f>VLOOKUP(A198,Balance!G:H,2,FALSE)</f>
+        <v>3020</v>
+      </c>
+      <c r="C198">
+        <v>91</v>
+      </c>
+      <c r="D198">
+        <f>ROUNDUP(VLOOKUP(A198,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f>VLOOKUP(A199,Balance!G:H,2,FALSE)</f>
+        <v>3040</v>
+      </c>
+      <c r="C199">
+        <v>91</v>
+      </c>
+      <c r="D199">
+        <f>ROUNDUP(VLOOKUP(A199,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f>VLOOKUP(A200,Balance!G:H,2,FALSE)</f>
+        <v>3060</v>
+      </c>
+      <c r="C200">
+        <v>91</v>
+      </c>
+      <c r="D200">
+        <f>ROUNDUP(VLOOKUP(A200,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f>VLOOKUP(A201,Balance!G:H,2,FALSE)</f>
+        <v>3080</v>
+      </c>
+      <c r="C201">
+        <v>91</v>
+      </c>
+      <c r="D201">
+        <f>ROUNDUP(VLOOKUP(A201,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3263,11 +4063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453AAC7-AFB1-4CF3-9E66-1D0C6477225E}">
   <dimension ref="A3:T204"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P186" sqref="P186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
@@ -3277,12 +4077,12 @@
     <col min="19" max="19" width="10.25" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R3">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3320,7 +4120,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'Balance(Gacha)'!U30</f>
         <v>717.27199692382806</v>
@@ -3367,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
@@ -3414,7 +4214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>2</v>
       </c>
@@ -3462,7 +4262,7 @@
         <v>9.1818181818181799</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3516,7 +4316,7 @@
         <v>8.4929225645295556</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIFS(M:M,K:K,91)*100</f>
         <v>1283907.1500000004</v>
@@ -3572,7 +4372,7 @@
         <v>7.9048349961626965</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>5</v>
       </c>
@@ -3620,7 +4420,7 @@
         <v>7.4679943100995789</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>6</v>
       </c>
@@ -3668,7 +4468,7 @@
         <v>7.0814030443414984</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>7</v>
       </c>
@@ -3716,7 +4516,7 @@
         <v>6.7367119901112478</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>8</v>
       </c>
@@ -3764,7 +4564,7 @@
         <v>6.4273306311522838</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>9</v>
       </c>
@@ -3812,7 +4612,7 @@
         <v>6.1479869423286129</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>10</v>
       </c>
@@ -3860,7 +4660,7 @@
         <v>5.9456688877498731</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>11</v>
       </c>
@@ -3908,7 +4708,7 @@
         <v>5.7571359458151976</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>12</v>
       </c>
@@ -3956,7 +4756,7 @@
         <v>5.5809698078682475</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>13</v>
       </c>
@@ -4004,7 +4804,7 @@
         <v>5.4592720970537334</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>14</v>
       </c>
@@ -4052,7 +4852,7 @@
         <v>5.3410024650780636</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>15</v>
       </c>
@@ -4100,7 +4900,7 @@
         <v>5.2262090483619339</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>16</v>
       </c>
@@ -4148,7 +4948,7 @@
         <v>5.1519644180874744</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>17</v>
       </c>
@@ -4196,7 +4996,7 @@
         <v>5.0757842791681398</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>18</v>
       </c>
@@ -4244,7 +5044,7 @@
         <v>5.0318685005031867</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>19</v>
       </c>
@@ -4292,7 +5092,7 @@
         <v>9.5816033216224845</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>20</v>
       </c>
@@ -4340,7 +5140,7 @@
         <v>17.487612940833575</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>21</v>
       </c>
@@ -4388,7 +5188,7 @@
         <v>17.1173406102704</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G27" s="25">
         <v>22</v>
       </c>
@@ -4436,7 +5236,7 @@
         <v>16.818470662995122</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>23</v>
       </c>
@@ -4484,7 +5284,7 @@
         <v>16.572982774252029</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>24</v>
       </c>
@@ -4532,7 +5332,7 @@
         <v>16.363353554207492</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>25</v>
       </c>
@@ -4580,7 +5380,7 @@
         <v>16.174308247560482</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>26</v>
       </c>
@@ -4628,7 +5428,7 @@
         <v>16.016568864342428</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>27</v>
       </c>
@@ -4676,7 +5476,7 @@
         <v>15.878210849945459</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>28</v>
       </c>
@@ -4724,7 +5524,7 @@
         <v>15.765148921602194</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>29</v>
       </c>
@@ -4772,7 +5572,7 @@
         <v>15.666124500961113</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>30</v>
       </c>
@@ -4820,7 +5620,7 @@
         <v>15.576861617130078</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>31</v>
       </c>
@@ -4868,7 +5668,7 @@
         <v>15.501603804888841</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>32</v>
       </c>
@@ -4916,7 +5716,7 @@
         <v>15.436916447210908</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>33</v>
       </c>
@@ -4964,7 +5764,7 @@
         <v>15.380148492264295</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>34</v>
       </c>
@@ -5012,7 +5812,7 @@
         <v>15.332350720782252</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>35</v>
       </c>
@@ -5060,7 +5860,7 @@
         <v>15.288947073125122</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>36</v>
       </c>
@@ -5108,7 +5908,7 @@
         <v>15.251304512396258</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>37</v>
       </c>
@@ -5156,7 +5956,7 @@
         <v>15.220043164117481</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>38</v>
       </c>
@@ -5204,7 +6004,7 @@
         <v>15.192605261014744</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>39</v>
       </c>
@@ -5252,7 +6052,7 @@
         <v>15.168440029693532</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>40</v>
       </c>
@@ -5300,7 +6100,7 @@
         <v>15.147329650092086</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>41</v>
       </c>
@@ -5348,7 +6148,7 @@
         <v>15.128615220578432</v>
       </c>
     </row>
-    <row r="47" spans="7:20">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>42</v>
       </c>
@@ -5396,7 +6196,7 @@
         <v>15.112119563329893</v>
       </c>
     </row>
-    <row r="48" spans="7:20">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>43</v>
       </c>
@@ -5444,7 +6244,7 @@
         <v>15.098305425654951</v>
       </c>
     </row>
-    <row r="49" spans="7:20">
+    <row r="49" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>44</v>
       </c>
@@ -5492,7 +6292,7 @@
         <v>15.08545365580876</v>
       </c>
     </row>
-    <row r="50" spans="7:20">
+    <row r="50" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>45</v>
       </c>
@@ -5540,7 +6340,7 @@
         <v>15.07444215832909</v>
       </c>
     </row>
-    <row r="51" spans="7:20">
+    <row r="51" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>46</v>
       </c>
@@ -5588,7 +6388,7 @@
         <v>15.065185263380126</v>
       </c>
     </row>
-    <row r="52" spans="7:20">
+    <row r="52" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>47</v>
       </c>
@@ -5636,7 +6436,7 @@
         <v>15.057166775610368</v>
       </c>
     </row>
-    <row r="53" spans="7:20">
+    <row r="53" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>48</v>
       </c>
@@ -5684,7 +6484,7 @@
         <v>15.049685540859745</v>
       </c>
     </row>
-    <row r="54" spans="7:20">
+    <row r="54" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>49</v>
       </c>
@@ -5732,7 +6532,7 @@
         <v>15.043251133799126</v>
       </c>
     </row>
-    <row r="55" spans="7:20">
+    <row r="55" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>50</v>
       </c>
@@ -5780,7 +6580,7 @@
         <v>15.037840280131027</v>
       </c>
     </row>
-    <row r="56" spans="7:20">
+    <row r="56" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>51</v>
       </c>
@@ -5828,7 +6628,7 @@
         <v>15.032942863034288</v>
       </c>
     </row>
-    <row r="57" spans="7:20">
+    <row r="57" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G57">
         <v>52</v>
       </c>
@@ -5876,7 +6676,7 @@
         <v>15.028780028395925</v>
       </c>
     </row>
-    <row r="58" spans="7:20">
+    <row r="58" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>53</v>
       </c>
@@ -5924,7 +6724,7 @@
         <v>15.025019850152995</v>
       </c>
     </row>
-    <row r="59" spans="7:20">
+    <row r="59" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>54</v>
       </c>
@@ -5972,7 +6772,7 @@
         <v>15.021869933035429</v>
       </c>
     </row>
-    <row r="60" spans="7:20">
+    <row r="60" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>55</v>
       </c>
@@ -6020,7 +6820,7 @@
         <v>15.01915393632555</v>
       </c>
     </row>
-    <row r="61" spans="7:20">
+    <row r="61" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>56</v>
       </c>
@@ -6068,7 +6868,7 @@
         <v>15.016799114450169</v>
       </c>
     </row>
-    <row r="62" spans="7:20">
+    <row r="62" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>57</v>
       </c>
@@ -6116,7 +6916,7 @@
         <v>15.01464112290064</v>
       </c>
     </row>
-    <row r="63" spans="7:20">
+    <row r="63" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>58</v>
       </c>
@@ -6164,7 +6964,7 @@
         <v>15.012797371470269</v>
       </c>
     </row>
-    <row r="64" spans="7:20">
+    <row r="64" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>59</v>
       </c>
@@ -6212,7 +7012,7 @@
         <v>15.011126910885352</v>
       </c>
     </row>
-    <row r="65" spans="7:20">
+    <row r="65" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>60</v>
       </c>
@@ -6260,7 +7060,7 @@
         <v>15.009762885429614</v>
       </c>
     </row>
-    <row r="66" spans="7:20">
+    <row r="66" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>61</v>
       </c>
@@ -6308,7 +7108,7 @@
         <v>15.008521052248986</v>
       </c>
     </row>
-    <row r="67" spans="7:20">
+    <row r="67" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>62</v>
       </c>
@@ -6356,7 +7156,7 @@
         <v>15.007458221319553</v>
       </c>
     </row>
-    <row r="68" spans="7:20">
+    <row r="68" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>63</v>
       </c>
@@ -6404,7 +7204,7 @@
         <v>15.006521627622405</v>
       </c>
     </row>
-    <row r="69" spans="7:20">
+    <row r="69" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>64</v>
       </c>
@@ -6452,7 +7252,7 @@
         <v>15.005689242579423</v>
       </c>
     </row>
-    <row r="70" spans="7:20">
+    <row r="70" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>65</v>
       </c>
@@ -6500,7 +7300,7 @@
         <v>15.004988474108641</v>
       </c>
     </row>
-    <row r="71" spans="7:20">
+    <row r="71" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>66</v>
       </c>
@@ -6548,7 +7348,7 @@
         <v>15.004375752709755</v>
       </c>
     </row>
-    <row r="72" spans="7:20">
+    <row r="72" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>67</v>
       </c>
@@ -6596,7 +7396,7 @@
         <v>15.00381009362393</v>
       </c>
     </row>
-    <row r="73" spans="7:20">
+    <row r="73" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>68</v>
       </c>
@@ -6644,7 +7444,7 @@
         <v>15.003329709201353</v>
       </c>
     </row>
-    <row r="74" spans="7:20">
+    <row r="74" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>69</v>
       </c>
@@ -6692,7 +7492,7 @@
         <v>15.002907192338416</v>
       </c>
     </row>
-    <row r="75" spans="7:20">
+    <row r="75" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>70</v>
       </c>
@@ -6740,7 +7540,7 @@
         <v>15.00254399434883</v>
       </c>
     </row>
-    <row r="76" spans="7:20">
+    <row r="76" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>71</v>
       </c>
@@ -6788,7 +7588,7 @@
         <v>15.00222509144827</v>
       </c>
     </row>
-    <row r="77" spans="7:20">
+    <row r="77" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G77">
         <v>72</v>
       </c>
@@ -6836,7 +7636,7 @@
         <v>15.001936559961512</v>
       </c>
     </row>
-    <row r="78" spans="7:20">
+    <row r="78" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G78">
         <v>73</v>
       </c>
@@ -6884,7 +7684,7 @@
         <v>15.001689217990904</v>
       </c>
     </row>
-    <row r="79" spans="7:20">
+    <row r="79" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G79">
         <v>74</v>
       </c>
@@ -6932,7 +7732,7 @@
         <v>15.001473455882516</v>
       </c>
     </row>
-    <row r="80" spans="7:20">
+    <row r="80" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G80">
         <v>75</v>
       </c>
@@ -6980,7 +7780,7 @@
         <v>15.001287524610998</v>
       </c>
     </row>
-    <row r="81" spans="7:20">
+    <row r="81" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>76</v>
       </c>
@@ -7028,7 +7828,7 @@
         <v>15.001122054309812</v>
       </c>
     </row>
-    <row r="82" spans="7:20">
+    <row r="82" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>77</v>
       </c>
@@ -7076,7 +7876,7 @@
         <v>15.000977415237916</v>
       </c>
     </row>
-    <row r="83" spans="7:20">
+    <row r="83" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G83">
         <v>78</v>
       </c>
@@ -7124,7 +7924,7 @@
         <v>15.000854044890882</v>
       </c>
     </row>
-    <row r="84" spans="7:20">
+    <row r="84" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G84">
         <v>79</v>
       </c>
@@ -7172,7 +7972,7 @@
         <v>15.000746556008949</v>
       </c>
     </row>
-    <row r="85" spans="7:20">
+    <row r="85" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G85">
         <v>80</v>
       </c>
@@ -7220,7 +8020,7 @@
         <v>15.00065427983813</v>
       </c>
     </row>
-    <row r="86" spans="7:20">
+    <row r="86" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G86">
         <v>81</v>
       </c>
@@ -7268,7 +8068,7 @@
         <v>15.000569428978389</v>
       </c>
     </row>
-    <row r="87" spans="7:20">
+    <row r="87" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G87">
         <v>82</v>
       </c>
@@ -7316,7 +8116,7 @@
         <v>15.000495153181607</v>
       </c>
     </row>
-    <row r="88" spans="7:20">
+    <row r="88" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G88">
         <v>83</v>
       </c>
@@ -7364,7 +8164,7 @@
         <v>15.000431684968069</v>
       </c>
     </row>
-    <row r="89" spans="7:20">
+    <row r="89" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G89">
         <v>84</v>
       </c>
@@ -7412,7 +8212,7 @@
         <v>15.000375701123641</v>
       </c>
     </row>
-    <row r="90" spans="7:20">
+    <row r="90" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G90">
         <v>85</v>
       </c>
@@ -7460,7 +8260,7 @@
         <v>15.000328951552024</v>
       </c>
     </row>
-    <row r="91" spans="7:20">
+    <row r="91" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G91">
         <v>86</v>
       </c>
@@ -7508,7 +8308,7 @@
         <v>15.000287637911104</v>
       </c>
     </row>
-    <row r="92" spans="7:20">
+    <row r="92" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G92">
         <v>87</v>
       </c>
@@ -7556,7 +8356,7 @@
         <v>15.000251292064481</v>
       </c>
     </row>
-    <row r="93" spans="7:20">
+    <row r="93" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G93">
         <v>88</v>
       </c>
@@ -7604,7 +8404,7 @@
         <v>15.000220090408764</v>
       </c>
     </row>
-    <row r="94" spans="7:20">
+    <row r="94" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G94">
         <v>89</v>
       </c>
@@ -7652,7 +8452,7 @@
         <v>15.000192349990945</v>
       </c>
     </row>
-    <row r="95" spans="7:20">
+    <row r="95" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G95">
         <v>90</v>
       </c>
@@ -7699,7 +8499,7 @@
         <v>1.4020166130276139</v>
       </c>
     </row>
-    <row r="96" spans="7:20">
+    <row r="96" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G96">
         <v>91</v>
       </c>
@@ -7746,7 +8546,7 @@
         <v>1.3826318843125356</v>
       </c>
     </row>
-    <row r="97" spans="7:20">
+    <row r="97" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G97">
         <v>92</v>
       </c>
@@ -7793,7 +8593,7 @@
         <v>1.363775884108289</v>
       </c>
     </row>
-    <row r="98" spans="7:20">
+    <row r="98" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G98">
         <v>93</v>
       </c>
@@ -7840,7 +8640,7 @@
         <v>1.3454272714421449</v>
       </c>
     </row>
-    <row r="99" spans="7:20">
+    <row r="99" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G99">
         <v>94</v>
       </c>
@@ -7887,7 +8687,7 @@
         <v>1.3275658386032274</v>
       </c>
     </row>
-    <row r="100" spans="7:20">
+    <row r="100" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G100">
         <v>95</v>
       </c>
@@ -7934,7 +8734,7 @@
         <v>1.3101724369040935</v>
       </c>
     </row>
-    <row r="101" spans="7:20">
+    <row r="101" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G101">
         <v>96</v>
       </c>
@@ -7981,7 +8781,7 @@
         <v>1.2932289082027453</v>
       </c>
     </row>
-    <row r="102" spans="7:20">
+    <row r="102" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G102">
         <v>97</v>
       </c>
@@ -8028,7 +8828,7 @@
         <v>1.2767180216702712</v>
       </c>
     </row>
-    <row r="103" spans="7:20">
+    <row r="103" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G103">
         <v>98</v>
       </c>
@@ -8075,7 +8875,7 @@
         <v>1.2606234153412146</v>
       </c>
     </row>
-    <row r="104" spans="7:20">
+    <row r="104" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G104">
         <v>99</v>
       </c>
@@ -8122,7 +8922,7 @@
         <v>1.2449295420298858</v>
       </c>
     </row>
-    <row r="105" spans="7:20">
+    <row r="105" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G105">
         <v>100</v>
       </c>
@@ -8169,7 +8969,7 @@
         <v>0.61481080961841017</v>
       </c>
     </row>
-    <row r="106" spans="7:20">
+    <row r="106" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G106">
         <v>101</v>
       </c>
@@ -8217,7 +9017,7 @@
         <v>0.61166503765785152</v>
       </c>
     </row>
-    <row r="107" spans="7:20">
+    <row r="107" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G107">
         <v>102</v>
       </c>
@@ -8265,7 +9065,7 @@
         <v>0.60855499560644932</v>
       </c>
     </row>
-    <row r="108" spans="7:20">
+    <row r="108" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G108">
         <v>103</v>
       </c>
@@ -8313,7 +9113,7 @@
         <v>0.6054800847623617</v>
       </c>
     </row>
-    <row r="109" spans="7:20">
+    <row r="109" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G109">
         <v>104</v>
       </c>
@@ -8361,7 +9161,7 @@
         <v>0.60243851963129524</v>
       </c>
     </row>
-    <row r="110" spans="7:20">
+    <row r="110" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G110">
         <v>105</v>
       </c>
@@ -8409,7 +9209,7 @@
         <v>0.5994309492783273</v>
       </c>
     </row>
-    <row r="111" spans="7:20">
+    <row r="111" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G111">
         <v>106</v>
       </c>
@@ -8457,7 +9257,7 @@
         <v>0.59645562749388126</v>
       </c>
     </row>
-    <row r="112" spans="7:20">
+    <row r="112" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G112">
         <v>107</v>
       </c>
@@ -8505,7 +9305,7 @@
         <v>0.59351321289024472</v>
       </c>
     </row>
-    <row r="113" spans="7:20">
+    <row r="113" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G113">
         <v>108</v>
       </c>
@@ -8553,7 +9353,7 @@
         <v>0.59060199690474624</v>
       </c>
     </row>
-    <row r="114" spans="7:20">
+    <row r="114" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G114">
         <v>109</v>
       </c>
@@ -8601,7 +9401,7 @@
         <v>0.58772264673504393</v>
       </c>
     </row>
-    <row r="115" spans="7:20">
+    <row r="115" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G115">
         <v>110</v>
       </c>
@@ -8649,7 +9449,7 @@
         <v>0.58487348992165511</v>
       </c>
     </row>
-    <row r="116" spans="7:20">
+    <row r="116" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G116">
         <v>111</v>
       </c>
@@ -8697,7 +9497,7 @@
         <v>0.58205520135608402</v>
       </c>
     </row>
-    <row r="117" spans="7:20">
+    <row r="117" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G117">
         <v>112</v>
       </c>
@@ -8745,7 +9545,7 @@
         <v>0.57926614322573566</v>
       </c>
     </row>
-    <row r="118" spans="7:20">
+    <row r="118" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G118">
         <v>113</v>
       </c>
@@ -8793,7 +9593,7 @@
         <v>0.57650699728954491</v>
       </c>
     </row>
-    <row r="119" spans="7:20">
+    <row r="119" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G119">
         <v>114</v>
       </c>
@@ -8841,7 +9641,7 @@
         <v>0.5737761590067989</v>
       </c>
     </row>
-    <row r="120" spans="7:20">
+    <row r="120" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G120">
         <v>115</v>
       </c>
@@ -8889,7 +9689,7 @@
         <v>0.57107431623745342</v>
       </c>
     </row>
-    <row r="121" spans="7:20">
+    <row r="121" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G121">
         <v>116</v>
       </c>
@@ -8937,7 +9737,7 @@
         <v>0.56839989641352218</v>
       </c>
     </row>
-    <row r="122" spans="7:20">
+    <row r="122" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G122">
         <v>117</v>
       </c>
@@ -8985,7 +9785,7 @@
         <v>0.5657535927850571</v>
       </c>
     </row>
-    <row r="123" spans="7:20">
+    <row r="123" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G123">
         <v>118</v>
       </c>
@@ -9033,7 +9833,7 @@
         <v>0.56313386352833605</v>
       </c>
     </row>
-    <row r="124" spans="7:20">
+    <row r="124" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G124">
         <v>119</v>
       </c>
@@ -9081,7 +9881,7 @@
         <v>0.56054140662378105</v>
       </c>
     </row>
-    <row r="125" spans="7:20">
+    <row r="125" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G125">
         <v>120</v>
       </c>
@@ -9129,7 +9929,7 @@
         <v>0.55797470982955322</v>
       </c>
     </row>
-    <row r="126" spans="7:20">
+    <row r="126" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G126">
         <v>121</v>
       </c>
@@ -9177,7 +9977,7 @@
         <v>0.5554344752441861</v>
       </c>
     </row>
-    <row r="127" spans="7:20">
+    <row r="127" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G127">
         <v>122</v>
       </c>
@@ -9225,7 +10025,7 @@
         <v>0.55291921910690445</v>
       </c>
     </row>
-    <row r="128" spans="7:20">
+    <row r="128" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G128">
         <v>123</v>
       </c>
@@ -9273,7 +10073,7 @@
         <v>0.55042964706601283</v>
       </c>
     </row>
-    <row r="129" spans="7:20">
+    <row r="129" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G129">
         <v>124</v>
       </c>
@@ -9321,7 +10121,7 @@
         <v>0.54796430279860242</v>
       </c>
     </row>
-    <row r="130" spans="7:20">
+    <row r="130" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G130">
         <v>125</v>
       </c>
@@ -9369,7 +10169,7 @@
         <v>0.54552389497515275</v>
       </c>
     </row>
-    <row r="131" spans="7:20">
+    <row r="131" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G131">
         <v>126</v>
       </c>
@@ -9417,7 +10217,7 @@
         <v>0.54310699372133153</v>
       </c>
     </row>
-    <row r="132" spans="7:20">
+    <row r="132" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G132">
         <v>127</v>
       </c>
@@ -9465,7 +10265,7 @@
         <v>0.54071431023981309</v>
       </c>
     </row>
-    <row r="133" spans="7:20">
+    <row r="133" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G133">
         <v>128</v>
       </c>
@@ -9513,7 +10313,7 @@
         <v>0.53834444016607452</v>
       </c>
     </row>
-    <row r="134" spans="7:20">
+    <row r="134" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G134">
         <v>129</v>
       </c>
@@ -9561,7 +10361,7 @@
         <v>0.53599809678001786</v>
       </c>
     </row>
-    <row r="135" spans="7:20">
+    <row r="135" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G135">
         <v>130</v>
       </c>
@@ -9609,7 +10409,7 @@
         <v>0.53367390033536799</v>
       </c>
     </row>
-    <row r="136" spans="7:20">
+    <row r="136" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G136">
         <v>131</v>
       </c>
@@ -9657,7 +10457,7 @@
         <v>0.53137256576672875</v>
       </c>
     </row>
-    <row r="137" spans="7:20">
+    <row r="137" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G137">
         <v>132</v>
       </c>
@@ -9705,7 +10505,7 @@
         <v>0.52909273709891858</v>
       </c>
     </row>
-    <row r="138" spans="7:20">
+    <row r="138" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G138">
         <v>133</v>
       </c>
@@ -9753,7 +10553,7 @@
         <v>0.52683513052883046</v>
       </c>
     </row>
-    <row r="139" spans="7:20">
+    <row r="139" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G139">
         <v>134</v>
       </c>
@@ -9801,7 +10601,7 @@
         <v>0.52459841304683263</v>
       </c>
     </row>
-    <row r="140" spans="7:20">
+    <row r="140" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G140">
         <v>135</v>
       </c>
@@ -9849,7 +10649,7 @@
         <v>0.52238330174759418</v>
       </c>
     </row>
-    <row r="141" spans="7:20">
+    <row r="141" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G141">
         <v>136</v>
       </c>
@@ -9897,7 +10697,7 @@
         <v>0.52018848582058896</v>
       </c>
     </row>
-    <row r="142" spans="7:20">
+    <row r="142" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G142">
         <v>137</v>
       </c>
@@ -9945,7 +10745,7 @@
         <v>0.51801468291982167</v>
       </c>
     </row>
-    <row r="143" spans="7:20">
+    <row r="143" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G143">
         <v>138</v>
       </c>
@@ -9993,7 +10793,7 @@
         <v>0.51586060370407616</v>
       </c>
     </row>
-    <row r="144" spans="7:20">
+    <row r="144" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G144">
         <v>139</v>
       </c>
@@ -10041,7 +10841,7 @@
         <v>0.51372696607240287</v>
       </c>
     </row>
-    <row r="145" spans="7:20">
+    <row r="145" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G145">
         <v>140</v>
       </c>
@@ -10089,7 +10889,7 @@
         <v>0.51161250145765336</v>
       </c>
     </row>
-    <row r="146" spans="7:20">
+    <row r="146" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G146">
         <v>141</v>
       </c>
@@ -10137,7 +10937,7 @@
         <v>0.509517927712129</v>
       </c>
     </row>
-    <row r="147" spans="7:20">
+    <row r="147" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G147">
         <v>142</v>
       </c>
@@ -10185,7 +10985,7 @@
         <v>0.50744199637998788</v>
       </c>
     </row>
-    <row r="148" spans="7:20">
+    <row r="148" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G148">
         <v>143</v>
       </c>
@@ -10233,7 +11033,7 @@
         <v>0.50538542499582917</v>
       </c>
     </row>
-    <row r="149" spans="7:20">
+    <row r="149" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G149">
         <v>144</v>
       </c>
@@ -10281,7 +11081,7 @@
         <v>0.50334698458304317</v>
       </c>
     </row>
-    <row r="150" spans="7:20">
+    <row r="150" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G150">
         <v>145</v>
       </c>
@@ -10329,7 +11129,7 @@
         <v>0.50132739210703969</v>
       </c>
     </row>
-    <row r="151" spans="7:20">
+    <row r="151" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G151">
         <v>146</v>
       </c>
@@ -10377,7 +11177,7 @@
         <v>0.49932639119545608</v>
       </c>
     </row>
-    <row r="152" spans="7:20">
+    <row r="152" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G152">
         <v>147</v>
       </c>
@@ -10425,7 +11225,7 @@
         <v>0.4973427810962377</v>
       </c>
     </row>
-    <row r="153" spans="7:20">
+    <row r="153" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G153">
         <v>148</v>
       </c>
@@ -10473,7 +11273,7 @@
         <v>0.49537727761450706</v>
       </c>
     </row>
-    <row r="154" spans="7:20">
+    <row r="154" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G154">
         <v>149</v>
       </c>
@@ -10521,7 +11321,7 @@
         <v>0.49342869801400951</v>
       </c>
     </row>
-    <row r="155" spans="7:20">
+    <row r="155" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G155">
         <v>150</v>
       </c>
@@ -10569,7 +11369,7 @@
         <v>0.49149775697322395</v>
       </c>
     </row>
-    <row r="156" spans="7:20">
+    <row r="156" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G156">
         <v>151</v>
       </c>
@@ -10617,7 +11417,7 @@
         <v>0.48958328923379535</v>
       </c>
     </row>
-    <row r="157" spans="7:20">
+    <row r="157" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G157">
         <v>152</v>
       </c>
@@ -10665,7 +11465,7 @@
         <v>0.48768600815458868</v>
       </c>
     </row>
-    <row r="158" spans="7:20">
+    <row r="158" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G158">
         <v>153</v>
       </c>
@@ -10713,7 +11513,7 @@
         <v>0.48580476544075829</v>
       </c>
     </row>
-    <row r="159" spans="7:20">
+    <row r="159" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G159">
         <v>154</v>
       </c>
@@ -10761,7 +11561,7 @@
         <v>0.48394027295273906</v>
       </c>
     </row>
-    <row r="160" spans="7:20">
+    <row r="160" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G160">
         <v>155</v>
       </c>
@@ -10809,7 +11609,7 @@
         <v>0.48209139886699881</v>
       </c>
     </row>
-    <row r="161" spans="7:20">
+    <row r="161" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G161">
         <v>156</v>
       </c>
@@ -10857,7 +11657,7 @@
         <v>0.48025885337997126</v>
       </c>
     </row>
-    <row r="162" spans="7:20">
+    <row r="162" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G162">
         <v>157</v>
       </c>
@@ -10905,7 +11705,7 @@
         <v>0.47844152066828854</v>
       </c>
     </row>
-    <row r="163" spans="7:20">
+    <row r="163" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G163">
         <v>158</v>
       </c>
@@ -10953,7 +11753,7 @@
         <v>0.47664010911100269</v>
       </c>
     </row>
-    <row r="164" spans="7:20">
+    <row r="164" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G164">
         <v>159</v>
       </c>
@@ -11001,7 +11801,7 @@
         <v>0.47485351843363405</v>
       </c>
     </row>
-    <row r="165" spans="7:20">
+    <row r="165" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G165">
         <v>160</v>
       </c>
@@ -11049,7 +11849,7 @@
         <v>0.47308245505609836</v>
       </c>
     </row>
-    <row r="166" spans="7:20">
+    <row r="166" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G166">
         <v>161</v>
       </c>
@@ -11097,7 +11897,7 @@
         <v>0.4713258338202751</v>
       </c>
     </row>
-    <row r="167" spans="7:20">
+    <row r="167" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G167">
         <v>162</v>
       </c>
@@ -11145,7 +11945,7 @@
         <v>0.46958435905592272</v>
       </c>
     </row>
-    <row r="168" spans="7:20">
+    <row r="168" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G168">
         <v>163</v>
       </c>
@@ -11193,7 +11993,7 @@
         <v>0.46785696030662999</v>
       </c>
     </row>
-    <row r="169" spans="7:20">
+    <row r="169" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G169">
         <v>164</v>
       </c>
@@ -11241,7 +12041,7 @@
         <v>0.46614433969085756</v>
       </c>
     </row>
-    <row r="170" spans="7:20">
+    <row r="170" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G170">
         <v>165</v>
       </c>
@@ -11289,7 +12089,7 @@
         <v>0.46444631145944554</v>
       </c>
     </row>
-    <row r="171" spans="7:20">
+    <row r="171" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G171">
         <v>166</v>
       </c>
@@ -11337,7 +12137,7 @@
         <v>0.46276182656828246</v>
       </c>
     </row>
-    <row r="172" spans="7:20">
+    <row r="172" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G172">
         <v>167</v>
       </c>
@@ -11385,7 +12185,7 @@
         <v>0.46109158371084313</v>
       </c>
     </row>
-    <row r="173" spans="7:20">
+    <row r="173" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G173">
         <v>168</v>
       </c>
@@ -11433,7 +12233,7 @@
         <v>0.45943454757604141</v>
       </c>
     </row>
-    <row r="174" spans="7:20">
+    <row r="174" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G174">
         <v>169</v>
       </c>
@@ -11481,7 +12281,7 @@
         <v>0.45779141437917326</v>
       </c>
     </row>
-    <row r="175" spans="7:20">
+    <row r="175" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G175">
         <v>170</v>
       </c>
@@ -11529,7 +12329,7 @@
         <v>0.45616116218304309</v>
       </c>
     </row>
-    <row r="176" spans="7:20">
+    <row r="176" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G176">
         <v>171</v>
       </c>
@@ -11577,7 +12377,7 @@
         <v>0.45454448463412428</v>
       </c>
     </row>
-    <row r="177" spans="7:20">
+    <row r="177" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G177">
         <v>172</v>
       </c>
@@ -11625,7 +12425,7 @@
         <v>0.45294037282401828</v>
       </c>
     </row>
-    <row r="178" spans="7:20">
+    <row r="178" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G178">
         <v>173</v>
       </c>
@@ -11673,7 +12473,7 @@
         <v>0.45134951774711263</v>
       </c>
     </row>
-    <row r="179" spans="7:20">
+    <row r="179" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G179">
         <v>174</v>
       </c>
@@ -11721,7 +12521,7 @@
         <v>0.44977092319214917</v>
       </c>
     </row>
-    <row r="180" spans="7:20">
+    <row r="180" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G180">
         <v>175</v>
       </c>
@@ -11769,7 +12569,7 @@
         <v>0.44820527742494892</v>
       </c>
     </row>
-    <row r="181" spans="7:20">
+    <row r="181" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G181">
         <v>176</v>
       </c>
@@ -11817,7 +12617,7 @@
         <v>0.44665159661245302</v>
       </c>
     </row>
-    <row r="182" spans="7:20">
+    <row r="182" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G182">
         <v>177</v>
       </c>
@@ -11865,7 +12665,7 @@
         <v>0.44511056622193101</v>
       </c>
     </row>
-    <row r="183" spans="7:20">
+    <row r="183" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G183">
         <v>178</v>
       </c>
@@ -11913,7 +12713,7 @@
         <v>0.44358203505231236</v>
       </c>
     </row>
-    <row r="184" spans="7:20">
+    <row r="184" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G184">
         <v>179</v>
       </c>
@@ -11961,7 +12761,7 @@
         <v>0.44206503735170766</v>
       </c>
     </row>
-    <row r="185" spans="7:20">
+    <row r="185" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G185">
         <v>180</v>
       </c>
@@ -12009,7 +12809,7 @@
         <v>0.44056025435595808</v>
       </c>
     </row>
-    <row r="186" spans="7:20">
+    <row r="186" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G186">
         <v>181</v>
       </c>
@@ -12057,7 +12857,7 @@
         <v>0.43906673194201273</v>
       </c>
     </row>
-    <row r="187" spans="7:20">
+    <row r="187" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G187">
         <v>182</v>
       </c>
@@ -12105,7 +12905,7 @@
         <v>0.43758514839463614</v>
       </c>
     </row>
-    <row r="188" spans="7:20">
+    <row r="188" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G188">
         <v>183</v>
       </c>
@@ -12153,7 +12953,7 @@
         <v>0.43611456094041057</v>
       </c>
     </row>
-    <row r="189" spans="7:20">
+    <row r="189" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G189">
         <v>184</v>
       </c>
@@ -12201,7 +13001,7 @@
         <v>0.43465564486278674</v>
       </c>
     </row>
-    <row r="190" spans="7:20">
+    <row r="190" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G190">
         <v>185</v>
       </c>
@@ -12249,7 +13049,7 @@
         <v>0.43320746846897362</v>
       </c>
     </row>
-    <row r="191" spans="7:20">
+    <row r="191" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G191">
         <v>186</v>
       </c>
@@ -12297,7 +13097,7 @@
         <v>0.43177070399547607</v>
       </c>
     </row>
-    <row r="192" spans="7:20">
+    <row r="192" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G192">
         <v>187</v>
       </c>
@@ -12345,7 +13145,7 @@
         <v>0.43034443057079103</v>
       </c>
     </row>
-    <row r="193" spans="7:20">
+    <row r="193" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G193">
         <v>188</v>
       </c>
@@ -12393,7 +13193,7 @@
         <v>0.42892931734346307</v>
       </c>
     </row>
-    <row r="194" spans="7:20">
+    <row r="194" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G194">
         <v>189</v>
       </c>
@@ -12441,7 +13241,7 @@
         <v>0.42752523621553573</v>
       </c>
     </row>
-    <row r="195" spans="7:20">
+    <row r="195" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G195">
         <v>190</v>
       </c>
@@ -12468,7 +13268,7 @@
         <v>54.166699999999999</v>
       </c>
     </row>
-    <row r="196" spans="7:20">
+    <row r="196" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G196">
         <v>191</v>
       </c>
@@ -12495,7 +13295,7 @@
         <v>54.2209</v>
       </c>
     </row>
-    <row r="197" spans="7:20">
+    <row r="197" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G197">
         <v>192</v>
       </c>
@@ -12522,7 +13322,7 @@
         <v>54.275200000000005</v>
       </c>
     </row>
-    <row r="198" spans="7:20">
+    <row r="198" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G198">
         <v>193</v>
       </c>
@@ -12549,7 +13349,7 @@
         <v>54.329499999999996</v>
       </c>
     </row>
-    <row r="199" spans="7:20">
+    <row r="199" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G199">
         <v>194</v>
       </c>
@@ -12576,7 +13376,7 @@
         <v>54.383900000000004</v>
       </c>
     </row>
-    <row r="200" spans="7:20">
+    <row r="200" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G200">
         <v>195</v>
       </c>
@@ -12603,7 +13403,7 @@
         <v>54.438299999999998</v>
       </c>
     </row>
-    <row r="201" spans="7:20">
+    <row r="201" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G201">
         <v>196</v>
       </c>
@@ -12630,7 +13430,7 @@
         <v>54.49280000000001</v>
       </c>
     </row>
-    <row r="202" spans="7:20">
+    <row r="202" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G202">
         <v>197</v>
       </c>
@@ -12657,7 +13457,7 @@
         <v>54.547300000000007</v>
       </c>
     </row>
-    <row r="203" spans="7:20">
+    <row r="203" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G203">
         <v>198</v>
       </c>
@@ -12684,7 +13484,7 @@
         <v>54.601900000000008</v>
       </c>
     </row>
-    <row r="204" spans="7:20">
+    <row r="204" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G204">
         <v>199</v>
       </c>
@@ -12725,7 +13525,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -12742,7 +13542,7 @@
     <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -12771,7 +13571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12814,7 +13614,7 @@
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -12859,7 +13659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -12905,7 +13705,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -12947,7 +13747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -12989,7 +13789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -13031,7 +13831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -13071,7 +13871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -13110,7 +13910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -13182,7 +13982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -13262,7 +14062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17.25" thickBot="1">
+    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
         <v>9</v>
       </c>
@@ -13343,7 +14143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -13425,7 +14225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -13507,7 +14307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -13589,7 +14389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -13671,7 +14471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -13753,7 +14553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
@@ -13810,7 +14610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>16</v>
       </c>
@@ -13847,7 +14647,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -13890,7 +14690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
@@ -13963,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="17.25" thickBot="1">
+    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -14045,7 +14845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
@@ -14128,7 +14928,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
@@ -14211,7 +15011,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
@@ -14282,7 +15082,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -14346,7 +15146,7 @@
         <v>603193.34400000027</v>
       </c>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
@@ -14410,7 +15210,7 @@
         <v>4825546.7519999985</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
@@ -14474,7 +15274,7 @@
         <v>41177998.950399995</v>
       </c>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
@@ -14526,7 +15326,7 @@
         <v>717.27199692382806</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>27</v>
       </c>
@@ -14567,7 +15367,7 @@
       </c>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -14604,7 +15404,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="17.25" thickBot="1">
+    <row r="33" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="8">
         <v>29</v>
       </c>
@@ -14641,7 +15441,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
@@ -14678,7 +15478,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
@@ -14715,7 +15515,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>32</v>
       </c>
@@ -14752,7 +15552,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>33</v>
       </c>
@@ -14789,7 +15589,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>34</v>
       </c>
@@ -14826,7 +15626,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>35</v>
       </c>
@@ -14863,7 +15663,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>36</v>
       </c>
@@ -14900,7 +15700,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>37</v>
       </c>
@@ -14943,7 +15743,7 @@
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -14992,7 +15792,7 @@
       <c r="Q42" s="20"/>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -15047,7 +15847,7 @@
       </c>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -15106,7 +15906,7 @@
       </c>
       <c r="T44" s="7"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ref="A45:A108" si="14">A44*10</f>
         <v>1.0000000000000002E+113</v>
@@ -15167,7 +15967,7 @@
       </c>
       <c r="T45" s="7"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+114</v>
@@ -15228,7 +16028,7 @@
       </c>
       <c r="T46" s="7"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+115</v>
@@ -15289,7 +16089,7 @@
       </c>
       <c r="T47" s="7"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+116</v>
@@ -15354,7 +16154,7 @@
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+117</v>
@@ -15415,7 +16215,7 @@
       </c>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+118</v>
@@ -15475,7 +16275,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+119</v>
@@ -15535,7 +16335,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+120</v>
@@ -15595,7 +16395,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" thickBot="1">
+    <row r="53" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+121</v>
@@ -15655,7 +16455,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+122</v>
@@ -15715,7 +16515,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+123</v>
@@ -15775,7 +16575,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+124</v>
@@ -15835,7 +16635,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+125</v>
@@ -15895,7 +16695,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+126</v>
@@ -15955,7 +16755,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+127</v>
@@ -16015,7 +16815,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+128</v>
@@ -16075,7 +16875,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="14"/>
         <v>1E+129</v>
@@ -16135,7 +16935,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+130</v>
@@ -16195,7 +16995,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" thickBot="1">
+    <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+131</v>
@@ -16255,7 +17055,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+132</v>
@@ -16315,7 +17115,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+133</v>
@@ -16375,7 +17175,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+134</v>
@@ -16435,7 +17235,7 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+135</v>
@@ -16495,7 +17295,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+136</v>
@@ -16555,7 +17355,7 @@
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+137</v>
@@ -16615,7 +17415,7 @@
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+138</v>
@@ -16675,7 +17475,7 @@
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+139</v>
@@ -16735,7 +17535,7 @@
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="14"/>
         <v>1.0000000000000003E+140</v>
@@ -16794,7 +17594,7 @@
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17.25" thickBot="1">
+    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+141</v>
@@ -16853,7 +17653,7 @@
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+142</v>
@@ -16912,7 +17712,7 @@
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+143</v>
@@ -16972,7 +17772,7 @@
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+144</v>
@@ -17032,7 +17832,7 @@
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="14"/>
         <v>1.0000000000000003E+145</v>
@@ -17092,7 +17892,7 @@
         <v>1E+140</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+146</v>
@@ -17152,7 +17952,7 @@
         <v>1E+144</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+147</v>
@@ -17212,7 +18012,7 @@
         <v>1E+148</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+148</v>
@@ -17272,7 +18072,7 @@
         <v>1E+152</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+149</v>
@@ -17332,7 +18132,7 @@
         <v>1E+156</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+150</v>
@@ -17378,7 +18178,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="17.25" thickBot="1">
+    <row r="83" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+151</v>
@@ -17424,7 +18224,7 @@
       </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+152</v>
@@ -17470,7 +18270,7 @@
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+153</v>
@@ -17516,7 +18316,7 @@
       </c>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+154</v>
@@ -17562,7 +18362,7 @@
       </c>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+155</v>
@@ -17608,7 +18408,7 @@
       </c>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+156</v>
@@ -17654,7 +18454,7 @@
       </c>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+157</v>
@@ -17700,7 +18500,7 @@
       </c>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+158</v>
@@ -17746,7 +18546,7 @@
       </c>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+159</v>
@@ -17792,7 +18592,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+160</v>
@@ -17838,7 +18638,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="17.25" thickBot="1">
+    <row r="93" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="14"/>
         <v>1.0000000000000002E+161</v>
@@ -17884,7 +18684,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+162</v>
@@ -17930,7 +18730,7 @@
       </c>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+163</v>
@@ -17976,7 +18776,7 @@
       </c>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+164</v>
@@ -18022,7 +18822,7 @@
       </c>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+165</v>
@@ -18068,7 +18868,7 @@
       </c>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="14"/>
         <v>1.0000000000000001E+166</v>
@@ -18114,7 +18914,7 @@
       </c>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="14"/>
         <v>1E+167</v>
@@ -18160,7 +18960,7 @@
       </c>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="14"/>
         <v>9.9999999999999993E+167</v>
@@ -18206,7 +19006,7 @@
       </c>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="14"/>
         <v>9.9999999999999993E+168</v>
@@ -18252,7 +19052,7 @@
       </c>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="14"/>
         <v>9.999999999999999E+169</v>
@@ -18298,7 +19098,7 @@
       </c>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1">
+    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="14"/>
         <v>9.9999999999999995E+170</v>
@@ -18344,7 +19144,7 @@
       </c>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="14"/>
         <v>9.9999999999999991E+171</v>
@@ -18389,7 +19189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="14"/>
         <v>9.9999999999999988E+172</v>
@@ -18434,7 +19234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="14"/>
         <v>9.9999999999999985E+173</v>
@@ -18479,7 +19279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="14"/>
         <v>9.9999999999999994E+174</v>
@@ -18524,7 +19324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="14"/>
         <v>1E+176</v>
@@ -18569,7 +19369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" ref="A109:A172" si="34">A108*10</f>
         <v>1E+177</v>
@@ -18614,7 +19414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+178</v>
@@ -18659,7 +19459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+179</v>
@@ -18704,7 +19504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+180</v>
@@ -18749,7 +19549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+181</v>
@@ -18794,7 +19594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+182</v>
@@ -18839,7 +19639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+183</v>
@@ -18884,7 +19684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="34"/>
         <v>1E+184</v>
@@ -18929,7 +19729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="34"/>
         <v>9.9999999999999998E+184</v>
@@ -18974,7 +19774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="34"/>
         <v>9.9999999999999998E+185</v>
@@ -19019,7 +19819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="34"/>
         <v>9.9999999999999991E+186</v>
@@ -19064,7 +19864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="34"/>
         <v>9.9999999999999987E+187</v>
@@ -19109,7 +19909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="34"/>
         <v>9.999999999999999E+188</v>
@@ -19154,7 +19954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="34"/>
         <v>9.9999999999999987E+189</v>
@@ -19199,7 +19999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="34"/>
         <v>9.9999999999999991E+190</v>
@@ -19244,7 +20044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="34"/>
         <v>9.9999999999999991E+191</v>
@@ -19289,7 +20089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="34"/>
         <v>9.9999999999999986E+192</v>
@@ -19334,7 +20134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="34"/>
         <v>9.9999999999999978E+193</v>
@@ -19379,7 +20179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="34"/>
         <v>9.9999999999999985E+194</v>
@@ -19424,7 +20224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="34"/>
         <v>9.9999999999999995E+195</v>
@@ -19469,7 +20269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="34"/>
         <v>9.9999999999999995E+196</v>
@@ -19514,7 +20314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="34"/>
         <v>9.9999999999999988E+197</v>
@@ -19559,7 +20359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="34"/>
         <v>9.9999999999999988E+198</v>
@@ -19604,7 +20404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="34"/>
         <v>9.9999999999999997E+199</v>
@@ -19649,7 +20449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="34"/>
         <v>9.999999999999999E+200</v>
@@ -19694,7 +20494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="34"/>
         <v>9.999999999999999E+201</v>
@@ -19739,7 +20539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="34"/>
         <v>9.9999999999999999E+202</v>
@@ -19784,7 +20584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="34"/>
         <v>9.9999999999999999E+203</v>
@@ -19829,7 +20629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="34"/>
         <v>1E+205</v>
@@ -19874,7 +20674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="34"/>
         <v>1E+206</v>
@@ -19919,7 +20719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="34"/>
         <v>1E+207</v>
@@ -19964,7 +20764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="34"/>
         <v>9.9999999999999998E+207</v>
@@ -20009,7 +20809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+209</v>
@@ -20054,7 +20854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+210</v>
@@ -20099,7 +20899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+211</v>
@@ -20144,7 +20944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+212</v>
@@ -20189,7 +20989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+213</v>
@@ -20234,7 +21034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="34"/>
         <v>1.0000000000000002E+214</v>
@@ -20279,7 +21079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+215</v>
@@ -20324,7 +21124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="34"/>
         <v>1E+216</v>
@@ -20369,7 +21169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+217</v>
@@ -20414,7 +21214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+218</v>
@@ -20459,7 +21259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+219</v>
@@ -20504,7 +21304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+220</v>
@@ -20549,7 +21349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="34"/>
         <v>1E+221</v>
@@ -20594,7 +21394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="34"/>
         <v>1E+222</v>
@@ -20639,7 +21439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="34"/>
         <v>1E+223</v>
@@ -20684,7 +21484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="34"/>
         <v>9.9999999999999997E+223</v>
@@ -20729,7 +21529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="34"/>
         <v>9.9999999999999993E+224</v>
@@ -20774,7 +21574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="34"/>
         <v>9.9999999999999996E+225</v>
@@ -20819,7 +21619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="34"/>
         <v>9.9999999999999988E+226</v>
@@ -20864,7 +21664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="34"/>
         <v>9.9999999999999992E+227</v>
@@ -20909,7 +21709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="34"/>
         <v>9.9999999999999999E+228</v>
@@ -20954,7 +21754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="34"/>
         <v>9.9999999999999988E+229</v>
@@ -20999,7 +21799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="34"/>
         <v>9.9999999999999988E+230</v>
@@ -21044,7 +21844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="34"/>
         <v>9.9999999999999992E+231</v>
@@ -21089,7 +21889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="34"/>
         <v>9.9999999999999997E+232</v>
@@ -21134,7 +21934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="34"/>
         <v>1E+234</v>
@@ -21179,7 +21979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+235</v>
@@ -21224,7 +22024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+236</v>
@@ -21269,7 +22069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+237</v>
@@ -21314,7 +22114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="34"/>
         <v>1E+238</v>
@@ -21359,7 +22159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="34"/>
         <v>1.0000000000000001E+239</v>
@@ -21404,7 +22204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="34"/>
         <v>1.0000000000000002E+240</v>
@@ -21449,7 +22249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" ref="A173:A207" si="103">A172*10</f>
         <v>1.0000000000000002E+241</v>
@@ -21494,7 +22294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+242</v>
@@ -21539,7 +22339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+243</v>
@@ -21584,7 +22384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+244</v>
@@ -21629,7 +22429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="103"/>
         <v>1E+245</v>
@@ -21674,7 +22474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+246</v>
@@ -21719,7 +22519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+247</v>
@@ -21764,7 +22564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+248</v>
@@ -21809,7 +22609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+249</v>
@@ -21854,7 +22654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+250</v>
@@ -21899,7 +22699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="103"/>
         <v>1E+251</v>
@@ -21944,7 +22744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+252</v>
@@ -21989,7 +22789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+253</v>
@@ -22034,7 +22834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+254</v>
@@ -22079,7 +22879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="103"/>
         <v>9.9999999999999999E+254</v>
@@ -22124,7 +22924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="103"/>
         <v>1E+256</v>
@@ -22169,7 +22969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="103"/>
         <v>1E+257</v>
@@ -22214,7 +23014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+258</v>
@@ -22259,7 +23059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+259</v>
@@ -22304,7 +23104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+260</v>
@@ -22349,7 +23149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="103"/>
         <v>1.0000000000000001E+261</v>
@@ -22394,7 +23194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+262</v>
@@ -22439,7 +23239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+263</v>
@@ -22484,7 +23284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+264</v>
@@ -22529,7 +23329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="103"/>
         <v>1.0000000000000002E+265</v>
@@ -22574,7 +23374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+266</v>
@@ -22619,7 +23419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+267</v>
@@ -22664,7 +23464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+268</v>
@@ -22709,7 +23509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+269</v>
@@ -22754,7 +23554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+270</v>
@@ -22799,7 +23599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+271</v>
@@ -22844,7 +23644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="103"/>
         <v>1.0000000000000004E+272</v>
@@ -22889,7 +23689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+273</v>
@@ -22934,7 +23734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+274</v>
@@ -22979,7 +23779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="103"/>
         <v>1.0000000000000003E+275</v>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384143AD-4885-4929-BAD1-8EF9B2044E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFBC2C-7920-4CFA-B95F-10435F0AE022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4045,6 +4045,1622 @@
       <c r="D201">
         <f>ROUNDUP(VLOOKUP(A201,Balance!G:M,7,FALSE),0)</f>
         <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f>VLOOKUP(A202,Balance!G:H,2,FALSE)</f>
+        <v>3100</v>
+      </c>
+      <c r="C202">
+        <v>91</v>
+      </c>
+      <c r="D202">
+        <f>ROUNDUP(VLOOKUP(A202,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <f>VLOOKUP(A203,Balance!G:H,2,FALSE)</f>
+        <v>3120</v>
+      </c>
+      <c r="C203">
+        <v>91</v>
+      </c>
+      <c r="D203">
+        <f>ROUNDUP(VLOOKUP(A203,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <f>VLOOKUP(A204,Balance!G:H,2,FALSE)</f>
+        <v>3140</v>
+      </c>
+      <c r="C204">
+        <v>91</v>
+      </c>
+      <c r="D204">
+        <f>ROUNDUP(VLOOKUP(A204,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <f>VLOOKUP(A205,Balance!G:H,2,FALSE)</f>
+        <v>3160</v>
+      </c>
+      <c r="C205">
+        <v>91</v>
+      </c>
+      <c r="D205">
+        <f>ROUNDUP(VLOOKUP(A205,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <f>VLOOKUP(A206,Balance!G:H,2,FALSE)</f>
+        <v>3180</v>
+      </c>
+      <c r="C206">
+        <v>91</v>
+      </c>
+      <c r="D206">
+        <f>ROUNDUP(VLOOKUP(A206,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <f>VLOOKUP(A207,Balance!G:H,2,FALSE)</f>
+        <v>3200</v>
+      </c>
+      <c r="C207">
+        <v>91</v>
+      </c>
+      <c r="D207">
+        <f>ROUNDUP(VLOOKUP(A207,Balance!G:M,7,FALSE),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <f>VLOOKUP(A208,Balance!G:H,2,FALSE)</f>
+        <v>3220</v>
+      </c>
+      <c r="C208">
+        <v>91</v>
+      </c>
+      <c r="D208">
+        <f>ROUNDUP(VLOOKUP(A208,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <f>VLOOKUP(A209,Balance!G:H,2,FALSE)</f>
+        <v>3240</v>
+      </c>
+      <c r="C209">
+        <v>91</v>
+      </c>
+      <c r="D209">
+        <f>ROUNDUP(VLOOKUP(A209,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <f>VLOOKUP(A210,Balance!G:H,2,FALSE)</f>
+        <v>3260</v>
+      </c>
+      <c r="C210">
+        <v>91</v>
+      </c>
+      <c r="D210">
+        <f>ROUNDUP(VLOOKUP(A210,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <f>VLOOKUP(A211,Balance!G:H,2,FALSE)</f>
+        <v>3280</v>
+      </c>
+      <c r="C211">
+        <v>91</v>
+      </c>
+      <c r="D211">
+        <f>ROUNDUP(VLOOKUP(A211,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <f>VLOOKUP(A212,Balance!G:H,2,FALSE)</f>
+        <v>3300</v>
+      </c>
+      <c r="C212">
+        <v>91</v>
+      </c>
+      <c r="D212">
+        <f>ROUNDUP(VLOOKUP(A212,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <f>VLOOKUP(A213,Balance!G:H,2,FALSE)</f>
+        <v>3320</v>
+      </c>
+      <c r="C213">
+        <v>91</v>
+      </c>
+      <c r="D213">
+        <f>ROUNDUP(VLOOKUP(A213,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <f>VLOOKUP(A214,Balance!G:H,2,FALSE)</f>
+        <v>3340</v>
+      </c>
+      <c r="C214">
+        <v>91</v>
+      </c>
+      <c r="D214">
+        <f>ROUNDUP(VLOOKUP(A214,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <f>VLOOKUP(A215,Balance!G:H,2,FALSE)</f>
+        <v>3360</v>
+      </c>
+      <c r="C215">
+        <v>91</v>
+      </c>
+      <c r="D215">
+        <f>ROUNDUP(VLOOKUP(A215,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <f>VLOOKUP(A216,Balance!G:H,2,FALSE)</f>
+        <v>3380</v>
+      </c>
+      <c r="C216">
+        <v>91</v>
+      </c>
+      <c r="D216">
+        <f>ROUNDUP(VLOOKUP(A216,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <f>VLOOKUP(A217,Balance!G:H,2,FALSE)</f>
+        <v>3400</v>
+      </c>
+      <c r="C217">
+        <v>91</v>
+      </c>
+      <c r="D217">
+        <f>ROUNDUP(VLOOKUP(A217,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <f>VLOOKUP(A218,Balance!G:H,2,FALSE)</f>
+        <v>3420</v>
+      </c>
+      <c r="C218">
+        <v>91</v>
+      </c>
+      <c r="D218">
+        <f>ROUNDUP(VLOOKUP(A218,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <f>VLOOKUP(A219,Balance!G:H,2,FALSE)</f>
+        <v>3440</v>
+      </c>
+      <c r="C219">
+        <v>91</v>
+      </c>
+      <c r="D219">
+        <f>ROUNDUP(VLOOKUP(A219,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <f>VLOOKUP(A220,Balance!G:H,2,FALSE)</f>
+        <v>3460</v>
+      </c>
+      <c r="C220">
+        <v>91</v>
+      </c>
+      <c r="D220">
+        <f>ROUNDUP(VLOOKUP(A220,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <f>VLOOKUP(A221,Balance!G:H,2,FALSE)</f>
+        <v>3480</v>
+      </c>
+      <c r="C221">
+        <v>91</v>
+      </c>
+      <c r="D221">
+        <f>ROUNDUP(VLOOKUP(A221,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <f>VLOOKUP(A222,Balance!G:H,2,FALSE)</f>
+        <v>3500</v>
+      </c>
+      <c r="C222">
+        <v>91</v>
+      </c>
+      <c r="D222">
+        <f>ROUNDUP(VLOOKUP(A222,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <f>VLOOKUP(A223,Balance!G:H,2,FALSE)</f>
+        <v>3520</v>
+      </c>
+      <c r="C223">
+        <v>91</v>
+      </c>
+      <c r="D223">
+        <f>ROUNDUP(VLOOKUP(A223,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <f>VLOOKUP(A224,Balance!G:H,2,FALSE)</f>
+        <v>3540</v>
+      </c>
+      <c r="C224">
+        <v>91</v>
+      </c>
+      <c r="D224">
+        <f>ROUNDUP(VLOOKUP(A224,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <f>VLOOKUP(A225,Balance!G:H,2,FALSE)</f>
+        <v>3560</v>
+      </c>
+      <c r="C225">
+        <v>91</v>
+      </c>
+      <c r="D225">
+        <f>ROUNDUP(VLOOKUP(A225,Balance!G:M,7,FALSE),0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <f>VLOOKUP(A226,Balance!G:H,2,FALSE)</f>
+        <v>3580</v>
+      </c>
+      <c r="C226">
+        <v>91</v>
+      </c>
+      <c r="D226">
+        <f>ROUNDUP(VLOOKUP(A226,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <f>VLOOKUP(A227,Balance!G:H,2,FALSE)</f>
+        <v>3600</v>
+      </c>
+      <c r="C227">
+        <v>91</v>
+      </c>
+      <c r="D227">
+        <f>ROUNDUP(VLOOKUP(A227,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <f>VLOOKUP(A228,Balance!G:H,2,FALSE)</f>
+        <v>3620</v>
+      </c>
+      <c r="C228">
+        <v>91</v>
+      </c>
+      <c r="D228">
+        <f>ROUNDUP(VLOOKUP(A228,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <f>VLOOKUP(A229,Balance!G:H,2,FALSE)</f>
+        <v>3640</v>
+      </c>
+      <c r="C229">
+        <v>91</v>
+      </c>
+      <c r="D229">
+        <f>ROUNDUP(VLOOKUP(A229,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <f>VLOOKUP(A230,Balance!G:H,2,FALSE)</f>
+        <v>3660</v>
+      </c>
+      <c r="C230">
+        <v>91</v>
+      </c>
+      <c r="D230">
+        <f>ROUNDUP(VLOOKUP(A230,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <f>VLOOKUP(A231,Balance!G:H,2,FALSE)</f>
+        <v>3680</v>
+      </c>
+      <c r="C231">
+        <v>91</v>
+      </c>
+      <c r="D231">
+        <f>ROUNDUP(VLOOKUP(A231,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <f>VLOOKUP(A232,Balance!G:H,2,FALSE)</f>
+        <v>3700</v>
+      </c>
+      <c r="C232">
+        <v>91</v>
+      </c>
+      <c r="D232">
+        <f>ROUNDUP(VLOOKUP(A232,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <f>VLOOKUP(A233,Balance!G:H,2,FALSE)</f>
+        <v>3720</v>
+      </c>
+      <c r="C233">
+        <v>91</v>
+      </c>
+      <c r="D233">
+        <f>ROUNDUP(VLOOKUP(A233,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <f>VLOOKUP(A234,Balance!G:H,2,FALSE)</f>
+        <v>3740</v>
+      </c>
+      <c r="C234">
+        <v>91</v>
+      </c>
+      <c r="D234">
+        <f>ROUNDUP(VLOOKUP(A234,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <f>VLOOKUP(A235,Balance!G:H,2,FALSE)</f>
+        <v>3760</v>
+      </c>
+      <c r="C235">
+        <v>91</v>
+      </c>
+      <c r="D235">
+        <f>ROUNDUP(VLOOKUP(A235,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <f>VLOOKUP(A236,Balance!G:H,2,FALSE)</f>
+        <v>3780</v>
+      </c>
+      <c r="C236">
+        <v>91</v>
+      </c>
+      <c r="D236">
+        <f>ROUNDUP(VLOOKUP(A236,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <f>VLOOKUP(A237,Balance!G:H,2,FALSE)</f>
+        <v>3800</v>
+      </c>
+      <c r="C237">
+        <v>91</v>
+      </c>
+      <c r="D237">
+        <f>ROUNDUP(VLOOKUP(A237,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <f>VLOOKUP(A238,Balance!G:H,2,FALSE)</f>
+        <v>3820</v>
+      </c>
+      <c r="C238">
+        <v>91</v>
+      </c>
+      <c r="D238">
+        <f>ROUNDUP(VLOOKUP(A238,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <f>VLOOKUP(A239,Balance!G:H,2,FALSE)</f>
+        <v>3840</v>
+      </c>
+      <c r="C239">
+        <v>91</v>
+      </c>
+      <c r="D239">
+        <f>ROUNDUP(VLOOKUP(A239,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <f>VLOOKUP(A240,Balance!G:H,2,FALSE)</f>
+        <v>3860</v>
+      </c>
+      <c r="C240">
+        <v>91</v>
+      </c>
+      <c r="D240">
+        <f>ROUNDUP(VLOOKUP(A240,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <f>VLOOKUP(A241,Balance!G:H,2,FALSE)</f>
+        <v>3880</v>
+      </c>
+      <c r="C241">
+        <v>91</v>
+      </c>
+      <c r="D241">
+        <f>ROUNDUP(VLOOKUP(A241,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <f>VLOOKUP(A242,Balance!G:H,2,FALSE)</f>
+        <v>3900</v>
+      </c>
+      <c r="C242">
+        <v>91</v>
+      </c>
+      <c r="D242">
+        <f>ROUNDUP(VLOOKUP(A242,Balance!G:M,7,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <f>VLOOKUP(A243,Balance!G:H,2,FALSE)</f>
+        <v>3920</v>
+      </c>
+      <c r="C243">
+        <v>91</v>
+      </c>
+      <c r="D243">
+        <f>ROUNDUP(VLOOKUP(A243,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <f>VLOOKUP(A244,Balance!G:H,2,FALSE)</f>
+        <v>3940</v>
+      </c>
+      <c r="C244">
+        <v>91</v>
+      </c>
+      <c r="D244">
+        <f>ROUNDUP(VLOOKUP(A244,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <f>VLOOKUP(A245,Balance!G:H,2,FALSE)</f>
+        <v>3960</v>
+      </c>
+      <c r="C245">
+        <v>91</v>
+      </c>
+      <c r="D245">
+        <f>ROUNDUP(VLOOKUP(A245,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <f>VLOOKUP(A246,Balance!G:H,2,FALSE)</f>
+        <v>3980</v>
+      </c>
+      <c r="C246">
+        <v>91</v>
+      </c>
+      <c r="D246">
+        <f>ROUNDUP(VLOOKUP(A246,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <f>VLOOKUP(A247,Balance!G:H,2,FALSE)</f>
+        <v>4000</v>
+      </c>
+      <c r="C247">
+        <v>91</v>
+      </c>
+      <c r="D247">
+        <f>ROUNDUP(VLOOKUP(A247,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <f>VLOOKUP(A248,Balance!G:H,2,FALSE)</f>
+        <v>4020</v>
+      </c>
+      <c r="C248">
+        <v>91</v>
+      </c>
+      <c r="D248">
+        <f>ROUNDUP(VLOOKUP(A248,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <f>VLOOKUP(A249,Balance!G:H,2,FALSE)</f>
+        <v>4040</v>
+      </c>
+      <c r="C249">
+        <v>91</v>
+      </c>
+      <c r="D249">
+        <f>ROUNDUP(VLOOKUP(A249,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <f>VLOOKUP(A250,Balance!G:H,2,FALSE)</f>
+        <v>4060</v>
+      </c>
+      <c r="C250">
+        <v>91</v>
+      </c>
+      <c r="D250">
+        <f>ROUNDUP(VLOOKUP(A250,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <f>VLOOKUP(A251,Balance!G:H,2,FALSE)</f>
+        <v>4080</v>
+      </c>
+      <c r="C251">
+        <v>91</v>
+      </c>
+      <c r="D251">
+        <f>ROUNDUP(VLOOKUP(A251,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <f>VLOOKUP(A252,Balance!G:H,2,FALSE)</f>
+        <v>4100</v>
+      </c>
+      <c r="C252">
+        <v>91</v>
+      </c>
+      <c r="D252">
+        <f>ROUNDUP(VLOOKUP(A252,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <f>VLOOKUP(A253,Balance!G:H,2,FALSE)</f>
+        <v>4120</v>
+      </c>
+      <c r="C253">
+        <v>91</v>
+      </c>
+      <c r="D253">
+        <f>ROUNDUP(VLOOKUP(A253,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <f>VLOOKUP(A254,Balance!G:H,2,FALSE)</f>
+        <v>4140</v>
+      </c>
+      <c r="C254">
+        <v>91</v>
+      </c>
+      <c r="D254">
+        <f>ROUNDUP(VLOOKUP(A254,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <f>VLOOKUP(A255,Balance!G:H,2,FALSE)</f>
+        <v>4160</v>
+      </c>
+      <c r="C255">
+        <v>91</v>
+      </c>
+      <c r="D255">
+        <f>ROUNDUP(VLOOKUP(A255,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <f>VLOOKUP(A256,Balance!G:H,2,FALSE)</f>
+        <v>4180</v>
+      </c>
+      <c r="C256">
+        <v>91</v>
+      </c>
+      <c r="D256">
+        <f>ROUNDUP(VLOOKUP(A256,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <f>VLOOKUP(A257,Balance!G:H,2,FALSE)</f>
+        <v>4200</v>
+      </c>
+      <c r="C257">
+        <v>91</v>
+      </c>
+      <c r="D257">
+        <f>ROUNDUP(VLOOKUP(A257,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <f>VLOOKUP(A258,Balance!G:H,2,FALSE)</f>
+        <v>4220</v>
+      </c>
+      <c r="C258">
+        <v>91</v>
+      </c>
+      <c r="D258">
+        <f>ROUNDUP(VLOOKUP(A258,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <f>VLOOKUP(A259,Balance!G:H,2,FALSE)</f>
+        <v>4240</v>
+      </c>
+      <c r="C259">
+        <v>91</v>
+      </c>
+      <c r="D259">
+        <f>ROUNDUP(VLOOKUP(A259,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <f>VLOOKUP(A260,Balance!G:H,2,FALSE)</f>
+        <v>4260</v>
+      </c>
+      <c r="C260">
+        <v>91</v>
+      </c>
+      <c r="D260">
+        <f>ROUNDUP(VLOOKUP(A260,Balance!G:M,7,FALSE),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <f>VLOOKUP(A261,Balance!G:H,2,FALSE)</f>
+        <v>4280</v>
+      </c>
+      <c r="C261">
+        <v>91</v>
+      </c>
+      <c r="D261">
+        <f>ROUNDUP(VLOOKUP(A261,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <f>VLOOKUP(A262,Balance!G:H,2,FALSE)</f>
+        <v>4300</v>
+      </c>
+      <c r="C262">
+        <v>91</v>
+      </c>
+      <c r="D262">
+        <f>ROUNDUP(VLOOKUP(A262,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <f>VLOOKUP(A263,Balance!G:H,2,FALSE)</f>
+        <v>4320</v>
+      </c>
+      <c r="C263">
+        <v>91</v>
+      </c>
+      <c r="D263">
+        <f>ROUNDUP(VLOOKUP(A263,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <f>VLOOKUP(A264,Balance!G:H,2,FALSE)</f>
+        <v>4340</v>
+      </c>
+      <c r="C264">
+        <v>91</v>
+      </c>
+      <c r="D264">
+        <f>ROUNDUP(VLOOKUP(A264,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <f>VLOOKUP(A265,Balance!G:H,2,FALSE)</f>
+        <v>4360</v>
+      </c>
+      <c r="C265">
+        <v>91</v>
+      </c>
+      <c r="D265">
+        <f>ROUNDUP(VLOOKUP(A265,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <f>VLOOKUP(A266,Balance!G:H,2,FALSE)</f>
+        <v>4380</v>
+      </c>
+      <c r="C266">
+        <v>91</v>
+      </c>
+      <c r="D266">
+        <f>ROUNDUP(VLOOKUP(A266,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f>VLOOKUP(A267,Balance!G:H,2,FALSE)</f>
+        <v>4400</v>
+      </c>
+      <c r="C267">
+        <v>91</v>
+      </c>
+      <c r="D267">
+        <f>ROUNDUP(VLOOKUP(A267,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <f>VLOOKUP(A268,Balance!G:H,2,FALSE)</f>
+        <v>4420</v>
+      </c>
+      <c r="C268">
+        <v>91</v>
+      </c>
+      <c r="D268">
+        <f>ROUNDUP(VLOOKUP(A268,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <f>VLOOKUP(A269,Balance!G:H,2,FALSE)</f>
+        <v>4440</v>
+      </c>
+      <c r="C269">
+        <v>91</v>
+      </c>
+      <c r="D269">
+        <f>ROUNDUP(VLOOKUP(A269,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <f>VLOOKUP(A270,Balance!G:H,2,FALSE)</f>
+        <v>4460</v>
+      </c>
+      <c r="C270">
+        <v>91</v>
+      </c>
+      <c r="D270">
+        <f>ROUNDUP(VLOOKUP(A270,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <f>VLOOKUP(A271,Balance!G:H,2,FALSE)</f>
+        <v>4480</v>
+      </c>
+      <c r="C271">
+        <v>91</v>
+      </c>
+      <c r="D271">
+        <f>ROUNDUP(VLOOKUP(A271,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <f>VLOOKUP(A272,Balance!G:H,2,FALSE)</f>
+        <v>4500</v>
+      </c>
+      <c r="C272">
+        <v>91</v>
+      </c>
+      <c r="D272">
+        <f>ROUNDUP(VLOOKUP(A272,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <f>VLOOKUP(A273,Balance!G:H,2,FALSE)</f>
+        <v>4520</v>
+      </c>
+      <c r="C273">
+        <v>91</v>
+      </c>
+      <c r="D273">
+        <f>ROUNDUP(VLOOKUP(A273,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <f>VLOOKUP(A274,Balance!G:H,2,FALSE)</f>
+        <v>4540</v>
+      </c>
+      <c r="C274">
+        <v>91</v>
+      </c>
+      <c r="D274">
+        <f>ROUNDUP(VLOOKUP(A274,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <f>VLOOKUP(A275,Balance!G:H,2,FALSE)</f>
+        <v>4560</v>
+      </c>
+      <c r="C275">
+        <v>91</v>
+      </c>
+      <c r="D275">
+        <f>ROUNDUP(VLOOKUP(A275,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <f>VLOOKUP(A276,Balance!G:H,2,FALSE)</f>
+        <v>4580</v>
+      </c>
+      <c r="C276">
+        <v>91</v>
+      </c>
+      <c r="D276">
+        <f>ROUNDUP(VLOOKUP(A276,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <f>VLOOKUP(A277,Balance!G:H,2,FALSE)</f>
+        <v>4600</v>
+      </c>
+      <c r="C277">
+        <v>91</v>
+      </c>
+      <c r="D277">
+        <f>ROUNDUP(VLOOKUP(A277,Balance!G:M,7,FALSE),0)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <f>VLOOKUP(A278,Balance!G:H,2,FALSE)</f>
+        <v>4620</v>
+      </c>
+      <c r="C278">
+        <v>91</v>
+      </c>
+      <c r="D278">
+        <f>ROUNDUP(VLOOKUP(A278,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <f>VLOOKUP(A279,Balance!G:H,2,FALSE)</f>
+        <v>4640</v>
+      </c>
+      <c r="C279">
+        <v>91</v>
+      </c>
+      <c r="D279">
+        <f>ROUNDUP(VLOOKUP(A279,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <f>VLOOKUP(A280,Balance!G:H,2,FALSE)</f>
+        <v>4660</v>
+      </c>
+      <c r="C280">
+        <v>91</v>
+      </c>
+      <c r="D280">
+        <f>ROUNDUP(VLOOKUP(A280,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <f>VLOOKUP(A281,Balance!G:H,2,FALSE)</f>
+        <v>4680</v>
+      </c>
+      <c r="C281">
+        <v>91</v>
+      </c>
+      <c r="D281">
+        <f>ROUNDUP(VLOOKUP(A281,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <f>VLOOKUP(A282,Balance!G:H,2,FALSE)</f>
+        <v>4700</v>
+      </c>
+      <c r="C282">
+        <v>91</v>
+      </c>
+      <c r="D282">
+        <f>ROUNDUP(VLOOKUP(A282,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <f>VLOOKUP(A283,Balance!G:H,2,FALSE)</f>
+        <v>4720</v>
+      </c>
+      <c r="C283">
+        <v>91</v>
+      </c>
+      <c r="D283">
+        <f>ROUNDUP(VLOOKUP(A283,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <f>VLOOKUP(A284,Balance!G:H,2,FALSE)</f>
+        <v>4740</v>
+      </c>
+      <c r="C284">
+        <v>91</v>
+      </c>
+      <c r="D284">
+        <f>ROUNDUP(VLOOKUP(A284,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <f>VLOOKUP(A285,Balance!G:H,2,FALSE)</f>
+        <v>4760</v>
+      </c>
+      <c r="C285">
+        <v>91</v>
+      </c>
+      <c r="D285">
+        <f>ROUNDUP(VLOOKUP(A285,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <f>VLOOKUP(A286,Balance!G:H,2,FALSE)</f>
+        <v>4780</v>
+      </c>
+      <c r="C286">
+        <v>91</v>
+      </c>
+      <c r="D286">
+        <f>ROUNDUP(VLOOKUP(A286,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <f>VLOOKUP(A287,Balance!G:H,2,FALSE)</f>
+        <v>4800</v>
+      </c>
+      <c r="C287">
+        <v>91</v>
+      </c>
+      <c r="D287">
+        <f>ROUNDUP(VLOOKUP(A287,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <f>VLOOKUP(A288,Balance!G:H,2,FALSE)</f>
+        <v>4820</v>
+      </c>
+      <c r="C288">
+        <v>91</v>
+      </c>
+      <c r="D288">
+        <f>ROUNDUP(VLOOKUP(A288,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <f>VLOOKUP(A289,Balance!G:H,2,FALSE)</f>
+        <v>4840</v>
+      </c>
+      <c r="C289">
+        <v>91</v>
+      </c>
+      <c r="D289">
+        <f>ROUNDUP(VLOOKUP(A289,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <f>VLOOKUP(A290,Balance!G:H,2,FALSE)</f>
+        <v>4860</v>
+      </c>
+      <c r="C290">
+        <v>91</v>
+      </c>
+      <c r="D290">
+        <f>ROUNDUP(VLOOKUP(A290,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f>VLOOKUP(A291,Balance!G:H,2,FALSE)</f>
+        <v>4880</v>
+      </c>
+      <c r="C291">
+        <v>91</v>
+      </c>
+      <c r="D291">
+        <f>ROUNDUP(VLOOKUP(A291,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f>VLOOKUP(A292,Balance!G:H,2,FALSE)</f>
+        <v>4900</v>
+      </c>
+      <c r="C292">
+        <v>91</v>
+      </c>
+      <c r="D292">
+        <f>ROUNDUP(VLOOKUP(A292,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f>VLOOKUP(A293,Balance!G:H,2,FALSE)</f>
+        <v>4920</v>
+      </c>
+      <c r="C293">
+        <v>91</v>
+      </c>
+      <c r="D293">
+        <f>ROUNDUP(VLOOKUP(A293,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f>VLOOKUP(A294,Balance!G:H,2,FALSE)</f>
+        <v>4940</v>
+      </c>
+      <c r="C294">
+        <v>91</v>
+      </c>
+      <c r="D294">
+        <f>ROUNDUP(VLOOKUP(A294,Balance!G:M,7,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f>VLOOKUP(A295,Balance!G:H,2,FALSE)</f>
+        <v>4960</v>
+      </c>
+      <c r="C295">
+        <v>91</v>
+      </c>
+      <c r="D295">
+        <f>ROUNDUP(VLOOKUP(A295,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f>VLOOKUP(A296,Balance!G:H,2,FALSE)</f>
+        <v>4980</v>
+      </c>
+      <c r="C296">
+        <v>91</v>
+      </c>
+      <c r="D296">
+        <f>ROUNDUP(VLOOKUP(A296,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f>VLOOKUP(A297,Balance!G:H,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="C297">
+        <v>91</v>
+      </c>
+      <c r="D297">
+        <f>ROUNDUP(VLOOKUP(A297,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f>VLOOKUP(A298,Balance!G:H,2,FALSE)</f>
+        <v>5020</v>
+      </c>
+      <c r="C298">
+        <v>91</v>
+      </c>
+      <c r="D298">
+        <f>ROUNDUP(VLOOKUP(A298,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f>VLOOKUP(A299,Balance!G:H,2,FALSE)</f>
+        <v>5040</v>
+      </c>
+      <c r="C299">
+        <v>91</v>
+      </c>
+      <c r="D299">
+        <f>ROUNDUP(VLOOKUP(A299,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f>VLOOKUP(A300,Balance!G:H,2,FALSE)</f>
+        <v>5060</v>
+      </c>
+      <c r="C300">
+        <v>91</v>
+      </c>
+      <c r="D300">
+        <f>ROUNDUP(VLOOKUP(A300,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f>VLOOKUP(A301,Balance!G:H,2,FALSE)</f>
+        <v>5080</v>
+      </c>
+      <c r="C301">
+        <v>91</v>
+      </c>
+      <c r="D301">
+        <f>ROUNDUP(VLOOKUP(A301,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f>VLOOKUP(A302,Balance!G:H,2,FALSE)</f>
+        <v>5100</v>
+      </c>
+      <c r="C302">
+        <v>91</v>
+      </c>
+      <c r="D302">
+        <f>ROUNDUP(VLOOKUP(A302,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4061,10 +5677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453AAC7-AFB1-4CF3-9E66-1D0C6477225E}">
-  <dimension ref="A3:T204"/>
+  <dimension ref="A3:T305"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P186" sqref="P186"/>
+    <sheetView topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L302" sqref="L302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4319,7 +5935,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIFS(M:M,K:K,91)*100</f>
-        <v>1283907.1500000004</v>
+        <v>1865081.56</v>
       </c>
       <c r="B9">
         <f>SUMIFS(M:M,K:K,92)</f>
@@ -12890,18 +14506,18 @@
         <v>92</v>
       </c>
       <c r="Q187" s="7">
-        <f t="shared" ref="Q187:Q194" si="33">ROUNDUP(Q186*R187,2)</f>
+        <f t="shared" ref="Q187:Q211" si="33">ROUNDUP(Q186*R187,2)</f>
         <v>5427.52</v>
       </c>
       <c r="R187">
         <v>1.0009999999999999</v>
       </c>
       <c r="S187" s="26">
-        <f t="shared" ref="S187:S194" si="34">Q187+S186</f>
+        <f t="shared" ref="S187:S211" si="34">Q187+S186</f>
         <v>1245762.1200000006</v>
       </c>
       <c r="T187">
-        <f t="shared" ref="T187:T194" si="35">((S187-S186)/S186)*100</f>
+        <f t="shared" ref="T187:T211" si="35">((S187-S186)/S186)*100</f>
         <v>0.43758514839463614</v>
       </c>
     </row>
@@ -13082,7 +14698,7 @@
         <v>92</v>
       </c>
       <c r="Q191" s="7">
-        <f t="shared" si="33"/>
+        <f>ROUNDUP(Q190*R191,2)</f>
         <v>5449.2800000000007</v>
       </c>
       <c r="R191">
@@ -13185,11 +14801,11 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="S193" s="26">
-        <f t="shared" si="34"/>
+        <f>Q193+S192</f>
         <v>1278441.4900000005</v>
       </c>
       <c r="T193">
-        <f t="shared" si="35"/>
+        <f>((S193-S192)/S192)*100</f>
         <v>0.42892931734346307</v>
       </c>
     </row>
@@ -13267,6 +14883,27 @@
         <f t="shared" si="32"/>
         <v>54.166699999999999</v>
       </c>
+      <c r="O195">
+        <v>200</v>
+      </c>
+      <c r="P195" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q195" s="7">
+        <f t="shared" ref="Q195:Q207" si="36">ROUNDUP(Q194*R195,2)</f>
+        <v>5471.13</v>
+      </c>
+      <c r="R195">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S195" s="26">
+        <f t="shared" ref="S195:S207" si="37">Q195+S194</f>
+        <v>1289378.2800000003</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T207" si="38">((S195-S194)/S194)*100</f>
+        <v>0.42613128215696022</v>
+      </c>
     </row>
     <row r="196" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G196">
@@ -13294,6 +14931,27 @@
         <f t="shared" si="32"/>
         <v>54.2209</v>
       </c>
+      <c r="O196">
+        <v>201</v>
+      </c>
+      <c r="P196" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q196" s="7">
+        <f t="shared" si="36"/>
+        <v>5476.6100000000006</v>
+      </c>
+      <c r="R196">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S196" s="26">
+        <f t="shared" si="37"/>
+        <v>1294854.8900000004</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="38"/>
+        <v>0.42474811969068543</v>
+      </c>
     </row>
     <row r="197" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G197">
@@ -13321,6 +14979,27 @@
         <f t="shared" si="32"/>
         <v>54.275200000000005</v>
       </c>
+      <c r="O197">
+        <v>202</v>
+      </c>
+      <c r="P197" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q197" s="7">
+        <f t="shared" si="36"/>
+        <v>5482.09</v>
+      </c>
+      <c r="R197">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S197" s="26">
+        <f t="shared" si="37"/>
+        <v>1300336.9800000004</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="38"/>
+        <v>0.42337485399619429</v>
+      </c>
     </row>
     <row r="198" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G198">
@@ -13348,6 +15027,27 @@
         <f t="shared" si="32"/>
         <v>54.329499999999996</v>
       </c>
+      <c r="O198">
+        <v>203</v>
+      </c>
+      <c r="P198" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q198" s="7">
+        <f t="shared" si="36"/>
+        <v>5487.58</v>
+      </c>
+      <c r="R198">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S198" s="26">
+        <f t="shared" si="37"/>
+        <v>1305824.5600000005</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="38"/>
+        <v>0.42201214642069729</v>
+      </c>
     </row>
     <row r="199" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G199">
@@ -13375,6 +15075,27 @@
         <f t="shared" si="32"/>
         <v>54.383900000000004</v>
       </c>
+      <c r="O199">
+        <v>204</v>
+      </c>
+      <c r="P199" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q199" s="7">
+        <f t="shared" si="36"/>
+        <v>5493.0700000000006</v>
+      </c>
+      <c r="R199">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S199" s="26">
+        <f t="shared" si="37"/>
+        <v>1311317.6300000006</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="38"/>
+        <v>0.420659112124531</v>
+      </c>
     </row>
     <row r="200" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G200">
@@ -13402,6 +15123,27 @@
         <f t="shared" si="32"/>
         <v>54.438299999999998</v>
       </c>
+      <c r="O200">
+        <v>205</v>
+      </c>
+      <c r="P200" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q200" s="7">
+        <f t="shared" si="36"/>
+        <v>5498.5700000000006</v>
+      </c>
+      <c r="R200">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S200" s="26">
+        <f t="shared" si="37"/>
+        <v>1316816.2000000007</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="38"/>
+        <v>0.41931640925166713</v>
+      </c>
     </row>
     <row r="201" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G201">
@@ -13429,6 +15171,27 @@
         <f t="shared" si="32"/>
         <v>54.49280000000001</v>
       </c>
+      <c r="O201">
+        <v>206</v>
+      </c>
+      <c r="P201" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q201" s="7">
+        <f t="shared" si="36"/>
+        <v>5504.0700000000006</v>
+      </c>
+      <c r="R201">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S201" s="26">
+        <f t="shared" si="37"/>
+        <v>1322320.2700000007</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="38"/>
+        <v>0.41798316272233454</v>
+      </c>
     </row>
     <row r="202" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G202">
@@ -13456,6 +15219,27 @@
         <f t="shared" si="32"/>
         <v>54.547300000000007</v>
       </c>
+      <c r="O202">
+        <v>207</v>
+      </c>
+      <c r="P202" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q202" s="7">
+        <f t="shared" si="36"/>
+        <v>5509.58</v>
+      </c>
+      <c r="R202">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S202" s="26">
+        <f t="shared" si="37"/>
+        <v>1327829.8500000008</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="38"/>
+        <v>0.41666002745311248</v>
+      </c>
     </row>
     <row r="203" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G203">
@@ -13483,6 +15267,27 @@
         <f t="shared" si="32"/>
         <v>54.601900000000008</v>
       </c>
+      <c r="O203">
+        <v>208</v>
+      </c>
+      <c r="P203" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q203" s="7">
+        <f t="shared" si="36"/>
+        <v>5515.09</v>
+      </c>
+      <c r="R203">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S203" s="26">
+        <f t="shared" si="37"/>
+        <v>1333344.9400000009</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="38"/>
+        <v>0.41534613791067282</v>
+      </c>
     </row>
     <row r="204" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G204">
@@ -13509,6 +15314,4671 @@
       <c r="M204" s="7">
         <f t="shared" si="32"/>
         <v>54.656599999999997</v>
+      </c>
+      <c r="O204">
+        <v>209</v>
+      </c>
+      <c r="P204" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q204" s="7">
+        <f t="shared" si="36"/>
+        <v>5520.6100000000006</v>
+      </c>
+      <c r="R204">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S204" s="26">
+        <f t="shared" si="37"/>
+        <v>1338865.550000001</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="38"/>
+        <v>0.41404214576312853</v>
+      </c>
+    </row>
+    <row r="205" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G205">
+        <v>200</v>
+      </c>
+      <c r="H205">
+        <v>3100</v>
+      </c>
+      <c r="I205">
+        <f>SUM($H$5:H205)</f>
+        <v>271600</v>
+      </c>
+      <c r="J205">
+        <f t="shared" ref="J205:J215" si="39">I205/$A$5</f>
+        <v>378.65691280966462</v>
+      </c>
+      <c r="K205">
+        <v>91</v>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" ref="L205:L215" si="40">IF(K205=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M205" s="7">
+        <f t="shared" ref="M205:M215" si="41">VLOOKUP(G205,O:Q,3,FALSE)/100</f>
+        <v>54.711300000000001</v>
+      </c>
+      <c r="O205">
+        <v>210</v>
+      </c>
+      <c r="P205" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q205" s="7">
+        <f t="shared" si="36"/>
+        <v>5526.14</v>
+      </c>
+      <c r="R205">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S205" s="26">
+        <f t="shared" si="37"/>
+        <v>1344391.6900000009</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="38"/>
+        <v>0.4127479417182624</v>
+      </c>
+    </row>
+    <row r="206" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G206">
+        <v>201</v>
+      </c>
+      <c r="H206">
+        <v>3120</v>
+      </c>
+      <c r="I206">
+        <f>SUM($H$5:H206)</f>
+        <v>274720</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="39"/>
+        <v>383.00672712470936</v>
+      </c>
+      <c r="K206">
+        <v>91</v>
+      </c>
+      <c r="L206" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M206" s="7">
+        <f t="shared" si="41"/>
+        <v>54.766100000000009</v>
+      </c>
+      <c r="O206">
+        <v>211</v>
+      </c>
+      <c r="P206" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q206" s="7">
+        <f t="shared" si="36"/>
+        <v>5531.67</v>
+      </c>
+      <c r="R206">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S206" s="26">
+        <f t="shared" si="37"/>
+        <v>1349923.3600000008</v>
+      </c>
+      <c r="T206">
+        <f t="shared" si="38"/>
+        <v>0.41146267424487887</v>
+      </c>
+    </row>
+    <row r="207" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G207">
+        <v>202</v>
+      </c>
+      <c r="H207">
+        <v>3140</v>
+      </c>
+      <c r="I207">
+        <f>SUM($H$5:H207)</f>
+        <v>277860</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="39"/>
+        <v>387.38442486485059</v>
+      </c>
+      <c r="K207">
+        <v>91</v>
+      </c>
+      <c r="L207" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M207" s="7">
+        <f t="shared" si="41"/>
+        <v>54.820900000000002</v>
+      </c>
+      <c r="O207">
+        <v>212</v>
+      </c>
+      <c r="P207" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q207" s="7">
+        <f t="shared" si="36"/>
+        <v>5537.21</v>
+      </c>
+      <c r="R207">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S207" s="26">
+        <f t="shared" si="37"/>
+        <v>1355460.5700000008</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="38"/>
+        <v>0.41018699017105381</v>
+      </c>
+    </row>
+    <row r="208" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G208">
+        <v>203</v>
+      </c>
+      <c r="H208">
+        <v>3160</v>
+      </c>
+      <c r="I208">
+        <f>SUM($H$5:H208)</f>
+        <v>281020</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="39"/>
+        <v>391.79000603008819</v>
+      </c>
+      <c r="K208">
+        <v>91</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M208" s="7">
+        <f t="shared" si="41"/>
+        <v>54.875799999999998</v>
+      </c>
+      <c r="O208">
+        <v>213</v>
+      </c>
+      <c r="P208" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q208" s="7">
+        <f t="shared" ref="Q208:Q271" si="42">ROUNDUP(Q207*R208,2)</f>
+        <v>5542.75</v>
+      </c>
+      <c r="R208">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S208" s="26">
+        <f t="shared" ref="S208:S271" si="43">Q208+S207</f>
+        <v>1361003.3200000008</v>
+      </c>
+      <c r="T208">
+        <f t="shared" ref="T208:T271" si="44">((S208-S207)/S207)*100</f>
+        <v>0.40892004700660506</v>
+      </c>
+    </row>
+    <row r="209" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G209">
+        <v>204</v>
+      </c>
+      <c r="H209">
+        <v>3180</v>
+      </c>
+      <c r="I209">
+        <f>SUM($H$5:H209)</f>
+        <v>284200</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="39"/>
+        <v>396.22347062042229</v>
+      </c>
+      <c r="K209">
+        <v>91</v>
+      </c>
+      <c r="L209" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M209" s="7">
+        <f t="shared" si="41"/>
+        <v>54.930700000000009</v>
+      </c>
+      <c r="O209">
+        <v>214</v>
+      </c>
+      <c r="P209" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q209" s="7">
+        <f t="shared" si="42"/>
+        <v>5548.3</v>
+      </c>
+      <c r="R209">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S209" s="26">
+        <f t="shared" si="43"/>
+        <v>1366551.6200000008</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="44"/>
+        <v>0.40766248828842266</v>
+      </c>
+    </row>
+    <row r="210" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G210">
+        <v>205</v>
+      </c>
+      <c r="H210">
+        <v>3200</v>
+      </c>
+      <c r="I210">
+        <f>SUM($H$5:H210)</f>
+        <v>287400</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="39"/>
+        <v>400.68481863585276</v>
+      </c>
+      <c r="K210">
+        <v>91</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M210" s="7">
+        <f t="shared" si="41"/>
+        <v>54.985700000000008</v>
+      </c>
+      <c r="O210">
+        <v>215</v>
+      </c>
+      <c r="P210" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q210" s="7">
+        <f t="shared" si="42"/>
+        <v>5553.85</v>
+      </c>
+      <c r="R210">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S210" s="26">
+        <f t="shared" si="43"/>
+        <v>1372105.4700000009</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="44"/>
+        <v>0.40641348037771818</v>
+      </c>
+    </row>
+    <row r="211" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G211">
+        <v>206</v>
+      </c>
+      <c r="H211">
+        <v>3220</v>
+      </c>
+      <c r="I211">
+        <f>SUM($H$5:H211)</f>
+        <v>290620</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="39"/>
+        <v>405.17405007637973</v>
+      </c>
+      <c r="K211">
+        <v>91</v>
+      </c>
+      <c r="L211" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M211" s="7">
+        <f t="shared" si="41"/>
+        <v>55.040700000000008</v>
+      </c>
+      <c r="O211">
+        <v>216</v>
+      </c>
+      <c r="P211" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q211" s="7">
+        <f t="shared" si="42"/>
+        <v>5559.41</v>
+      </c>
+      <c r="R211">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S211" s="26">
+        <f t="shared" si="43"/>
+        <v>1377664.8800000008</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="44"/>
+        <v>0.4051736635085284</v>
+      </c>
+    </row>
+    <row r="212" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G212">
+        <v>207</v>
+      </c>
+      <c r="H212">
+        <v>3240</v>
+      </c>
+      <c r="I212">
+        <f>SUM($H$5:H212)</f>
+        <v>293860</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="39"/>
+        <v>409.69116494200313</v>
+      </c>
+      <c r="K212">
+        <v>91</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M212" s="7">
+        <f t="shared" si="41"/>
+        <v>55.095799999999997</v>
+      </c>
+      <c r="O212">
+        <v>217</v>
+      </c>
+      <c r="P212" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q212" s="7">
+        <f t="shared" si="42"/>
+        <v>5564.97</v>
+      </c>
+      <c r="R212">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S212" s="26">
+        <f t="shared" si="43"/>
+        <v>1383229.8500000008</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="44"/>
+        <v>0.40394221270995662</v>
+      </c>
+    </row>
+    <row r="213" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G213">
+        <v>208</v>
+      </c>
+      <c r="H213">
+        <v>3260</v>
+      </c>
+      <c r="I213">
+        <f>SUM($H$5:H213)</f>
+        <v>297120</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="39"/>
+        <v>414.23616323272296</v>
+      </c>
+      <c r="K213">
+        <v>91</v>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M213" s="7">
+        <f t="shared" si="41"/>
+        <v>55.1509</v>
+      </c>
+      <c r="O213">
+        <v>218</v>
+      </c>
+      <c r="P213" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q213" s="7">
+        <f t="shared" si="42"/>
+        <v>5570.54</v>
+      </c>
+      <c r="R213">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S213" s="26">
+        <f t="shared" si="43"/>
+        <v>1388800.3900000008</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="44"/>
+        <v>0.40271976490386135</v>
+      </c>
+    </row>
+    <row r="214" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G214">
+        <v>209</v>
+      </c>
+      <c r="H214">
+        <v>3280</v>
+      </c>
+      <c r="I214">
+        <f>SUM($H$5:H214)</f>
+        <v>300400</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="39"/>
+        <v>418.80904494853922</v>
+      </c>
+      <c r="K214">
+        <v>91</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M214" s="7">
+        <f t="shared" si="41"/>
+        <v>55.206100000000006</v>
+      </c>
+      <c r="O214">
+        <v>219</v>
+      </c>
+      <c r="P214" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q214" s="7">
+        <f t="shared" si="42"/>
+        <v>5576.12</v>
+      </c>
+      <c r="R214">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S214" s="26">
+        <f t="shared" si="43"/>
+        <v>1394376.5100000009</v>
+      </c>
+      <c r="T214">
+        <f t="shared" si="44"/>
+        <v>0.40150622365537414</v>
+      </c>
+    </row>
+    <row r="215" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G215">
+        <v>210</v>
+      </c>
+      <c r="H215">
+        <v>3300</v>
+      </c>
+      <c r="I215">
+        <f>SUM($H$5:H215)</f>
+        <v>303700</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="39"/>
+        <v>423.40981008945192</v>
+      </c>
+      <c r="K215">
+        <v>91</v>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="40"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M215" s="7">
+        <f t="shared" si="41"/>
+        <v>55.261400000000002</v>
+      </c>
+      <c r="O215">
+        <v>220</v>
+      </c>
+      <c r="P215" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q215" s="7">
+        <f t="shared" si="42"/>
+        <v>5581.7</v>
+      </c>
+      <c r="R215">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S215" s="26">
+        <f t="shared" si="43"/>
+        <v>1399958.2100000009</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="44"/>
+        <v>0.40030077672492842</v>
+      </c>
+    </row>
+    <row r="216" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G216">
+        <v>211</v>
+      </c>
+      <c r="H216">
+        <v>3320</v>
+      </c>
+      <c r="I216">
+        <f>SUM($H$5:H216)</f>
+        <v>307020</v>
+      </c>
+      <c r="J216">
+        <f t="shared" ref="J216:J238" si="45">I216/$A$5</f>
+        <v>428.03845865546111</v>
+      </c>
+      <c r="K216">
+        <v>91</v>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" ref="L216:L238" si="46">IF(K216=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M216" s="7">
+        <f t="shared" ref="M216:M238" si="47">VLOOKUP(G216,O:Q,3,FALSE)/100</f>
+        <v>55.316699999999997</v>
+      </c>
+      <c r="O216">
+        <v>221</v>
+      </c>
+      <c r="P216" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q216" s="7">
+        <f t="shared" si="42"/>
+        <v>5587.29</v>
+      </c>
+      <c r="R216">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S216" s="26">
+        <f t="shared" si="43"/>
+        <v>1405545.5000000009</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="44"/>
+        <v>0.39910405611322025</v>
+      </c>
+    </row>
+    <row r="217" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G217">
+        <v>212</v>
+      </c>
+      <c r="H217">
+        <v>3340</v>
+      </c>
+      <c r="I217">
+        <f>SUM($H$5:H217)</f>
+        <v>310360</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="45"/>
+        <v>432.69499064656668</v>
+      </c>
+      <c r="K217">
+        <v>91</v>
+      </c>
+      <c r="L217" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M217" s="7">
+        <f t="shared" si="47"/>
+        <v>55.372100000000003</v>
+      </c>
+      <c r="O217">
+        <v>222</v>
+      </c>
+      <c r="P217" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q217" s="7">
+        <f t="shared" si="42"/>
+        <v>5592.88</v>
+      </c>
+      <c r="R217">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S217" s="26">
+        <f t="shared" si="43"/>
+        <v>1411138.3800000008</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="44"/>
+        <v>0.39791525781270581</v>
+      </c>
+    </row>
+    <row r="218" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G218">
+        <v>213</v>
+      </c>
+      <c r="H218">
+        <v>3360</v>
+      </c>
+      <c r="I218">
+        <f>SUM($H$5:H218)</f>
+        <v>313720</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="45"/>
+        <v>437.37940606276874</v>
+      </c>
+      <c r="K218">
+        <v>91</v>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M218" s="7">
+        <f t="shared" si="47"/>
+        <v>55.427500000000002</v>
+      </c>
+      <c r="O218">
+        <v>223</v>
+      </c>
+      <c r="P218" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q218" s="7">
+        <f t="shared" si="42"/>
+        <v>5598.4800000000005</v>
+      </c>
+      <c r="R218">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S218" s="26">
+        <f t="shared" si="43"/>
+        <v>1416736.8600000008</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="44"/>
+        <v>0.39673501049556731</v>
+      </c>
+    </row>
+    <row r="219" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G219">
+        <v>214</v>
+      </c>
+      <c r="H219">
+        <v>3380</v>
+      </c>
+      <c r="I219">
+        <f>SUM($H$5:H219)</f>
+        <v>317100</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="45"/>
+        <v>442.09170490406723</v>
+      </c>
+      <c r="K219">
+        <v>91</v>
+      </c>
+      <c r="L219" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M219" s="7">
+        <f t="shared" si="47"/>
+        <v>55.483000000000004</v>
+      </c>
+      <c r="O219">
+        <v>224</v>
+      </c>
+      <c r="P219" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q219" s="7">
+        <f t="shared" si="42"/>
+        <v>5604.08</v>
+      </c>
+      <c r="R219">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S219" s="26">
+        <f t="shared" si="43"/>
+        <v>1422340.9400000009</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="44"/>
+        <v>0.39556251822233746</v>
+      </c>
+    </row>
+    <row r="220" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G220">
+        <v>215</v>
+      </c>
+      <c r="H220">
+        <v>3400</v>
+      </c>
+      <c r="I220">
+        <f>SUM($H$5:H220)</f>
+        <v>320500</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="45"/>
+        <v>446.83188717046215</v>
+      </c>
+      <c r="K220">
+        <v>91</v>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M220" s="7">
+        <f t="shared" si="47"/>
+        <v>55.538500000000006</v>
+      </c>
+      <c r="O220">
+        <v>225</v>
+      </c>
+      <c r="P220" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q220" s="7">
+        <f t="shared" si="42"/>
+        <v>5609.6900000000005</v>
+      </c>
+      <c r="R220">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S220" s="26">
+        <f t="shared" si="43"/>
+        <v>1427950.6300000008</v>
+      </c>
+      <c r="T220">
+        <f t="shared" si="44"/>
+        <v>0.39439840633427464</v>
+      </c>
+    </row>
+    <row r="221" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G221">
+        <v>216</v>
+      </c>
+      <c r="H221">
+        <v>3420</v>
+      </c>
+      <c r="I221">
+        <f>SUM($H$5:H221)</f>
+        <v>323920</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="45"/>
+        <v>451.59995286195351</v>
+      </c>
+      <c r="K221">
+        <v>91</v>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M221" s="7">
+        <f t="shared" si="47"/>
+        <v>55.594099999999997</v>
+      </c>
+      <c r="O221">
+        <v>226</v>
+      </c>
+      <c r="P221" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q221" s="7">
+        <f t="shared" si="42"/>
+        <v>5615.3</v>
+      </c>
+      <c r="R221">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S221" s="26">
+        <f t="shared" si="43"/>
+        <v>1433565.9300000009</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="44"/>
+        <v>0.3932418868010894</v>
+      </c>
+    </row>
+    <row r="222" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G222">
+        <v>217</v>
+      </c>
+      <c r="H222">
+        <v>3440</v>
+      </c>
+      <c r="I222">
+        <f>SUM($H$5:H222)</f>
+        <v>327360</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="45"/>
+        <v>456.3959019785413</v>
+      </c>
+      <c r="K222">
+        <v>91</v>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M222" s="7">
+        <f t="shared" si="47"/>
+        <v>55.649700000000003</v>
+      </c>
+      <c r="O222">
+        <v>227</v>
+      </c>
+      <c r="P222" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q222" s="7">
+        <f t="shared" si="42"/>
+        <v>5620.92</v>
+      </c>
+      <c r="R222">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S222" s="26">
+        <f t="shared" si="43"/>
+        <v>1439186.8500000008</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="44"/>
+        <v>0.3920935816324766</v>
+      </c>
+    </row>
+    <row r="223" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G223">
+        <v>218</v>
+      </c>
+      <c r="H223">
+        <v>3460</v>
+      </c>
+      <c r="I223">
+        <f>SUM($H$5:H223)</f>
+        <v>330820</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="45"/>
+        <v>461.21973452022553</v>
+      </c>
+      <c r="K223">
+        <v>91</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M223" s="7">
+        <f t="shared" si="47"/>
+        <v>55.705399999999997</v>
+      </c>
+      <c r="O223">
+        <v>228</v>
+      </c>
+      <c r="P223" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q223" s="7">
+        <f t="shared" si="42"/>
+        <v>5626.55</v>
+      </c>
+      <c r="R223">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S223" s="26">
+        <f t="shared" si="43"/>
+        <v>1444813.4000000008</v>
+      </c>
+      <c r="T223">
+        <f t="shared" si="44"/>
+        <v>0.39095340538999812</v>
+      </c>
+    </row>
+    <row r="224" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G224">
+        <v>219</v>
+      </c>
+      <c r="H224">
+        <v>3480</v>
+      </c>
+      <c r="I224">
+        <f>SUM($H$5:H224)</f>
+        <v>334300</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="45"/>
+        <v>466.07145048700619</v>
+      </c>
+      <c r="K224">
+        <v>91</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M224" s="7">
+        <f t="shared" si="47"/>
+        <v>55.761200000000002</v>
+      </c>
+      <c r="O224">
+        <v>229</v>
+      </c>
+      <c r="P224" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q224" s="7">
+        <f t="shared" si="42"/>
+        <v>5632.18</v>
+      </c>
+      <c r="R224">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S224" s="26">
+        <f t="shared" si="43"/>
+        <v>1450445.5800000008</v>
+      </c>
+      <c r="T224">
+        <f t="shared" si="44"/>
+        <v>0.38982058167510986</v>
+      </c>
+    </row>
+    <row r="225" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G225">
+        <v>220</v>
+      </c>
+      <c r="H225">
+        <v>3500</v>
+      </c>
+      <c r="I225">
+        <f>SUM($H$5:H225)</f>
+        <v>337800</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="45"/>
+        <v>470.95104987888334</v>
+      </c>
+      <c r="K225">
+        <v>91</v>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M225" s="7">
+        <f t="shared" si="47"/>
+        <v>55.817</v>
+      </c>
+      <c r="O225">
+        <v>230</v>
+      </c>
+      <c r="P225" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q225" s="7">
+        <f t="shared" si="42"/>
+        <v>5637.8200000000006</v>
+      </c>
+      <c r="R225">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S225" s="26">
+        <f t="shared" si="43"/>
+        <v>1456083.4000000008</v>
+      </c>
+      <c r="T225">
+        <f t="shared" si="44"/>
+        <v>0.38869572755704923</v>
+      </c>
+    </row>
+    <row r="226" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G226">
+        <v>221</v>
+      </c>
+      <c r="H226">
+        <v>3520</v>
+      </c>
+      <c r="I226">
+        <f>SUM($H$5:H226)</f>
+        <v>341320</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="45"/>
+        <v>475.85853269585692</v>
+      </c>
+      <c r="K226">
+        <v>91</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M226" s="7">
+        <f t="shared" si="47"/>
+        <v>55.872900000000001</v>
+      </c>
+      <c r="O226">
+        <v>231</v>
+      </c>
+      <c r="P226" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q226" s="7">
+        <f t="shared" si="42"/>
+        <v>5643.46</v>
+      </c>
+      <c r="R226">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S226" s="26">
+        <f t="shared" si="43"/>
+        <v>1461726.8600000008</v>
+      </c>
+      <c r="T226">
+        <f t="shared" si="44"/>
+        <v>0.38757807416800161</v>
+      </c>
+    </row>
+    <row r="227" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G227">
+        <v>222</v>
+      </c>
+      <c r="H227">
+        <v>3540</v>
+      </c>
+      <c r="I227">
+        <f>SUM($H$5:H227)</f>
+        <v>344860</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="45"/>
+        <v>480.79389893792688</v>
+      </c>
+      <c r="K227">
+        <v>91</v>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M227" s="7">
+        <f t="shared" si="47"/>
+        <v>55.928800000000003</v>
+      </c>
+      <c r="O227">
+        <v>232</v>
+      </c>
+      <c r="P227" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q227" s="7">
+        <f t="shared" si="42"/>
+        <v>5649.1100000000006</v>
+      </c>
+      <c r="R227">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S227" s="26">
+        <f t="shared" si="43"/>
+        <v>1467375.9700000009</v>
+      </c>
+      <c r="T227">
+        <f t="shared" si="44"/>
+        <v>0.38646823524882751</v>
+      </c>
+    </row>
+    <row r="228" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G228">
+        <v>223</v>
+      </c>
+      <c r="H228">
+        <v>3560</v>
+      </c>
+      <c r="I228">
+        <f>SUM($H$5:H228)</f>
+        <v>348420</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="45"/>
+        <v>485.75714860509333</v>
+      </c>
+      <c r="K228">
+        <v>91</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M228" s="7">
+        <f t="shared" si="47"/>
+        <v>55.984800000000007</v>
+      </c>
+      <c r="O228">
+        <v>233</v>
+      </c>
+      <c r="P228" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q228" s="7">
+        <f t="shared" si="42"/>
+        <v>5654.76</v>
+      </c>
+      <c r="R228">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S228" s="26">
+        <f t="shared" si="43"/>
+        <v>1473030.7300000009</v>
+      </c>
+      <c r="T228">
+        <f t="shared" si="44"/>
+        <v>0.38536544931971362</v>
+      </c>
+    </row>
+    <row r="229" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G229">
+        <v>224</v>
+      </c>
+      <c r="H229">
+        <v>3580</v>
+      </c>
+      <c r="I229">
+        <f>SUM($H$5:H229)</f>
+        <v>352000</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="45"/>
+        <v>490.74828169735622</v>
+      </c>
+      <c r="K229">
+        <v>91</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M229" s="7">
+        <f t="shared" si="47"/>
+        <v>56.040799999999997</v>
+      </c>
+      <c r="O229">
+        <v>234</v>
+      </c>
+      <c r="P229" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q229" s="7">
+        <f t="shared" si="42"/>
+        <v>5660.42</v>
+      </c>
+      <c r="R229">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S229" s="26">
+        <f t="shared" si="43"/>
+        <v>1478691.1500000008</v>
+      </c>
+      <c r="T229">
+        <f t="shared" si="44"/>
+        <v>0.38427032679758971</v>
+      </c>
+    </row>
+    <row r="230" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G230">
+        <v>225</v>
+      </c>
+      <c r="H230">
+        <v>3600</v>
+      </c>
+      <c r="I230">
+        <f>SUM($H$5:H230)</f>
+        <v>355600</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="45"/>
+        <v>495.76729821471554</v>
+      </c>
+      <c r="K230">
+        <v>91</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M230" s="7">
+        <f t="shared" si="47"/>
+        <v>56.096900000000005</v>
+      </c>
+      <c r="O230">
+        <v>235</v>
+      </c>
+      <c r="P230" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q230" s="7">
+        <f t="shared" si="42"/>
+        <v>5666.09</v>
+      </c>
+      <c r="R230">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S230" s="26">
+        <f t="shared" si="43"/>
+        <v>1484357.2400000009</v>
+      </c>
+      <c r="T230">
+        <f t="shared" si="44"/>
+        <v>0.38318278972590597</v>
+      </c>
+    </row>
+    <row r="231" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G231">
+        <v>226</v>
+      </c>
+      <c r="H231">
+        <v>3620</v>
+      </c>
+      <c r="I231">
+        <f>SUM($H$5:H231)</f>
+        <v>359220</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="45"/>
+        <v>500.81419815717129</v>
+      </c>
+      <c r="K231">
+        <v>91</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M231" s="7">
+        <f t="shared" si="47"/>
+        <v>56.152999999999999</v>
+      </c>
+      <c r="O231">
+        <v>236</v>
+      </c>
+      <c r="P231" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q231" s="7">
+        <f t="shared" si="42"/>
+        <v>5671.76</v>
+      </c>
+      <c r="R231">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S231" s="26">
+        <f t="shared" si="43"/>
+        <v>1490029.0000000009</v>
+      </c>
+      <c r="T231">
+        <f t="shared" si="44"/>
+        <v>0.38210208750017655</v>
+      </c>
+    </row>
+    <row r="232" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G232">
+        <v>227</v>
+      </c>
+      <c r="H232">
+        <v>3640</v>
+      </c>
+      <c r="I232">
+        <f>SUM($H$5:H232)</f>
+        <v>362860</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="45"/>
+        <v>505.88898152472353</v>
+      </c>
+      <c r="K232">
+        <v>91</v>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M232" s="7">
+        <f t="shared" si="47"/>
+        <v>56.209200000000003</v>
+      </c>
+      <c r="O232">
+        <v>237</v>
+      </c>
+      <c r="P232" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q232" s="7">
+        <f t="shared" si="42"/>
+        <v>5677.4400000000005</v>
+      </c>
+      <c r="R232">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S232" s="26">
+        <f t="shared" si="43"/>
+        <v>1495706.4400000009</v>
+      </c>
+      <c r="T232">
+        <f t="shared" si="44"/>
+        <v>0.38102882561345719</v>
+      </c>
+    </row>
+    <row r="233" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G233">
+        <v>228</v>
+      </c>
+      <c r="H233">
+        <v>3660</v>
+      </c>
+      <c r="I233">
+        <f>SUM($H$5:H233)</f>
+        <v>366520</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="45"/>
+        <v>510.99164831737215</v>
+      </c>
+      <c r="K233">
+        <v>91</v>
+      </c>
+      <c r="L233" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M233" s="7">
+        <f t="shared" si="47"/>
+        <v>56.265500000000003</v>
+      </c>
+      <c r="O233">
+        <v>238</v>
+      </c>
+      <c r="P233" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q233" s="7">
+        <f t="shared" si="42"/>
+        <v>5683.12</v>
+      </c>
+      <c r="R233">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S233" s="26">
+        <f t="shared" si="43"/>
+        <v>1501389.560000001</v>
+      </c>
+      <c r="T233">
+        <f t="shared" si="44"/>
+        <v>0.37996226050882742</v>
+      </c>
+    </row>
+    <row r="234" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G234">
+        <v>229</v>
+      </c>
+      <c r="H234">
+        <v>3680</v>
+      </c>
+      <c r="I234">
+        <f>SUM($H$5:H234)</f>
+        <v>370200</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="45"/>
+        <v>516.12219853511726</v>
+      </c>
+      <c r="K234">
+        <v>91</v>
+      </c>
+      <c r="L234" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M234" s="7">
+        <f t="shared" si="47"/>
+        <v>56.321800000000003</v>
+      </c>
+      <c r="O234">
+        <v>239</v>
+      </c>
+      <c r="P234" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q234" s="7">
+        <f t="shared" si="42"/>
+        <v>5688.81</v>
+      </c>
+      <c r="R234">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S234" s="26">
+        <f t="shared" si="43"/>
+        <v>1507078.370000001</v>
+      </c>
+      <c r="T234">
+        <f t="shared" si="44"/>
+        <v>0.37890299437009889</v>
+      </c>
+    </row>
+    <row r="235" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G235">
+        <v>230</v>
+      </c>
+      <c r="H235">
+        <v>3700</v>
+      </c>
+      <c r="I235">
+        <f>SUM($H$5:H235)</f>
+        <v>373900</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="45"/>
+        <v>521.28063217795875</v>
+      </c>
+      <c r="K235">
+        <v>91</v>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M235" s="7">
+        <f t="shared" si="47"/>
+        <v>56.378200000000007</v>
+      </c>
+      <c r="O235">
+        <v>240</v>
+      </c>
+      <c r="P235" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q235" s="7">
+        <f t="shared" si="42"/>
+        <v>5694.5</v>
+      </c>
+      <c r="R235">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S235" s="26">
+        <f t="shared" si="43"/>
+        <v>1512772.870000001</v>
+      </c>
+      <c r="T235">
+        <f t="shared" si="44"/>
+        <v>0.37785029055920932</v>
+      </c>
+    </row>
+    <row r="236" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G236">
+        <v>231</v>
+      </c>
+      <c r="H236">
+        <v>3720</v>
+      </c>
+      <c r="I236">
+        <f>SUM($H$5:H236)</f>
+        <v>377620</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="45"/>
+        <v>526.46694924589679</v>
+      </c>
+      <c r="K236">
+        <v>91</v>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M236" s="7">
+        <f t="shared" si="47"/>
+        <v>56.434600000000003</v>
+      </c>
+      <c r="O236">
+        <v>241</v>
+      </c>
+      <c r="P236" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q236" s="7">
+        <f t="shared" si="42"/>
+        <v>5700.2</v>
+      </c>
+      <c r="R236">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S236" s="26">
+        <f t="shared" si="43"/>
+        <v>1518473.070000001</v>
+      </c>
+      <c r="T236">
+        <f t="shared" si="44"/>
+        <v>0.37680474795928554</v>
+      </c>
+    </row>
+    <row r="237" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G237">
+        <v>232</v>
+      </c>
+      <c r="H237">
+        <v>3740</v>
+      </c>
+      <c r="I237">
+        <f>SUM($H$5:H237)</f>
+        <v>381360</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="45"/>
+        <v>531.68114973893114</v>
+      </c>
+      <c r="K237">
+        <v>91</v>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M237" s="7">
+        <f t="shared" si="47"/>
+        <v>56.491100000000003</v>
+      </c>
+      <c r="O237">
+        <v>242</v>
+      </c>
+      <c r="P237" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q237" s="7">
+        <f t="shared" si="42"/>
+        <v>5705.91</v>
+      </c>
+      <c r="R237">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S237" s="26">
+        <f t="shared" si="43"/>
+        <v>1524178.9800000009</v>
+      </c>
+      <c r="T237">
+        <f t="shared" si="44"/>
+        <v>0.37576629528239924</v>
+      </c>
+    </row>
+    <row r="238" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G238">
+        <v>233</v>
+      </c>
+      <c r="H238">
+        <v>3760</v>
+      </c>
+      <c r="I238">
+        <f>SUM($H$5:H238)</f>
+        <v>385120</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="45"/>
+        <v>536.92323365706204</v>
+      </c>
+      <c r="K238">
+        <v>91</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="46"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M238" s="7">
+        <f t="shared" si="47"/>
+        <v>56.547600000000003</v>
+      </c>
+      <c r="O238">
+        <v>243</v>
+      </c>
+      <c r="P238" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q238" s="7">
+        <f t="shared" si="42"/>
+        <v>5711.62</v>
+      </c>
+      <c r="R238">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S238" s="26">
+        <f t="shared" si="43"/>
+        <v>1529890.600000001</v>
+      </c>
+      <c r="T238">
+        <f t="shared" si="44"/>
+        <v>0.37473420608386215</v>
+      </c>
+    </row>
+    <row r="239" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G239">
+        <v>234</v>
+      </c>
+      <c r="H239">
+        <v>3780</v>
+      </c>
+      <c r="I239">
+        <f>SUM($H$5:H239)</f>
+        <v>388900</v>
+      </c>
+      <c r="J239">
+        <f t="shared" ref="J239:J302" si="48">I239/$A$5</f>
+        <v>542.19320100028926</v>
+      </c>
+      <c r="K239">
+        <v>91</v>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" ref="L239:L302" si="49">IF(K239=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M239" s="7">
+        <f t="shared" ref="M239:M302" si="50">VLOOKUP(G239,O:Q,3,FALSE)/100</f>
+        <v>56.604199999999999</v>
+      </c>
+      <c r="O239">
+        <v>244</v>
+      </c>
+      <c r="P239" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q239" s="7">
+        <f t="shared" si="42"/>
+        <v>5717.34</v>
+      </c>
+      <c r="R239">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S239" s="26">
+        <f t="shared" si="43"/>
+        <v>1535607.9400000011</v>
+      </c>
+      <c r="T239">
+        <f t="shared" si="44"/>
+        <v>0.37370907436127004</v>
+      </c>
+    </row>
+    <row r="240" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G240">
+        <v>235</v>
+      </c>
+      <c r="H240">
+        <v>3800</v>
+      </c>
+      <c r="I240">
+        <f>SUM($H$5:H240)</f>
+        <v>392700</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="48"/>
+        <v>547.49105176861303</v>
+      </c>
+      <c r="K240">
+        <v>91</v>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M240" s="7">
+        <f t="shared" si="50"/>
+        <v>56.660899999999998</v>
+      </c>
+      <c r="O240">
+        <v>245</v>
+      </c>
+      <c r="P240" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q240" s="7">
+        <f t="shared" si="42"/>
+        <v>5723.06</v>
+      </c>
+      <c r="R240">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S240" s="26">
+        <f t="shared" si="43"/>
+        <v>1541331.0000000012</v>
+      </c>
+      <c r="T240">
+        <f t="shared" si="44"/>
+        <v>0.37269018028130618</v>
+      </c>
+    </row>
+    <row r="241" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G241">
+        <v>236</v>
+      </c>
+      <c r="H241">
+        <v>3820</v>
+      </c>
+      <c r="I241">
+        <f>SUM($H$5:H241)</f>
+        <v>396520</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="48"/>
+        <v>552.81678596203324</v>
+      </c>
+      <c r="K241">
+        <v>91</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M241" s="7">
+        <f t="shared" si="50"/>
+        <v>56.717600000000004</v>
+      </c>
+      <c r="O241">
+        <v>246</v>
+      </c>
+      <c r="P241" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q241" s="7">
+        <f t="shared" si="42"/>
+        <v>5728.79</v>
+      </c>
+      <c r="R241">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S241" s="26">
+        <f t="shared" si="43"/>
+        <v>1547059.7900000012</v>
+      </c>
+      <c r="T241">
+        <f t="shared" si="44"/>
+        <v>0.37167811456462191</v>
+      </c>
+    </row>
+    <row r="242" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G242">
+        <v>237</v>
+      </c>
+      <c r="H242">
+        <v>3840</v>
+      </c>
+      <c r="I242">
+        <f>SUM($H$5:H242)</f>
+        <v>400360</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="48"/>
+        <v>558.17040358054987</v>
+      </c>
+      <c r="K242">
+        <v>91</v>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M242" s="7">
+        <f t="shared" si="50"/>
+        <v>56.774400000000007</v>
+      </c>
+      <c r="O242">
+        <v>247</v>
+      </c>
+      <c r="P242" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q242" s="7">
+        <f t="shared" si="42"/>
+        <v>5734.52</v>
+      </c>
+      <c r="R242">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S242" s="26">
+        <f t="shared" si="43"/>
+        <v>1552794.3100000012</v>
+      </c>
+      <c r="T242">
+        <f t="shared" si="44"/>
+        <v>0.37067216387286583</v>
+      </c>
+    </row>
+    <row r="243" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G243">
+        <v>238</v>
+      </c>
+      <c r="H243">
+        <v>3860</v>
+      </c>
+      <c r="I243">
+        <f>SUM($H$5:H243)</f>
+        <v>404220</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="48"/>
+        <v>563.55190462416283</v>
+      </c>
+      <c r="K243">
+        <v>91</v>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M243" s="7">
+        <f t="shared" si="50"/>
+        <v>56.831199999999995</v>
+      </c>
+      <c r="O243">
+        <v>248</v>
+      </c>
+      <c r="P243" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q243" s="7">
+        <f t="shared" si="42"/>
+        <v>5740.26</v>
+      </c>
+      <c r="R243">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S243" s="26">
+        <f t="shared" si="43"/>
+        <v>1558534.5700000012</v>
+      </c>
+      <c r="T243">
+        <f t="shared" si="44"/>
+        <v>0.36967291566131544</v>
+      </c>
+    </row>
+    <row r="244" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G244">
+        <v>239</v>
+      </c>
+      <c r="H244">
+        <v>3880</v>
+      </c>
+      <c r="I244">
+        <f>SUM($H$5:H244)</f>
+        <v>408100</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="48"/>
+        <v>568.96128909287233</v>
+      </c>
+      <c r="K244">
+        <v>91</v>
+      </c>
+      <c r="L244" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M244" s="7">
+        <f t="shared" si="50"/>
+        <v>56.888100000000001</v>
+      </c>
+      <c r="O244">
+        <v>249</v>
+      </c>
+      <c r="P244" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q244" s="7">
+        <f t="shared" si="42"/>
+        <v>5746.01</v>
+      </c>
+      <c r="R244">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S244" s="26">
+        <f t="shared" si="43"/>
+        <v>1564280.5800000012</v>
+      </c>
+      <c r="T244">
+        <f t="shared" si="44"/>
+        <v>0.36868030460177764</v>
+      </c>
+    </row>
+    <row r="245" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G245">
+        <v>240</v>
+      </c>
+      <c r="H245">
+        <v>3900</v>
+      </c>
+      <c r="I245">
+        <f>SUM($H$5:H245)</f>
+        <v>412000</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="48"/>
+        <v>574.39855698667827</v>
+      </c>
+      <c r="K245">
+        <v>91</v>
+      </c>
+      <c r="L245" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M245" s="7">
+        <f t="shared" si="50"/>
+        <v>56.945</v>
+      </c>
+      <c r="O245">
+        <v>250</v>
+      </c>
+      <c r="P245" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q245" s="7">
+        <f t="shared" si="42"/>
+        <v>5751.76</v>
+      </c>
+      <c r="R245">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S245" s="26">
+        <f t="shared" si="43"/>
+        <v>1570032.3400000012</v>
+      </c>
+      <c r="T245">
+        <f t="shared" si="44"/>
+        <v>0.36769362693232471</v>
+      </c>
+    </row>
+    <row r="246" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G246">
+        <v>241</v>
+      </c>
+      <c r="H246">
+        <v>3920</v>
+      </c>
+      <c r="I246">
+        <f>SUM($H$5:H246)</f>
+        <v>415920</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="48"/>
+        <v>579.86370830558064</v>
+      </c>
+      <c r="K246">
+        <v>91</v>
+      </c>
+      <c r="L246" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M246" s="7">
+        <f t="shared" si="50"/>
+        <v>57.001999999999995</v>
+      </c>
+      <c r="O246">
+        <v>251</v>
+      </c>
+      <c r="P246" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q246" s="7">
+        <f t="shared" si="42"/>
+        <v>5757.52</v>
+      </c>
+      <c r="R246">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S246" s="26">
+        <f t="shared" si="43"/>
+        <v>1575789.8600000013</v>
+      </c>
+      <c r="T246">
+        <f t="shared" si="44"/>
+        <v>0.36671346527804732</v>
+      </c>
+    </row>
+    <row r="247" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G247">
+        <v>242</v>
+      </c>
+      <c r="H247">
+        <v>3940</v>
+      </c>
+      <c r="I247">
+        <f>SUM($H$5:H247)</f>
+        <v>419860</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="48"/>
+        <v>585.35674304957945</v>
+      </c>
+      <c r="K247">
+        <v>91</v>
+      </c>
+      <c r="L247" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M247" s="7">
+        <f t="shared" si="50"/>
+        <v>57.059100000000001</v>
+      </c>
+      <c r="O247">
+        <v>252</v>
+      </c>
+      <c r="P247" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q247" s="7">
+        <f t="shared" si="42"/>
+        <v>5763.2800000000007</v>
+      </c>
+      <c r="R247">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S247" s="26">
+        <f t="shared" si="43"/>
+        <v>1581553.1400000013</v>
+      </c>
+      <c r="T247">
+        <f t="shared" si="44"/>
+        <v>0.36573912209334963</v>
+      </c>
+    </row>
+    <row r="248" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G248">
+        <v>243</v>
+      </c>
+      <c r="H248">
+        <v>3960</v>
+      </c>
+      <c r="I248">
+        <f>SUM($H$5:H248)</f>
+        <v>423820</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="48"/>
+        <v>590.8776612186748</v>
+      </c>
+      <c r="K248">
+        <v>91</v>
+      </c>
+      <c r="L248" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M248" s="7">
+        <f t="shared" si="50"/>
+        <v>57.116199999999999</v>
+      </c>
+      <c r="O248">
+        <v>253</v>
+      </c>
+      <c r="P248" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q248" s="7">
+        <f t="shared" si="42"/>
+        <v>5769.05</v>
+      </c>
+      <c r="R248">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S248" s="26">
+        <f t="shared" si="43"/>
+        <v>1587322.1900000013</v>
+      </c>
+      <c r="T248">
+        <f t="shared" si="44"/>
+        <v>0.36477117676868209</v>
+      </c>
+    </row>
+    <row r="249" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G249">
+        <v>244</v>
+      </c>
+      <c r="H249">
+        <v>3980</v>
+      </c>
+      <c r="I249">
+        <f>SUM($H$5:H249)</f>
+        <v>427800</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="48"/>
+        <v>596.42646281286648</v>
+      </c>
+      <c r="K249">
+        <v>91</v>
+      </c>
+      <c r="L249" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M249" s="7">
+        <f t="shared" si="50"/>
+        <v>57.173400000000001</v>
+      </c>
+      <c r="O249">
+        <v>254</v>
+      </c>
+      <c r="P249" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q249" s="7">
+        <f t="shared" si="42"/>
+        <v>5774.8200000000006</v>
+      </c>
+      <c r="R249">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S249" s="26">
+        <f t="shared" si="43"/>
+        <v>1593097.0100000014</v>
+      </c>
+      <c r="T249">
+        <f t="shared" si="44"/>
+        <v>0.36380893786913293</v>
+      </c>
+    </row>
+    <row r="250" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G250">
+        <v>245</v>
+      </c>
+      <c r="H250">
+        <v>4000</v>
+      </c>
+      <c r="I250">
+        <f>SUM($H$5:H250)</f>
+        <v>431800</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="48"/>
+        <v>602.00314783215458</v>
+      </c>
+      <c r="K250">
+        <v>91</v>
+      </c>
+      <c r="L250" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M250" s="7">
+        <f t="shared" si="50"/>
+        <v>57.230600000000003</v>
+      </c>
+      <c r="O250">
+        <v>255</v>
+      </c>
+      <c r="P250" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q250" s="7">
+        <f t="shared" si="42"/>
+        <v>5780.6</v>
+      </c>
+      <c r="R250">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S250" s="26">
+        <f t="shared" si="43"/>
+        <v>1598877.6100000015</v>
+      </c>
+      <c r="T250">
+        <f t="shared" si="44"/>
+        <v>0.36285298156451173</v>
+      </c>
+    </row>
+    <row r="251" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G251">
+        <v>246</v>
+      </c>
+      <c r="H251">
+        <v>4020</v>
+      </c>
+      <c r="I251">
+        <f>SUM($H$5:H251)</f>
+        <v>435820</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="48"/>
+        <v>607.60771627653924</v>
+      </c>
+      <c r="K251">
+        <v>91</v>
+      </c>
+      <c r="L251" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M251" s="7">
+        <f t="shared" si="50"/>
+        <v>57.2879</v>
+      </c>
+      <c r="O251">
+        <v>256</v>
+      </c>
+      <c r="P251" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q251" s="7">
+        <f t="shared" si="42"/>
+        <v>5786.39</v>
+      </c>
+      <c r="R251">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S251" s="26">
+        <f t="shared" si="43"/>
+        <v>1604664.0000000014</v>
+      </c>
+      <c r="T251">
+        <f t="shared" si="44"/>
+        <v>0.36190324786647632</v>
+      </c>
+    </row>
+    <row r="252" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G252">
+        <v>247</v>
+      </c>
+      <c r="H252">
+        <v>4040</v>
+      </c>
+      <c r="I252">
+        <f>SUM($H$5:H252)</f>
+        <v>439860</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="48"/>
+        <v>613.24016814602021</v>
+      </c>
+      <c r="K252">
+        <v>91</v>
+      </c>
+      <c r="L252" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M252" s="7">
+        <f t="shared" si="50"/>
+        <v>57.345200000000006</v>
+      </c>
+      <c r="O252">
+        <v>257</v>
+      </c>
+      <c r="P252" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q252" s="7">
+        <f t="shared" si="42"/>
+        <v>5792.18</v>
+      </c>
+      <c r="R252">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S252" s="26">
+        <f t="shared" si="43"/>
+        <v>1610456.1800000013</v>
+      </c>
+      <c r="T252">
+        <f t="shared" si="44"/>
+        <v>0.36095905435654629</v>
+      </c>
+    </row>
+    <row r="253" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G253">
+        <v>248</v>
+      </c>
+      <c r="H253">
+        <v>4060</v>
+      </c>
+      <c r="I253">
+        <f>SUM($H$5:H253)</f>
+        <v>443920</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="48"/>
+        <v>618.90050344059762</v>
+      </c>
+      <c r="K253">
+        <v>91</v>
+      </c>
+      <c r="L253" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M253" s="7">
+        <f t="shared" si="50"/>
+        <v>57.4026</v>
+      </c>
+      <c r="O253">
+        <v>258</v>
+      </c>
+      <c r="P253" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q253" s="7">
+        <f t="shared" si="42"/>
+        <v>5797.9800000000005</v>
+      </c>
+      <c r="R253">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S253" s="26">
+        <f t="shared" si="43"/>
+        <v>1616254.1600000013</v>
+      </c>
+      <c r="T253">
+        <f t="shared" si="44"/>
+        <v>0.36002097244272591</v>
+      </c>
+    </row>
+    <row r="254" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G254">
+        <v>249</v>
+      </c>
+      <c r="H254">
+        <v>4080</v>
+      </c>
+      <c r="I254">
+        <f>SUM($H$5:H254)</f>
+        <v>448000</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="48"/>
+        <v>624.58872216027157</v>
+      </c>
+      <c r="K254">
+        <v>91</v>
+      </c>
+      <c r="L254" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M254" s="7">
+        <f t="shared" si="50"/>
+        <v>57.460100000000004</v>
+      </c>
+      <c r="O254">
+        <v>259</v>
+      </c>
+      <c r="P254" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q254" s="7">
+        <f t="shared" si="42"/>
+        <v>5803.7800000000007</v>
+      </c>
+      <c r="R254">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S254" s="26">
+        <f t="shared" si="43"/>
+        <v>1622057.9400000013</v>
+      </c>
+      <c r="T254">
+        <f t="shared" si="44"/>
+        <v>0.35908832556384718</v>
+      </c>
+    </row>
+    <row r="255" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G255">
+        <v>250</v>
+      </c>
+      <c r="H255">
+        <v>4100</v>
+      </c>
+      <c r="I255">
+        <f>SUM($H$5:H255)</f>
+        <v>452100</v>
+      </c>
+      <c r="J255">
+        <f t="shared" si="48"/>
+        <v>630.30482430504185</v>
+      </c>
+      <c r="K255">
+        <v>91</v>
+      </c>
+      <c r="L255" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M255" s="7">
+        <f t="shared" si="50"/>
+        <v>57.517600000000002</v>
+      </c>
+      <c r="O255">
+        <v>260</v>
+      </c>
+      <c r="P255" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q255" s="7">
+        <f t="shared" si="42"/>
+        <v>5809.59</v>
+      </c>
+      <c r="R255">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S255" s="26">
+        <f t="shared" si="43"/>
+        <v>1627867.5300000014</v>
+      </c>
+      <c r="T255">
+        <f t="shared" si="44"/>
+        <v>0.35816168194337616</v>
+      </c>
+    </row>
+    <row r="256" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G256">
+        <v>251</v>
+      </c>
+      <c r="H256">
+        <v>4120</v>
+      </c>
+      <c r="I256">
+        <f>SUM($H$5:H256)</f>
+        <v>456220</v>
+      </c>
+      <c r="J256">
+        <f t="shared" si="48"/>
+        <v>636.04880987490867</v>
+      </c>
+      <c r="K256">
+        <v>91</v>
+      </c>
+      <c r="L256" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M256" s="7">
+        <f t="shared" si="50"/>
+        <v>57.575200000000002</v>
+      </c>
+      <c r="O256">
+        <v>261</v>
+      </c>
+      <c r="P256" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q256" s="7">
+        <f t="shared" si="42"/>
+        <v>5815.4000000000005</v>
+      </c>
+      <c r="R256">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S256" s="26">
+        <f t="shared" si="43"/>
+        <v>1633682.9300000013</v>
+      </c>
+      <c r="T256">
+        <f t="shared" si="44"/>
+        <v>0.35724037078127002</v>
+      </c>
+    </row>
+    <row r="257" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G257">
+        <v>252</v>
+      </c>
+      <c r="H257">
+        <v>4140</v>
+      </c>
+      <c r="I257">
+        <f>SUM($H$5:H257)</f>
+        <v>460360</v>
+      </c>
+      <c r="J257">
+        <f t="shared" si="48"/>
+        <v>641.82067886987193</v>
+      </c>
+      <c r="K257">
+        <v>91</v>
+      </c>
+      <c r="L257" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M257" s="7">
+        <f t="shared" si="50"/>
+        <v>57.632800000000003</v>
+      </c>
+      <c r="O257">
+        <v>262</v>
+      </c>
+      <c r="P257" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q257" s="7">
+        <f t="shared" si="42"/>
+        <v>5821.22</v>
+      </c>
+      <c r="R257">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S257" s="26">
+        <f t="shared" si="43"/>
+        <v>1639504.1500000013</v>
+      </c>
+      <c r="T257">
+        <f t="shared" si="44"/>
+        <v>0.35632495713228557</v>
+      </c>
+    </row>
+    <row r="258" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G258">
+        <v>253</v>
+      </c>
+      <c r="H258">
+        <v>4160</v>
+      </c>
+      <c r="I258">
+        <f>SUM($H$5:H258)</f>
+        <v>464520</v>
+      </c>
+      <c r="J258">
+        <f t="shared" si="48"/>
+        <v>647.62043128993162</v>
+      </c>
+      <c r="K258">
+        <v>91</v>
+      </c>
+      <c r="L258" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M258" s="7">
+        <f t="shared" si="50"/>
+        <v>57.6905</v>
+      </c>
+      <c r="O258">
+        <v>263</v>
+      </c>
+      <c r="P258" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q258" s="7">
+        <f t="shared" si="42"/>
+        <v>5827.05</v>
+      </c>
+      <c r="R258">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S258" s="26">
+        <f t="shared" si="43"/>
+        <v>1645331.2000000014</v>
+      </c>
+      <c r="T258">
+        <f t="shared" si="44"/>
+        <v>0.35541538580430199</v>
+      </c>
+    </row>
+    <row r="259" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G259">
+        <v>254</v>
+      </c>
+      <c r="H259">
+        <v>4180</v>
+      </c>
+      <c r="I259">
+        <f>SUM($H$5:H259)</f>
+        <v>468700</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="48"/>
+        <v>653.44806713508763</v>
+      </c>
+      <c r="K259">
+        <v>91</v>
+      </c>
+      <c r="L259" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M259" s="7">
+        <f t="shared" si="50"/>
+        <v>57.748200000000004</v>
+      </c>
+      <c r="O259">
+        <v>264</v>
+      </c>
+      <c r="P259" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q259" s="7">
+        <f t="shared" si="42"/>
+        <v>5832.88</v>
+      </c>
+      <c r="R259">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S259" s="26">
+        <f t="shared" si="43"/>
+        <v>1651164.0800000012</v>
+      </c>
+      <c r="T259">
+        <f t="shared" si="44"/>
+        <v>0.35451099450371354</v>
+      </c>
+    </row>
+    <row r="260" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G260">
+        <v>255</v>
+      </c>
+      <c r="H260">
+        <v>4200</v>
+      </c>
+      <c r="I260">
+        <f>SUM($H$5:H260)</f>
+        <v>472900</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="48"/>
+        <v>659.30358640534018</v>
+      </c>
+      <c r="K260">
+        <v>91</v>
+      </c>
+      <c r="L260" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M260" s="7">
+        <f t="shared" si="50"/>
+        <v>57.806000000000004</v>
+      </c>
+      <c r="O260">
+        <v>265</v>
+      </c>
+      <c r="P260" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q260" s="7">
+        <f t="shared" si="42"/>
+        <v>5838.72</v>
+      </c>
+      <c r="R260">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S260" s="26">
+        <f t="shared" si="43"/>
+        <v>1657002.8000000012</v>
+      </c>
+      <c r="T260">
+        <f t="shared" si="44"/>
+        <v>0.35361234360185256</v>
+      </c>
+    </row>
+    <row r="261" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G261">
+        <v>256</v>
+      </c>
+      <c r="H261">
+        <v>4220</v>
+      </c>
+      <c r="I261">
+        <f>SUM($H$5:H261)</f>
+        <v>477120</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="48"/>
+        <v>665.18698910068917</v>
+      </c>
+      <c r="K261">
+        <v>91</v>
+      </c>
+      <c r="L261" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M261" s="7">
+        <f t="shared" si="50"/>
+        <v>57.863900000000001</v>
+      </c>
+      <c r="O261">
+        <v>266</v>
+      </c>
+      <c r="P261" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q261" s="7">
+        <f t="shared" si="42"/>
+        <v>5844.56</v>
+      </c>
+      <c r="R261">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S261" s="26">
+        <f t="shared" si="43"/>
+        <v>1662847.3600000013</v>
+      </c>
+      <c r="T261">
+        <f t="shared" si="44"/>
+        <v>0.35271877633520304</v>
+      </c>
+    </row>
+    <row r="262" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G262">
+        <v>257</v>
+      </c>
+      <c r="H262">
+        <v>4240</v>
+      </c>
+      <c r="I262">
+        <f>SUM($H$5:H262)</f>
+        <v>481360</v>
+      </c>
+      <c r="J262">
+        <f t="shared" si="48"/>
+        <v>671.0982752211346</v>
+      </c>
+      <c r="K262">
+        <v>91</v>
+      </c>
+      <c r="L262" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M262" s="7">
+        <f t="shared" si="50"/>
+        <v>57.921800000000005</v>
+      </c>
+      <c r="O262">
+        <v>267</v>
+      </c>
+      <c r="P262" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q262" s="7">
+        <f t="shared" si="42"/>
+        <v>5850.41</v>
+      </c>
+      <c r="R262">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S262" s="26">
+        <f t="shared" si="43"/>
+        <v>1668697.7700000012</v>
+      </c>
+      <c r="T262">
+        <f t="shared" si="44"/>
+        <v>0.35183084994643832</v>
+      </c>
+    </row>
+    <row r="263" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G263">
+        <v>258</v>
+      </c>
+      <c r="H263">
+        <v>4260</v>
+      </c>
+      <c r="I263">
+        <f>SUM($H$5:H263)</f>
+        <v>485620</v>
+      </c>
+      <c r="J263">
+        <f t="shared" si="48"/>
+        <v>677.03744476667646</v>
+      </c>
+      <c r="K263">
+        <v>91</v>
+      </c>
+      <c r="L263" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M263" s="7">
+        <f t="shared" si="50"/>
+        <v>57.979800000000004</v>
+      </c>
+      <c r="O263">
+        <v>268</v>
+      </c>
+      <c r="P263" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q263" s="7">
+        <f t="shared" si="42"/>
+        <v>5856.27</v>
+      </c>
+      <c r="R263">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S263" s="26">
+        <f t="shared" si="43"/>
+        <v>1674554.0400000012</v>
+      </c>
+      <c r="T263">
+        <f t="shared" si="44"/>
+        <v>0.35094851238400193</v>
+      </c>
+    </row>
+    <row r="264" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G264">
+        <v>259</v>
+      </c>
+      <c r="H264">
+        <v>4280</v>
+      </c>
+      <c r="I264">
+        <f>SUM($H$5:H264)</f>
+        <v>489900</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="48"/>
+        <v>683.00449773731486</v>
+      </c>
+      <c r="K264">
+        <v>91</v>
+      </c>
+      <c r="L264" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M264" s="7">
+        <f t="shared" si="50"/>
+        <v>58.037800000000004</v>
+      </c>
+      <c r="O264">
+        <v>269</v>
+      </c>
+      <c r="P264" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q264" s="7">
+        <f t="shared" si="42"/>
+        <v>5862.13</v>
+      </c>
+      <c r="R264">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S264" s="26">
+        <f t="shared" si="43"/>
+        <v>1680416.1700000011</v>
+      </c>
+      <c r="T264">
+        <f t="shared" si="44"/>
+        <v>0.35007111505340754</v>
+      </c>
+    </row>
+    <row r="265" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G265">
+        <v>260</v>
+      </c>
+      <c r="H265">
+        <v>4300</v>
+      </c>
+      <c r="I265">
+        <f>SUM($H$5:H265)</f>
+        <v>494200</v>
+      </c>
+      <c r="J265">
+        <f t="shared" si="48"/>
+        <v>688.99943413304959</v>
+      </c>
+      <c r="K265">
+        <v>91</v>
+      </c>
+      <c r="L265" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M265" s="7">
+        <f t="shared" si="50"/>
+        <v>58.0959</v>
+      </c>
+      <c r="O265">
+        <v>270</v>
+      </c>
+      <c r="P265" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q265" s="7">
+        <f t="shared" si="42"/>
+        <v>5868</v>
+      </c>
+      <c r="R265">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S265" s="26">
+        <f t="shared" si="43"/>
+        <v>1686284.1700000011</v>
+      </c>
+      <c r="T265">
+        <f t="shared" si="44"/>
+        <v>0.34919921057412795</v>
+      </c>
+    </row>
+    <row r="266" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G266">
+        <v>261</v>
+      </c>
+      <c r="H266">
+        <v>4320</v>
+      </c>
+      <c r="I266">
+        <f>SUM($H$5:H266)</f>
+        <v>498520</v>
+      </c>
+      <c r="J266">
+        <f t="shared" si="48"/>
+        <v>695.02225395388075</v>
+      </c>
+      <c r="K266">
+        <v>91</v>
+      </c>
+      <c r="L266" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M266" s="7">
+        <f t="shared" si="50"/>
+        <v>58.154000000000003</v>
+      </c>
+      <c r="O266">
+        <v>271</v>
+      </c>
+      <c r="P266" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q266" s="7">
+        <f t="shared" si="42"/>
+        <v>5873.87</v>
+      </c>
+      <c r="R266">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S266" s="26">
+        <f t="shared" si="43"/>
+        <v>1692158.0400000012</v>
+      </c>
+      <c r="T266">
+        <f t="shared" si="44"/>
+        <v>0.3483321556650863</v>
+      </c>
+    </row>
+    <row r="267" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G267">
+        <v>262</v>
+      </c>
+      <c r="H267">
+        <v>4340</v>
+      </c>
+      <c r="I267">
+        <f>SUM($H$5:H267)</f>
+        <v>502860</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="48"/>
+        <v>701.07295719980834</v>
+      </c>
+      <c r="K267">
+        <v>91</v>
+      </c>
+      <c r="L267" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M267" s="7">
+        <f t="shared" si="50"/>
+        <v>58.212200000000003</v>
+      </c>
+      <c r="O267">
+        <v>272</v>
+      </c>
+      <c r="P267" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q267" s="7">
+        <f t="shared" si="42"/>
+        <v>5879.75</v>
+      </c>
+      <c r="R267">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S267" s="26">
+        <f t="shared" si="43"/>
+        <v>1698037.7900000012</v>
+      </c>
+      <c r="T267">
+        <f t="shared" si="44"/>
+        <v>0.34747049985945733</v>
+      </c>
+    </row>
+    <row r="268" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G268">
+        <v>263</v>
+      </c>
+      <c r="H268">
+        <v>4360</v>
+      </c>
+      <c r="I268">
+        <f>SUM($H$5:H268)</f>
+        <v>507220</v>
+      </c>
+      <c r="J268">
+        <f t="shared" si="48"/>
+        <v>707.15154387083248</v>
+      </c>
+      <c r="K268">
+        <v>91</v>
+      </c>
+      <c r="L268" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M268" s="7">
+        <f t="shared" si="50"/>
+        <v>58.270499999999998</v>
+      </c>
+      <c r="O268">
+        <v>273</v>
+      </c>
+      <c r="P268" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q268" s="7">
+        <f t="shared" si="42"/>
+        <v>5885.63</v>
+      </c>
+      <c r="R268">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S268" s="26">
+        <f t="shared" si="43"/>
+        <v>1703923.4200000011</v>
+      </c>
+      <c r="T268">
+        <f t="shared" si="44"/>
+        <v>0.34661360510709743</v>
+      </c>
+    </row>
+    <row r="269" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G269">
+        <v>264</v>
+      </c>
+      <c r="H269">
+        <v>4380</v>
+      </c>
+      <c r="I269">
+        <f>SUM($H$5:H269)</f>
+        <v>511600</v>
+      </c>
+      <c r="J269">
+        <f t="shared" si="48"/>
+        <v>713.25801396695294</v>
+      </c>
+      <c r="K269">
+        <v>91</v>
+      </c>
+      <c r="L269" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M269" s="7">
+        <f t="shared" si="50"/>
+        <v>58.328800000000001</v>
+      </c>
+      <c r="O269">
+        <v>274</v>
+      </c>
+      <c r="P269" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q269" s="7">
+        <f t="shared" si="42"/>
+        <v>5891.52</v>
+      </c>
+      <c r="R269">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S269" s="26">
+        <f t="shared" si="43"/>
+        <v>1709814.9400000011</v>
+      </c>
+      <c r="T269">
+        <f t="shared" si="44"/>
+        <v>0.34576201787284638</v>
+      </c>
+    </row>
+    <row r="270" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G270">
+        <v>265</v>
+      </c>
+      <c r="H270">
+        <v>4400</v>
+      </c>
+      <c r="I270">
+        <f>SUM($H$5:H270)</f>
+        <v>516000</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="48"/>
+        <v>719.39236748816995</v>
+      </c>
+      <c r="K270">
+        <v>91</v>
+      </c>
+      <c r="L270" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M270" s="7">
+        <f t="shared" si="50"/>
+        <v>58.3872</v>
+      </c>
+      <c r="O270">
+        <v>275</v>
+      </c>
+      <c r="P270" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q270" s="7">
+        <f t="shared" si="42"/>
+        <v>5897.42</v>
+      </c>
+      <c r="R270">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S270" s="26">
+        <f t="shared" si="43"/>
+        <v>1715712.360000001</v>
+      </c>
+      <c r="T270">
+        <f t="shared" si="44"/>
+        <v>0.34491569011555845</v>
+      </c>
+    </row>
+    <row r="271" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G271">
+        <v>266</v>
+      </c>
+      <c r="H271">
+        <v>4420</v>
+      </c>
+      <c r="I271">
+        <f>SUM($H$5:H271)</f>
+        <v>520420</v>
+      </c>
+      <c r="J271">
+        <f t="shared" si="48"/>
+        <v>725.55460443448328</v>
+      </c>
+      <c r="K271">
+        <v>91</v>
+      </c>
+      <c r="L271" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M271" s="7">
+        <f t="shared" si="50"/>
+        <v>58.445600000000006</v>
+      </c>
+      <c r="O271">
+        <v>276</v>
+      </c>
+      <c r="P271" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q271" s="7">
+        <f t="shared" si="42"/>
+        <v>5903.3200000000006</v>
+      </c>
+      <c r="R271">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S271" s="26">
+        <f t="shared" si="43"/>
+        <v>1721615.6800000011</v>
+      </c>
+      <c r="T271">
+        <f t="shared" si="44"/>
+        <v>0.34407399151685669</v>
+      </c>
+    </row>
+    <row r="272" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G272">
+        <v>267</v>
+      </c>
+      <c r="H272">
+        <v>4440</v>
+      </c>
+      <c r="I272">
+        <f>SUM($H$5:H272)</f>
+        <v>524860</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="48"/>
+        <v>731.74472480589316</v>
+      </c>
+      <c r="K272">
+        <v>91</v>
+      </c>
+      <c r="L272" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M272" s="7">
+        <f t="shared" si="50"/>
+        <v>58.504100000000001</v>
+      </c>
+      <c r="O272">
+        <v>277</v>
+      </c>
+      <c r="P272" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q272" s="7">
+        <f t="shared" ref="Q272:Q298" si="51">ROUNDUP(Q271*R272,2)</f>
+        <v>5909.2300000000005</v>
+      </c>
+      <c r="R272">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S272" s="26">
+        <f t="shared" ref="S272:S298" si="52">Q272+S271</f>
+        <v>1727524.9100000011</v>
+      </c>
+      <c r="T272">
+        <f t="shared" ref="T272:T298" si="53">((S272-S271)/S271)*100</f>
+        <v>0.34323746400822613</v>
+      </c>
+    </row>
+    <row r="273" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G273">
+        <v>268</v>
+      </c>
+      <c r="H273">
+        <v>4460</v>
+      </c>
+      <c r="I273">
+        <f>SUM($H$5:H273)</f>
+        <v>529320</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="48"/>
+        <v>737.96272860239947</v>
+      </c>
+      <c r="K273">
+        <v>91</v>
+      </c>
+      <c r="L273" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M273" s="7">
+        <f t="shared" si="50"/>
+        <v>58.562700000000007</v>
+      </c>
+      <c r="O273">
+        <v>278</v>
+      </c>
+      <c r="P273" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q273" s="7">
+        <f t="shared" si="51"/>
+        <v>5915.14</v>
+      </c>
+      <c r="R273">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S273" s="26">
+        <f t="shared" si="52"/>
+        <v>1733440.050000001</v>
+      </c>
+      <c r="T273">
+        <f t="shared" si="53"/>
+        <v>0.34240548230357465</v>
+      </c>
+    </row>
+    <row r="274" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G274">
+        <v>269</v>
+      </c>
+      <c r="H274">
+        <v>4480</v>
+      </c>
+      <c r="I274">
+        <f>SUM($H$5:H274)</f>
+        <v>533800</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="48"/>
+        <v>744.20861582400209</v>
+      </c>
+      <c r="K274">
+        <v>91</v>
+      </c>
+      <c r="L274" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M274" s="7">
+        <f t="shared" si="50"/>
+        <v>58.621299999999998</v>
+      </c>
+      <c r="O274">
+        <v>279</v>
+      </c>
+      <c r="P274" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q274" s="7">
+        <f t="shared" si="51"/>
+        <v>5921.06</v>
+      </c>
+      <c r="R274">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S274" s="26">
+        <f t="shared" si="52"/>
+        <v>1739361.110000001</v>
+      </c>
+      <c r="T274">
+        <f t="shared" si="53"/>
+        <v>0.34157858531075547</v>
+      </c>
+    </row>
+    <row r="275" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G275">
+        <v>270</v>
+      </c>
+      <c r="H275">
+        <v>4500</v>
+      </c>
+      <c r="I275">
+        <f>SUM($H$5:H275)</f>
+        <v>538300</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="48"/>
+        <v>750.48238647070127</v>
+      </c>
+      <c r="K275">
+        <v>91</v>
+      </c>
+      <c r="L275" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M275" s="7">
+        <f t="shared" si="50"/>
+        <v>58.68</v>
+      </c>
+      <c r="O275">
+        <v>280</v>
+      </c>
+      <c r="P275" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q275" s="7">
+        <f t="shared" si="51"/>
+        <v>5926.99</v>
+      </c>
+      <c r="R275">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S275" s="26">
+        <f t="shared" si="52"/>
+        <v>1745288.100000001</v>
+      </c>
+      <c r="T275">
+        <f t="shared" si="53"/>
+        <v>0.34075672762397147</v>
+      </c>
+    </row>
+    <row r="276" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G276">
+        <v>271</v>
+      </c>
+      <c r="H276">
+        <v>4520</v>
+      </c>
+      <c r="I276">
+        <f>SUM($H$5:H276)</f>
+        <v>542820</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="48"/>
+        <v>756.78404054249688</v>
+      </c>
+      <c r="K276">
+        <v>91</v>
+      </c>
+      <c r="L276" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M276" s="7">
+        <f t="shared" si="50"/>
+        <v>58.738700000000001</v>
+      </c>
+      <c r="O276">
+        <v>281</v>
+      </c>
+      <c r="P276" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q276" s="7">
+        <f t="shared" si="51"/>
+        <v>5932.92</v>
+      </c>
+      <c r="R276">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S276" s="26">
+        <f t="shared" si="52"/>
+        <v>1751221.0200000009</v>
+      </c>
+      <c r="T276">
+        <f t="shared" si="53"/>
+        <v>0.33993929139836121</v>
+      </c>
+    </row>
+    <row r="277" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G277">
+        <v>272</v>
+      </c>
+      <c r="H277">
+        <v>4540</v>
+      </c>
+      <c r="I277">
+        <f>SUM($H$5:H277)</f>
+        <v>547360</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="48"/>
+        <v>763.11357803938893</v>
+      </c>
+      <c r="K277">
+        <v>91</v>
+      </c>
+      <c r="L277" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M277" s="7">
+        <f t="shared" si="50"/>
+        <v>58.797499999999999</v>
+      </c>
+      <c r="O277">
+        <v>282</v>
+      </c>
+      <c r="P277" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q277" s="7">
+        <f t="shared" si="51"/>
+        <v>5938.8600000000006</v>
+      </c>
+      <c r="R277">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S277" s="26">
+        <f t="shared" si="52"/>
+        <v>1757159.8800000011</v>
+      </c>
+      <c r="T277">
+        <f t="shared" si="53"/>
+        <v>0.33912681107494352</v>
+      </c>
+    </row>
+    <row r="278" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G278">
+        <v>273</v>
+      </c>
+      <c r="H278">
+        <v>4560</v>
+      </c>
+      <c r="I278">
+        <f>SUM($H$5:H278)</f>
+        <v>551920</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="48"/>
+        <v>769.4709989613774</v>
+      </c>
+      <c r="K278">
+        <v>91</v>
+      </c>
+      <c r="L278" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M278" s="7">
+        <f t="shared" si="50"/>
+        <v>58.856300000000005</v>
+      </c>
+      <c r="O278">
+        <v>283</v>
+      </c>
+      <c r="P278" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q278" s="7">
+        <f t="shared" si="51"/>
+        <v>5944.8</v>
+      </c>
+      <c r="R278">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S278" s="26">
+        <f t="shared" si="52"/>
+        <v>1763104.6800000011</v>
+      </c>
+      <c r="T278">
+        <f t="shared" si="53"/>
+        <v>0.33831867365421769</v>
+      </c>
+    </row>
+    <row r="279" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G279">
+        <v>274</v>
+      </c>
+      <c r="H279">
+        <v>4580</v>
+      </c>
+      <c r="I279">
+        <f>SUM($H$5:H279)</f>
+        <v>556500</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="48"/>
+        <v>775.85630330846232</v>
+      </c>
+      <c r="K279">
+        <v>91</v>
+      </c>
+      <c r="L279" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M279" s="7">
+        <f t="shared" si="50"/>
+        <v>58.915200000000006</v>
+      </c>
+      <c r="O279">
+        <v>284</v>
+      </c>
+      <c r="P279" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q279" s="7">
+        <f t="shared" si="51"/>
+        <v>5950.75</v>
+      </c>
+      <c r="R279">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S279" s="26">
+        <f t="shared" si="52"/>
+        <v>1769055.4300000011</v>
+      </c>
+      <c r="T279">
+        <f t="shared" si="53"/>
+        <v>0.33751541059944301</v>
+      </c>
+    </row>
+    <row r="280" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G280">
+        <v>275</v>
+      </c>
+      <c r="H280">
+        <v>4600</v>
+      </c>
+      <c r="I280">
+        <f>SUM($H$5:H280)</f>
+        <v>561100</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="48"/>
+        <v>782.26949108064366</v>
+      </c>
+      <c r="K280">
+        <v>91</v>
+      </c>
+      <c r="L280" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M280" s="7">
+        <f t="shared" si="50"/>
+        <v>58.974200000000003</v>
+      </c>
+      <c r="O280">
+        <v>285</v>
+      </c>
+      <c r="P280" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q280" s="7">
+        <f t="shared" si="51"/>
+        <v>5956.71</v>
+      </c>
+      <c r="R280">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S280" s="26">
+        <f t="shared" si="52"/>
+        <v>1775012.1400000011</v>
+      </c>
+      <c r="T280">
+        <f t="shared" si="53"/>
+        <v>0.33671697895865021</v>
+      </c>
+    </row>
+    <row r="281" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G281">
+        <v>276</v>
+      </c>
+      <c r="H281">
+        <v>4620</v>
+      </c>
+      <c r="I281">
+        <f>SUM($H$5:H281)</f>
+        <v>565720</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="48"/>
+        <v>788.71056227792144</v>
+      </c>
+      <c r="K281">
+        <v>91</v>
+      </c>
+      <c r="L281" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M281" s="7">
+        <f t="shared" si="50"/>
+        <v>59.033200000000008</v>
+      </c>
+      <c r="O281">
+        <v>286</v>
+      </c>
+      <c r="P281" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q281" s="7">
+        <f t="shared" si="51"/>
+        <v>5962.67</v>
+      </c>
+      <c r="R281">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S281" s="26">
+        <f t="shared" si="52"/>
+        <v>1780974.810000001</v>
+      </c>
+      <c r="T281">
+        <f t="shared" si="53"/>
+        <v>0.33592277290001643</v>
+      </c>
+    </row>
+    <row r="282" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G282">
+        <v>277</v>
+      </c>
+      <c r="H282">
+        <v>4640</v>
+      </c>
+      <c r="I282">
+        <f>SUM($H$5:H282)</f>
+        <v>570360</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="48"/>
+        <v>795.17951690029577</v>
+      </c>
+      <c r="K282">
+        <v>91</v>
+      </c>
+      <c r="L282" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M282" s="7">
+        <f t="shared" si="50"/>
+        <v>59.092300000000002</v>
+      </c>
+      <c r="O282">
+        <v>287</v>
+      </c>
+      <c r="P282" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q282" s="7">
+        <f t="shared" si="51"/>
+        <v>5968.64</v>
+      </c>
+      <c r="R282">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S282" s="26">
+        <f t="shared" si="52"/>
+        <v>1786943.4500000009</v>
+      </c>
+      <c r="T282">
+        <f t="shared" si="53"/>
+        <v>0.33513331948810071</v>
+      </c>
+    </row>
+    <row r="283" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G283">
+        <v>278</v>
+      </c>
+      <c r="H283">
+        <v>4660</v>
+      </c>
+      <c r="I283">
+        <f>SUM($H$5:H283)</f>
+        <v>575020</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="48"/>
+        <v>801.67635494776641</v>
+      </c>
+      <c r="K283">
+        <v>91</v>
+      </c>
+      <c r="L283" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M283" s="7">
+        <f t="shared" si="50"/>
+        <v>59.151400000000002</v>
+      </c>
+      <c r="O283">
+        <v>288</v>
+      </c>
+      <c r="P283" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q283" s="7">
+        <f t="shared" si="51"/>
+        <v>5974.6100000000006</v>
+      </c>
+      <c r="R283">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S283" s="26">
+        <f t="shared" si="52"/>
+        <v>1792918.060000001</v>
+      </c>
+      <c r="T283">
+        <f t="shared" si="53"/>
+        <v>0.33434801756038218</v>
+      </c>
+    </row>
+    <row r="284" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G284">
+        <v>279</v>
+      </c>
+      <c r="H284">
+        <v>4680</v>
+      </c>
+      <c r="I284">
+        <f>SUM($H$5:H284)</f>
+        <v>579700</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="48"/>
+        <v>808.20107642033349</v>
+      </c>
+      <c r="K284">
+        <v>91</v>
+      </c>
+      <c r="L284" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M284" s="7">
+        <f t="shared" si="50"/>
+        <v>59.210600000000007</v>
+      </c>
+      <c r="O284">
+        <v>289</v>
+      </c>
+      <c r="P284" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q284" s="7">
+        <f t="shared" si="51"/>
+        <v>5980.59</v>
+      </c>
+      <c r="R284">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S284" s="26">
+        <f t="shared" si="52"/>
+        <v>1798898.6500000011</v>
+      </c>
+      <c r="T284">
+        <f t="shared" si="53"/>
+        <v>0.33356739125044454</v>
+      </c>
+    </row>
+    <row r="285" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G285">
+        <v>280</v>
+      </c>
+      <c r="H285">
+        <v>4700</v>
+      </c>
+      <c r="I285">
+        <f>SUM($H$5:H285)</f>
+        <v>584400</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="48"/>
+        <v>814.75368131799712</v>
+      </c>
+      <c r="K285">
+        <v>91</v>
+      </c>
+      <c r="L285" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M285" s="7">
+        <f t="shared" si="50"/>
+        <v>59.2699</v>
+      </c>
+      <c r="O285">
+        <v>290</v>
+      </c>
+      <c r="P285" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q285" s="7">
+        <f t="shared" si="51"/>
+        <v>5986.58</v>
+      </c>
+      <c r="R285">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S285" s="26">
+        <f t="shared" si="52"/>
+        <v>1804885.2300000011</v>
+      </c>
+      <c r="T285">
+        <f t="shared" si="53"/>
+        <v>0.33279139989348877</v>
+      </c>
+    </row>
+    <row r="286" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G286">
+        <v>281</v>
+      </c>
+      <c r="H286">
+        <v>4720</v>
+      </c>
+      <c r="I286">
+        <f>SUM($H$5:H286)</f>
+        <v>589120</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="48"/>
+        <v>821.33416964075707</v>
+      </c>
+      <c r="K286">
+        <v>91</v>
+      </c>
+      <c r="L286" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M286" s="7">
+        <f t="shared" si="50"/>
+        <v>59.3292</v>
+      </c>
+      <c r="O286">
+        <v>291</v>
+      </c>
+      <c r="P286" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q286" s="7">
+        <f t="shared" si="51"/>
+        <v>5992.5700000000006</v>
+      </c>
+      <c r="R286">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S286" s="26">
+        <f t="shared" si="52"/>
+        <v>1810877.8000000012</v>
+      </c>
+      <c r="T286">
+        <f t="shared" si="53"/>
+        <v>0.33201944923667315</v>
+      </c>
+    </row>
+    <row r="287" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G287">
+        <v>282</v>
+      </c>
+      <c r="H287">
+        <v>4740</v>
+      </c>
+      <c r="I287">
+        <f>SUM($H$5:H287)</f>
+        <v>593860</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="48"/>
+        <v>827.94254138861356</v>
+      </c>
+      <c r="K287">
+        <v>91</v>
+      </c>
+      <c r="L287" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M287" s="7">
+        <f t="shared" si="50"/>
+        <v>59.388600000000004</v>
+      </c>
+      <c r="O287">
+        <v>292</v>
+      </c>
+      <c r="P287" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q287" s="7">
+        <f t="shared" si="51"/>
+        <v>5998.5700000000006</v>
+      </c>
+      <c r="R287">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S287" s="26">
+        <f t="shared" si="52"/>
+        <v>1816876.3700000013</v>
+      </c>
+      <c r="T287">
+        <f t="shared" si="53"/>
+        <v>0.33125205908427729</v>
+      </c>
+    </row>
+    <row r="288" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G288">
+        <v>283</v>
+      </c>
+      <c r="H288">
+        <v>4760</v>
+      </c>
+      <c r="I288">
+        <f>SUM($H$5:H288)</f>
+        <v>598620</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="48"/>
+        <v>834.57879656156638</v>
+      </c>
+      <c r="K288">
+        <v>91</v>
+      </c>
+      <c r="L288" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M288" s="7">
+        <f t="shared" si="50"/>
+        <v>59.448</v>
+      </c>
+      <c r="O288">
+        <v>293</v>
+      </c>
+      <c r="P288" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q288" s="7">
+        <f t="shared" si="51"/>
+        <v>6004.5700000000006</v>
+      </c>
+      <c r="R288">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S288" s="26">
+        <f t="shared" si="52"/>
+        <v>1822880.9400000013</v>
+      </c>
+      <c r="T288">
+        <f t="shared" si="53"/>
+        <v>0.33048863968658809</v>
+      </c>
+    </row>
+    <row r="289" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G289">
+        <v>284</v>
+      </c>
+      <c r="H289">
+        <v>4780</v>
+      </c>
+      <c r="I289">
+        <f>SUM($H$5:H289)</f>
+        <v>603400</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="48"/>
+        <v>841.24293515961574</v>
+      </c>
+      <c r="K289">
+        <v>91</v>
+      </c>
+      <c r="L289" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M289" s="7">
+        <f t="shared" si="50"/>
+        <v>59.5075</v>
+      </c>
+      <c r="O289">
+        <v>294</v>
+      </c>
+      <c r="P289" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q289" s="7">
+        <f t="shared" si="51"/>
+        <v>6010.58</v>
+      </c>
+      <c r="R289">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S289" s="26">
+        <f t="shared" si="52"/>
+        <v>1828891.5200000014</v>
+      </c>
+      <c r="T289">
+        <f t="shared" si="53"/>
+        <v>0.3297297079643649</v>
+      </c>
+    </row>
+    <row r="290" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G290">
+        <v>285</v>
+      </c>
+      <c r="H290">
+        <v>4800</v>
+      </c>
+      <c r="I290">
+        <f>SUM($H$5:H290)</f>
+        <v>608200</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="48"/>
+        <v>847.93495718276154</v>
+      </c>
+      <c r="K290">
+        <v>91</v>
+      </c>
+      <c r="L290" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M290" s="7">
+        <f t="shared" si="50"/>
+        <v>59.567100000000003</v>
+      </c>
+      <c r="O290">
+        <v>295</v>
+      </c>
+      <c r="P290" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q290" s="7">
+        <f t="shared" si="51"/>
+        <v>6016.6</v>
+      </c>
+      <c r="R290">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S290" s="26">
+        <f t="shared" si="52"/>
+        <v>1834908.1200000015</v>
+      </c>
+      <c r="T290">
+        <f t="shared" si="53"/>
+        <v>0.32897522538680085</v>
+      </c>
+    </row>
+    <row r="291" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G291">
+        <v>286</v>
+      </c>
+      <c r="H291">
+        <v>4820</v>
+      </c>
+      <c r="I291">
+        <f>SUM($H$5:H291)</f>
+        <v>613020</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="48"/>
+        <v>854.65486263100377</v>
+      </c>
+      <c r="K291">
+        <v>91</v>
+      </c>
+      <c r="L291" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M291" s="7">
+        <f t="shared" si="50"/>
+        <v>59.6267</v>
+      </c>
+      <c r="O291">
+        <v>296</v>
+      </c>
+      <c r="P291" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q291" s="7">
+        <f t="shared" si="51"/>
+        <v>6022.62</v>
+      </c>
+      <c r="R291">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S291" s="26">
+        <f t="shared" si="52"/>
+        <v>1840930.7400000016</v>
+      </c>
+      <c r="T291">
+        <f t="shared" si="53"/>
+        <v>0.32822460887033988</v>
+      </c>
+    </row>
+    <row r="292" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G292">
+        <v>287</v>
+      </c>
+      <c r="H292">
+        <v>4840</v>
+      </c>
+      <c r="I292">
+        <f>SUM($H$5:H292)</f>
+        <v>617860</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="48"/>
+        <v>861.40265150434243</v>
+      </c>
+      <c r="K292">
+        <v>91</v>
+      </c>
+      <c r="L292" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M292" s="7">
+        <f t="shared" si="50"/>
+        <v>59.686400000000006</v>
+      </c>
+      <c r="O292">
+        <v>297</v>
+      </c>
+      <c r="P292" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q292" s="7">
+        <f t="shared" si="51"/>
+        <v>6028.6500000000005</v>
+      </c>
+      <c r="R292">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S292" s="26">
+        <f t="shared" si="52"/>
+        <v>1846959.3900000015</v>
+      </c>
+      <c r="T292">
+        <f t="shared" si="53"/>
+        <v>0.32747837107657302</v>
+      </c>
+    </row>
+    <row r="293" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G293">
+        <v>288</v>
+      </c>
+      <c r="H293">
+        <v>4860</v>
+      </c>
+      <c r="I293">
+        <f>SUM($H$5:H293)</f>
+        <v>622720</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="48"/>
+        <v>868.17832380277753</v>
+      </c>
+      <c r="K293">
+        <v>91</v>
+      </c>
+      <c r="L293" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M293" s="7">
+        <f t="shared" si="50"/>
+        <v>59.746100000000006</v>
+      </c>
+      <c r="O293">
+        <v>298</v>
+      </c>
+      <c r="P293" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q293" s="7">
+        <f t="shared" si="51"/>
+        <v>6034.68</v>
+      </c>
+      <c r="R293">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S293" s="26">
+        <f t="shared" si="52"/>
+        <v>1852994.0700000015</v>
+      </c>
+      <c r="T293">
+        <f t="shared" si="53"/>
+        <v>0.32673593326813372</v>
+      </c>
+    </row>
+    <row r="294" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G294">
+        <v>289</v>
+      </c>
+      <c r="H294">
+        <v>4880</v>
+      </c>
+      <c r="I294">
+        <f>SUM($H$5:H294)</f>
+        <v>627600</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="48"/>
+        <v>874.98187952630894</v>
+      </c>
+      <c r="K294">
+        <v>91</v>
+      </c>
+      <c r="L294" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M294" s="7">
+        <f t="shared" si="50"/>
+        <v>59.805900000000001</v>
+      </c>
+      <c r="O294">
+        <v>299</v>
+      </c>
+      <c r="P294" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q294" s="7">
+        <f t="shared" si="51"/>
+        <v>6040.72</v>
+      </c>
+      <c r="R294">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S294" s="26">
+        <f t="shared" si="52"/>
+        <v>1859034.7900000014</v>
+      </c>
+      <c r="T294">
+        <f t="shared" si="53"/>
+        <v>0.32599780527090233</v>
+      </c>
+    </row>
+    <row r="295" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G295">
+        <v>290</v>
+      </c>
+      <c r="H295">
+        <v>4900</v>
+      </c>
+      <c r="I295">
+        <f>SUM($H$5:H295)</f>
+        <v>632500</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="48"/>
+        <v>881.81331867493702</v>
+      </c>
+      <c r="K295">
+        <v>91</v>
+      </c>
+      <c r="L295" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M295" s="7">
+        <f t="shared" si="50"/>
+        <v>59.8658</v>
+      </c>
+      <c r="O295">
+        <v>300</v>
+      </c>
+      <c r="P295" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q295" s="7">
+        <f t="shared" si="51"/>
+        <v>6046.77</v>
+      </c>
+      <c r="R295">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S295" s="26">
+        <f t="shared" si="52"/>
+        <v>1865081.5600000015</v>
+      </c>
+      <c r="T295">
+        <f t="shared" si="53"/>
+        <v>0.3252639505471554</v>
+      </c>
+    </row>
+    <row r="296" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G296">
+        <v>291</v>
+      </c>
+      <c r="H296">
+        <v>4920</v>
+      </c>
+      <c r="I296">
+        <f>SUM($H$5:H296)</f>
+        <v>637420</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="48"/>
+        <v>888.67264124866142</v>
+      </c>
+      <c r="K296">
+        <v>91</v>
+      </c>
+      <c r="L296" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M296" s="7">
+        <f t="shared" si="50"/>
+        <v>59.925700000000006</v>
+      </c>
+      <c r="Q296" s="7"/>
+      <c r="S296" s="26"/>
+    </row>
+    <row r="297" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G297">
+        <v>292</v>
+      </c>
+      <c r="H297">
+        <v>4940</v>
+      </c>
+      <c r="I297">
+        <f>SUM($H$5:H297)</f>
+        <v>642360</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="48"/>
+        <v>895.55984724748225</v>
+      </c>
+      <c r="K297">
+        <v>91</v>
+      </c>
+      <c r="L297" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M297" s="7">
+        <f t="shared" si="50"/>
+        <v>59.985700000000008</v>
+      </c>
+      <c r="Q297" s="7"/>
+      <c r="S297" s="26"/>
+    </row>
+    <row r="298" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G298">
+        <v>293</v>
+      </c>
+      <c r="H298">
+        <v>4960</v>
+      </c>
+      <c r="I298">
+        <f>SUM($H$5:H298)</f>
+        <v>647320</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="48"/>
+        <v>902.47493667139952</v>
+      </c>
+      <c r="K298">
+        <v>91</v>
+      </c>
+      <c r="L298" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M298" s="7">
+        <f t="shared" si="50"/>
+        <v>60.045700000000004</v>
+      </c>
+      <c r="Q298" s="7"/>
+      <c r="S298" s="26"/>
+    </row>
+    <row r="299" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G299">
+        <v>294</v>
+      </c>
+      <c r="H299">
+        <v>4980</v>
+      </c>
+      <c r="I299">
+        <f>SUM($H$5:H299)</f>
+        <v>652300</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="48"/>
+        <v>909.41790952041322</v>
+      </c>
+      <c r="K299">
+        <v>91</v>
+      </c>
+      <c r="L299" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M299" s="7">
+        <f t="shared" si="50"/>
+        <v>60.105800000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G300">
+        <v>295</v>
+      </c>
+      <c r="H300">
+        <v>5000</v>
+      </c>
+      <c r="I300">
+        <f>SUM($H$5:H300)</f>
+        <v>657300</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="48"/>
+        <v>916.38876579452347</v>
+      </c>
+      <c r="K300">
+        <v>91</v>
+      </c>
+      <c r="L300" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M300" s="7">
+        <f t="shared" si="50"/>
+        <v>60.166000000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G301">
+        <v>296</v>
+      </c>
+      <c r="H301">
+        <v>5020</v>
+      </c>
+      <c r="I301">
+        <f>SUM($H$5:H301)</f>
+        <v>662320</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="48"/>
+        <v>923.38750549373003</v>
+      </c>
+      <c r="K301">
+        <v>91</v>
+      </c>
+      <c r="L301" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M301" s="7">
+        <f t="shared" si="50"/>
+        <v>60.226199999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G302">
+        <v>297</v>
+      </c>
+      <c r="H302">
+        <v>5040</v>
+      </c>
+      <c r="I302">
+        <f>SUM($H$5:H302)</f>
+        <v>667360</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="48"/>
+        <v>930.41412861803315</v>
+      </c>
+      <c r="K302">
+        <v>91</v>
+      </c>
+      <c r="L302" t="str">
+        <f t="shared" si="49"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M302" s="7">
+        <f t="shared" si="50"/>
+        <v>60.286500000000004</v>
+      </c>
+    </row>
+    <row r="303" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G303">
+        <v>298</v>
+      </c>
+      <c r="H303">
+        <v>5060</v>
+      </c>
+      <c r="I303">
+        <f>SUM($H$5:H303)</f>
+        <v>672420</v>
+      </c>
+      <c r="J303">
+        <f t="shared" ref="J303:J305" si="54">I303/$A$5</f>
+        <v>937.46863516743258</v>
+      </c>
+      <c r="K303">
+        <v>91</v>
+      </c>
+      <c r="L303" t="str">
+        <f t="shared" ref="L303:L305" si="55">IF(K303=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M303" s="7">
+        <f t="shared" ref="M303:M305" si="56">VLOOKUP(G303,O:Q,3,FALSE)/100</f>
+        <v>60.346800000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G304">
+        <v>299</v>
+      </c>
+      <c r="H304">
+        <v>5080</v>
+      </c>
+      <c r="I304">
+        <f>SUM($H$5:H304)</f>
+        <v>677500</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="54"/>
+        <v>944.55102514192856</v>
+      </c>
+      <c r="K304">
+        <v>91</v>
+      </c>
+      <c r="L304" t="str">
+        <f t="shared" si="55"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M304" s="7">
+        <f t="shared" si="56"/>
+        <v>60.407200000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G305">
+        <v>300</v>
+      </c>
+      <c r="H305">
+        <v>5100</v>
+      </c>
+      <c r="I305">
+        <f>SUM($H$5:H305)</f>
+        <v>682600</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="54"/>
+        <v>951.66129854152086</v>
+      </c>
+      <c r="K305">
+        <v>91</v>
+      </c>
+      <c r="L305" t="str">
+        <f t="shared" si="55"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M305" s="7">
+        <f t="shared" si="56"/>
+        <v>60.467700000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFBC2C-7920-4CFA-B95F-10435F0AE022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDA7BB-CEA4-45B9-A9A1-0771FC3B7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5661,6 +5661,1606 @@
       <c r="D302">
         <f>ROUNDUP(VLOOKUP(A302,Balance!G:M,7,FALSE),0)</f>
         <v>61</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <f>VLOOKUP(A303,Balance!G:H,2,FALSE)</f>
+        <v>5120</v>
+      </c>
+      <c r="C303">
+        <v>91</v>
+      </c>
+      <c r="D303">
+        <f>ROUNDUP(VLOOKUP(A303,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <f>VLOOKUP(A304,Balance!G:H,2,FALSE)</f>
+        <v>5140</v>
+      </c>
+      <c r="C304">
+        <v>91</v>
+      </c>
+      <c r="D304">
+        <f>ROUNDUP(VLOOKUP(A304,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <f>VLOOKUP(A305,Balance!G:H,2,FALSE)</f>
+        <v>5160</v>
+      </c>
+      <c r="C305">
+        <v>91</v>
+      </c>
+      <c r="D305">
+        <f>ROUNDUP(VLOOKUP(A305,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <f>VLOOKUP(A306,Balance!G:H,2,FALSE)</f>
+        <v>5180</v>
+      </c>
+      <c r="C306">
+        <v>91</v>
+      </c>
+      <c r="D306">
+        <f>ROUNDUP(VLOOKUP(A306,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <f>VLOOKUP(A307,Balance!G:H,2,FALSE)</f>
+        <v>5200</v>
+      </c>
+      <c r="C307">
+        <v>91</v>
+      </c>
+      <c r="D307">
+        <f>ROUNDUP(VLOOKUP(A307,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <f>VLOOKUP(A308,Balance!G:H,2,FALSE)</f>
+        <v>5220</v>
+      </c>
+      <c r="C308">
+        <v>91</v>
+      </c>
+      <c r="D308">
+        <f>ROUNDUP(VLOOKUP(A308,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <f>VLOOKUP(A309,Balance!G:H,2,FALSE)</f>
+        <v>5240</v>
+      </c>
+      <c r="C309">
+        <v>91</v>
+      </c>
+      <c r="D309">
+        <f>ROUNDUP(VLOOKUP(A309,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <f>VLOOKUP(A310,Balance!G:H,2,FALSE)</f>
+        <v>5260</v>
+      </c>
+      <c r="C310">
+        <v>91</v>
+      </c>
+      <c r="D310">
+        <f>ROUNDUP(VLOOKUP(A310,Balance!G:M,7,FALSE),0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <f>VLOOKUP(A311,Balance!G:H,2,FALSE)</f>
+        <v>5280</v>
+      </c>
+      <c r="C311">
+        <v>91</v>
+      </c>
+      <c r="D311">
+        <f>ROUNDUP(VLOOKUP(A311,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <f>VLOOKUP(A312,Balance!G:H,2,FALSE)</f>
+        <v>5300</v>
+      </c>
+      <c r="C312">
+        <v>91</v>
+      </c>
+      <c r="D312">
+        <f>ROUNDUP(VLOOKUP(A312,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <f>VLOOKUP(A313,Balance!G:H,2,FALSE)</f>
+        <v>5320</v>
+      </c>
+      <c r="C313">
+        <v>91</v>
+      </c>
+      <c r="D313">
+        <f>ROUNDUP(VLOOKUP(A313,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <f>VLOOKUP(A314,Balance!G:H,2,FALSE)</f>
+        <v>5340</v>
+      </c>
+      <c r="C314">
+        <v>91</v>
+      </c>
+      <c r="D314">
+        <f>ROUNDUP(VLOOKUP(A314,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <f>VLOOKUP(A315,Balance!G:H,2,FALSE)</f>
+        <v>5360</v>
+      </c>
+      <c r="C315">
+        <v>91</v>
+      </c>
+      <c r="D315">
+        <f>ROUNDUP(VLOOKUP(A315,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <f>VLOOKUP(A316,Balance!G:H,2,FALSE)</f>
+        <v>5380</v>
+      </c>
+      <c r="C316">
+        <v>91</v>
+      </c>
+      <c r="D316">
+        <f>ROUNDUP(VLOOKUP(A316,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <f>VLOOKUP(A317,Balance!G:H,2,FALSE)</f>
+        <v>5400</v>
+      </c>
+      <c r="C317">
+        <v>91</v>
+      </c>
+      <c r="D317">
+        <f>ROUNDUP(VLOOKUP(A317,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <f>VLOOKUP(A318,Balance!G:H,2,FALSE)</f>
+        <v>5420</v>
+      </c>
+      <c r="C318">
+        <v>91</v>
+      </c>
+      <c r="D318">
+        <f>ROUNDUP(VLOOKUP(A318,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <f>VLOOKUP(A319,Balance!G:H,2,FALSE)</f>
+        <v>5440</v>
+      </c>
+      <c r="C319">
+        <v>91</v>
+      </c>
+      <c r="D319">
+        <f>ROUNDUP(VLOOKUP(A319,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <f>VLOOKUP(A320,Balance!G:H,2,FALSE)</f>
+        <v>5460</v>
+      </c>
+      <c r="C320">
+        <v>91</v>
+      </c>
+      <c r="D320">
+        <f>ROUNDUP(VLOOKUP(A320,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <f>VLOOKUP(A321,Balance!G:H,2,FALSE)</f>
+        <v>5480</v>
+      </c>
+      <c r="C321">
+        <v>91</v>
+      </c>
+      <c r="D321">
+        <f>ROUNDUP(VLOOKUP(A321,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <f>VLOOKUP(A322,Balance!G:H,2,FALSE)</f>
+        <v>5500</v>
+      </c>
+      <c r="C322">
+        <v>91</v>
+      </c>
+      <c r="D322">
+        <f>ROUNDUP(VLOOKUP(A322,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <f>VLOOKUP(A323,Balance!G:H,2,FALSE)</f>
+        <v>5520</v>
+      </c>
+      <c r="C323">
+        <v>91</v>
+      </c>
+      <c r="D323">
+        <f>ROUNDUP(VLOOKUP(A323,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <f>VLOOKUP(A324,Balance!G:H,2,FALSE)</f>
+        <v>5540</v>
+      </c>
+      <c r="C324">
+        <v>91</v>
+      </c>
+      <c r="D324">
+        <f>ROUNDUP(VLOOKUP(A324,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <f>VLOOKUP(A325,Balance!G:H,2,FALSE)</f>
+        <v>5560</v>
+      </c>
+      <c r="C325">
+        <v>91</v>
+      </c>
+      <c r="D325">
+        <f>ROUNDUP(VLOOKUP(A325,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <f>VLOOKUP(A326,Balance!G:H,2,FALSE)</f>
+        <v>5580</v>
+      </c>
+      <c r="C326">
+        <v>91</v>
+      </c>
+      <c r="D326">
+        <f>ROUNDUP(VLOOKUP(A326,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <f>VLOOKUP(A327,Balance!G:H,2,FALSE)</f>
+        <v>5600</v>
+      </c>
+      <c r="C327">
+        <v>91</v>
+      </c>
+      <c r="D327">
+        <f>ROUNDUP(VLOOKUP(A327,Balance!G:M,7,FALSE),0)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <f>VLOOKUP(A328,Balance!G:H,2,FALSE)</f>
+        <v>5620</v>
+      </c>
+      <c r="C328">
+        <v>91</v>
+      </c>
+      <c r="D328">
+        <f>ROUNDUP(VLOOKUP(A328,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <f>VLOOKUP(A329,Balance!G:H,2,FALSE)</f>
+        <v>5640</v>
+      </c>
+      <c r="C329">
+        <v>91</v>
+      </c>
+      <c r="D329">
+        <f>ROUNDUP(VLOOKUP(A329,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <f>VLOOKUP(A330,Balance!G:H,2,FALSE)</f>
+        <v>5660</v>
+      </c>
+      <c r="C330">
+        <v>91</v>
+      </c>
+      <c r="D330">
+        <f>ROUNDUP(VLOOKUP(A330,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <f>VLOOKUP(A331,Balance!G:H,2,FALSE)</f>
+        <v>5680</v>
+      </c>
+      <c r="C331">
+        <v>91</v>
+      </c>
+      <c r="D331">
+        <f>ROUNDUP(VLOOKUP(A331,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <f>VLOOKUP(A332,Balance!G:H,2,FALSE)</f>
+        <v>5700</v>
+      </c>
+      <c r="C332">
+        <v>91</v>
+      </c>
+      <c r="D332">
+        <f>ROUNDUP(VLOOKUP(A332,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <f>VLOOKUP(A333,Balance!G:H,2,FALSE)</f>
+        <v>5720</v>
+      </c>
+      <c r="C333">
+        <v>91</v>
+      </c>
+      <c r="D333">
+        <f>ROUNDUP(VLOOKUP(A333,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <f>VLOOKUP(A334,Balance!G:H,2,FALSE)</f>
+        <v>5740</v>
+      </c>
+      <c r="C334">
+        <v>91</v>
+      </c>
+      <c r="D334">
+        <f>ROUNDUP(VLOOKUP(A334,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <f>VLOOKUP(A335,Balance!G:H,2,FALSE)</f>
+        <v>5760</v>
+      </c>
+      <c r="C335">
+        <v>91</v>
+      </c>
+      <c r="D335">
+        <f>ROUNDUP(VLOOKUP(A335,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <f>VLOOKUP(A336,Balance!G:H,2,FALSE)</f>
+        <v>5780</v>
+      </c>
+      <c r="C336">
+        <v>91</v>
+      </c>
+      <c r="D336">
+        <f>ROUNDUP(VLOOKUP(A336,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <f>VLOOKUP(A337,Balance!G:H,2,FALSE)</f>
+        <v>5800</v>
+      </c>
+      <c r="C337">
+        <v>91</v>
+      </c>
+      <c r="D337">
+        <f>ROUNDUP(VLOOKUP(A337,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <f>VLOOKUP(A338,Balance!G:H,2,FALSE)</f>
+        <v>5820</v>
+      </c>
+      <c r="C338">
+        <v>91</v>
+      </c>
+      <c r="D338">
+        <f>ROUNDUP(VLOOKUP(A338,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <f>VLOOKUP(A339,Balance!G:H,2,FALSE)</f>
+        <v>5840</v>
+      </c>
+      <c r="C339">
+        <v>91</v>
+      </c>
+      <c r="D339">
+        <f>ROUNDUP(VLOOKUP(A339,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <f>VLOOKUP(A340,Balance!G:H,2,FALSE)</f>
+        <v>5860</v>
+      </c>
+      <c r="C340">
+        <v>91</v>
+      </c>
+      <c r="D340">
+        <f>ROUNDUP(VLOOKUP(A340,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <f>VLOOKUP(A341,Balance!G:H,2,FALSE)</f>
+        <v>5880</v>
+      </c>
+      <c r="C341">
+        <v>91</v>
+      </c>
+      <c r="D341">
+        <f>ROUNDUP(VLOOKUP(A341,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <f>VLOOKUP(A342,Balance!G:H,2,FALSE)</f>
+        <v>5900</v>
+      </c>
+      <c r="C342">
+        <v>91</v>
+      </c>
+      <c r="D342">
+        <f>ROUNDUP(VLOOKUP(A342,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <f>VLOOKUP(A343,Balance!G:H,2,FALSE)</f>
+        <v>5920</v>
+      </c>
+      <c r="C343">
+        <v>91</v>
+      </c>
+      <c r="D343">
+        <f>ROUNDUP(VLOOKUP(A343,Balance!G:M,7,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <f>VLOOKUP(A344,Balance!G:H,2,FALSE)</f>
+        <v>5940</v>
+      </c>
+      <c r="C344">
+        <v>91</v>
+      </c>
+      <c r="D344">
+        <f>ROUNDUP(VLOOKUP(A344,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <f>VLOOKUP(A345,Balance!G:H,2,FALSE)</f>
+        <v>5960</v>
+      </c>
+      <c r="C345">
+        <v>91</v>
+      </c>
+      <c r="D345">
+        <f>ROUNDUP(VLOOKUP(A345,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <f>VLOOKUP(A346,Balance!G:H,2,FALSE)</f>
+        <v>5980</v>
+      </c>
+      <c r="C346">
+        <v>91</v>
+      </c>
+      <c r="D346">
+        <f>ROUNDUP(VLOOKUP(A346,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <f>VLOOKUP(A347,Balance!G:H,2,FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="C347">
+        <v>91</v>
+      </c>
+      <c r="D347">
+        <f>ROUNDUP(VLOOKUP(A347,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <f>VLOOKUP(A348,Balance!G:H,2,FALSE)</f>
+        <v>6020</v>
+      </c>
+      <c r="C348">
+        <v>91</v>
+      </c>
+      <c r="D348">
+        <f>ROUNDUP(VLOOKUP(A348,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <f>VLOOKUP(A349,Balance!G:H,2,FALSE)</f>
+        <v>6040</v>
+      </c>
+      <c r="C349">
+        <v>91</v>
+      </c>
+      <c r="D349">
+        <f>ROUNDUP(VLOOKUP(A349,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <f>VLOOKUP(A350,Balance!G:H,2,FALSE)</f>
+        <v>6060</v>
+      </c>
+      <c r="C350">
+        <v>91</v>
+      </c>
+      <c r="D350">
+        <f>ROUNDUP(VLOOKUP(A350,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <f>VLOOKUP(A351,Balance!G:H,2,FALSE)</f>
+        <v>6080</v>
+      </c>
+      <c r="C351">
+        <v>91</v>
+      </c>
+      <c r="D351">
+        <f>ROUNDUP(VLOOKUP(A351,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <f>VLOOKUP(A352,Balance!G:H,2,FALSE)</f>
+        <v>6100</v>
+      </c>
+      <c r="C352">
+        <v>91</v>
+      </c>
+      <c r="D352">
+        <f>ROUNDUP(VLOOKUP(A352,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <f>VLOOKUP(A353,Balance!G:H,2,FALSE)</f>
+        <v>6120</v>
+      </c>
+      <c r="C353">
+        <v>91</v>
+      </c>
+      <c r="D353">
+        <f>ROUNDUP(VLOOKUP(A353,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <f>VLOOKUP(A354,Balance!G:H,2,FALSE)</f>
+        <v>6140</v>
+      </c>
+      <c r="C354">
+        <v>91</v>
+      </c>
+      <c r="D354">
+        <f>ROUNDUP(VLOOKUP(A354,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <f>VLOOKUP(A355,Balance!G:H,2,FALSE)</f>
+        <v>6160</v>
+      </c>
+      <c r="C355">
+        <v>91</v>
+      </c>
+      <c r="D355">
+        <f>ROUNDUP(VLOOKUP(A355,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <f>VLOOKUP(A356,Balance!G:H,2,FALSE)</f>
+        <v>6180</v>
+      </c>
+      <c r="C356">
+        <v>91</v>
+      </c>
+      <c r="D356">
+        <f>ROUNDUP(VLOOKUP(A356,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <f>VLOOKUP(A357,Balance!G:H,2,FALSE)</f>
+        <v>6200</v>
+      </c>
+      <c r="C357">
+        <v>91</v>
+      </c>
+      <c r="D357">
+        <f>ROUNDUP(VLOOKUP(A357,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <f>VLOOKUP(A358,Balance!G:H,2,FALSE)</f>
+        <v>6220</v>
+      </c>
+      <c r="C358">
+        <v>91</v>
+      </c>
+      <c r="D358">
+        <f>ROUNDUP(VLOOKUP(A358,Balance!G:M,7,FALSE),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <f>VLOOKUP(A359,Balance!G:H,2,FALSE)</f>
+        <v>6240</v>
+      </c>
+      <c r="C359">
+        <v>91</v>
+      </c>
+      <c r="D359">
+        <f>ROUNDUP(VLOOKUP(A359,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <f>VLOOKUP(A360,Balance!G:H,2,FALSE)</f>
+        <v>6260</v>
+      </c>
+      <c r="C360">
+        <v>91</v>
+      </c>
+      <c r="D360">
+        <f>ROUNDUP(VLOOKUP(A360,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <f>VLOOKUP(A361,Balance!G:H,2,FALSE)</f>
+        <v>6280</v>
+      </c>
+      <c r="C361">
+        <v>91</v>
+      </c>
+      <c r="D361">
+        <f>ROUNDUP(VLOOKUP(A361,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <f>VLOOKUP(A362,Balance!G:H,2,FALSE)</f>
+        <v>6300</v>
+      </c>
+      <c r="C362">
+        <v>91</v>
+      </c>
+      <c r="D362">
+        <f>ROUNDUP(VLOOKUP(A362,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <f>VLOOKUP(A363,Balance!G:H,2,FALSE)</f>
+        <v>6320</v>
+      </c>
+      <c r="C363">
+        <v>91</v>
+      </c>
+      <c r="D363">
+        <f>ROUNDUP(VLOOKUP(A363,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <f>VLOOKUP(A364,Balance!G:H,2,FALSE)</f>
+        <v>6340</v>
+      </c>
+      <c r="C364">
+        <v>91</v>
+      </c>
+      <c r="D364">
+        <f>ROUNDUP(VLOOKUP(A364,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <f>VLOOKUP(A365,Balance!G:H,2,FALSE)</f>
+        <v>6360</v>
+      </c>
+      <c r="C365">
+        <v>91</v>
+      </c>
+      <c r="D365">
+        <f>ROUNDUP(VLOOKUP(A365,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <f>VLOOKUP(A366,Balance!G:H,2,FALSE)</f>
+        <v>6380</v>
+      </c>
+      <c r="C366">
+        <v>91</v>
+      </c>
+      <c r="D366">
+        <f>ROUNDUP(VLOOKUP(A366,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <f>VLOOKUP(A367,Balance!G:H,2,FALSE)</f>
+        <v>6400</v>
+      </c>
+      <c r="C367">
+        <v>91</v>
+      </c>
+      <c r="D367">
+        <f>ROUNDUP(VLOOKUP(A367,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <f>VLOOKUP(A368,Balance!G:H,2,FALSE)</f>
+        <v>6420</v>
+      </c>
+      <c r="C368">
+        <v>91</v>
+      </c>
+      <c r="D368">
+        <f>ROUNDUP(VLOOKUP(A368,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <f>VLOOKUP(A369,Balance!G:H,2,FALSE)</f>
+        <v>6440</v>
+      </c>
+      <c r="C369">
+        <v>91</v>
+      </c>
+      <c r="D369">
+        <f>ROUNDUP(VLOOKUP(A369,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <f>VLOOKUP(A370,Balance!G:H,2,FALSE)</f>
+        <v>6460</v>
+      </c>
+      <c r="C370">
+        <v>91</v>
+      </c>
+      <c r="D370">
+        <f>ROUNDUP(VLOOKUP(A370,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <f>VLOOKUP(A371,Balance!G:H,2,FALSE)</f>
+        <v>6480</v>
+      </c>
+      <c r="C371">
+        <v>91</v>
+      </c>
+      <c r="D371">
+        <f>ROUNDUP(VLOOKUP(A371,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <f>VLOOKUP(A372,Balance!G:H,2,FALSE)</f>
+        <v>6500</v>
+      </c>
+      <c r="C372">
+        <v>91</v>
+      </c>
+      <c r="D372">
+        <f>ROUNDUP(VLOOKUP(A372,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <f>VLOOKUP(A373,Balance!G:H,2,FALSE)</f>
+        <v>6520</v>
+      </c>
+      <c r="C373">
+        <v>91</v>
+      </c>
+      <c r="D373">
+        <f>ROUNDUP(VLOOKUP(A373,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <f>VLOOKUP(A374,Balance!G:H,2,FALSE)</f>
+        <v>6540</v>
+      </c>
+      <c r="C374">
+        <v>91</v>
+      </c>
+      <c r="D374">
+        <f>ROUNDUP(VLOOKUP(A374,Balance!G:M,7,FALSE),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <f>VLOOKUP(A375,Balance!G:H,2,FALSE)</f>
+        <v>6560</v>
+      </c>
+      <c r="C375">
+        <v>91</v>
+      </c>
+      <c r="D375">
+        <f>ROUNDUP(VLOOKUP(A375,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <f>VLOOKUP(A376,Balance!G:H,2,FALSE)</f>
+        <v>6580</v>
+      </c>
+      <c r="C376">
+        <v>91</v>
+      </c>
+      <c r="D376">
+        <f>ROUNDUP(VLOOKUP(A376,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <f>VLOOKUP(A377,Balance!G:H,2,FALSE)</f>
+        <v>6600</v>
+      </c>
+      <c r="C377">
+        <v>91</v>
+      </c>
+      <c r="D377">
+        <f>ROUNDUP(VLOOKUP(A377,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <f>VLOOKUP(A378,Balance!G:H,2,FALSE)</f>
+        <v>6620</v>
+      </c>
+      <c r="C378">
+        <v>91</v>
+      </c>
+      <c r="D378">
+        <f>ROUNDUP(VLOOKUP(A378,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <f>VLOOKUP(A379,Balance!G:H,2,FALSE)</f>
+        <v>6640</v>
+      </c>
+      <c r="C379">
+        <v>91</v>
+      </c>
+      <c r="D379">
+        <f>ROUNDUP(VLOOKUP(A379,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <f>VLOOKUP(A380,Balance!G:H,2,FALSE)</f>
+        <v>6660</v>
+      </c>
+      <c r="C380">
+        <v>91</v>
+      </c>
+      <c r="D380">
+        <f>ROUNDUP(VLOOKUP(A380,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <f>VLOOKUP(A381,Balance!G:H,2,FALSE)</f>
+        <v>6680</v>
+      </c>
+      <c r="C381">
+        <v>91</v>
+      </c>
+      <c r="D381">
+        <f>ROUNDUP(VLOOKUP(A381,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <f>VLOOKUP(A382,Balance!G:H,2,FALSE)</f>
+        <v>6700</v>
+      </c>
+      <c r="C382">
+        <v>91</v>
+      </c>
+      <c r="D382">
+        <f>ROUNDUP(VLOOKUP(A382,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <f>VLOOKUP(A383,Balance!G:H,2,FALSE)</f>
+        <v>6720</v>
+      </c>
+      <c r="C383">
+        <v>91</v>
+      </c>
+      <c r="D383">
+        <f>ROUNDUP(VLOOKUP(A383,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <f>VLOOKUP(A384,Balance!G:H,2,FALSE)</f>
+        <v>6740</v>
+      </c>
+      <c r="C384">
+        <v>91</v>
+      </c>
+      <c r="D384">
+        <f>ROUNDUP(VLOOKUP(A384,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <f>VLOOKUP(A385,Balance!G:H,2,FALSE)</f>
+        <v>6760</v>
+      </c>
+      <c r="C385">
+        <v>91</v>
+      </c>
+      <c r="D385">
+        <f>ROUNDUP(VLOOKUP(A385,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <f>VLOOKUP(A386,Balance!G:H,2,FALSE)</f>
+        <v>6780</v>
+      </c>
+      <c r="C386">
+        <v>91</v>
+      </c>
+      <c r="D386">
+        <f>ROUNDUP(VLOOKUP(A386,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <f>VLOOKUP(A387,Balance!G:H,2,FALSE)</f>
+        <v>6800</v>
+      </c>
+      <c r="C387">
+        <v>91</v>
+      </c>
+      <c r="D387">
+        <f>ROUNDUP(VLOOKUP(A387,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <f>VLOOKUP(A388,Balance!G:H,2,FALSE)</f>
+        <v>6820</v>
+      </c>
+      <c r="C388">
+        <v>91</v>
+      </c>
+      <c r="D388">
+        <f>ROUNDUP(VLOOKUP(A388,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <f>VLOOKUP(A389,Balance!G:H,2,FALSE)</f>
+        <v>6840</v>
+      </c>
+      <c r="C389">
+        <v>91</v>
+      </c>
+      <c r="D389">
+        <f>ROUNDUP(VLOOKUP(A389,Balance!G:M,7,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <f>VLOOKUP(A390,Balance!G:H,2,FALSE)</f>
+        <v>6860</v>
+      </c>
+      <c r="C390">
+        <v>91</v>
+      </c>
+      <c r="D390">
+        <f>ROUNDUP(VLOOKUP(A390,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <f>VLOOKUP(A391,Balance!G:H,2,FALSE)</f>
+        <v>6880</v>
+      </c>
+      <c r="C391">
+        <v>91</v>
+      </c>
+      <c r="D391">
+        <f>ROUNDUP(VLOOKUP(A391,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <f>VLOOKUP(A392,Balance!G:H,2,FALSE)</f>
+        <v>6900</v>
+      </c>
+      <c r="C392">
+        <v>91</v>
+      </c>
+      <c r="D392">
+        <f>ROUNDUP(VLOOKUP(A392,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <f>VLOOKUP(A393,Balance!G:H,2,FALSE)</f>
+        <v>6920</v>
+      </c>
+      <c r="C393">
+        <v>91</v>
+      </c>
+      <c r="D393">
+        <f>ROUNDUP(VLOOKUP(A393,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <f>VLOOKUP(A394,Balance!G:H,2,FALSE)</f>
+        <v>6940</v>
+      </c>
+      <c r="C394">
+        <v>91</v>
+      </c>
+      <c r="D394">
+        <f>ROUNDUP(VLOOKUP(A394,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <f>VLOOKUP(A395,Balance!G:H,2,FALSE)</f>
+        <v>6960</v>
+      </c>
+      <c r="C395">
+        <v>91</v>
+      </c>
+      <c r="D395">
+        <f>ROUNDUP(VLOOKUP(A395,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <f>VLOOKUP(A396,Balance!G:H,2,FALSE)</f>
+        <v>6980</v>
+      </c>
+      <c r="C396">
+        <v>91</v>
+      </c>
+      <c r="D396">
+        <f>ROUNDUP(VLOOKUP(A396,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <f>VLOOKUP(A397,Balance!G:H,2,FALSE)</f>
+        <v>7000</v>
+      </c>
+      <c r="C397">
+        <v>91</v>
+      </c>
+      <c r="D397">
+        <f>ROUNDUP(VLOOKUP(A397,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <f>VLOOKUP(A398,Balance!G:H,2,FALSE)</f>
+        <v>7020</v>
+      </c>
+      <c r="C398">
+        <v>91</v>
+      </c>
+      <c r="D398">
+        <f>ROUNDUP(VLOOKUP(A398,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <f>VLOOKUP(A399,Balance!G:H,2,FALSE)</f>
+        <v>7040</v>
+      </c>
+      <c r="C399">
+        <v>91</v>
+      </c>
+      <c r="D399">
+        <f>ROUNDUP(VLOOKUP(A399,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <f>VLOOKUP(A400,Balance!G:H,2,FALSE)</f>
+        <v>7060</v>
+      </c>
+      <c r="C400">
+        <v>91</v>
+      </c>
+      <c r="D400">
+        <f>ROUNDUP(VLOOKUP(A400,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <f>VLOOKUP(A401,Balance!G:H,2,FALSE)</f>
+        <v>7080</v>
+      </c>
+      <c r="C401">
+        <v>91</v>
+      </c>
+      <c r="D401">
+        <f>ROUNDUP(VLOOKUP(A401,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <f>VLOOKUP(A402,Balance!G:H,2,FALSE)</f>
+        <v>7100</v>
+      </c>
+      <c r="C402">
+        <v>91</v>
+      </c>
+      <c r="D402">
+        <f>ROUNDUP(VLOOKUP(A402,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5677,10 +7277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453AAC7-AFB1-4CF3-9E66-1D0C6477225E}">
-  <dimension ref="A3:T305"/>
+  <dimension ref="A3:T405"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L302" sqref="L302"/>
+    <sheetView topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L291" sqref="L291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5935,7 +7535,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIFS(M:M,K:K,91)*100</f>
-        <v>1865081.56</v>
+        <v>2501352.62</v>
       </c>
       <c r="B9">
         <f>SUMIFS(M:M,K:K,92)</f>
@@ -14506,18 +16106,18 @@
         <v>92</v>
       </c>
       <c r="Q187" s="7">
-        <f t="shared" ref="Q187:Q211" si="33">ROUNDUP(Q186*R187,2)</f>
+        <f t="shared" ref="Q187:Q194" si="33">ROUNDUP(Q186*R187,2)</f>
         <v>5427.52</v>
       </c>
       <c r="R187">
         <v>1.0009999999999999</v>
       </c>
       <c r="S187" s="26">
-        <f t="shared" ref="S187:S211" si="34">Q187+S186</f>
+        <f t="shared" ref="S187:S194" si="34">Q187+S186</f>
         <v>1245762.1200000006</v>
       </c>
       <c r="T187">
-        <f t="shared" ref="T187:T211" si="35">((S187-S186)/S186)*100</f>
+        <f t="shared" ref="T187:T194" si="35">((S187-S186)/S186)*100</f>
         <v>0.43758514839463614</v>
       </c>
     </row>
@@ -18586,18 +20186,18 @@
         <v>92</v>
       </c>
       <c r="Q272" s="7">
-        <f t="shared" ref="Q272:Q298" si="51">ROUNDUP(Q271*R272,2)</f>
+        <f t="shared" ref="Q272:Q303" si="51">ROUNDUP(Q271*R272,2)</f>
         <v>5909.2300000000005</v>
       </c>
       <c r="R272">
         <v>1.0009999999999999</v>
       </c>
       <c r="S272" s="26">
-        <f t="shared" ref="S272:S298" si="52">Q272+S271</f>
+        <f t="shared" ref="S272:S303" si="52">Q272+S271</f>
         <v>1727524.9100000011</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T298" si="53">((S272-S271)/S271)*100</f>
+        <f t="shared" ref="T272:T303" si="53">((S272-S271)/S271)*100</f>
         <v>0.34323746400822613</v>
       </c>
     </row>
@@ -19690,7 +21290,7 @@
         <v>92</v>
       </c>
       <c r="Q295" s="7">
-        <f t="shared" si="51"/>
+        <f>ROUNDUP(Q294*R295,2)</f>
         <v>6046.77</v>
       </c>
       <c r="R295">
@@ -19731,8 +21331,27 @@
         <f t="shared" si="50"/>
         <v>59.925700000000006</v>
       </c>
-      <c r="Q296" s="7"/>
-      <c r="S296" s="26"/>
+      <c r="O296">
+        <v>301</v>
+      </c>
+      <c r="P296" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q296" s="7">
+        <f t="shared" ref="Q296:Q321" si="54">ROUNDUP(Q295*R296,2)</f>
+        <v>6052.8200000000006</v>
+      </c>
+      <c r="R296">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S296" s="26">
+        <f t="shared" ref="S296:S321" si="55">Q296+S295</f>
+        <v>1871134.3800000015</v>
+      </c>
+      <c r="T296">
+        <f t="shared" ref="T296:T321" si="56">((S296-S295)/S295)*100</f>
+        <v>0.32453379679546351</v>
+      </c>
     </row>
     <row r="297" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G297">
@@ -19760,8 +21379,27 @@
         <f t="shared" si="50"/>
         <v>59.985700000000008</v>
       </c>
-      <c r="Q297" s="7"/>
-      <c r="S297" s="26"/>
+      <c r="O297">
+        <v>302</v>
+      </c>
+      <c r="P297" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q297" s="7">
+        <f t="shared" si="54"/>
+        <v>6058.88</v>
+      </c>
+      <c r="R297">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S297" s="26">
+        <f t="shared" si="55"/>
+        <v>1877193.2600000014</v>
+      </c>
+      <c r="T297">
+        <f t="shared" si="56"/>
+        <v>0.32380784965320786</v>
+      </c>
     </row>
     <row r="298" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G298">
@@ -19789,8 +21427,27 @@
         <f t="shared" si="50"/>
         <v>60.045700000000004</v>
       </c>
-      <c r="Q298" s="7"/>
-      <c r="S298" s="26"/>
+      <c r="O298">
+        <v>303</v>
+      </c>
+      <c r="P298" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q298" s="7">
+        <f t="shared" si="54"/>
+        <v>6064.9400000000005</v>
+      </c>
+      <c r="R298">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S298" s="26">
+        <f t="shared" si="55"/>
+        <v>1883258.2000000014</v>
+      </c>
+      <c r="T298">
+        <f t="shared" si="56"/>
+        <v>0.32308554101669529</v>
+      </c>
     </row>
     <row r="299" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G299">
@@ -19818,6 +21475,27 @@
         <f t="shared" si="50"/>
         <v>60.105800000000002</v>
       </c>
+      <c r="O299">
+        <v>304</v>
+      </c>
+      <c r="P299" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q299" s="7">
+        <f t="shared" si="54"/>
+        <v>6071.01</v>
+      </c>
+      <c r="R299">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S299" s="26">
+        <f t="shared" si="55"/>
+        <v>1889329.2100000014</v>
+      </c>
+      <c r="T299">
+        <f t="shared" si="56"/>
+        <v>0.32236737373558255</v>
+      </c>
     </row>
     <row r="300" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G300">
@@ -19845,6 +21523,27 @@
         <f t="shared" si="50"/>
         <v>60.166000000000004</v>
       </c>
+      <c r="O300">
+        <v>305</v>
+      </c>
+      <c r="P300" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q300" s="7">
+        <f t="shared" si="54"/>
+        <v>6077.09</v>
+      </c>
+      <c r="R300">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S300" s="26">
+        <f t="shared" si="55"/>
+        <v>1895406.3000000014</v>
+      </c>
+      <c r="T300">
+        <f t="shared" si="56"/>
+        <v>0.32165331313541062</v>
+      </c>
     </row>
     <row r="301" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G301">
@@ -19872,6 +21571,27 @@
         <f t="shared" si="50"/>
         <v>60.226199999999999</v>
       </c>
+      <c r="O301">
+        <v>306</v>
+      </c>
+      <c r="P301" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q301" s="7">
+        <f t="shared" si="54"/>
+        <v>6083.17</v>
+      </c>
+      <c r="R301">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S301" s="26">
+        <f t="shared" si="55"/>
+        <v>1901489.4700000014</v>
+      </c>
+      <c r="T301">
+        <f t="shared" si="56"/>
+        <v>0.32094279733057346</v>
+      </c>
     </row>
     <row r="302" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G302">
@@ -19899,6 +21619,27 @@
         <f t="shared" si="50"/>
         <v>60.286500000000004</v>
       </c>
+      <c r="O302">
+        <v>307</v>
+      </c>
+      <c r="P302" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q302" s="7">
+        <f t="shared" si="54"/>
+        <v>6089.26</v>
+      </c>
+      <c r="R302">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S302" s="26">
+        <f t="shared" si="55"/>
+        <v>1907578.7300000014</v>
+      </c>
+      <c r="T302">
+        <f t="shared" si="56"/>
+        <v>0.32023632505311772</v>
+      </c>
     </row>
     <row r="303" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G303">
@@ -19912,19 +21653,40 @@
         <v>672420</v>
       </c>
       <c r="J303">
-        <f t="shared" ref="J303:J305" si="54">I303/$A$5</f>
+        <f t="shared" ref="J303:J366" si="57">I303/$A$5</f>
         <v>937.46863516743258</v>
       </c>
       <c r="K303">
         <v>91</v>
       </c>
       <c r="L303" t="str">
-        <f t="shared" ref="L303:L305" si="55">IF(K303=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <f t="shared" ref="L303:L366" si="58">IF(K303=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
         <v>진 요도 피해량</v>
       </c>
       <c r="M303" s="7">
-        <f t="shared" ref="M303:M305" si="56">VLOOKUP(G303,O:Q,3,FALSE)/100</f>
+        <f t="shared" ref="M303:M310" si="59">VLOOKUP(G303,O:Q,3,FALSE)/100</f>
         <v>60.346800000000002</v>
+      </c>
+      <c r="O303">
+        <v>308</v>
+      </c>
+      <c r="P303" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q303" s="7">
+        <f t="shared" si="54"/>
+        <v>6095.35</v>
+      </c>
+      <c r="R303">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S303" s="26">
+        <f t="shared" si="55"/>
+        <v>1913674.0800000015</v>
+      </c>
+      <c r="T303">
+        <f t="shared" si="56"/>
+        <v>0.31953333847458493</v>
       </c>
     </row>
     <row r="304" spans="7:20" x14ac:dyDescent="0.3">
@@ -19939,22 +21701,43 @@
         <v>677500</v>
       </c>
       <c r="J304">
+        <f t="shared" si="57"/>
+        <v>944.55102514192856</v>
+      </c>
+      <c r="K304">
+        <v>91</v>
+      </c>
+      <c r="L304" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M304" s="7">
+        <f t="shared" si="59"/>
+        <v>60.407200000000003</v>
+      </c>
+      <c r="O304">
+        <v>309</v>
+      </c>
+      <c r="P304" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q304" s="7">
         <f t="shared" si="54"/>
-        <v>944.55102514192856</v>
-      </c>
-      <c r="K304">
-        <v>91</v>
-      </c>
-      <c r="L304" t="str">
+        <v>6101.45</v>
+      </c>
+      <c r="R304">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S304" s="26">
         <f t="shared" si="55"/>
-        <v>진 요도 피해량</v>
-      </c>
-      <c r="M304" s="7">
+        <v>1919775.5300000014</v>
+      </c>
+      <c r="T304">
         <f t="shared" si="56"/>
-        <v>60.407200000000003</v>
-      </c>
-    </row>
-    <row r="305" spans="7:13" x14ac:dyDescent="0.3">
+        <v>0.31883433358725055</v>
+      </c>
+    </row>
+    <row r="305" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G305">
         <v>300</v>
       </c>
@@ -19966,19 +21749,4636 @@
         <v>682600</v>
       </c>
       <c r="J305">
+        <f t="shared" si="57"/>
+        <v>951.66129854152086</v>
+      </c>
+      <c r="K305">
+        <v>91</v>
+      </c>
+      <c r="L305" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M305" s="7">
+        <f t="shared" si="59"/>
+        <v>60.467700000000008</v>
+      </c>
+      <c r="O305">
+        <v>310</v>
+      </c>
+      <c r="P305" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q305" s="7">
         <f t="shared" si="54"/>
-        <v>951.66129854152086</v>
-      </c>
-      <c r="K305">
-        <v>91</v>
-      </c>
-      <c r="L305" t="str">
+        <v>6107.56</v>
+      </c>
+      <c r="R305">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S305" s="26">
         <f t="shared" si="55"/>
-        <v>진 요도 피해량</v>
-      </c>
-      <c r="M305" s="7">
+        <v>1925883.0900000015</v>
+      </c>
+      <c r="T305">
         <f t="shared" si="56"/>
-        <v>60.467700000000008</v>
+        <v>0.31813927746021703</v>
+      </c>
+    </row>
+    <row r="306" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G306">
+        <v>301</v>
+      </c>
+      <c r="H306">
+        <v>5120</v>
+      </c>
+      <c r="I306">
+        <f>SUM($H$5:H306)</f>
+        <v>687720</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="57"/>
+        <v>958.79945536620971</v>
+      </c>
+      <c r="K306">
+        <v>91</v>
+      </c>
+      <c r="L306" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M306" s="7">
+        <f t="shared" si="59"/>
+        <v>60.528200000000005</v>
+      </c>
+      <c r="O306">
+        <v>311</v>
+      </c>
+      <c r="P306" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q306" s="7">
+        <f t="shared" si="54"/>
+        <v>6113.67</v>
+      </c>
+      <c r="R306">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S306" s="26">
+        <f t="shared" si="55"/>
+        <v>1931996.7600000014</v>
+      </c>
+      <c r="T306">
+        <f t="shared" si="56"/>
+        <v>0.31744761827676266</v>
+      </c>
+    </row>
+    <row r="307" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G307">
+        <v>302</v>
+      </c>
+      <c r="H307">
+        <v>5140</v>
+      </c>
+      <c r="I307">
+        <f>SUM($H$5:H307)</f>
+        <v>692860</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="57"/>
+        <v>965.965495615995</v>
+      </c>
+      <c r="K307">
+        <v>91</v>
+      </c>
+      <c r="L307" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M307" s="7">
+        <f t="shared" si="59"/>
+        <v>60.588799999999999</v>
+      </c>
+      <c r="O307">
+        <v>312</v>
+      </c>
+      <c r="P307" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q307" s="7">
+        <f t="shared" si="54"/>
+        <v>6119.79</v>
+      </c>
+      <c r="R307">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S307" s="26">
+        <f t="shared" si="55"/>
+        <v>1938116.5500000014</v>
+      </c>
+      <c r="T307">
+        <f t="shared" si="56"/>
+        <v>0.31675984798235546</v>
+      </c>
+    </row>
+    <row r="308" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G308">
+        <v>303</v>
+      </c>
+      <c r="H308">
+        <v>5160</v>
+      </c>
+      <c r="I308">
+        <f>SUM($H$5:H308)</f>
+        <v>698020</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="57"/>
+        <v>973.15941929087671</v>
+      </c>
+      <c r="K308">
+        <v>91</v>
+      </c>
+      <c r="L308" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M308" s="7">
+        <f t="shared" si="59"/>
+        <v>60.649400000000007</v>
+      </c>
+      <c r="O308">
+        <v>313</v>
+      </c>
+      <c r="P308" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q308" s="7">
+        <f t="shared" si="54"/>
+        <v>6125.91</v>
+      </c>
+      <c r="R308">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S308" s="26">
+        <f t="shared" si="55"/>
+        <v>1944242.4600000014</v>
+      </c>
+      <c r="T308">
+        <f t="shared" si="56"/>
+        <v>0.31607541868418138</v>
+      </c>
+    </row>
+    <row r="309" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G309">
+        <v>304</v>
+      </c>
+      <c r="H309">
+        <v>5180</v>
+      </c>
+      <c r="I309">
+        <f>SUM($H$5:H309)</f>
+        <v>703200</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="57"/>
+        <v>980.38122639085486</v>
+      </c>
+      <c r="K309">
+        <v>91</v>
+      </c>
+      <c r="L309" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M309" s="7">
+        <f t="shared" si="59"/>
+        <v>60.710100000000004</v>
+      </c>
+      <c r="O309">
+        <v>314</v>
+      </c>
+      <c r="P309" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q309" s="7">
+        <f t="shared" si="54"/>
+        <v>6132.04</v>
+      </c>
+      <c r="R309">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S309" s="26">
+        <f t="shared" si="55"/>
+        <v>1950374.5000000014</v>
+      </c>
+      <c r="T309">
+        <f t="shared" si="56"/>
+        <v>0.31539481963582017</v>
+      </c>
+    </row>
+    <row r="310" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G310">
+        <v>305</v>
+      </c>
+      <c r="H310">
+        <v>5200</v>
+      </c>
+      <c r="I310">
+        <f>SUM($H$5:H310)</f>
+        <v>708400</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="57"/>
+        <v>987.63091691592945</v>
+      </c>
+      <c r="K310">
+        <v>91</v>
+      </c>
+      <c r="L310" t="str">
+        <f t="shared" si="58"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M310" s="7">
+        <f t="shared" si="59"/>
+        <v>60.770900000000005</v>
+      </c>
+      <c r="O310">
+        <v>315</v>
+      </c>
+      <c r="P310" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q310" s="7">
+        <f t="shared" si="54"/>
+        <v>6138.18</v>
+      </c>
+      <c r="R310">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S310" s="26">
+        <f t="shared" si="55"/>
+        <v>1956512.6800000013</v>
+      </c>
+      <c r="T310">
+        <f t="shared" si="56"/>
+        <v>0.31471801953932077</v>
+      </c>
+    </row>
+    <row r="311" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G311">
+        <v>306</v>
+      </c>
+      <c r="H311">
+        <v>5220</v>
+      </c>
+      <c r="I311">
+        <f>SUM($H$5:H311)</f>
+        <v>713620</v>
+      </c>
+      <c r="J311">
+        <f t="shared" ref="J311:J374" si="60">I311/$A$5</f>
+        <v>994.90849086610046</v>
+      </c>
+      <c r="K311">
+        <v>91</v>
+      </c>
+      <c r="L311" t="str">
+        <f t="shared" ref="L311:L374" si="61">IF(K311=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M311" s="7">
+        <f t="shared" ref="M311:M374" si="62">VLOOKUP(G311,O:Q,3,FALSE)/100</f>
+        <v>60.831699999999998</v>
+      </c>
+      <c r="O311">
+        <v>316</v>
+      </c>
+      <c r="P311" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q311" s="7">
+        <f t="shared" si="54"/>
+        <v>6144.3200000000006</v>
+      </c>
+      <c r="R311">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S311" s="26">
+        <f t="shared" si="55"/>
+        <v>1962657.0000000014</v>
+      </c>
+      <c r="T311">
+        <f t="shared" si="56"/>
+        <v>0.31404447631793836</v>
+      </c>
+    </row>
+    <row r="312" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G312">
+        <v>307</v>
+      </c>
+      <c r="H312">
+        <v>5240</v>
+      </c>
+      <c r="I312">
+        <f>SUM($H$5:H312)</f>
+        <v>718860</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="60"/>
+        <v>1002.2139482413679</v>
+      </c>
+      <c r="K312">
+        <v>91</v>
+      </c>
+      <c r="L312" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M312" s="7">
+        <f t="shared" si="62"/>
+        <v>60.892600000000002</v>
+      </c>
+      <c r="O312">
+        <v>317</v>
+      </c>
+      <c r="P312" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q312" s="7">
+        <f t="shared" si="54"/>
+        <v>6150.47</v>
+      </c>
+      <c r="R312">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S312" s="26">
+        <f t="shared" si="55"/>
+        <v>1968807.4700000014</v>
+      </c>
+      <c r="T312">
+        <f t="shared" si="56"/>
+        <v>0.31337467524890839</v>
+      </c>
+    </row>
+    <row r="313" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G313">
+        <v>308</v>
+      </c>
+      <c r="H313">
+        <v>5260</v>
+      </c>
+      <c r="I313">
+        <f>SUM($H$5:H313)</f>
+        <v>724120</v>
+      </c>
+      <c r="J313">
+        <f t="shared" si="60"/>
+        <v>1009.5472890417318</v>
+      </c>
+      <c r="K313">
+        <v>91</v>
+      </c>
+      <c r="L313" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M313" s="7">
+        <f t="shared" si="62"/>
+        <v>60.953500000000005</v>
+      </c>
+      <c r="O313">
+        <v>318</v>
+      </c>
+      <c r="P313" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q313" s="7">
+        <f t="shared" si="54"/>
+        <v>6156.63</v>
+      </c>
+      <c r="R313">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S313" s="26">
+        <f t="shared" si="55"/>
+        <v>1974964.1000000013</v>
+      </c>
+      <c r="T313">
+        <f t="shared" si="56"/>
+        <v>0.3127085859746298</v>
+      </c>
+    </row>
+    <row r="314" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G314">
+        <v>309</v>
+      </c>
+      <c r="H314">
+        <v>5280</v>
+      </c>
+      <c r="I314">
+        <f>SUM($H$5:H314)</f>
+        <v>729400</v>
+      </c>
+      <c r="J314">
+        <f t="shared" si="60"/>
+        <v>1016.9085132671921</v>
+      </c>
+      <c r="K314">
+        <v>91</v>
+      </c>
+      <c r="L314" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M314" s="7">
+        <f t="shared" si="62"/>
+        <v>61.014499999999998</v>
+      </c>
+      <c r="O314">
+        <v>319</v>
+      </c>
+      <c r="P314" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q314" s="7">
+        <f t="shared" si="54"/>
+        <v>6162.79</v>
+      </c>
+      <c r="R314">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S314" s="26">
+        <f t="shared" si="55"/>
+        <v>1981126.8900000013</v>
+      </c>
+      <c r="T314">
+        <f t="shared" si="56"/>
+        <v>0.31204567212133294</v>
+      </c>
+    </row>
+    <row r="315" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G315">
+        <v>310</v>
+      </c>
+      <c r="H315">
+        <v>5300</v>
+      </c>
+      <c r="I315">
+        <f>SUM($H$5:H315)</f>
+        <v>734700</v>
+      </c>
+      <c r="J315">
+        <f t="shared" si="60"/>
+        <v>1024.2976209177489</v>
+      </c>
+      <c r="K315">
+        <v>91</v>
+      </c>
+      <c r="L315" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M315" s="7">
+        <f t="shared" si="62"/>
+        <v>61.075600000000001</v>
+      </c>
+      <c r="O315">
+        <v>320</v>
+      </c>
+      <c r="P315" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q315" s="7">
+        <f t="shared" si="54"/>
+        <v>6168.96</v>
+      </c>
+      <c r="R315">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S315" s="26">
+        <f t="shared" si="55"/>
+        <v>1987295.8500000013</v>
+      </c>
+      <c r="T315">
+        <f t="shared" si="56"/>
+        <v>0.31138641503169739</v>
+      </c>
+    </row>
+    <row r="316" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G316">
+        <v>311</v>
+      </c>
+      <c r="H316">
+        <v>5320</v>
+      </c>
+      <c r="I316">
+        <f>SUM($H$5:H316)</f>
+        <v>740020</v>
+      </c>
+      <c r="J316">
+        <f t="shared" si="60"/>
+        <v>1031.7146119934021</v>
+      </c>
+      <c r="K316">
+        <v>91</v>
+      </c>
+      <c r="L316" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M316" s="7">
+        <f t="shared" si="62"/>
+        <v>61.136699999999998</v>
+      </c>
+      <c r="O316">
+        <v>321</v>
+      </c>
+      <c r="P316" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q316" s="7">
+        <f t="shared" si="54"/>
+        <v>6175.13</v>
+      </c>
+      <c r="R316">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S316" s="26">
+        <f t="shared" si="55"/>
+        <v>1993470.9800000011</v>
+      </c>
+      <c r="T316">
+        <f t="shared" si="56"/>
+        <v>0.31073028205638753</v>
+      </c>
+    </row>
+    <row r="317" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G317">
+        <v>312</v>
+      </c>
+      <c r="H317">
+        <v>5340</v>
+      </c>
+      <c r="I317">
+        <f>SUM($H$5:H317)</f>
+        <v>745360</v>
+      </c>
+      <c r="J317">
+        <f t="shared" si="60"/>
+        <v>1039.1594864941519</v>
+      </c>
+      <c r="K317">
+        <v>91</v>
+      </c>
+      <c r="L317" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M317" s="7">
+        <f t="shared" si="62"/>
+        <v>61.197899999999997</v>
+      </c>
+      <c r="O317">
+        <v>322</v>
+      </c>
+      <c r="P317" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q317" s="7">
+        <f t="shared" si="54"/>
+        <v>6181.31</v>
+      </c>
+      <c r="R317">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S317" s="26">
+        <f t="shared" si="55"/>
+        <v>1999652.2900000012</v>
+      </c>
+      <c r="T317">
+        <f t="shared" si="56"/>
+        <v>0.31007775192192927</v>
+      </c>
+    </row>
+    <row r="318" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G318">
+        <v>313</v>
+      </c>
+      <c r="H318">
+        <v>5360</v>
+      </c>
+      <c r="I318">
+        <f>SUM($H$5:H318)</f>
+        <v>750720</v>
+      </c>
+      <c r="J318">
+        <f t="shared" si="60"/>
+        <v>1046.632244419998</v>
+      </c>
+      <c r="K318">
+        <v>91</v>
+      </c>
+      <c r="L318" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M318" s="7">
+        <f t="shared" si="62"/>
+        <v>61.259099999999997</v>
+      </c>
+      <c r="O318">
+        <v>323</v>
+      </c>
+      <c r="P318" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q318" s="7">
+        <f t="shared" si="54"/>
+        <v>6187.5</v>
+      </c>
+      <c r="R318">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S318" s="26">
+        <f t="shared" si="55"/>
+        <v>2005839.7900000012</v>
+      </c>
+      <c r="T318">
+        <f t="shared" si="56"/>
+        <v>0.30942879574328375</v>
+      </c>
+    </row>
+    <row r="319" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G319">
+        <v>314</v>
+      </c>
+      <c r="H319">
+        <v>5380</v>
+      </c>
+      <c r="I319">
+        <f>SUM($H$5:H319)</f>
+        <v>756100</v>
+      </c>
+      <c r="J319">
+        <f t="shared" si="60"/>
+        <v>1054.1328857709404</v>
+      </c>
+      <c r="K319">
+        <v>91</v>
+      </c>
+      <c r="L319" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M319" s="7">
+        <f t="shared" si="62"/>
+        <v>61.320399999999999</v>
+      </c>
+      <c r="O319">
+        <v>324</v>
+      </c>
+      <c r="P319" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q319" s="7">
+        <f t="shared" si="54"/>
+        <v>6193.6900000000005</v>
+      </c>
+      <c r="R319">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S319" s="26">
+        <f t="shared" si="55"/>
+        <v>2012033.4800000011</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="56"/>
+        <v>0.30878288639392981</v>
+      </c>
+    </row>
+    <row r="320" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G320">
+        <v>315</v>
+      </c>
+      <c r="H320">
+        <v>5400</v>
+      </c>
+      <c r="I320">
+        <f>SUM($H$5:H320)</f>
+        <v>761500</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="60"/>
+        <v>1061.6614105469794</v>
+      </c>
+      <c r="K320">
+        <v>91</v>
+      </c>
+      <c r="L320" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M320" s="7">
+        <f t="shared" si="62"/>
+        <v>61.381800000000005</v>
+      </c>
+      <c r="O320">
+        <v>325</v>
+      </c>
+      <c r="P320" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q320" s="7">
+        <f t="shared" si="54"/>
+        <v>6199.89</v>
+      </c>
+      <c r="R320">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S320" s="26">
+        <f t="shared" si="55"/>
+        <v>2018233.370000001</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="56"/>
+        <v>0.30814049873563204</v>
+      </c>
+    </row>
+    <row r="321" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G321">
+        <v>316</v>
+      </c>
+      <c r="H321">
+        <v>5420</v>
+      </c>
+      <c r="I321">
+        <f>SUM($H$5:H321)</f>
+        <v>766920</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="60"/>
+        <v>1069.217818748115</v>
+      </c>
+      <c r="K321">
+        <v>91</v>
+      </c>
+      <c r="L321" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M321" s="7">
+        <f t="shared" si="62"/>
+        <v>61.443200000000004</v>
+      </c>
+      <c r="O321">
+        <v>326</v>
+      </c>
+      <c r="P321" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q321" s="7">
+        <f t="shared" si="54"/>
+        <v>6206.09</v>
+      </c>
+      <c r="R321">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S321" s="26">
+        <f t="shared" si="55"/>
+        <v>2024439.4600000011</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="56"/>
+        <v>0.30750110924982282</v>
+      </c>
+    </row>
+    <row r="322" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G322">
+        <v>317</v>
+      </c>
+      <c r="H322">
+        <v>5440</v>
+      </c>
+      <c r="I322">
+        <f>SUM($H$5:H322)</f>
+        <v>772360</v>
+      </c>
+      <c r="J322">
+        <f t="shared" si="60"/>
+        <v>1076.8021103743467</v>
+      </c>
+      <c r="K322">
+        <v>91</v>
+      </c>
+      <c r="L322" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M322" s="7">
+        <f t="shared" si="62"/>
+        <v>61.5047</v>
+      </c>
+      <c r="O322">
+        <v>327</v>
+      </c>
+      <c r="P322" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q322" s="7">
+        <f t="shared" ref="Q322:Q385" si="63">ROUNDUP(Q321*R322,2)</f>
+        <v>6212.3</v>
+      </c>
+      <c r="R322">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S322" s="26">
+        <f t="shared" ref="S322:S385" si="64">Q322+S321</f>
+        <v>2030651.7600000012</v>
+      </c>
+      <c r="T322">
+        <f t="shared" ref="T322:T385" si="65">((S322-S321)/S321)*100</f>
+        <v>0.3068651902290051</v>
+      </c>
+    </row>
+    <row r="323" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G323">
+        <v>318</v>
+      </c>
+      <c r="H323">
+        <v>5460</v>
+      </c>
+      <c r="I323">
+        <f>SUM($H$5:H323)</f>
+        <v>777820</v>
+      </c>
+      <c r="J323">
+        <f t="shared" si="60"/>
+        <v>1084.414285425675</v>
+      </c>
+      <c r="K323">
+        <v>91</v>
+      </c>
+      <c r="L323" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M323" s="7">
+        <f t="shared" si="62"/>
+        <v>61.566299999999998</v>
+      </c>
+      <c r="O323">
+        <v>328</v>
+      </c>
+      <c r="P323" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q323" s="7">
+        <f t="shared" si="63"/>
+        <v>6218.52</v>
+      </c>
+      <c r="R323">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S323" s="26">
+        <f t="shared" si="64"/>
+        <v>2036870.2800000012</v>
+      </c>
+      <c r="T323">
+        <f t="shared" si="65"/>
+        <v>0.30623271417054865</v>
+      </c>
+    </row>
+    <row r="324" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G324">
+        <v>319</v>
+      </c>
+      <c r="H324">
+        <v>5480</v>
+      </c>
+      <c r="I324">
+        <f>SUM($H$5:H324)</f>
+        <v>783300</v>
+      </c>
+      <c r="J324">
+        <f t="shared" si="60"/>
+        <v>1092.0543439020998</v>
+      </c>
+      <c r="K324">
+        <v>91</v>
+      </c>
+      <c r="L324" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M324" s="7">
+        <f t="shared" si="62"/>
+        <v>61.627899999999997</v>
+      </c>
+      <c r="O324">
+        <v>329</v>
+      </c>
+      <c r="P324" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q324" s="7">
+        <f t="shared" si="63"/>
+        <v>6224.74</v>
+      </c>
+      <c r="R324">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S324" s="26">
+        <f t="shared" si="64"/>
+        <v>2043095.0200000012</v>
+      </c>
+      <c r="T324">
+        <f t="shared" si="65"/>
+        <v>0.30560316290735939</v>
+      </c>
+    </row>
+    <row r="325" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G325">
+        <v>320</v>
+      </c>
+      <c r="H325">
+        <v>5500</v>
+      </c>
+      <c r="I325">
+        <f>SUM($H$5:H325)</f>
+        <v>788800</v>
+      </c>
+      <c r="J325">
+        <f t="shared" si="60"/>
+        <v>1099.7222858036209</v>
+      </c>
+      <c r="K325">
+        <v>91</v>
+      </c>
+      <c r="L325" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M325" s="7">
+        <f t="shared" si="62"/>
+        <v>61.689599999999999</v>
+      </c>
+      <c r="O325">
+        <v>330</v>
+      </c>
+      <c r="P325" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q325" s="7">
+        <f t="shared" si="63"/>
+        <v>6230.97</v>
+      </c>
+      <c r="R325">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S325" s="26">
+        <f t="shared" si="64"/>
+        <v>2049325.9900000012</v>
+      </c>
+      <c r="T325">
+        <f t="shared" si="65"/>
+        <v>0.30497700493636209</v>
+      </c>
+    </row>
+    <row r="326" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G326">
+        <v>321</v>
+      </c>
+      <c r="H326">
+        <v>5520</v>
+      </c>
+      <c r="I326">
+        <f>SUM($H$5:H326)</f>
+        <v>794320</v>
+      </c>
+      <c r="J326">
+        <f t="shared" si="60"/>
+        <v>1107.4181111302387</v>
+      </c>
+      <c r="K326">
+        <v>91</v>
+      </c>
+      <c r="L326" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M326" s="7">
+        <f t="shared" si="62"/>
+        <v>61.751300000000001</v>
+      </c>
+      <c r="O326">
+        <v>331</v>
+      </c>
+      <c r="P326" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q326" s="7">
+        <f t="shared" si="63"/>
+        <v>6237.21</v>
+      </c>
+      <c r="R326">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S326" s="26">
+        <f t="shared" si="64"/>
+        <v>2055563.2000000011</v>
+      </c>
+      <c r="T326">
+        <f t="shared" si="65"/>
+        <v>0.30435421355291353</v>
+      </c>
+    </row>
+    <row r="327" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G327">
+        <v>322</v>
+      </c>
+      <c r="H327">
+        <v>5540</v>
+      </c>
+      <c r="I327">
+        <f>SUM($H$5:H327)</f>
+        <v>799860</v>
+      </c>
+      <c r="J327">
+        <f t="shared" si="60"/>
+        <v>1115.1418198819526</v>
+      </c>
+      <c r="K327">
+        <v>91</v>
+      </c>
+      <c r="L327" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M327" s="7">
+        <f t="shared" si="62"/>
+        <v>61.813100000000006</v>
+      </c>
+      <c r="O327">
+        <v>332</v>
+      </c>
+      <c r="P327" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q327" s="7">
+        <f t="shared" si="63"/>
+        <v>6243.45</v>
+      </c>
+      <c r="R327">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S327" s="26">
+        <f t="shared" si="64"/>
+        <v>2061806.6500000011</v>
+      </c>
+      <c r="T327">
+        <f t="shared" si="65"/>
+        <v>0.30373427584225821</v>
+      </c>
+    </row>
+    <row r="328" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G328">
+        <v>323</v>
+      </c>
+      <c r="H328">
+        <v>5560</v>
+      </c>
+      <c r="I328">
+        <f>SUM($H$5:H328)</f>
+        <v>805420</v>
+      </c>
+      <c r="J328">
+        <f t="shared" si="60"/>
+        <v>1122.8934120587633</v>
+      </c>
+      <c r="K328">
+        <v>91</v>
+      </c>
+      <c r="L328" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M328" s="7">
+        <f t="shared" si="62"/>
+        <v>61.875</v>
+      </c>
+      <c r="O328">
+        <v>333</v>
+      </c>
+      <c r="P328" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q328" s="7">
+        <f t="shared" si="63"/>
+        <v>6249.7</v>
+      </c>
+      <c r="R328">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S328" s="26">
+        <f t="shared" si="64"/>
+        <v>2068056.350000001</v>
+      </c>
+      <c r="T328">
+        <f t="shared" si="65"/>
+        <v>0.30311765654650258</v>
+      </c>
+    </row>
+    <row r="329" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G329">
+        <v>324</v>
+      </c>
+      <c r="H329">
+        <v>5580</v>
+      </c>
+      <c r="I329">
+        <f>SUM($H$5:H329)</f>
+        <v>811000</v>
+      </c>
+      <c r="J329">
+        <f t="shared" si="60"/>
+        <v>1130.6728876606701</v>
+      </c>
+      <c r="K329">
+        <v>91</v>
+      </c>
+      <c r="L329" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M329" s="7">
+        <f t="shared" si="62"/>
+        <v>61.936900000000009</v>
+      </c>
+      <c r="O329">
+        <v>334</v>
+      </c>
+      <c r="P329" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q329" s="7">
+        <f t="shared" si="63"/>
+        <v>6255.95</v>
+      </c>
+      <c r="R329">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S329" s="26">
+        <f t="shared" si="64"/>
+        <v>2074312.300000001</v>
+      </c>
+      <c r="T329">
+        <f t="shared" si="65"/>
+        <v>0.30250384618387943</v>
+      </c>
+    </row>
+    <row r="330" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G330">
+        <v>325</v>
+      </c>
+      <c r="H330">
+        <v>5600</v>
+      </c>
+      <c r="I330">
+        <f>SUM($H$5:H330)</f>
+        <v>816600</v>
+      </c>
+      <c r="J330">
+        <f t="shared" si="60"/>
+        <v>1138.4802466876736</v>
+      </c>
+      <c r="K330">
+        <v>91</v>
+      </c>
+      <c r="L330" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M330" s="7">
+        <f t="shared" si="62"/>
+        <v>61.998900000000006</v>
+      </c>
+      <c r="O330">
+        <v>335</v>
+      </c>
+      <c r="P330" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q330" s="7">
+        <f t="shared" si="63"/>
+        <v>6262.21</v>
+      </c>
+      <c r="R330">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S330" s="26">
+        <f t="shared" si="64"/>
+        <v>2080574.5100000009</v>
+      </c>
+      <c r="T330">
+        <f t="shared" si="65"/>
+        <v>0.3018933070010702</v>
+      </c>
+    </row>
+    <row r="331" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G331">
+        <v>326</v>
+      </c>
+      <c r="H331">
+        <v>5620</v>
+      </c>
+      <c r="I331">
+        <f>SUM($H$5:H331)</f>
+        <v>822220</v>
+      </c>
+      <c r="J331">
+        <f t="shared" si="60"/>
+        <v>1146.3154891397735</v>
+      </c>
+      <c r="K331">
+        <v>91</v>
+      </c>
+      <c r="L331" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M331" s="7">
+        <f t="shared" si="62"/>
+        <v>62.060900000000004</v>
+      </c>
+      <c r="O331">
+        <v>336</v>
+      </c>
+      <c r="P331" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q331" s="7">
+        <f t="shared" si="63"/>
+        <v>6268.4800000000005</v>
+      </c>
+      <c r="R331">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S331" s="26">
+        <f t="shared" si="64"/>
+        <v>2086842.9900000009</v>
+      </c>
+      <c r="T331">
+        <f t="shared" si="65"/>
+        <v>0.30128601354440215</v>
+      </c>
+    </row>
+    <row r="332" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G332">
+        <v>327</v>
+      </c>
+      <c r="H332">
+        <v>5640</v>
+      </c>
+      <c r="I332">
+        <f>SUM($H$5:H332)</f>
+        <v>827860</v>
+      </c>
+      <c r="J332">
+        <f t="shared" si="60"/>
+        <v>1154.1786150169696</v>
+      </c>
+      <c r="K332">
+        <v>91</v>
+      </c>
+      <c r="L332" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M332" s="7">
+        <f t="shared" si="62"/>
+        <v>62.123000000000005</v>
+      </c>
+      <c r="O332">
+        <v>337</v>
+      </c>
+      <c r="P332" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q332" s="7">
+        <f t="shared" si="63"/>
+        <v>6274.75</v>
+      </c>
+      <c r="R332">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S332" s="26">
+        <f t="shared" si="64"/>
+        <v>2093117.7400000009</v>
+      </c>
+      <c r="T332">
+        <f t="shared" si="65"/>
+        <v>0.30068146142609403</v>
+      </c>
+    </row>
+    <row r="333" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G333">
+        <v>328</v>
+      </c>
+      <c r="H333">
+        <v>5660</v>
+      </c>
+      <c r="I333">
+        <f>SUM($H$5:H333)</f>
+        <v>833520</v>
+      </c>
+      <c r="J333">
+        <f t="shared" si="60"/>
+        <v>1162.0696243192624</v>
+      </c>
+      <c r="K333">
+        <v>91</v>
+      </c>
+      <c r="L333" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M333" s="7">
+        <f t="shared" si="62"/>
+        <v>62.185200000000002</v>
+      </c>
+      <c r="O333">
+        <v>338</v>
+      </c>
+      <c r="P333" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q333" s="7">
+        <f t="shared" si="63"/>
+        <v>6281.0300000000007</v>
+      </c>
+      <c r="R333">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S333" s="26">
+        <f t="shared" si="64"/>
+        <v>2099398.7700000009</v>
+      </c>
+      <c r="T333">
+        <f t="shared" si="65"/>
+        <v>0.30008010920589806</v>
+      </c>
+    </row>
+    <row r="334" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G334">
+        <v>329</v>
+      </c>
+      <c r="H334">
+        <v>5680</v>
+      </c>
+      <c r="I334">
+        <f>SUM($H$5:H334)</f>
+        <v>839200</v>
+      </c>
+      <c r="J334">
+        <f t="shared" si="60"/>
+        <v>1169.9885170466516</v>
+      </c>
+      <c r="K334">
+        <v>91</v>
+      </c>
+      <c r="L334" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M334" s="7">
+        <f t="shared" si="62"/>
+        <v>62.247399999999999</v>
+      </c>
+      <c r="O334">
+        <v>339</v>
+      </c>
+      <c r="P334" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q334" s="7">
+        <f t="shared" si="63"/>
+        <v>6287.3200000000006</v>
+      </c>
+      <c r="R334">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S334" s="26">
+        <f t="shared" si="64"/>
+        <v>2105686.0900000008</v>
+      </c>
+      <c r="T334">
+        <f t="shared" si="65"/>
+        <v>0.29948193215335783</v>
+      </c>
+    </row>
+    <row r="335" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G335">
+        <v>330</v>
+      </c>
+      <c r="H335">
+        <v>5700</v>
+      </c>
+      <c r="I335">
+        <f>SUM($H$5:H335)</f>
+        <v>844900</v>
+      </c>
+      <c r="J335">
+        <f t="shared" si="60"/>
+        <v>1177.935293199137</v>
+      </c>
+      <c r="K335">
+        <v>91</v>
+      </c>
+      <c r="L335" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M335" s="7">
+        <f t="shared" si="62"/>
+        <v>62.309699999999999</v>
+      </c>
+      <c r="O335">
+        <v>340</v>
+      </c>
+      <c r="P335" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q335" s="7">
+        <f t="shared" si="63"/>
+        <v>6293.6100000000006</v>
+      </c>
+      <c r="R335">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S335" s="26">
+        <f t="shared" si="64"/>
+        <v>2111979.7000000007</v>
+      </c>
+      <c r="T335">
+        <f t="shared" si="65"/>
+        <v>0.29888643088295597</v>
+      </c>
+    </row>
+    <row r="336" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G336">
+        <v>331</v>
+      </c>
+      <c r="H336">
+        <v>5720</v>
+      </c>
+      <c r="I336">
+        <f>SUM($H$5:H336)</f>
+        <v>850620</v>
+      </c>
+      <c r="J336">
+        <f t="shared" si="60"/>
+        <v>1185.9099527767191</v>
+      </c>
+      <c r="K336">
+        <v>91</v>
+      </c>
+      <c r="L336" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M336" s="7">
+        <f t="shared" si="62"/>
+        <v>62.372100000000003</v>
+      </c>
+      <c r="O336">
+        <v>341</v>
+      </c>
+      <c r="P336" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q336" s="7">
+        <f t="shared" si="63"/>
+        <v>6299.91</v>
+      </c>
+      <c r="R336">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S336" s="26">
+        <f t="shared" si="64"/>
+        <v>2118279.6100000008</v>
+      </c>
+      <c r="T336">
+        <f t="shared" si="65"/>
+        <v>0.2982940603074995</v>
+      </c>
+    </row>
+    <row r="337" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G337">
+        <v>332</v>
+      </c>
+      <c r="H337">
+        <v>5740</v>
+      </c>
+      <c r="I337">
+        <f>SUM($H$5:H337)</f>
+        <v>856360</v>
+      </c>
+      <c r="J337">
+        <f t="shared" si="60"/>
+        <v>1193.9124957793977</v>
+      </c>
+      <c r="K337">
+        <v>91</v>
+      </c>
+      <c r="L337" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M337" s="7">
+        <f t="shared" si="62"/>
+        <v>62.4345</v>
+      </c>
+      <c r="O337">
+        <v>342</v>
+      </c>
+      <c r="P337" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q337" s="7">
+        <f t="shared" si="63"/>
+        <v>6306.21</v>
+      </c>
+      <c r="R337">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S337" s="26">
+        <f t="shared" si="64"/>
+        <v>2124585.8200000008</v>
+      </c>
+      <c r="T337">
+        <f t="shared" si="65"/>
+        <v>0.29770432431249999</v>
+      </c>
+    </row>
+    <row r="338" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G338">
+        <v>333</v>
+      </c>
+      <c r="H338">
+        <v>5760</v>
+      </c>
+      <c r="I338">
+        <f>SUM($H$5:H338)</f>
+        <v>862120</v>
+      </c>
+      <c r="J338">
+        <f t="shared" si="60"/>
+        <v>1201.9429222071726</v>
+      </c>
+      <c r="K338">
+        <v>91</v>
+      </c>
+      <c r="L338" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M338" s="7">
+        <f t="shared" si="62"/>
+        <v>62.497</v>
+      </c>
+      <c r="O338">
+        <v>343</v>
+      </c>
+      <c r="P338" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q338" s="7">
+        <f t="shared" si="63"/>
+        <v>6312.52</v>
+      </c>
+      <c r="R338">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S338" s="26">
+        <f t="shared" si="64"/>
+        <v>2130898.3400000008</v>
+      </c>
+      <c r="T338">
+        <f t="shared" si="65"/>
+        <v>0.29711767538766765</v>
+      </c>
+    </row>
+    <row r="339" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G339">
+        <v>334</v>
+      </c>
+      <c r="H339">
+        <v>5780</v>
+      </c>
+      <c r="I339">
+        <f>SUM($H$5:H339)</f>
+        <v>867900</v>
+      </c>
+      <c r="J339">
+        <f t="shared" si="60"/>
+        <v>1210.001232060044</v>
+      </c>
+      <c r="K339">
+        <v>91</v>
+      </c>
+      <c r="L339" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M339" s="7">
+        <f t="shared" si="62"/>
+        <v>62.5595</v>
+      </c>
+      <c r="O339">
+        <v>344</v>
+      </c>
+      <c r="P339" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q339" s="7">
+        <f t="shared" si="63"/>
+        <v>6318.84</v>
+      </c>
+      <c r="R339">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S339" s="26">
+        <f t="shared" si="64"/>
+        <v>2137217.1800000006</v>
+      </c>
+      <c r="T339">
+        <f t="shared" si="65"/>
+        <v>0.29653408993691593</v>
+      </c>
+    </row>
+    <row r="340" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G340">
+        <v>335</v>
+      </c>
+      <c r="H340">
+        <v>5800</v>
+      </c>
+      <c r="I340">
+        <f>SUM($H$5:H340)</f>
+        <v>873700</v>
+      </c>
+      <c r="J340">
+        <f t="shared" si="60"/>
+        <v>1218.0874253380118</v>
+      </c>
+      <c r="K340">
+        <v>91</v>
+      </c>
+      <c r="L340" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M340" s="7">
+        <f t="shared" si="62"/>
+        <v>62.622100000000003</v>
+      </c>
+      <c r="O340">
+        <v>345</v>
+      </c>
+      <c r="P340" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q340" s="7">
+        <f t="shared" si="63"/>
+        <v>6325.16</v>
+      </c>
+      <c r="R340">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S340" s="26">
+        <f t="shared" si="64"/>
+        <v>2143542.3400000008</v>
+      </c>
+      <c r="T340">
+        <f t="shared" si="65"/>
+        <v>0.29595307670136484</v>
+      </c>
+    </row>
+    <row r="341" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G341">
+        <v>336</v>
+      </c>
+      <c r="H341">
+        <v>5820</v>
+      </c>
+      <c r="I341">
+        <f>SUM($H$5:H341)</f>
+        <v>879520</v>
+      </c>
+      <c r="J341">
+        <f t="shared" si="60"/>
+        <v>1226.2015020410761</v>
+      </c>
+      <c r="K341">
+        <v>91</v>
+      </c>
+      <c r="L341" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M341" s="7">
+        <f t="shared" si="62"/>
+        <v>62.684800000000003</v>
+      </c>
+      <c r="O341">
+        <v>346</v>
+      </c>
+      <c r="P341" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q341" s="7">
+        <f t="shared" si="63"/>
+        <v>6331.49</v>
+      </c>
+      <c r="R341">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S341" s="26">
+        <f t="shared" si="64"/>
+        <v>2149873.830000001</v>
+      </c>
+      <c r="T341">
+        <f t="shared" si="65"/>
+        <v>0.29537508459012857</v>
+      </c>
+    </row>
+    <row r="342" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G342">
+        <v>337</v>
+      </c>
+      <c r="H342">
+        <v>5840</v>
+      </c>
+      <c r="I342">
+        <f>SUM($H$5:H342)</f>
+        <v>885360</v>
+      </c>
+      <c r="J342">
+        <f t="shared" si="60"/>
+        <v>1234.3434621692368</v>
+      </c>
+      <c r="K342">
+        <v>91</v>
+      </c>
+      <c r="L342" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M342" s="7">
+        <f t="shared" si="62"/>
+        <v>62.747500000000002</v>
+      </c>
+      <c r="O342">
+        <v>347</v>
+      </c>
+      <c r="P342" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q342" s="7">
+        <f t="shared" si="63"/>
+        <v>6337.83</v>
+      </c>
+      <c r="R342">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S342" s="26">
+        <f t="shared" si="64"/>
+        <v>2156211.6600000011</v>
+      </c>
+      <c r="T342">
+        <f t="shared" si="65"/>
+        <v>0.29480009066392848</v>
+      </c>
+    </row>
+    <row r="343" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G343">
+        <v>338</v>
+      </c>
+      <c r="H343">
+        <v>5860</v>
+      </c>
+      <c r="I343">
+        <f>SUM($H$5:H343)</f>
+        <v>891220</v>
+      </c>
+      <c r="J343">
+        <f t="shared" si="60"/>
+        <v>1242.5133057224939</v>
+      </c>
+      <c r="K343">
+        <v>91</v>
+      </c>
+      <c r="L343" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M343" s="7">
+        <f t="shared" si="62"/>
+        <v>62.810300000000005</v>
+      </c>
+      <c r="O343">
+        <v>348</v>
+      </c>
+      <c r="P343" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q343" s="7">
+        <f t="shared" si="63"/>
+        <v>6344.17</v>
+      </c>
+      <c r="R343">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S343" s="26">
+        <f t="shared" si="64"/>
+        <v>2162555.830000001</v>
+      </c>
+      <c r="T343">
+        <f t="shared" si="65"/>
+        <v>0.29422760843431867</v>
+      </c>
+    </row>
+    <row r="344" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G344">
+        <v>339</v>
+      </c>
+      <c r="H344">
+        <v>5880</v>
+      </c>
+      <c r="I344">
+        <f>SUM($H$5:H344)</f>
+        <v>897100</v>
+      </c>
+      <c r="J344">
+        <f t="shared" si="60"/>
+        <v>1250.7110327008475</v>
+      </c>
+      <c r="K344">
+        <v>91</v>
+      </c>
+      <c r="L344" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M344" s="7">
+        <f t="shared" si="62"/>
+        <v>62.873200000000004</v>
+      </c>
+      <c r="O344">
+        <v>349</v>
+      </c>
+      <c r="P344" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q344" s="7">
+        <f t="shared" si="63"/>
+        <v>6350.52</v>
+      </c>
+      <c r="R344">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S344" s="26">
+        <f t="shared" si="64"/>
+        <v>2168906.350000001</v>
+      </c>
+      <c r="T344">
+        <f t="shared" si="65"/>
+        <v>0.29365808326900006</v>
+      </c>
+    </row>
+    <row r="345" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G345">
+        <v>340</v>
+      </c>
+      <c r="H345">
+        <v>5900</v>
+      </c>
+      <c r="I345">
+        <f>SUM($H$5:H345)</f>
+        <v>903000</v>
+      </c>
+      <c r="J345">
+        <f t="shared" si="60"/>
+        <v>1258.9366431042974</v>
+      </c>
+      <c r="K345">
+        <v>91</v>
+      </c>
+      <c r="L345" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M345" s="7">
+        <f t="shared" si="62"/>
+        <v>62.936100000000003</v>
+      </c>
+      <c r="O345">
+        <v>350</v>
+      </c>
+      <c r="P345" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q345" s="7">
+        <f t="shared" si="63"/>
+        <v>6356.88</v>
+      </c>
+      <c r="R345">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S345" s="26">
+        <f t="shared" si="64"/>
+        <v>2175263.2300000009</v>
+      </c>
+      <c r="T345">
+        <f t="shared" si="65"/>
+        <v>0.29309149286228453</v>
+      </c>
+    </row>
+    <row r="346" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G346">
+        <v>341</v>
+      </c>
+      <c r="H346">
+        <v>5920</v>
+      </c>
+      <c r="I346">
+        <f>SUM($H$5:H346)</f>
+        <v>908920</v>
+      </c>
+      <c r="J346">
+        <f t="shared" si="60"/>
+        <v>1267.1901369328439</v>
+      </c>
+      <c r="K346">
+        <v>91</v>
+      </c>
+      <c r="L346" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M346" s="7">
+        <f t="shared" si="62"/>
+        <v>62.999099999999999</v>
+      </c>
+      <c r="O346">
+        <v>351</v>
+      </c>
+      <c r="P346" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q346" s="7">
+        <f t="shared" si="63"/>
+        <v>6363.24</v>
+      </c>
+      <c r="R346">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S346" s="26">
+        <f t="shared" si="64"/>
+        <v>2181626.4700000011</v>
+      </c>
+      <c r="T346">
+        <f t="shared" si="65"/>
+        <v>0.29252735541345132</v>
+      </c>
+    </row>
+    <row r="347" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G347">
+        <v>342</v>
+      </c>
+      <c r="H347">
+        <v>5940</v>
+      </c>
+      <c r="I347">
+        <f>SUM($H$5:H347)</f>
+        <v>914860</v>
+      </c>
+      <c r="J347">
+        <f t="shared" si="60"/>
+        <v>1275.4715141864867</v>
+      </c>
+      <c r="K347">
+        <v>91</v>
+      </c>
+      <c r="L347" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M347" s="7">
+        <f t="shared" si="62"/>
+        <v>63.062100000000001</v>
+      </c>
+      <c r="O347">
+        <v>352</v>
+      </c>
+      <c r="P347" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q347" s="7">
+        <f t="shared" si="63"/>
+        <v>6369.6100000000006</v>
+      </c>
+      <c r="R347">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S347" s="26">
+        <f t="shared" si="64"/>
+        <v>2187996.080000001</v>
+      </c>
+      <c r="T347">
+        <f t="shared" si="65"/>
+        <v>0.29196611278739509</v>
+      </c>
+    </row>
+    <row r="348" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G348">
+        <v>343</v>
+      </c>
+      <c r="H348">
+        <v>5960</v>
+      </c>
+      <c r="I348">
+        <f>SUM($H$5:H348)</f>
+        <v>920820</v>
+      </c>
+      <c r="J348">
+        <f t="shared" si="60"/>
+        <v>1283.780774865226</v>
+      </c>
+      <c r="K348">
+        <v>91</v>
+      </c>
+      <c r="L348" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M348" s="7">
+        <f t="shared" si="62"/>
+        <v>63.125200000000007</v>
+      </c>
+      <c r="O348">
+        <v>353</v>
+      </c>
+      <c r="P348" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q348" s="7">
+        <f t="shared" si="63"/>
+        <v>6375.9800000000005</v>
+      </c>
+      <c r="R348">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S348" s="26">
+        <f t="shared" si="64"/>
+        <v>2194372.060000001</v>
+      </c>
+      <c r="T348">
+        <f t="shared" si="65"/>
+        <v>0.29140728625071299</v>
+      </c>
+    </row>
+    <row r="349" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G349">
+        <v>344</v>
+      </c>
+      <c r="H349">
+        <v>5980</v>
+      </c>
+      <c r="I349">
+        <f>SUM($H$5:H349)</f>
+        <v>926800</v>
+      </c>
+      <c r="J349">
+        <f t="shared" si="60"/>
+        <v>1292.1179189690617</v>
+      </c>
+      <c r="K349">
+        <v>91</v>
+      </c>
+      <c r="L349" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M349" s="7">
+        <f t="shared" si="62"/>
+        <v>63.188400000000001</v>
+      </c>
+      <c r="O349">
+        <v>354</v>
+      </c>
+      <c r="P349" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q349" s="7">
+        <f t="shared" si="63"/>
+        <v>6382.3600000000006</v>
+      </c>
+      <c r="R349">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S349" s="26">
+        <f t="shared" si="64"/>
+        <v>2200754.4200000009</v>
+      </c>
+      <c r="T349">
+        <f t="shared" si="65"/>
+        <v>0.29085131534165937</v>
+      </c>
+    </row>
+    <row r="350" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G350">
+        <v>345</v>
+      </c>
+      <c r="H350">
+        <v>6000</v>
+      </c>
+      <c r="I350">
+        <f>SUM($H$5:H350)</f>
+        <v>932800</v>
+      </c>
+      <c r="J350">
+        <f t="shared" si="60"/>
+        <v>1300.4829464979939</v>
+      </c>
+      <c r="K350">
+        <v>91</v>
+      </c>
+      <c r="L350" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M350" s="7">
+        <f t="shared" si="62"/>
+        <v>63.251599999999996</v>
+      </c>
+      <c r="O350">
+        <v>355</v>
+      </c>
+      <c r="P350" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q350" s="7">
+        <f t="shared" si="63"/>
+        <v>6388.75</v>
+      </c>
+      <c r="R350">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S350" s="26">
+        <f t="shared" si="64"/>
+        <v>2207143.1700000009</v>
+      </c>
+      <c r="T350">
+        <f t="shared" si="65"/>
+        <v>0.29029817874908542</v>
+      </c>
+    </row>
+    <row r="351" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G351">
+        <v>346</v>
+      </c>
+      <c r="H351">
+        <v>6020</v>
+      </c>
+      <c r="I351">
+        <f>SUM($H$5:H351)</f>
+        <v>938820</v>
+      </c>
+      <c r="J351">
+        <f t="shared" si="60"/>
+        <v>1308.8758574520227</v>
+      </c>
+      <c r="K351">
+        <v>91</v>
+      </c>
+      <c r="L351" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M351" s="7">
+        <f t="shared" si="62"/>
+        <v>63.314899999999994</v>
+      </c>
+      <c r="O351">
+        <v>356</v>
+      </c>
+      <c r="P351" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q351" s="7">
+        <f t="shared" si="63"/>
+        <v>6395.14</v>
+      </c>
+      <c r="R351">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S351" s="26">
+        <f t="shared" si="64"/>
+        <v>2213538.310000001</v>
+      </c>
+      <c r="T351">
+        <f t="shared" si="65"/>
+        <v>0.28974740229471058</v>
+      </c>
+    </row>
+    <row r="352" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G352">
+        <v>347</v>
+      </c>
+      <c r="H352">
+        <v>6040</v>
+      </c>
+      <c r="I352">
+        <f>SUM($H$5:H352)</f>
+        <v>944860</v>
+      </c>
+      <c r="J352">
+        <f t="shared" si="60"/>
+        <v>1317.2966518311478</v>
+      </c>
+      <c r="K352">
+        <v>91</v>
+      </c>
+      <c r="L352" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M352" s="7">
+        <f t="shared" si="62"/>
+        <v>63.378299999999996</v>
+      </c>
+      <c r="O352">
+        <v>357</v>
+      </c>
+      <c r="P352" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q352" s="7">
+        <f t="shared" si="63"/>
+        <v>6401.54</v>
+      </c>
+      <c r="R352">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S352" s="26">
+        <f t="shared" si="64"/>
+        <v>2219939.850000001</v>
+      </c>
+      <c r="T352">
+        <f t="shared" si="65"/>
+        <v>0.28919942207822164</v>
+      </c>
+    </row>
+    <row r="353" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G353">
+        <v>348</v>
+      </c>
+      <c r="H353">
+        <v>6060</v>
+      </c>
+      <c r="I353">
+        <f>SUM($H$5:H353)</f>
+        <v>950920</v>
+      </c>
+      <c r="J353">
+        <f t="shared" si="60"/>
+        <v>1325.7453296353692</v>
+      </c>
+      <c r="K353">
+        <v>91</v>
+      </c>
+      <c r="L353" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M353" s="7">
+        <f t="shared" si="62"/>
+        <v>63.441699999999997</v>
+      </c>
+      <c r="O353">
+        <v>358</v>
+      </c>
+      <c r="P353" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q353" s="7">
+        <f t="shared" si="63"/>
+        <v>6407.95</v>
+      </c>
+      <c r="R353">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S353" s="26">
+        <f t="shared" si="64"/>
+        <v>2226347.8000000012</v>
+      </c>
+      <c r="T353">
+        <f t="shared" si="65"/>
+        <v>0.2886542173654022</v>
+      </c>
+    </row>
+    <row r="354" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G354">
+        <v>349</v>
+      </c>
+      <c r="H354">
+        <v>6080</v>
+      </c>
+      <c r="I354">
+        <f>SUM($H$5:H354)</f>
+        <v>957000</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="60"/>
+        <v>1334.2218908646873</v>
+      </c>
+      <c r="K354">
+        <v>91</v>
+      </c>
+      <c r="L354" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M354" s="7">
+        <f t="shared" si="62"/>
+        <v>63.505200000000002</v>
+      </c>
+      <c r="O354">
+        <v>359</v>
+      </c>
+      <c r="P354" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q354" s="7">
+        <f t="shared" si="63"/>
+        <v>6414.3600000000006</v>
+      </c>
+      <c r="R354">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S354" s="26">
+        <f t="shared" si="64"/>
+        <v>2232762.1600000011</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="65"/>
+        <v>0.28811131845616689</v>
+      </c>
+    </row>
+    <row r="355" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G355">
+        <v>350</v>
+      </c>
+      <c r="H355">
+        <v>6100</v>
+      </c>
+      <c r="I355">
+        <f>SUM($H$5:H355)</f>
+        <v>963100</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="60"/>
+        <v>1342.7263355191017</v>
+      </c>
+      <c r="K355">
+        <v>91</v>
+      </c>
+      <c r="L355" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M355" s="7">
+        <f t="shared" si="62"/>
+        <v>63.568800000000003</v>
+      </c>
+      <c r="O355">
+        <v>360</v>
+      </c>
+      <c r="P355" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q355" s="7">
+        <f t="shared" si="63"/>
+        <v>6420.7800000000007</v>
+      </c>
+      <c r="R355">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S355" s="26">
+        <f t="shared" si="64"/>
+        <v>2239182.9400000009</v>
+      </c>
+      <c r="T355">
+        <f t="shared" si="65"/>
+        <v>0.28757115804935501</v>
+      </c>
+    </row>
+    <row r="356" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G356">
+        <v>351</v>
+      </c>
+      <c r="H356">
+        <v>6120</v>
+      </c>
+      <c r="I356">
+        <f>SUM($H$5:H356)</f>
+        <v>969220</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="60"/>
+        <v>1351.2586635986124</v>
+      </c>
+      <c r="K356">
+        <v>91</v>
+      </c>
+      <c r="L356" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M356" s="7">
+        <f t="shared" si="62"/>
+        <v>63.632399999999997</v>
+      </c>
+      <c r="O356">
+        <v>361</v>
+      </c>
+      <c r="P356" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q356" s="7">
+        <f t="shared" si="63"/>
+        <v>6427.21</v>
+      </c>
+      <c r="R356">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S356" s="26">
+        <f t="shared" si="64"/>
+        <v>2245610.1500000008</v>
+      </c>
+      <c r="T356">
+        <f t="shared" si="65"/>
+        <v>0.28703371596784139</v>
+      </c>
+    </row>
+    <row r="357" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G357">
+        <v>352</v>
+      </c>
+      <c r="H357">
+        <v>6140</v>
+      </c>
+      <c r="I357">
+        <f>SUM($H$5:H357)</f>
+        <v>975360</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="60"/>
+        <v>1359.8188751032199</v>
+      </c>
+      <c r="K357">
+        <v>91</v>
+      </c>
+      <c r="L357" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M357" s="7">
+        <f t="shared" si="62"/>
+        <v>63.696100000000008</v>
+      </c>
+      <c r="O357">
+        <v>362</v>
+      </c>
+      <c r="P357" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q357" s="7">
+        <f t="shared" si="63"/>
+        <v>6433.64</v>
+      </c>
+      <c r="R357">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S357" s="26">
+        <f t="shared" si="64"/>
+        <v>2252043.790000001</v>
+      </c>
+      <c r="T357">
+        <f t="shared" si="65"/>
+        <v>0.28649852691483996</v>
+      </c>
+    </row>
+    <row r="358" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G358">
+        <v>353</v>
+      </c>
+      <c r="H358">
+        <v>6160</v>
+      </c>
+      <c r="I358">
+        <f>SUM($H$5:H358)</f>
+        <v>981520</v>
+      </c>
+      <c r="J358">
+        <f t="shared" si="60"/>
+        <v>1368.4069700329235</v>
+      </c>
+      <c r="K358">
+        <v>91</v>
+      </c>
+      <c r="L358" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M358" s="7">
+        <f t="shared" si="62"/>
+        <v>63.759800000000006</v>
+      </c>
+      <c r="O358">
+        <v>363</v>
+      </c>
+      <c r="P358" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q358" s="7">
+        <f t="shared" si="63"/>
+        <v>6440.08</v>
+      </c>
+      <c r="R358">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S358" s="26">
+        <f t="shared" si="64"/>
+        <v>2258483.870000001</v>
+      </c>
+      <c r="T358">
+        <f t="shared" si="65"/>
+        <v>0.28596602022556905</v>
+      </c>
+    </row>
+    <row r="359" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G359">
+        <v>354</v>
+      </c>
+      <c r="H359">
+        <v>6180</v>
+      </c>
+      <c r="I359">
+        <f>SUM($H$5:H359)</f>
+        <v>987700</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="60"/>
+        <v>1377.0229483877238</v>
+      </c>
+      <c r="K359">
+        <v>91</v>
+      </c>
+      <c r="L359" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M359" s="7">
+        <f t="shared" si="62"/>
+        <v>63.823600000000006</v>
+      </c>
+      <c r="O359">
+        <v>364</v>
+      </c>
+      <c r="P359" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q359" s="7">
+        <f t="shared" si="63"/>
+        <v>6446.5300000000007</v>
+      </c>
+      <c r="R359">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S359" s="26">
+        <f t="shared" si="64"/>
+        <v>2264930.4000000008</v>
+      </c>
+      <c r="T359">
+        <f t="shared" si="65"/>
+        <v>0.28543617626101497</v>
+      </c>
+    </row>
+    <row r="360" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G360">
+        <v>355</v>
+      </c>
+      <c r="H360">
+        <v>6200</v>
+      </c>
+      <c r="I360">
+        <f>SUM($H$5:H360)</f>
+        <v>993900</v>
+      </c>
+      <c r="J360">
+        <f t="shared" si="60"/>
+        <v>1385.6668101676203</v>
+      </c>
+      <c r="K360">
+        <v>91</v>
+      </c>
+      <c r="L360" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M360" s="7">
+        <f t="shared" si="62"/>
+        <v>63.887500000000003</v>
+      </c>
+      <c r="O360">
+        <v>365</v>
+      </c>
+      <c r="P360" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q360" s="7">
+        <f t="shared" si="63"/>
+        <v>6452.9800000000005</v>
+      </c>
+      <c r="R360">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S360" s="26">
+        <f t="shared" si="64"/>
+        <v>2271383.3800000008</v>
+      </c>
+      <c r="T360">
+        <f t="shared" si="65"/>
+        <v>0.28490853405473204</v>
+      </c>
+    </row>
+    <row r="361" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G361">
+        <v>356</v>
+      </c>
+      <c r="H361">
+        <v>6220</v>
+      </c>
+      <c r="I361">
+        <f>SUM($H$5:H361)</f>
+        <v>1000120</v>
+      </c>
+      <c r="J361">
+        <f t="shared" si="60"/>
+        <v>1394.3385553726134</v>
+      </c>
+      <c r="K361">
+        <v>91</v>
+      </c>
+      <c r="L361" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M361" s="7">
+        <f t="shared" si="62"/>
+        <v>63.951400000000007</v>
+      </c>
+      <c r="O361">
+        <v>366</v>
+      </c>
+      <c r="P361" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q361" s="7">
+        <f t="shared" si="63"/>
+        <v>6459.4400000000005</v>
+      </c>
+      <c r="R361">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S361" s="26">
+        <f t="shared" si="64"/>
+        <v>2277842.8200000008</v>
+      </c>
+      <c r="T361">
+        <f t="shared" si="65"/>
+        <v>0.28438351961525499</v>
+      </c>
+    </row>
+    <row r="362" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G362">
+        <v>357</v>
+      </c>
+      <c r="H362">
+        <v>6240</v>
+      </c>
+      <c r="I362">
+        <f>SUM($H$5:H362)</f>
+        <v>1006360</v>
+      </c>
+      <c r="J362">
+        <f t="shared" si="60"/>
+        <v>1403.0381840027028</v>
+      </c>
+      <c r="K362">
+        <v>91</v>
+      </c>
+      <c r="L362" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M362" s="7">
+        <f t="shared" si="62"/>
+        <v>64.0154</v>
+      </c>
+      <c r="O362">
+        <v>367</v>
+      </c>
+      <c r="P362" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q362" s="7">
+        <f t="shared" si="63"/>
+        <v>6465.9000000000005</v>
+      </c>
+      <c r="R362">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S362" s="26">
+        <f t="shared" si="64"/>
+        <v>2284308.7200000007</v>
+      </c>
+      <c r="T362">
+        <f t="shared" si="65"/>
+        <v>0.28386067481161431</v>
+      </c>
+    </row>
+    <row r="363" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G363">
+        <v>358</v>
+      </c>
+      <c r="H363">
+        <v>6260</v>
+      </c>
+      <c r="I363">
+        <f>SUM($H$5:H363)</f>
+        <v>1012620</v>
+      </c>
+      <c r="J363">
+        <f t="shared" si="60"/>
+        <v>1411.7656960578888</v>
+      </c>
+      <c r="K363">
+        <v>91</v>
+      </c>
+      <c r="L363" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M363" s="7">
+        <f t="shared" si="62"/>
+        <v>64.079499999999996</v>
+      </c>
+      <c r="O363">
+        <v>368</v>
+      </c>
+      <c r="P363" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q363" s="7">
+        <f t="shared" si="63"/>
+        <v>6472.37</v>
+      </c>
+      <c r="R363">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S363" s="26">
+        <f t="shared" si="64"/>
+        <v>2290781.0900000008</v>
+      </c>
+      <c r="T363">
+        <f t="shared" si="65"/>
+        <v>0.28334042344329491</v>
+      </c>
+    </row>
+    <row r="364" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G364">
+        <v>359</v>
+      </c>
+      <c r="H364">
+        <v>6280</v>
+      </c>
+      <c r="I364">
+        <f>SUM($H$5:H364)</f>
+        <v>1018900</v>
+      </c>
+      <c r="J364">
+        <f t="shared" si="60"/>
+        <v>1420.5210915381713</v>
+      </c>
+      <c r="K364">
+        <v>91</v>
+      </c>
+      <c r="L364" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M364" s="7">
+        <f t="shared" si="62"/>
+        <v>64.143600000000006</v>
+      </c>
+      <c r="O364">
+        <v>369</v>
+      </c>
+      <c r="P364" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q364" s="7">
+        <f t="shared" si="63"/>
+        <v>6478.85</v>
+      </c>
+      <c r="R364">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S364" s="26">
+        <f t="shared" si="64"/>
+        <v>2297259.9400000009</v>
+      </c>
+      <c r="T364">
+        <f t="shared" si="65"/>
+        <v>0.28282274671649621</v>
+      </c>
+    </row>
+    <row r="365" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G365">
+        <v>360</v>
+      </c>
+      <c r="H365">
+        <v>6300</v>
+      </c>
+      <c r="I365">
+        <f>SUM($H$5:H365)</f>
+        <v>1025200</v>
+      </c>
+      <c r="J365">
+        <f t="shared" si="60"/>
+        <v>1429.3043704435499</v>
+      </c>
+      <c r="K365">
+        <v>91</v>
+      </c>
+      <c r="L365" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M365" s="7">
+        <f t="shared" si="62"/>
+        <v>64.207800000000006</v>
+      </c>
+      <c r="O365">
+        <v>370</v>
+      </c>
+      <c r="P365" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q365" s="7">
+        <f t="shared" si="63"/>
+        <v>6485.33</v>
+      </c>
+      <c r="R365">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S365" s="26">
+        <f t="shared" si="64"/>
+        <v>2303745.2700000009</v>
+      </c>
+      <c r="T365">
+        <f t="shared" si="65"/>
+        <v>0.28230719071347549</v>
+      </c>
+    </row>
+    <row r="366" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G366">
+        <v>361</v>
+      </c>
+      <c r="H366">
+        <v>6320</v>
+      </c>
+      <c r="I366">
+        <f>SUM($H$5:H366)</f>
+        <v>1031520</v>
+      </c>
+      <c r="J366">
+        <f t="shared" si="60"/>
+        <v>1438.1155327740253</v>
+      </c>
+      <c r="K366">
+        <v>91</v>
+      </c>
+      <c r="L366" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M366" s="7">
+        <f t="shared" si="62"/>
+        <v>64.272099999999995</v>
+      </c>
+      <c r="O366">
+        <v>371</v>
+      </c>
+      <c r="P366" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q366" s="7">
+        <f t="shared" si="63"/>
+        <v>6491.8200000000006</v>
+      </c>
+      <c r="R366">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S366" s="26">
+        <f t="shared" si="64"/>
+        <v>2310237.0900000008</v>
+      </c>
+      <c r="T366">
+        <f t="shared" si="65"/>
+        <v>0.28179417596806744</v>
+      </c>
+    </row>
+    <row r="367" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G367">
+        <v>362</v>
+      </c>
+      <c r="H367">
+        <v>6340</v>
+      </c>
+      <c r="I367">
+        <f>SUM($H$5:H367)</f>
+        <v>1037860</v>
+      </c>
+      <c r="J367">
+        <f t="shared" si="60"/>
+        <v>1446.954578529597</v>
+      </c>
+      <c r="K367">
+        <v>91</v>
+      </c>
+      <c r="L367" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M367" s="7">
+        <f t="shared" si="62"/>
+        <v>64.336399999999998</v>
+      </c>
+      <c r="O367">
+        <v>372</v>
+      </c>
+      <c r="P367" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q367" s="7">
+        <f t="shared" si="63"/>
+        <v>6498.3200000000006</v>
+      </c>
+      <c r="R367">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S367" s="26">
+        <f t="shared" si="64"/>
+        <v>2316735.4100000006</v>
+      </c>
+      <c r="T367">
+        <f t="shared" si="65"/>
+        <v>0.2812836841780525</v>
+      </c>
+    </row>
+    <row r="368" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G368">
+        <v>363</v>
+      </c>
+      <c r="H368">
+        <v>6360</v>
+      </c>
+      <c r="I368">
+        <f>SUM($H$5:H368)</f>
+        <v>1044220</v>
+      </c>
+      <c r="J368">
+        <f t="shared" si="60"/>
+        <v>1455.8215077102652</v>
+      </c>
+      <c r="K368">
+        <v>91</v>
+      </c>
+      <c r="L368" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M368" s="7">
+        <f t="shared" si="62"/>
+        <v>64.400800000000004</v>
+      </c>
+      <c r="O368">
+        <v>373</v>
+      </c>
+      <c r="P368" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q368" s="7">
+        <f t="shared" si="63"/>
+        <v>6504.8200000000006</v>
+      </c>
+      <c r="R368">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S368" s="26">
+        <f t="shared" si="64"/>
+        <v>2323240.2300000004</v>
+      </c>
+      <c r="T368">
+        <f t="shared" si="65"/>
+        <v>0.28077526557078136</v>
+      </c>
+    </row>
+    <row r="369" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G369">
+        <v>364</v>
+      </c>
+      <c r="H369">
+        <v>6380</v>
+      </c>
+      <c r="I369">
+        <f>SUM($H$5:H369)</f>
+        <v>1050600</v>
+      </c>
+      <c r="J369">
+        <f t="shared" si="60"/>
+        <v>1464.7163203160296</v>
+      </c>
+      <c r="K369">
+        <v>91</v>
+      </c>
+      <c r="L369" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M369" s="7">
+        <f t="shared" si="62"/>
+        <v>64.465300000000013</v>
+      </c>
+      <c r="O369">
+        <v>374</v>
+      </c>
+      <c r="P369" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q369" s="7">
+        <f t="shared" si="63"/>
+        <v>6511.33</v>
+      </c>
+      <c r="R369">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S369" s="26">
+        <f t="shared" si="64"/>
+        <v>2329751.5600000005</v>
+      </c>
+      <c r="T369">
+        <f t="shared" si="65"/>
+        <v>0.28026933745031068</v>
+      </c>
+    </row>
+    <row r="370" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G370">
+        <v>365</v>
+      </c>
+      <c r="H370">
+        <v>6400</v>
+      </c>
+      <c r="I370">
+        <f>SUM($H$5:H370)</f>
+        <v>1057000</v>
+      </c>
+      <c r="J370">
+        <f t="shared" si="60"/>
+        <v>1473.6390163468907</v>
+      </c>
+      <c r="K370">
+        <v>91</v>
+      </c>
+      <c r="L370" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M370" s="7">
+        <f t="shared" si="62"/>
+        <v>64.529800000000009</v>
+      </c>
+      <c r="O370">
+        <v>375</v>
+      </c>
+      <c r="P370" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q370" s="7">
+        <f t="shared" si="63"/>
+        <v>6517.85</v>
+      </c>
+      <c r="R370">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S370" s="26">
+        <f t="shared" si="64"/>
+        <v>2336269.4100000006</v>
+      </c>
+      <c r="T370">
+        <f t="shared" si="65"/>
+        <v>0.27976588198958396</v>
+      </c>
+    </row>
+    <row r="371" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G371">
+        <v>366</v>
+      </c>
+      <c r="H371">
+        <v>6420</v>
+      </c>
+      <c r="I371">
+        <f>SUM($H$5:H371)</f>
+        <v>1063420</v>
+      </c>
+      <c r="J371">
+        <f t="shared" si="60"/>
+        <v>1482.5895958028482</v>
+      </c>
+      <c r="K371">
+        <v>91</v>
+      </c>
+      <c r="L371" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M371" s="7">
+        <f t="shared" si="62"/>
+        <v>64.594400000000007</v>
+      </c>
+      <c r="O371">
+        <v>376</v>
+      </c>
+      <c r="P371" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q371" s="7">
+        <f t="shared" si="63"/>
+        <v>6524.37</v>
+      </c>
+      <c r="R371">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S371" s="26">
+        <f t="shared" si="64"/>
+        <v>2342793.7800000007</v>
+      </c>
+      <c r="T371">
+        <f t="shared" si="65"/>
+        <v>0.27926445349468965</v>
+      </c>
+    </row>
+    <row r="372" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G372">
+        <v>367</v>
+      </c>
+      <c r="H372">
+        <v>6440</v>
+      </c>
+      <c r="I372">
+        <f>SUM($H$5:H372)</f>
+        <v>1069860</v>
+      </c>
+      <c r="J372">
+        <f t="shared" si="60"/>
+        <v>1491.5680586839021</v>
+      </c>
+      <c r="K372">
+        <v>91</v>
+      </c>
+      <c r="L372" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M372" s="7">
+        <f t="shared" si="62"/>
+        <v>64.659000000000006</v>
+      </c>
+      <c r="O372">
+        <v>377</v>
+      </c>
+      <c r="P372" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q372" s="7">
+        <f t="shared" si="63"/>
+        <v>6530.9000000000005</v>
+      </c>
+      <c r="R372">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S372" s="26">
+        <f t="shared" si="64"/>
+        <v>2349324.6800000006</v>
+      </c>
+      <c r="T372">
+        <f t="shared" si="65"/>
+        <v>0.27876546607529001</v>
+      </c>
+    </row>
+    <row r="373" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G373">
+        <v>368</v>
+      </c>
+      <c r="H373">
+        <v>6460</v>
+      </c>
+      <c r="I373">
+        <f>SUM($H$5:H373)</f>
+        <v>1076320</v>
+      </c>
+      <c r="J373">
+        <f t="shared" si="60"/>
+        <v>1500.5744049900525</v>
+      </c>
+      <c r="K373">
+        <v>91</v>
+      </c>
+      <c r="L373" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M373" s="7">
+        <f t="shared" si="62"/>
+        <v>64.723699999999994</v>
+      </c>
+      <c r="O373">
+        <v>378</v>
+      </c>
+      <c r="P373" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q373" s="7">
+        <f t="shared" si="63"/>
+        <v>6537.4400000000005</v>
+      </c>
+      <c r="R373">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S373" s="26">
+        <f t="shared" si="64"/>
+        <v>2355862.1200000006</v>
+      </c>
+      <c r="T373">
+        <f t="shared" si="65"/>
+        <v>0.27826890236388879</v>
+      </c>
+    </row>
+    <row r="374" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G374">
+        <v>369</v>
+      </c>
+      <c r="H374">
+        <v>6480</v>
+      </c>
+      <c r="I374">
+        <f>SUM($H$5:H374)</f>
+        <v>1082800</v>
+      </c>
+      <c r="J374">
+        <f t="shared" si="60"/>
+        <v>1509.6086347212993</v>
+      </c>
+      <c r="K374">
+        <v>91</v>
+      </c>
+      <c r="L374" t="str">
+        <f t="shared" si="61"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M374" s="7">
+        <f t="shared" si="62"/>
+        <v>64.788499999999999</v>
+      </c>
+      <c r="O374">
+        <v>379</v>
+      </c>
+      <c r="P374" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q374" s="7">
+        <f t="shared" si="63"/>
+        <v>6543.9800000000005</v>
+      </c>
+      <c r="R374">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S374" s="26">
+        <f t="shared" si="64"/>
+        <v>2362406.1000000006</v>
+      </c>
+      <c r="T374">
+        <f t="shared" si="65"/>
+        <v>0.27777432068053198</v>
+      </c>
+    </row>
+    <row r="375" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G375">
+        <v>370</v>
+      </c>
+      <c r="H375">
+        <v>6500</v>
+      </c>
+      <c r="I375">
+        <f>SUM($H$5:H375)</f>
+        <v>1089300</v>
+      </c>
+      <c r="J375">
+        <f t="shared" ref="J375:J405" si="66">I375/$A$5</f>
+        <v>1518.6707478776425</v>
+      </c>
+      <c r="K375">
+        <v>91</v>
+      </c>
+      <c r="L375" t="str">
+        <f t="shared" ref="L375:L405" si="67">IF(K375=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M375" s="7">
+        <f t="shared" ref="M375:M405" si="68">VLOOKUP(G375,O:Q,3,FALSE)/100</f>
+        <v>64.853300000000004</v>
+      </c>
+      <c r="O375">
+        <v>380</v>
+      </c>
+      <c r="P375" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q375" s="7">
+        <f t="shared" si="63"/>
+        <v>6550.5300000000007</v>
+      </c>
+      <c r="R375">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S375" s="26">
+        <f t="shared" si="64"/>
+        <v>2368956.6300000004</v>
+      </c>
+      <c r="T375">
+        <f t="shared" si="65"/>
+        <v>0.27728213197552248</v>
+      </c>
+    </row>
+    <row r="376" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G376">
+        <v>371</v>
+      </c>
+      <c r="H376">
+        <v>6520</v>
+      </c>
+      <c r="I376">
+        <f>SUM($H$5:H376)</f>
+        <v>1095820</v>
+      </c>
+      <c r="J376">
+        <f t="shared" si="66"/>
+        <v>1527.7607444590822</v>
+      </c>
+      <c r="K376">
+        <v>91</v>
+      </c>
+      <c r="L376" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M376" s="7">
+        <f t="shared" si="68"/>
+        <v>64.918200000000013</v>
+      </c>
+      <c r="O376">
+        <v>381</v>
+      </c>
+      <c r="P376" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q376" s="7">
+        <f t="shared" si="63"/>
+        <v>6557.09</v>
+      </c>
+      <c r="R376">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S376" s="26">
+        <f t="shared" si="64"/>
+        <v>2375513.7200000002</v>
+      </c>
+      <c r="T376">
+        <f t="shared" si="65"/>
+        <v>0.27679231932582277</v>
+      </c>
+    </row>
+    <row r="377" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G377">
+        <v>372</v>
+      </c>
+      <c r="H377">
+        <v>6540</v>
+      </c>
+      <c r="I377">
+        <f>SUM($H$5:H377)</f>
+        <v>1102360</v>
+      </c>
+      <c r="J377">
+        <f t="shared" si="66"/>
+        <v>1536.8786244656183</v>
+      </c>
+      <c r="K377">
+        <v>91</v>
+      </c>
+      <c r="L377" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M377" s="7">
+        <f t="shared" si="68"/>
+        <v>64.983200000000011</v>
+      </c>
+      <c r="O377">
+        <v>382</v>
+      </c>
+      <c r="P377" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q377" s="7">
+        <f t="shared" si="63"/>
+        <v>6563.6500000000005</v>
+      </c>
+      <c r="R377">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S377" s="26">
+        <f t="shared" si="64"/>
+        <v>2382077.37</v>
+      </c>
+      <c r="T377">
+        <f t="shared" si="65"/>
+        <v>0.27630444500231749</v>
+      </c>
+    </row>
+    <row r="378" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G378">
+        <v>373</v>
+      </c>
+      <c r="H378">
+        <v>6560</v>
+      </c>
+      <c r="I378">
+        <f>SUM($H$5:H378)</f>
+        <v>1108920</v>
+      </c>
+      <c r="J378">
+        <f t="shared" si="66"/>
+        <v>1546.0243878972508</v>
+      </c>
+      <c r="K378">
+        <v>91</v>
+      </c>
+      <c r="L378" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M378" s="7">
+        <f t="shared" si="68"/>
+        <v>65.048200000000008</v>
+      </c>
+      <c r="O378">
+        <v>383</v>
+      </c>
+      <c r="P378" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q378" s="7">
+        <f t="shared" si="63"/>
+        <v>6570.22</v>
+      </c>
+      <c r="R378">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S378" s="26">
+        <f t="shared" si="64"/>
+        <v>2388647.5900000003</v>
+      </c>
+      <c r="T378">
+        <f t="shared" si="65"/>
+        <v>0.27581891683057314</v>
+      </c>
+    </row>
+    <row r="379" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G379">
+        <v>374</v>
+      </c>
+      <c r="H379">
+        <v>6580</v>
+      </c>
+      <c r="I379">
+        <f>SUM($H$5:H379)</f>
+        <v>1115500</v>
+      </c>
+      <c r="J379">
+        <f t="shared" si="66"/>
+        <v>1555.1980347539798</v>
+      </c>
+      <c r="K379">
+        <v>91</v>
+      </c>
+      <c r="L379" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M379" s="7">
+        <f t="shared" si="68"/>
+        <v>65.113299999999995</v>
+      </c>
+      <c r="O379">
+        <v>384</v>
+      </c>
+      <c r="P379" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q379" s="7">
+        <f t="shared" si="63"/>
+        <v>6576.8</v>
+      </c>
+      <c r="R379">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S379" s="26">
+        <f t="shared" si="64"/>
+        <v>2395224.39</v>
+      </c>
+      <c r="T379">
+        <f t="shared" si="65"/>
+        <v>0.27533571831748577</v>
+      </c>
+    </row>
+    <row r="380" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G380">
+        <v>375</v>
+      </c>
+      <c r="H380">
+        <v>6600</v>
+      </c>
+      <c r="I380">
+        <f>SUM($H$5:H380)</f>
+        <v>1122100</v>
+      </c>
+      <c r="J380">
+        <f t="shared" si="66"/>
+        <v>1564.3995650358052</v>
+      </c>
+      <c r="K380">
+        <v>91</v>
+      </c>
+      <c r="L380" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M380" s="7">
+        <f t="shared" si="68"/>
+        <v>65.1785</v>
+      </c>
+      <c r="O380">
+        <v>385</v>
+      </c>
+      <c r="P380" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q380" s="7">
+        <f t="shared" si="63"/>
+        <v>6583.38</v>
+      </c>
+      <c r="R380">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S380" s="26">
+        <f t="shared" si="64"/>
+        <v>2401807.77</v>
+      </c>
+      <c r="T380">
+        <f t="shared" si="65"/>
+        <v>0.27485441562324303</v>
+      </c>
+    </row>
+    <row r="381" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G381">
+        <v>376</v>
+      </c>
+      <c r="H381">
+        <v>6620</v>
+      </c>
+      <c r="I381">
+        <f>SUM($H$5:H381)</f>
+        <v>1128720</v>
+      </c>
+      <c r="J381">
+        <f t="shared" si="66"/>
+        <v>1573.628978742727</v>
+      </c>
+      <c r="K381">
+        <v>91</v>
+      </c>
+      <c r="L381" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M381" s="7">
+        <f t="shared" si="68"/>
+        <v>65.243700000000004</v>
+      </c>
+      <c r="O381">
+        <v>386</v>
+      </c>
+      <c r="P381" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q381" s="7">
+        <f t="shared" si="63"/>
+        <v>6589.97</v>
+      </c>
+      <c r="R381">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S381" s="26">
+        <f t="shared" si="64"/>
+        <v>2408397.7400000002</v>
+      </c>
+      <c r="T381">
+        <f t="shared" si="65"/>
+        <v>0.27437541348282857</v>
+      </c>
+    </row>
+    <row r="382" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G382">
+        <v>377</v>
+      </c>
+      <c r="H382">
+        <v>6640</v>
+      </c>
+      <c r="I382">
+        <f>SUM($H$5:H382)</f>
+        <v>1135360</v>
+      </c>
+      <c r="J382">
+        <f t="shared" si="66"/>
+        <v>1582.8862758747453</v>
+      </c>
+      <c r="K382">
+        <v>91</v>
+      </c>
+      <c r="L382" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M382" s="7">
+        <f t="shared" si="68"/>
+        <v>65.309000000000012</v>
+      </c>
+      <c r="O382">
+        <v>387</v>
+      </c>
+      <c r="P382" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q382" s="7">
+        <f t="shared" si="63"/>
+        <v>6596.56</v>
+      </c>
+      <c r="R382">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S382" s="26">
+        <f t="shared" si="64"/>
+        <v>2414994.3000000003</v>
+      </c>
+      <c r="T382">
+        <f t="shared" si="65"/>
+        <v>0.27389828060543087</v>
+      </c>
+    </row>
+    <row r="383" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G383">
+        <v>378</v>
+      </c>
+      <c r="H383">
+        <v>6660</v>
+      </c>
+      <c r="I383">
+        <f>SUM($H$5:H383)</f>
+        <v>1142020</v>
+      </c>
+      <c r="J383">
+        <f t="shared" si="66"/>
+        <v>1592.1714564318602</v>
+      </c>
+      <c r="K383">
+        <v>91</v>
+      </c>
+      <c r="L383" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M383" s="7">
+        <f t="shared" si="68"/>
+        <v>65.374400000000009</v>
+      </c>
+      <c r="O383">
+        <v>388</v>
+      </c>
+      <c r="P383" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q383" s="7">
+        <f t="shared" si="63"/>
+        <v>6603.16</v>
+      </c>
+      <c r="R383">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S383" s="26">
+        <f t="shared" si="64"/>
+        <v>2421597.4600000004</v>
+      </c>
+      <c r="T383">
+        <f t="shared" si="65"/>
+        <v>0.27342341967432998</v>
+      </c>
+    </row>
+    <row r="384" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G384">
+        <v>379</v>
+      </c>
+      <c r="H384">
+        <v>6680</v>
+      </c>
+      <c r="I384">
+        <f>SUM($H$5:H384)</f>
+        <v>1148700</v>
+      </c>
+      <c r="J384">
+        <f t="shared" si="66"/>
+        <v>1601.4845204140713</v>
+      </c>
+      <c r="K384">
+        <v>91</v>
+      </c>
+      <c r="L384" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M384" s="7">
+        <f t="shared" si="68"/>
+        <v>65.439800000000005</v>
+      </c>
+      <c r="O384">
+        <v>389</v>
+      </c>
+      <c r="P384" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q384" s="7">
+        <f t="shared" si="63"/>
+        <v>6609.77</v>
+      </c>
+      <c r="R384">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S384" s="26">
+        <f t="shared" si="64"/>
+        <v>2428207.2300000004</v>
+      </c>
+      <c r="T384">
+        <f t="shared" si="65"/>
+        <v>0.27295081487242795</v>
+      </c>
+    </row>
+    <row r="385" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G385">
+        <v>380</v>
+      </c>
+      <c r="H385">
+        <v>6700</v>
+      </c>
+      <c r="I385">
+        <f>SUM($H$5:H385)</f>
+        <v>1155400</v>
+      </c>
+      <c r="J385">
+        <f t="shared" si="66"/>
+        <v>1610.8254678213789</v>
+      </c>
+      <c r="K385">
+        <v>91</v>
+      </c>
+      <c r="L385" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M385" s="7">
+        <f t="shared" si="68"/>
+        <v>65.505300000000005</v>
+      </c>
+      <c r="O385">
+        <v>390</v>
+      </c>
+      <c r="P385" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q385" s="7">
+        <f t="shared" si="63"/>
+        <v>6616.38</v>
+      </c>
+      <c r="R385">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S385" s="26">
+        <f t="shared" si="64"/>
+        <v>2434823.6100000003</v>
+      </c>
+      <c r="T385">
+        <f t="shared" si="65"/>
+        <v>0.27248003869916354</v>
+      </c>
+    </row>
+    <row r="386" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G386">
+        <v>381</v>
+      </c>
+      <c r="H386">
+        <v>6720</v>
+      </c>
+      <c r="I386">
+        <f>SUM($H$5:H386)</f>
+        <v>1162120</v>
+      </c>
+      <c r="J386">
+        <f t="shared" si="66"/>
+        <v>1620.1942986537831</v>
+      </c>
+      <c r="K386">
+        <v>91</v>
+      </c>
+      <c r="L386" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M386" s="7">
+        <f t="shared" si="68"/>
+        <v>65.570899999999995</v>
+      </c>
+      <c r="O386">
+        <v>391</v>
+      </c>
+      <c r="P386" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q386" s="7">
+        <f t="shared" ref="Q386:Q398" si="69">ROUNDUP(Q385*R386,2)</f>
+        <v>6623</v>
+      </c>
+      <c r="R386">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S386" s="26">
+        <f t="shared" ref="S386:S398" si="70">Q386+S385</f>
+        <v>2441446.6100000003</v>
+      </c>
+      <c r="T386">
+        <f t="shared" ref="T386:T398" si="71">((S386-S385)/S385)*100</f>
+        <v>0.27201149080363973</v>
+      </c>
+    </row>
+    <row r="387" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G387">
+        <v>382</v>
+      </c>
+      <c r="H387">
+        <v>6740</v>
+      </c>
+      <c r="I387">
+        <f>SUM($H$5:H387)</f>
+        <v>1168860</v>
+      </c>
+      <c r="J387">
+        <f t="shared" si="66"/>
+        <v>1629.5910129112835</v>
+      </c>
+      <c r="K387">
+        <v>91</v>
+      </c>
+      <c r="L387" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M387" s="7">
+        <f t="shared" si="68"/>
+        <v>65.636500000000012</v>
+      </c>
+      <c r="O387">
+        <v>392</v>
+      </c>
+      <c r="P387" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q387" s="7">
+        <f t="shared" si="69"/>
+        <v>6629.63</v>
+      </c>
+      <c r="R387">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S387" s="26">
+        <f t="shared" si="70"/>
+        <v>2448076.2400000002</v>
+      </c>
+      <c r="T387">
+        <f t="shared" si="71"/>
+        <v>0.27154515576320087</v>
+      </c>
+    </row>
+    <row r="388" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G388">
+        <v>383</v>
+      </c>
+      <c r="H388">
+        <v>6760</v>
+      </c>
+      <c r="I388">
+        <f>SUM($H$5:H388)</f>
+        <v>1175620</v>
+      </c>
+      <c r="J388">
+        <f t="shared" si="66"/>
+        <v>1639.0156105938804</v>
+      </c>
+      <c r="K388">
+        <v>91</v>
+      </c>
+      <c r="L388" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M388" s="7">
+        <f t="shared" si="68"/>
+        <v>65.702200000000005</v>
+      </c>
+      <c r="O388">
+        <v>393</v>
+      </c>
+      <c r="P388" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q388" s="7">
+        <f t="shared" si="69"/>
+        <v>6636.26</v>
+      </c>
+      <c r="R388">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S388" s="26">
+        <f t="shared" si="70"/>
+        <v>2454712.5</v>
+      </c>
+      <c r="T388">
+        <f t="shared" si="71"/>
+        <v>0.27108060980975723</v>
+      </c>
+    </row>
+    <row r="389" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G389">
+        <v>384</v>
+      </c>
+      <c r="H389">
+        <v>6780</v>
+      </c>
+      <c r="I389">
+        <f>SUM($H$5:H389)</f>
+        <v>1182400</v>
+      </c>
+      <c r="J389">
+        <f t="shared" si="66"/>
+        <v>1648.4680917015739</v>
+      </c>
+      <c r="K389">
+        <v>91</v>
+      </c>
+      <c r="L389" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M389" s="7">
+        <f t="shared" si="68"/>
+        <v>65.768000000000001</v>
+      </c>
+      <c r="O389">
+        <v>394</v>
+      </c>
+      <c r="P389" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q389" s="7">
+        <f t="shared" si="69"/>
+        <v>6642.9000000000005</v>
+      </c>
+      <c r="R389">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S389" s="26">
+        <f t="shared" si="70"/>
+        <v>2461355.4</v>
+      </c>
+      <c r="T389">
+        <f t="shared" si="71"/>
+        <v>0.27061824959134345</v>
+      </c>
+    </row>
+    <row r="390" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G390">
+        <v>385</v>
+      </c>
+      <c r="H390">
+        <v>6800</v>
+      </c>
+      <c r="I390">
+        <f>SUM($H$5:H390)</f>
+        <v>1189200</v>
+      </c>
+      <c r="J390">
+        <f t="shared" si="66"/>
+        <v>1657.9484562343637</v>
+      </c>
+      <c r="K390">
+        <v>91</v>
+      </c>
+      <c r="L390" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M390" s="7">
+        <f t="shared" si="68"/>
+        <v>65.833799999999997</v>
+      </c>
+      <c r="O390">
+        <v>395</v>
+      </c>
+      <c r="P390" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q390" s="7">
+        <f t="shared" si="69"/>
+        <v>6649.55</v>
+      </c>
+      <c r="R390">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S390" s="26">
+        <f t="shared" si="70"/>
+        <v>2468004.9499999997</v>
+      </c>
+      <c r="T390">
+        <f t="shared" si="71"/>
+        <v>0.27015806006722204</v>
+      </c>
+    </row>
+    <row r="391" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G391">
+        <v>386</v>
+      </c>
+      <c r="H391">
+        <v>6820</v>
+      </c>
+      <c r="I391">
+        <f>SUM($H$5:H391)</f>
+        <v>1196020</v>
+      </c>
+      <c r="J391">
+        <f t="shared" si="66"/>
+        <v>1667.4567041922501</v>
+      </c>
+      <c r="K391">
+        <v>91</v>
+      </c>
+      <c r="L391" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M391" s="7">
+        <f t="shared" si="68"/>
+        <v>65.899699999999996</v>
+      </c>
+      <c r="O391">
+        <v>396</v>
+      </c>
+      <c r="P391" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q391" s="7">
+        <f t="shared" si="69"/>
+        <v>6656.2</v>
+      </c>
+      <c r="R391">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S391" s="26">
+        <f t="shared" si="70"/>
+        <v>2474661.15</v>
+      </c>
+      <c r="T391">
+        <f t="shared" si="71"/>
+        <v>0.26969962114541896</v>
+      </c>
+    </row>
+    <row r="392" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G392">
+        <v>387</v>
+      </c>
+      <c r="H392">
+        <v>6840</v>
+      </c>
+      <c r="I392">
+        <f>SUM($H$5:H392)</f>
+        <v>1202860</v>
+      </c>
+      <c r="J392">
+        <f t="shared" si="66"/>
+        <v>1676.9928355752327</v>
+      </c>
+      <c r="K392">
+        <v>91</v>
+      </c>
+      <c r="L392" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M392" s="7">
+        <f t="shared" si="68"/>
+        <v>65.965600000000009</v>
+      </c>
+      <c r="O392">
+        <v>397</v>
+      </c>
+      <c r="P392" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q392" s="7">
+        <f t="shared" si="69"/>
+        <v>6662.8600000000006</v>
+      </c>
+      <c r="R392">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S392" s="26">
+        <f t="shared" si="70"/>
+        <v>2481324.0099999998</v>
+      </c>
+      <c r="T392">
+        <f t="shared" si="71"/>
+        <v>0.26924332650552463</v>
+      </c>
+    </row>
+    <row r="393" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G393">
+        <v>388</v>
+      </c>
+      <c r="H393">
+        <v>6860</v>
+      </c>
+      <c r="I393">
+        <f>SUM($H$5:H393)</f>
+        <v>1209720</v>
+      </c>
+      <c r="J393">
+        <f t="shared" si="66"/>
+        <v>1686.5568503833119</v>
+      </c>
+      <c r="K393">
+        <v>91</v>
+      </c>
+      <c r="L393" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M393" s="7">
+        <f t="shared" si="68"/>
+        <v>66.031599999999997</v>
+      </c>
+      <c r="O393">
+        <v>398</v>
+      </c>
+      <c r="P393" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q393" s="7">
+        <f t="shared" si="69"/>
+        <v>6669.5300000000007</v>
+      </c>
+      <c r="R393">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S393" s="26">
+        <f t="shared" si="70"/>
+        <v>2487993.5399999996</v>
+      </c>
+      <c r="T393">
+        <f t="shared" si="71"/>
+        <v>0.26878916147673093</v>
+      </c>
+    </row>
+    <row r="394" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G394">
+        <v>389</v>
+      </c>
+      <c r="H394">
+        <v>6880</v>
+      </c>
+      <c r="I394">
+        <f>SUM($H$5:H394)</f>
+        <v>1216600</v>
+      </c>
+      <c r="J394">
+        <f t="shared" si="66"/>
+        <v>1696.1487486164874</v>
+      </c>
+      <c r="K394">
+        <v>91</v>
+      </c>
+      <c r="L394" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M394" s="7">
+        <f t="shared" si="68"/>
+        <v>66.097700000000003</v>
+      </c>
+      <c r="O394">
+        <v>399</v>
+      </c>
+      <c r="P394" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q394" s="7">
+        <f t="shared" si="69"/>
+        <v>6676.2</v>
+      </c>
+      <c r="R394">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S394" s="26">
+        <f t="shared" si="70"/>
+        <v>2494669.7399999998</v>
+      </c>
+      <c r="T394">
+        <f t="shared" si="71"/>
+        <v>0.26833670958808792</v>
+      </c>
+    </row>
+    <row r="395" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G395">
+        <v>390</v>
+      </c>
+      <c r="H395">
+        <v>6900</v>
+      </c>
+      <c r="I395">
+        <f>SUM($H$5:H395)</f>
+        <v>1223500</v>
+      </c>
+      <c r="J395">
+        <f t="shared" si="66"/>
+        <v>1705.7685302747595</v>
+      </c>
+      <c r="K395">
+        <v>91</v>
+      </c>
+      <c r="L395" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M395" s="7">
+        <f t="shared" si="68"/>
+        <v>66.163799999999995</v>
+      </c>
+      <c r="O395">
+        <v>400</v>
+      </c>
+      <c r="P395" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q395" s="7">
+        <f t="shared" si="69"/>
+        <v>6682.88</v>
+      </c>
+      <c r="R395">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S395" s="26">
+        <f t="shared" si="70"/>
+        <v>2501352.6199999996</v>
+      </c>
+      <c r="T395">
+        <f t="shared" si="71"/>
+        <v>0.26788636158307227</v>
+      </c>
+    </row>
+    <row r="396" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G396">
+        <v>391</v>
+      </c>
+      <c r="H396">
+        <v>6920</v>
+      </c>
+      <c r="I396">
+        <f>SUM($H$5:H396)</f>
+        <v>1230420</v>
+      </c>
+      <c r="J396">
+        <f t="shared" si="66"/>
+        <v>1715.4161953581279</v>
+      </c>
+      <c r="K396">
+        <v>91</v>
+      </c>
+      <c r="L396" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M396" s="7">
+        <f t="shared" si="68"/>
+        <v>66.23</v>
+      </c>
+      <c r="Q396" s="7"/>
+      <c r="S396" s="26"/>
+    </row>
+    <row r="397" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G397">
+        <v>392</v>
+      </c>
+      <c r="H397">
+        <v>6940</v>
+      </c>
+      <c r="I397">
+        <f>SUM($H$5:H397)</f>
+        <v>1237360</v>
+      </c>
+      <c r="J397">
+        <f t="shared" si="66"/>
+        <v>1725.0917438665929</v>
+      </c>
+      <c r="K397">
+        <v>91</v>
+      </c>
+      <c r="L397" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M397" s="7">
+        <f t="shared" si="68"/>
+        <v>66.296300000000002</v>
+      </c>
+      <c r="Q397" s="7"/>
+      <c r="S397" s="26"/>
+    </row>
+    <row r="398" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G398">
+        <v>393</v>
+      </c>
+      <c r="H398">
+        <v>6960</v>
+      </c>
+      <c r="I398">
+        <f>SUM($H$5:H398)</f>
+        <v>1244320</v>
+      </c>
+      <c r="J398">
+        <f t="shared" si="66"/>
+        <v>1734.7951758001543</v>
+      </c>
+      <c r="K398">
+        <v>91</v>
+      </c>
+      <c r="L398" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M398" s="7">
+        <f t="shared" si="68"/>
+        <v>66.3626</v>
+      </c>
+      <c r="Q398" s="7"/>
+      <c r="S398" s="26"/>
+    </row>
+    <row r="399" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G399">
+        <v>394</v>
+      </c>
+      <c r="H399">
+        <v>6980</v>
+      </c>
+      <c r="I399">
+        <f>SUM($H$5:H399)</f>
+        <v>1251300</v>
+      </c>
+      <c r="J399">
+        <f t="shared" si="66"/>
+        <v>1744.5264911588122</v>
+      </c>
+      <c r="K399">
+        <v>91</v>
+      </c>
+      <c r="L399" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M399" s="7">
+        <f t="shared" si="68"/>
+        <v>66.429000000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G400">
+        <v>395</v>
+      </c>
+      <c r="H400">
+        <v>7000</v>
+      </c>
+      <c r="I400">
+        <f>SUM($H$5:H400)</f>
+        <v>1258300</v>
+      </c>
+      <c r="J400">
+        <f t="shared" si="66"/>
+        <v>1754.2856899425663</v>
+      </c>
+      <c r="K400">
+        <v>91</v>
+      </c>
+      <c r="L400" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M400" s="7">
+        <f t="shared" si="68"/>
+        <v>66.495500000000007</v>
+      </c>
+    </row>
+    <row r="401" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G401">
+        <v>396</v>
+      </c>
+      <c r="H401">
+        <v>7020</v>
+      </c>
+      <c r="I401">
+        <f>SUM($H$5:H401)</f>
+        <v>1265320</v>
+      </c>
+      <c r="J401">
+        <f t="shared" si="66"/>
+        <v>1764.072772151417</v>
+      </c>
+      <c r="K401">
+        <v>91</v>
+      </c>
+      <c r="L401" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M401" s="7">
+        <f t="shared" si="68"/>
+        <v>66.561999999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G402">
+        <v>397</v>
+      </c>
+      <c r="H402">
+        <v>7040</v>
+      </c>
+      <c r="I402">
+        <f>SUM($H$5:H402)</f>
+        <v>1272360</v>
+      </c>
+      <c r="J402">
+        <f t="shared" si="66"/>
+        <v>1773.8877377853642</v>
+      </c>
+      <c r="K402">
+        <v>91</v>
+      </c>
+      <c r="L402" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M402" s="7">
+        <f t="shared" si="68"/>
+        <v>66.628600000000006</v>
+      </c>
+    </row>
+    <row r="403" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G403">
+        <v>398</v>
+      </c>
+      <c r="H403">
+        <v>7060</v>
+      </c>
+      <c r="I403">
+        <f>SUM($H$5:H403)</f>
+        <v>1279420</v>
+      </c>
+      <c r="J403">
+        <f t="shared" si="66"/>
+        <v>1783.7305868444078</v>
+      </c>
+      <c r="K403">
+        <v>91</v>
+      </c>
+      <c r="L403" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M403" s="7">
+        <f t="shared" si="68"/>
+        <v>66.695300000000003</v>
+      </c>
+    </row>
+    <row r="404" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G404">
+        <v>399</v>
+      </c>
+      <c r="H404">
+        <v>7080</v>
+      </c>
+      <c r="I404">
+        <f>SUM($H$5:H404)</f>
+        <v>1286500</v>
+      </c>
+      <c r="J404">
+        <f t="shared" si="66"/>
+        <v>1793.6013193285478</v>
+      </c>
+      <c r="K404">
+        <v>91</v>
+      </c>
+      <c r="L404" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M404" s="7">
+        <f t="shared" si="68"/>
+        <v>66.762</v>
+      </c>
+    </row>
+    <row r="405" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G405">
+        <v>400</v>
+      </c>
+      <c r="H405">
+        <v>7100</v>
+      </c>
+      <c r="I405">
+        <f>SUM($H$5:H405)</f>
+        <v>1293600</v>
+      </c>
+      <c r="J405">
+        <f t="shared" si="66"/>
+        <v>1803.499935237784</v>
+      </c>
+      <c r="K405">
+        <v>91</v>
+      </c>
+      <c r="L405" t="str">
+        <f t="shared" si="67"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M405" s="7">
+        <f t="shared" si="68"/>
+        <v>66.828800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDA7BB-CEA4-45B9-A9A1-0771FC3B7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62DA9AA-1107-4B83-B4D7-4B2E99AD14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,9 +723,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -763,7 +763,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -869,7 +869,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1011,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D487" sqref="D487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7261,6 +7261,1606 @@
       <c r="D402">
         <f>ROUNDUP(VLOOKUP(A402,Balance!G:M,7,FALSE),0)</f>
         <v>67</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <f>VLOOKUP(A403,Balance!G:H,2,FALSE)</f>
+        <v>7120</v>
+      </c>
+      <c r="C403">
+        <v>91</v>
+      </c>
+      <c r="D403">
+        <f>ROUNDUP(VLOOKUP(A403,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <f>VLOOKUP(A404,Balance!G:H,2,FALSE)</f>
+        <v>7140</v>
+      </c>
+      <c r="C404">
+        <v>91</v>
+      </c>
+      <c r="D404">
+        <f>ROUNDUP(VLOOKUP(A404,Balance!G:M,7,FALSE),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <f>VLOOKUP(A405,Balance!G:H,2,FALSE)</f>
+        <v>7160</v>
+      </c>
+      <c r="C405">
+        <v>91</v>
+      </c>
+      <c r="D405">
+        <f>ROUNDUP(VLOOKUP(A405,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <f>VLOOKUP(A406,Balance!G:H,2,FALSE)</f>
+        <v>7180</v>
+      </c>
+      <c r="C406">
+        <v>91</v>
+      </c>
+      <c r="D406">
+        <f>ROUNDUP(VLOOKUP(A406,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <f>VLOOKUP(A407,Balance!G:H,2,FALSE)</f>
+        <v>7200</v>
+      </c>
+      <c r="C407">
+        <v>91</v>
+      </c>
+      <c r="D407">
+        <f>ROUNDUP(VLOOKUP(A407,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <f>VLOOKUP(A408,Balance!G:H,2,FALSE)</f>
+        <v>7220</v>
+      </c>
+      <c r="C408">
+        <v>91</v>
+      </c>
+      <c r="D408">
+        <f>ROUNDUP(VLOOKUP(A408,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <f>VLOOKUP(A409,Balance!G:H,2,FALSE)</f>
+        <v>7240</v>
+      </c>
+      <c r="C409">
+        <v>91</v>
+      </c>
+      <c r="D409">
+        <f>ROUNDUP(VLOOKUP(A409,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <f>VLOOKUP(A410,Balance!G:H,2,FALSE)</f>
+        <v>7260</v>
+      </c>
+      <c r="C410">
+        <v>91</v>
+      </c>
+      <c r="D410">
+        <f>ROUNDUP(VLOOKUP(A410,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <f>VLOOKUP(A411,Balance!G:H,2,FALSE)</f>
+        <v>7280</v>
+      </c>
+      <c r="C411">
+        <v>91</v>
+      </c>
+      <c r="D411">
+        <f>ROUNDUP(VLOOKUP(A411,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <f>VLOOKUP(A412,Balance!G:H,2,FALSE)</f>
+        <v>7300</v>
+      </c>
+      <c r="C412">
+        <v>91</v>
+      </c>
+      <c r="D412">
+        <f>ROUNDUP(VLOOKUP(A412,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <f>VLOOKUP(A413,Balance!G:H,2,FALSE)</f>
+        <v>7320</v>
+      </c>
+      <c r="C413">
+        <v>91</v>
+      </c>
+      <c r="D413">
+        <f>ROUNDUP(VLOOKUP(A413,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <f>VLOOKUP(A414,Balance!G:H,2,FALSE)</f>
+        <v>7340</v>
+      </c>
+      <c r="C414">
+        <v>91</v>
+      </c>
+      <c r="D414">
+        <f>ROUNDUP(VLOOKUP(A414,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <f>VLOOKUP(A415,Balance!G:H,2,FALSE)</f>
+        <v>7360</v>
+      </c>
+      <c r="C415">
+        <v>91</v>
+      </c>
+      <c r="D415">
+        <f>ROUNDUP(VLOOKUP(A415,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <f>VLOOKUP(A416,Balance!G:H,2,FALSE)</f>
+        <v>7380</v>
+      </c>
+      <c r="C416">
+        <v>91</v>
+      </c>
+      <c r="D416">
+        <f>ROUNDUP(VLOOKUP(A416,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <f>VLOOKUP(A417,Balance!G:H,2,FALSE)</f>
+        <v>7400</v>
+      </c>
+      <c r="C417">
+        <v>91</v>
+      </c>
+      <c r="D417">
+        <f>ROUNDUP(VLOOKUP(A417,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <f>VLOOKUP(A418,Balance!G:H,2,FALSE)</f>
+        <v>7420</v>
+      </c>
+      <c r="C418">
+        <v>91</v>
+      </c>
+      <c r="D418">
+        <f>ROUNDUP(VLOOKUP(A418,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <f>VLOOKUP(A419,Balance!G:H,2,FALSE)</f>
+        <v>7440</v>
+      </c>
+      <c r="C419">
+        <v>91</v>
+      </c>
+      <c r="D419">
+        <f>ROUNDUP(VLOOKUP(A419,Balance!G:M,7,FALSE),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <f>VLOOKUP(A420,Balance!G:H,2,FALSE)</f>
+        <v>7460</v>
+      </c>
+      <c r="C420">
+        <v>91</v>
+      </c>
+      <c r="D420">
+        <f>ROUNDUP(VLOOKUP(A420,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <f>VLOOKUP(A421,Balance!G:H,2,FALSE)</f>
+        <v>7480</v>
+      </c>
+      <c r="C421">
+        <v>91</v>
+      </c>
+      <c r="D421">
+        <f>ROUNDUP(VLOOKUP(A421,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <f>VLOOKUP(A422,Balance!G:H,2,FALSE)</f>
+        <v>7500</v>
+      </c>
+      <c r="C422">
+        <v>91</v>
+      </c>
+      <c r="D422">
+        <f>ROUNDUP(VLOOKUP(A422,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <f>VLOOKUP(A423,Balance!G:H,2,FALSE)</f>
+        <v>7520</v>
+      </c>
+      <c r="C423">
+        <v>91</v>
+      </c>
+      <c r="D423">
+        <f>ROUNDUP(VLOOKUP(A423,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <f>VLOOKUP(A424,Balance!G:H,2,FALSE)</f>
+        <v>7540</v>
+      </c>
+      <c r="C424">
+        <v>91</v>
+      </c>
+      <c r="D424">
+        <f>ROUNDUP(VLOOKUP(A424,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <f>VLOOKUP(A425,Balance!G:H,2,FALSE)</f>
+        <v>7560</v>
+      </c>
+      <c r="C425">
+        <v>91</v>
+      </c>
+      <c r="D425">
+        <f>ROUNDUP(VLOOKUP(A425,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <f>VLOOKUP(A426,Balance!G:H,2,FALSE)</f>
+        <v>7580</v>
+      </c>
+      <c r="C426">
+        <v>91</v>
+      </c>
+      <c r="D426">
+        <f>ROUNDUP(VLOOKUP(A426,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <f>VLOOKUP(A427,Balance!G:H,2,FALSE)</f>
+        <v>7600</v>
+      </c>
+      <c r="C427">
+        <v>91</v>
+      </c>
+      <c r="D427">
+        <f>ROUNDUP(VLOOKUP(A427,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <f>VLOOKUP(A428,Balance!G:H,2,FALSE)</f>
+        <v>7620</v>
+      </c>
+      <c r="C428">
+        <v>91</v>
+      </c>
+      <c r="D428">
+        <f>ROUNDUP(VLOOKUP(A428,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <f>VLOOKUP(A429,Balance!G:H,2,FALSE)</f>
+        <v>7640</v>
+      </c>
+      <c r="C429">
+        <v>91</v>
+      </c>
+      <c r="D429">
+        <f>ROUNDUP(VLOOKUP(A429,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <f>VLOOKUP(A430,Balance!G:H,2,FALSE)</f>
+        <v>7660</v>
+      </c>
+      <c r="C430">
+        <v>91</v>
+      </c>
+      <c r="D430">
+        <f>ROUNDUP(VLOOKUP(A430,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <f>VLOOKUP(A431,Balance!G:H,2,FALSE)</f>
+        <v>7680</v>
+      </c>
+      <c r="C431">
+        <v>91</v>
+      </c>
+      <c r="D431">
+        <f>ROUNDUP(VLOOKUP(A431,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <f>VLOOKUP(A432,Balance!G:H,2,FALSE)</f>
+        <v>7700</v>
+      </c>
+      <c r="C432">
+        <v>91</v>
+      </c>
+      <c r="D432">
+        <f>ROUNDUP(VLOOKUP(A432,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <f>VLOOKUP(A433,Balance!G:H,2,FALSE)</f>
+        <v>7720</v>
+      </c>
+      <c r="C433">
+        <v>91</v>
+      </c>
+      <c r="D433">
+        <f>ROUNDUP(VLOOKUP(A433,Balance!G:M,7,FALSE),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <f>VLOOKUP(A434,Balance!G:H,2,FALSE)</f>
+        <v>7740</v>
+      </c>
+      <c r="C434">
+        <v>91</v>
+      </c>
+      <c r="D434">
+        <f>ROUNDUP(VLOOKUP(A434,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <f>VLOOKUP(A435,Balance!G:H,2,FALSE)</f>
+        <v>7760</v>
+      </c>
+      <c r="C435">
+        <v>91</v>
+      </c>
+      <c r="D435">
+        <f>ROUNDUP(VLOOKUP(A435,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <f>VLOOKUP(A436,Balance!G:H,2,FALSE)</f>
+        <v>7780</v>
+      </c>
+      <c r="C436">
+        <v>91</v>
+      </c>
+      <c r="D436">
+        <f>ROUNDUP(VLOOKUP(A436,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <f>VLOOKUP(A437,Balance!G:H,2,FALSE)</f>
+        <v>7800</v>
+      </c>
+      <c r="C437">
+        <v>91</v>
+      </c>
+      <c r="D437">
+        <f>ROUNDUP(VLOOKUP(A437,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <f>VLOOKUP(A438,Balance!G:H,2,FALSE)</f>
+        <v>7820</v>
+      </c>
+      <c r="C438">
+        <v>91</v>
+      </c>
+      <c r="D438">
+        <f>ROUNDUP(VLOOKUP(A438,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <f>VLOOKUP(A439,Balance!G:H,2,FALSE)</f>
+        <v>7840</v>
+      </c>
+      <c r="C439">
+        <v>91</v>
+      </c>
+      <c r="D439">
+        <f>ROUNDUP(VLOOKUP(A439,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <f>VLOOKUP(A440,Balance!G:H,2,FALSE)</f>
+        <v>7860</v>
+      </c>
+      <c r="C440">
+        <v>91</v>
+      </c>
+      <c r="D440">
+        <f>ROUNDUP(VLOOKUP(A440,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <f>VLOOKUP(A441,Balance!G:H,2,FALSE)</f>
+        <v>7880</v>
+      </c>
+      <c r="C441">
+        <v>91</v>
+      </c>
+      <c r="D441">
+        <f>ROUNDUP(VLOOKUP(A441,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <f>VLOOKUP(A442,Balance!G:H,2,FALSE)</f>
+        <v>7900</v>
+      </c>
+      <c r="C442">
+        <v>91</v>
+      </c>
+      <c r="D442">
+        <f>ROUNDUP(VLOOKUP(A442,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <f>VLOOKUP(A443,Balance!G:H,2,FALSE)</f>
+        <v>7920</v>
+      </c>
+      <c r="C443">
+        <v>91</v>
+      </c>
+      <c r="D443">
+        <f>ROUNDUP(VLOOKUP(A443,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <f>VLOOKUP(A444,Balance!G:H,2,FALSE)</f>
+        <v>7940</v>
+      </c>
+      <c r="C444">
+        <v>91</v>
+      </c>
+      <c r="D444">
+        <f>ROUNDUP(VLOOKUP(A444,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <f>VLOOKUP(A445,Balance!G:H,2,FALSE)</f>
+        <v>7960</v>
+      </c>
+      <c r="C445">
+        <v>91</v>
+      </c>
+      <c r="D445">
+        <f>ROUNDUP(VLOOKUP(A445,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <f>VLOOKUP(A446,Balance!G:H,2,FALSE)</f>
+        <v>7980</v>
+      </c>
+      <c r="C446">
+        <v>91</v>
+      </c>
+      <c r="D446">
+        <f>ROUNDUP(VLOOKUP(A446,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <f>VLOOKUP(A447,Balance!G:H,2,FALSE)</f>
+        <v>8000</v>
+      </c>
+      <c r="C447">
+        <v>91</v>
+      </c>
+      <c r="D447">
+        <f>ROUNDUP(VLOOKUP(A447,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <f>VLOOKUP(A448,Balance!G:H,2,FALSE)</f>
+        <v>8020</v>
+      </c>
+      <c r="C448">
+        <v>91</v>
+      </c>
+      <c r="D448">
+        <f>ROUNDUP(VLOOKUP(A448,Balance!G:M,7,FALSE),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <f>VLOOKUP(A449,Balance!G:H,2,FALSE)</f>
+        <v>8040</v>
+      </c>
+      <c r="C449">
+        <v>91</v>
+      </c>
+      <c r="D449">
+        <f>ROUNDUP(VLOOKUP(A449,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <f>VLOOKUP(A450,Balance!G:H,2,FALSE)</f>
+        <v>8060</v>
+      </c>
+      <c r="C450">
+        <v>91</v>
+      </c>
+      <c r="D450">
+        <f>ROUNDUP(VLOOKUP(A450,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <f>VLOOKUP(A451,Balance!G:H,2,FALSE)</f>
+        <v>8080</v>
+      </c>
+      <c r="C451">
+        <v>91</v>
+      </c>
+      <c r="D451">
+        <f>ROUNDUP(VLOOKUP(A451,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <f>VLOOKUP(A452,Balance!G:H,2,FALSE)</f>
+        <v>8100</v>
+      </c>
+      <c r="C452">
+        <v>91</v>
+      </c>
+      <c r="D452">
+        <f>ROUNDUP(VLOOKUP(A452,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <f>VLOOKUP(A453,Balance!G:H,2,FALSE)</f>
+        <v>8120</v>
+      </c>
+      <c r="C453">
+        <v>91</v>
+      </c>
+      <c r="D453">
+        <f>ROUNDUP(VLOOKUP(A453,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <f>VLOOKUP(A454,Balance!G:H,2,FALSE)</f>
+        <v>8140</v>
+      </c>
+      <c r="C454">
+        <v>91</v>
+      </c>
+      <c r="D454">
+        <f>ROUNDUP(VLOOKUP(A454,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <f>VLOOKUP(A455,Balance!G:H,2,FALSE)</f>
+        <v>8160</v>
+      </c>
+      <c r="C455">
+        <v>91</v>
+      </c>
+      <c r="D455">
+        <f>ROUNDUP(VLOOKUP(A455,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <f>VLOOKUP(A456,Balance!G:H,2,FALSE)</f>
+        <v>8180</v>
+      </c>
+      <c r="C456">
+        <v>91</v>
+      </c>
+      <c r="D456">
+        <f>ROUNDUP(VLOOKUP(A456,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <f>VLOOKUP(A457,Balance!G:H,2,FALSE)</f>
+        <v>8200</v>
+      </c>
+      <c r="C457">
+        <v>91</v>
+      </c>
+      <c r="D457">
+        <f>ROUNDUP(VLOOKUP(A457,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <f>VLOOKUP(A458,Balance!G:H,2,FALSE)</f>
+        <v>8220</v>
+      </c>
+      <c r="C458">
+        <v>91</v>
+      </c>
+      <c r="D458">
+        <f>ROUNDUP(VLOOKUP(A458,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <f>VLOOKUP(A459,Balance!G:H,2,FALSE)</f>
+        <v>8240</v>
+      </c>
+      <c r="C459">
+        <v>91</v>
+      </c>
+      <c r="D459">
+        <f>ROUNDUP(VLOOKUP(A459,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <f>VLOOKUP(A460,Balance!G:H,2,FALSE)</f>
+        <v>8260</v>
+      </c>
+      <c r="C460">
+        <v>91</v>
+      </c>
+      <c r="D460">
+        <f>ROUNDUP(VLOOKUP(A460,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <f>VLOOKUP(A461,Balance!G:H,2,FALSE)</f>
+        <v>8280</v>
+      </c>
+      <c r="C461">
+        <v>91</v>
+      </c>
+      <c r="D461">
+        <f>ROUNDUP(VLOOKUP(A461,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <f>VLOOKUP(A462,Balance!G:H,2,FALSE)</f>
+        <v>8300</v>
+      </c>
+      <c r="C462">
+        <v>91</v>
+      </c>
+      <c r="D462">
+        <f>ROUNDUP(VLOOKUP(A462,Balance!G:M,7,FALSE),0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <f>VLOOKUP(A463,Balance!G:H,2,FALSE)</f>
+        <v>8320</v>
+      </c>
+      <c r="C463">
+        <v>91</v>
+      </c>
+      <c r="D463">
+        <f>ROUNDUP(VLOOKUP(A463,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <f>VLOOKUP(A464,Balance!G:H,2,FALSE)</f>
+        <v>8340</v>
+      </c>
+      <c r="C464">
+        <v>91</v>
+      </c>
+      <c r="D464">
+        <f>ROUNDUP(VLOOKUP(A464,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <f>VLOOKUP(A465,Balance!G:H,2,FALSE)</f>
+        <v>8360</v>
+      </c>
+      <c r="C465">
+        <v>91</v>
+      </c>
+      <c r="D465">
+        <f>ROUNDUP(VLOOKUP(A465,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <f>VLOOKUP(A466,Balance!G:H,2,FALSE)</f>
+        <v>8380</v>
+      </c>
+      <c r="C466">
+        <v>91</v>
+      </c>
+      <c r="D466">
+        <f>ROUNDUP(VLOOKUP(A466,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <f>VLOOKUP(A467,Balance!G:H,2,FALSE)</f>
+        <v>8400</v>
+      </c>
+      <c r="C467">
+        <v>91</v>
+      </c>
+      <c r="D467">
+        <f>ROUNDUP(VLOOKUP(A467,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <f>VLOOKUP(A468,Balance!G:H,2,FALSE)</f>
+        <v>8420</v>
+      </c>
+      <c r="C468">
+        <v>91</v>
+      </c>
+      <c r="D468">
+        <f>ROUNDUP(VLOOKUP(A468,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <f>VLOOKUP(A469,Balance!G:H,2,FALSE)</f>
+        <v>8440</v>
+      </c>
+      <c r="C469">
+        <v>91</v>
+      </c>
+      <c r="D469">
+        <f>ROUNDUP(VLOOKUP(A469,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <f>VLOOKUP(A470,Balance!G:H,2,FALSE)</f>
+        <v>8460</v>
+      </c>
+      <c r="C470">
+        <v>91</v>
+      </c>
+      <c r="D470">
+        <f>ROUNDUP(VLOOKUP(A470,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <f>VLOOKUP(A471,Balance!G:H,2,FALSE)</f>
+        <v>8480</v>
+      </c>
+      <c r="C471">
+        <v>91</v>
+      </c>
+      <c r="D471">
+        <f>ROUNDUP(VLOOKUP(A471,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <f>VLOOKUP(A472,Balance!G:H,2,FALSE)</f>
+        <v>8500</v>
+      </c>
+      <c r="C472">
+        <v>91</v>
+      </c>
+      <c r="D472">
+        <f>ROUNDUP(VLOOKUP(A472,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <f>VLOOKUP(A473,Balance!G:H,2,FALSE)</f>
+        <v>8520</v>
+      </c>
+      <c r="C473">
+        <v>91</v>
+      </c>
+      <c r="D473">
+        <f>ROUNDUP(VLOOKUP(A473,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <f>VLOOKUP(A474,Balance!G:H,2,FALSE)</f>
+        <v>8540</v>
+      </c>
+      <c r="C474">
+        <v>91</v>
+      </c>
+      <c r="D474">
+        <f>ROUNDUP(VLOOKUP(A474,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <f>VLOOKUP(A475,Balance!G:H,2,FALSE)</f>
+        <v>8560</v>
+      </c>
+      <c r="C475">
+        <v>91</v>
+      </c>
+      <c r="D475">
+        <f>ROUNDUP(VLOOKUP(A475,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <f>VLOOKUP(A476,Balance!G:H,2,FALSE)</f>
+        <v>8580</v>
+      </c>
+      <c r="C476">
+        <v>91</v>
+      </c>
+      <c r="D476">
+        <f>ROUNDUP(VLOOKUP(A476,Balance!G:M,7,FALSE),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <f>VLOOKUP(A477,Balance!G:H,2,FALSE)</f>
+        <v>8600</v>
+      </c>
+      <c r="C477">
+        <v>91</v>
+      </c>
+      <c r="D477">
+        <f>ROUNDUP(VLOOKUP(A477,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <f>VLOOKUP(A478,Balance!G:H,2,FALSE)</f>
+        <v>8620</v>
+      </c>
+      <c r="C478">
+        <v>91</v>
+      </c>
+      <c r="D478">
+        <f>ROUNDUP(VLOOKUP(A478,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <f>VLOOKUP(A479,Balance!G:H,2,FALSE)</f>
+        <v>8640</v>
+      </c>
+      <c r="C479">
+        <v>91</v>
+      </c>
+      <c r="D479">
+        <f>ROUNDUP(VLOOKUP(A479,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <f>VLOOKUP(A480,Balance!G:H,2,FALSE)</f>
+        <v>8660</v>
+      </c>
+      <c r="C480">
+        <v>91</v>
+      </c>
+      <c r="D480">
+        <f>ROUNDUP(VLOOKUP(A480,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <f>VLOOKUP(A481,Balance!G:H,2,FALSE)</f>
+        <v>8680</v>
+      </c>
+      <c r="C481">
+        <v>91</v>
+      </c>
+      <c r="D481">
+        <f>ROUNDUP(VLOOKUP(A481,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <f>VLOOKUP(A482,Balance!G:H,2,FALSE)</f>
+        <v>8700</v>
+      </c>
+      <c r="C482">
+        <v>91</v>
+      </c>
+      <c r="D482">
+        <f>ROUNDUP(VLOOKUP(A482,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <f>VLOOKUP(A483,Balance!G:H,2,FALSE)</f>
+        <v>8720</v>
+      </c>
+      <c r="C483">
+        <v>91</v>
+      </c>
+      <c r="D483">
+        <f>ROUNDUP(VLOOKUP(A483,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <f>VLOOKUP(A484,Balance!G:H,2,FALSE)</f>
+        <v>8740</v>
+      </c>
+      <c r="C484">
+        <v>91</v>
+      </c>
+      <c r="D484">
+        <f>ROUNDUP(VLOOKUP(A484,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <f>VLOOKUP(A485,Balance!G:H,2,FALSE)</f>
+        <v>8760</v>
+      </c>
+      <c r="C485">
+        <v>91</v>
+      </c>
+      <c r="D485">
+        <f>ROUNDUP(VLOOKUP(A485,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <f>VLOOKUP(A486,Balance!G:H,2,FALSE)</f>
+        <v>8780</v>
+      </c>
+      <c r="C486">
+        <v>91</v>
+      </c>
+      <c r="D486">
+        <f>ROUNDUP(VLOOKUP(A486,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <f>VLOOKUP(A487,Balance!G:H,2,FALSE)</f>
+        <v>8800</v>
+      </c>
+      <c r="C487">
+        <v>91</v>
+      </c>
+      <c r="D487">
+        <f>ROUNDUP(VLOOKUP(A487,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <f>VLOOKUP(A488,Balance!G:H,2,FALSE)</f>
+        <v>8820</v>
+      </c>
+      <c r="C488">
+        <v>91</v>
+      </c>
+      <c r="D488">
+        <f>ROUNDUP(VLOOKUP(A488,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <f>VLOOKUP(A489,Balance!G:H,2,FALSE)</f>
+        <v>8840</v>
+      </c>
+      <c r="C489">
+        <v>91</v>
+      </c>
+      <c r="D489">
+        <f>ROUNDUP(VLOOKUP(A489,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <f>VLOOKUP(A490,Balance!G:H,2,FALSE)</f>
+        <v>8860</v>
+      </c>
+      <c r="C490">
+        <v>91</v>
+      </c>
+      <c r="D490">
+        <f>ROUNDUP(VLOOKUP(A490,Balance!G:M,7,FALSE),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <f>VLOOKUP(A491,Balance!G:H,2,FALSE)</f>
+        <v>8880</v>
+      </c>
+      <c r="C491">
+        <v>91</v>
+      </c>
+      <c r="D491">
+        <f>ROUNDUP(VLOOKUP(A491,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <f>VLOOKUP(A492,Balance!G:H,2,FALSE)</f>
+        <v>8900</v>
+      </c>
+      <c r="C492">
+        <v>91</v>
+      </c>
+      <c r="D492">
+        <f>ROUNDUP(VLOOKUP(A492,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <f>VLOOKUP(A493,Balance!G:H,2,FALSE)</f>
+        <v>8920</v>
+      </c>
+      <c r="C493">
+        <v>91</v>
+      </c>
+      <c r="D493">
+        <f>ROUNDUP(VLOOKUP(A493,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <f>VLOOKUP(A494,Balance!G:H,2,FALSE)</f>
+        <v>8940</v>
+      </c>
+      <c r="C494">
+        <v>91</v>
+      </c>
+      <c r="D494">
+        <f>ROUNDUP(VLOOKUP(A494,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <f>VLOOKUP(A495,Balance!G:H,2,FALSE)</f>
+        <v>8960</v>
+      </c>
+      <c r="C495">
+        <v>91</v>
+      </c>
+      <c r="D495">
+        <f>ROUNDUP(VLOOKUP(A495,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <f>VLOOKUP(A496,Balance!G:H,2,FALSE)</f>
+        <v>8980</v>
+      </c>
+      <c r="C496">
+        <v>91</v>
+      </c>
+      <c r="D496">
+        <f>ROUNDUP(VLOOKUP(A496,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <f>VLOOKUP(A497,Balance!G:H,2,FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="C497">
+        <v>91</v>
+      </c>
+      <c r="D497">
+        <f>ROUNDUP(VLOOKUP(A497,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <f>VLOOKUP(A498,Balance!G:H,2,FALSE)</f>
+        <v>9020</v>
+      </c>
+      <c r="C498">
+        <v>91</v>
+      </c>
+      <c r="D498">
+        <f>ROUNDUP(VLOOKUP(A498,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <f>VLOOKUP(A499,Balance!G:H,2,FALSE)</f>
+        <v>9040</v>
+      </c>
+      <c r="C499">
+        <v>91</v>
+      </c>
+      <c r="D499">
+        <f>ROUNDUP(VLOOKUP(A499,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <f>VLOOKUP(A500,Balance!G:H,2,FALSE)</f>
+        <v>9060</v>
+      </c>
+      <c r="C500">
+        <v>91</v>
+      </c>
+      <c r="D500">
+        <f>ROUNDUP(VLOOKUP(A500,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <f>VLOOKUP(A501,Balance!G:H,2,FALSE)</f>
+        <v>9080</v>
+      </c>
+      <c r="C501">
+        <v>91</v>
+      </c>
+      <c r="D501">
+        <f>ROUNDUP(VLOOKUP(A501,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <f>VLOOKUP(A502,Balance!G:H,2,FALSE)</f>
+        <v>9100</v>
+      </c>
+      <c r="C502">
+        <v>91</v>
+      </c>
+      <c r="D502">
+        <f>ROUNDUP(VLOOKUP(A502,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7277,10 +8877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453AAC7-AFB1-4CF3-9E66-1D0C6477225E}">
-  <dimension ref="A3:T405"/>
+  <dimension ref="A3:T514"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L291" sqref="L291"/>
+    <sheetView topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J502" sqref="J502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7535,7 +9135,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIFS(M:M,K:K,91)*100</f>
-        <v>2501352.62</v>
+        <v>3271363.22</v>
       </c>
       <c r="B9">
         <f>SUMIFS(M:M,K:K,92)</f>
@@ -20186,18 +21786,18 @@
         <v>92</v>
       </c>
       <c r="Q272" s="7">
-        <f t="shared" ref="Q272:Q303" si="51">ROUNDUP(Q271*R272,2)</f>
+        <f t="shared" ref="Q272:Q294" si="51">ROUNDUP(Q271*R272,2)</f>
         <v>5909.2300000000005</v>
       </c>
       <c r="R272">
         <v>1.0009999999999999</v>
       </c>
       <c r="S272" s="26">
-        <f t="shared" ref="S272:S303" si="52">Q272+S271</f>
+        <f t="shared" ref="S272:S295" si="52">Q272+S271</f>
         <v>1727524.9100000011</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T303" si="53">((S272-S271)/S271)*100</f>
+        <f t="shared" ref="T272:T295" si="53">((S272-S271)/S271)*100</f>
         <v>0.34323746400822613</v>
       </c>
     </row>
@@ -21653,14 +23253,14 @@
         <v>672420</v>
       </c>
       <c r="J303">
-        <f t="shared" ref="J303:J366" si="57">I303/$A$5</f>
+        <f t="shared" ref="J303:J310" si="57">I303/$A$5</f>
         <v>937.46863516743258</v>
       </c>
       <c r="K303">
         <v>91</v>
       </c>
       <c r="L303" t="str">
-        <f t="shared" ref="L303:L366" si="58">IF(K303=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <f t="shared" ref="L303:L310" si="58">IF(K303=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
         <v>진 요도 피해량</v>
       </c>
       <c r="M303" s="7">
@@ -26131,8 +27731,27 @@
         <f t="shared" si="68"/>
         <v>66.23</v>
       </c>
-      <c r="Q396" s="7"/>
-      <c r="S396" s="26"/>
+      <c r="O396">
+        <v>401</v>
+      </c>
+      <c r="P396" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q396" s="7">
+        <f t="shared" si="69"/>
+        <v>6689.5700000000006</v>
+      </c>
+      <c r="R396">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S396" s="26">
+        <f t="shared" si="70"/>
+        <v>2508042.1899999995</v>
+      </c>
+      <c r="T396">
+        <f t="shared" si="71"/>
+        <v>0.26743810314916072</v>
+      </c>
     </row>
     <row r="397" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G397">
@@ -26160,8 +27779,27 @@
         <f t="shared" si="68"/>
         <v>66.296300000000002</v>
       </c>
-      <c r="Q397" s="7"/>
-      <c r="S397" s="26"/>
+      <c r="O397">
+        <v>402</v>
+      </c>
+      <c r="P397" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q397" s="7">
+        <f t="shared" si="69"/>
+        <v>6696.26</v>
+      </c>
+      <c r="R397">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S397" s="26">
+        <f t="shared" si="70"/>
+        <v>2514738.4499999993</v>
+      </c>
+      <c r="T397">
+        <f t="shared" si="71"/>
+        <v>0.26699152138265181</v>
+      </c>
     </row>
     <row r="398" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G398">
@@ -26189,8 +27827,27 @@
         <f t="shared" si="68"/>
         <v>66.3626</v>
       </c>
-      <c r="Q398" s="7"/>
-      <c r="S398" s="26"/>
+      <c r="O398">
+        <v>403</v>
+      </c>
+      <c r="P398" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q398" s="7">
+        <f t="shared" si="69"/>
+        <v>6702.96</v>
+      </c>
+      <c r="R398">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S398" s="26">
+        <f t="shared" si="70"/>
+        <v>2521441.4099999992</v>
+      </c>
+      <c r="T398">
+        <f t="shared" si="71"/>
+        <v>0.26654700412283294</v>
+      </c>
     </row>
     <row r="399" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G399">
@@ -26218,6 +27875,27 @@
         <f t="shared" si="68"/>
         <v>66.429000000000002</v>
       </c>
+      <c r="O399">
+        <v>404</v>
+      </c>
+      <c r="P399" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q399" s="7">
+        <f t="shared" ref="Q399:Q438" si="72">ROUNDUP(Q398*R399,2)</f>
+        <v>6709.67</v>
+      </c>
+      <c r="R399">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S399" s="26">
+        <f t="shared" ref="S399:S438" si="73">Q399+S398</f>
+        <v>2528151.0799999991</v>
+      </c>
+      <c r="T399">
+        <f t="shared" ref="T399:T438" si="74">((S399-S398)/S398)*100</f>
+        <v>0.26610453740425905</v>
+      </c>
     </row>
     <row r="400" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G400">
@@ -26245,8 +27923,29 @@
         <f t="shared" si="68"/>
         <v>66.495500000000007</v>
       </c>
-    </row>
-    <row r="401" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O400">
+        <v>405</v>
+      </c>
+      <c r="P400" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q400" s="7">
+        <f t="shared" si="72"/>
+        <v>6716.38</v>
+      </c>
+      <c r="R400">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S400" s="26">
+        <f t="shared" si="73"/>
+        <v>2534867.459999999</v>
+      </c>
+      <c r="T400">
+        <f t="shared" si="74"/>
+        <v>0.26566371183797649</v>
+      </c>
+    </row>
+    <row r="401" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G401">
         <v>396</v>
       </c>
@@ -26272,8 +27971,29 @@
         <f t="shared" si="68"/>
         <v>66.561999999999998</v>
       </c>
-    </row>
-    <row r="402" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O401">
+        <v>406</v>
+      </c>
+      <c r="P401" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q401" s="7">
+        <f t="shared" si="72"/>
+        <v>6723.1</v>
+      </c>
+      <c r="R401">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S401" s="26">
+        <f t="shared" si="73"/>
+        <v>2541590.5599999991</v>
+      </c>
+      <c r="T401">
+        <f t="shared" si="74"/>
+        <v>0.26522491239049223</v>
+      </c>
+    </row>
+    <row r="402" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G402">
         <v>397</v>
       </c>
@@ -26299,8 +28019,29 @@
         <f t="shared" si="68"/>
         <v>66.628600000000006</v>
       </c>
-    </row>
-    <row r="403" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O402">
+        <v>407</v>
+      </c>
+      <c r="P402" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q402" s="7">
+        <f t="shared" si="72"/>
+        <v>6729.83</v>
+      </c>
+      <c r="R402">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S402" s="26">
+        <f t="shared" si="73"/>
+        <v>2548320.3899999992</v>
+      </c>
+      <c r="T402">
+        <f t="shared" si="74"/>
+        <v>0.26478812543276353</v>
+      </c>
+    </row>
+    <row r="403" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G403">
         <v>398</v>
       </c>
@@ -26326,8 +28067,29 @@
         <f t="shared" si="68"/>
         <v>66.695300000000003</v>
       </c>
-    </row>
-    <row r="404" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O403">
+        <v>408</v>
+      </c>
+      <c r="P403" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q403" s="7">
+        <f t="shared" si="72"/>
+        <v>6736.56</v>
+      </c>
+      <c r="R403">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S403" s="26">
+        <f t="shared" si="73"/>
+        <v>2555056.9499999993</v>
+      </c>
+      <c r="T403">
+        <f t="shared" si="74"/>
+        <v>0.2643529450392248</v>
+      </c>
+    </row>
+    <row r="404" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G404">
         <v>399</v>
       </c>
@@ -26353,8 +28115,29 @@
         <f t="shared" si="68"/>
         <v>66.762</v>
       </c>
-    </row>
-    <row r="405" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O404">
+        <v>409</v>
+      </c>
+      <c r="P404" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q404" s="7">
+        <f t="shared" si="72"/>
+        <v>6743.3</v>
+      </c>
+      <c r="R404">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S404" s="26">
+        <f t="shared" si="73"/>
+        <v>2561800.2499999991</v>
+      </c>
+      <c r="T404">
+        <f t="shared" si="74"/>
+        <v>0.2639197533346494</v>
+      </c>
+    </row>
+    <row r="405" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G405">
         <v>400</v>
       </c>
@@ -26379,6 +28162,5154 @@
       <c r="M405" s="7">
         <f t="shared" si="68"/>
         <v>66.828800000000001</v>
+      </c>
+      <c r="O405">
+        <v>410</v>
+      </c>
+      <c r="P405" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q405" s="7">
+        <f t="shared" si="72"/>
+        <v>6750.05</v>
+      </c>
+      <c r="R405">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S405" s="26">
+        <f t="shared" si="73"/>
+        <v>2568550.2999999989</v>
+      </c>
+      <c r="T405">
+        <f t="shared" si="74"/>
+        <v>0.26348853701610098</v>
+      </c>
+    </row>
+    <row r="406" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G406">
+        <v>401</v>
+      </c>
+      <c r="H406">
+        <v>7120</v>
+      </c>
+      <c r="I406">
+        <f>SUM($H$5:H406)</f>
+        <v>1300720</v>
+      </c>
+      <c r="J406">
+        <f t="shared" ref="J406:J469" si="75">I406/$A$5</f>
+        <v>1813.4264345721169</v>
+      </c>
+      <c r="K406">
+        <v>91</v>
+      </c>
+      <c r="L406" t="str">
+        <f t="shared" ref="L406:L469" si="76">IF(K406=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M406" s="7">
+        <f t="shared" ref="M406:M469" si="77">VLOOKUP(G406,O:Q,3,FALSE)/100</f>
+        <v>66.895700000000005</v>
+      </c>
+      <c r="O406">
+        <v>411</v>
+      </c>
+      <c r="P406" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q406" s="7">
+        <f t="shared" si="72"/>
+        <v>6756.81</v>
+      </c>
+      <c r="R406">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S406" s="26">
+        <f t="shared" si="73"/>
+        <v>2575307.1099999989</v>
+      </c>
+      <c r="T406">
+        <f t="shared" si="74"/>
+        <v>0.26305928289588326</v>
+      </c>
+    </row>
+    <row r="407" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G407">
+        <v>402</v>
+      </c>
+      <c r="H407">
+        <v>7140</v>
+      </c>
+      <c r="I407">
+        <f>SUM($H$5:H407)</f>
+        <v>1307860</v>
+      </c>
+      <c r="J407">
+        <f t="shared" si="75"/>
+        <v>1823.3808173315463</v>
+      </c>
+      <c r="K407">
+        <v>91</v>
+      </c>
+      <c r="L407" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M407" s="7">
+        <f t="shared" si="77"/>
+        <v>66.962600000000009</v>
+      </c>
+      <c r="O407">
+        <v>412</v>
+      </c>
+      <c r="P407" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q407" s="7">
+        <f t="shared" si="72"/>
+        <v>6763.5700000000006</v>
+      </c>
+      <c r="R407">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S407" s="26">
+        <f t="shared" si="73"/>
+        <v>2582070.6799999988</v>
+      </c>
+      <c r="T407">
+        <f t="shared" si="74"/>
+        <v>0.26263158959708827</v>
+      </c>
+    </row>
+    <row r="408" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G408">
+        <v>403</v>
+      </c>
+      <c r="H408">
+        <v>7160</v>
+      </c>
+      <c r="I408">
+        <f>SUM($H$5:H408)</f>
+        <v>1315020</v>
+      </c>
+      <c r="J408">
+        <f t="shared" si="75"/>
+        <v>1833.363083516072</v>
+      </c>
+      <c r="K408">
+        <v>91</v>
+      </c>
+      <c r="L408" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M408" s="7">
+        <f t="shared" si="77"/>
+        <v>67.029600000000002</v>
+      </c>
+      <c r="O408">
+        <v>413</v>
+      </c>
+      <c r="P408" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q408" s="7">
+        <f t="shared" si="72"/>
+        <v>6770.34</v>
+      </c>
+      <c r="R408">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S408" s="26">
+        <f t="shared" si="73"/>
+        <v>2588841.0199999986</v>
+      </c>
+      <c r="T408">
+        <f t="shared" si="74"/>
+        <v>0.26220583551182475</v>
+      </c>
+    </row>
+    <row r="409" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G409">
+        <v>404</v>
+      </c>
+      <c r="H409">
+        <v>7180</v>
+      </c>
+      <c r="I409">
+        <f>SUM($H$5:H409)</f>
+        <v>1322200</v>
+      </c>
+      <c r="J409">
+        <f t="shared" si="75"/>
+        <v>1843.3732331256942</v>
+      </c>
+      <c r="K409">
+        <v>91</v>
+      </c>
+      <c r="L409" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M409" s="7">
+        <f t="shared" si="77"/>
+        <v>67.096699999999998</v>
+      </c>
+      <c r="O409">
+        <v>414</v>
+      </c>
+      <c r="P409" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q409" s="7">
+        <f t="shared" si="72"/>
+        <v>6777.12</v>
+      </c>
+      <c r="R409">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S409" s="26">
+        <f t="shared" si="73"/>
+        <v>2595618.1399999987</v>
+      </c>
+      <c r="T409">
+        <f t="shared" si="74"/>
+        <v>0.2617820077650081</v>
+      </c>
+    </row>
+    <row r="410" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G410">
+        <v>405</v>
+      </c>
+      <c r="H410">
+        <v>7200</v>
+      </c>
+      <c r="I410">
+        <f>SUM($H$5:H410)</f>
+        <v>1329400</v>
+      </c>
+      <c r="J410">
+        <f t="shared" si="75"/>
+        <v>1853.4112661604129</v>
+      </c>
+      <c r="K410">
+        <v>91</v>
+      </c>
+      <c r="L410" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M410" s="7">
+        <f t="shared" si="77"/>
+        <v>67.163799999999995</v>
+      </c>
+      <c r="O410">
+        <v>415</v>
+      </c>
+      <c r="P410" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q410" s="7">
+        <f t="shared" si="72"/>
+        <v>6783.9000000000005</v>
+      </c>
+      <c r="R410">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S410" s="26">
+        <f t="shared" si="73"/>
+        <v>2602402.0399999986</v>
+      </c>
+      <c r="T410">
+        <f t="shared" si="74"/>
+        <v>0.26135970832750882</v>
+      </c>
+    </row>
+    <row r="411" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G411">
+        <v>406</v>
+      </c>
+      <c r="H411">
+        <v>7220</v>
+      </c>
+      <c r="I411">
+        <f>SUM($H$5:H411)</f>
+        <v>1336620</v>
+      </c>
+      <c r="J411">
+        <f t="shared" si="75"/>
+        <v>1863.4771826202282</v>
+      </c>
+      <c r="K411">
+        <v>91</v>
+      </c>
+      <c r="L411" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M411" s="7">
+        <f t="shared" si="77"/>
+        <v>67.231000000000009</v>
+      </c>
+      <c r="O411">
+        <v>416</v>
+      </c>
+      <c r="P411" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q411" s="7">
+        <f t="shared" si="72"/>
+        <v>6790.6900000000005</v>
+      </c>
+      <c r="R411">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S411" s="26">
+        <f t="shared" si="73"/>
+        <v>2609192.7299999986</v>
+      </c>
+      <c r="T411">
+        <f t="shared" si="74"/>
+        <v>0.26093931282039523</v>
+      </c>
+    </row>
+    <row r="412" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G412">
+        <v>407</v>
+      </c>
+      <c r="H412">
+        <v>7240</v>
+      </c>
+      <c r="I412">
+        <f>SUM($H$5:H412)</f>
+        <v>1343860</v>
+      </c>
+      <c r="J412">
+        <f t="shared" si="75"/>
+        <v>1873.5709825051397</v>
+      </c>
+      <c r="K412">
+        <v>91</v>
+      </c>
+      <c r="L412" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M412" s="7">
+        <f t="shared" si="77"/>
+        <v>67.298299999999998</v>
+      </c>
+      <c r="O412">
+        <v>417</v>
+      </c>
+      <c r="P412" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q412" s="7">
+        <f t="shared" si="72"/>
+        <v>6797.49</v>
+      </c>
+      <c r="R412">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S412" s="26">
+        <f t="shared" si="73"/>
+        <v>2615990.2199999988</v>
+      </c>
+      <c r="T412">
+        <f t="shared" si="74"/>
+        <v>0.26052080867173916</v>
+      </c>
+    </row>
+    <row r="413" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G413">
+        <v>408</v>
+      </c>
+      <c r="H413">
+        <v>7260</v>
+      </c>
+      <c r="I413">
+        <f>SUM($H$5:H413)</f>
+        <v>1351120</v>
+      </c>
+      <c r="J413">
+        <f t="shared" si="75"/>
+        <v>1883.6926658151476</v>
+      </c>
+      <c r="K413">
+        <v>91</v>
+      </c>
+      <c r="L413" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M413" s="7">
+        <f t="shared" si="77"/>
+        <v>67.365600000000001</v>
+      </c>
+      <c r="O413">
+        <v>418</v>
+      </c>
+      <c r="P413" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q413" s="7">
+        <f t="shared" si="72"/>
+        <v>6804.29</v>
+      </c>
+      <c r="R413">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S413" s="26">
+        <f t="shared" si="73"/>
+        <v>2622794.5099999988</v>
+      </c>
+      <c r="T413">
+        <f t="shared" si="74"/>
+        <v>0.26010380115259146</v>
+      </c>
+    </row>
+    <row r="414" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G414">
+        <v>409</v>
+      </c>
+      <c r="H414">
+        <v>7280</v>
+      </c>
+      <c r="I414">
+        <f>SUM($H$5:H414)</f>
+        <v>1358400</v>
+      </c>
+      <c r="J414">
+        <f t="shared" si="75"/>
+        <v>1893.842232550252</v>
+      </c>
+      <c r="K414">
+        <v>91</v>
+      </c>
+      <c r="L414" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M414" s="7">
+        <f t="shared" si="77"/>
+        <v>67.433000000000007</v>
+      </c>
+      <c r="O414">
+        <v>419</v>
+      </c>
+      <c r="P414" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q414" s="7">
+        <f t="shared" si="72"/>
+        <v>6811.1</v>
+      </c>
+      <c r="R414">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S414" s="26">
+        <f t="shared" si="73"/>
+        <v>2629605.6099999989</v>
+      </c>
+      <c r="T414">
+        <f t="shared" si="74"/>
+        <v>0.25968866314273686</v>
+      </c>
+    </row>
+    <row r="415" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G415">
+        <v>410</v>
+      </c>
+      <c r="H415">
+        <v>7300</v>
+      </c>
+      <c r="I415">
+        <f>SUM($H$5:H415)</f>
+        <v>1365700</v>
+      </c>
+      <c r="J415">
+        <f t="shared" si="75"/>
+        <v>1904.0196827104528</v>
+      </c>
+      <c r="K415">
+        <v>91</v>
+      </c>
+      <c r="L415" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M415" s="7">
+        <f t="shared" si="77"/>
+        <v>67.500500000000002</v>
+      </c>
+      <c r="O415">
+        <v>420</v>
+      </c>
+      <c r="P415" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q415" s="7">
+        <f t="shared" si="72"/>
+        <v>6817.92</v>
+      </c>
+      <c r="R415">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S415" s="26">
+        <f t="shared" si="73"/>
+        <v>2636423.5299999989</v>
+      </c>
+      <c r="T415">
+        <f t="shared" si="74"/>
+        <v>0.25927538236427511</v>
+      </c>
+    </row>
+    <row r="416" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G416">
+        <v>411</v>
+      </c>
+      <c r="H416">
+        <v>7320</v>
+      </c>
+      <c r="I416">
+        <f>SUM($H$5:H416)</f>
+        <v>1373020</v>
+      </c>
+      <c r="J416">
+        <f t="shared" si="75"/>
+        <v>1914.22501629575</v>
+      </c>
+      <c r="K416">
+        <v>91</v>
+      </c>
+      <c r="L416" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M416" s="7">
+        <f t="shared" si="77"/>
+        <v>67.568100000000001</v>
+      </c>
+      <c r="O416">
+        <v>421</v>
+      </c>
+      <c r="P416" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q416" s="7">
+        <f t="shared" si="72"/>
+        <v>6824.74</v>
+      </c>
+      <c r="R416">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S416" s="26">
+        <f t="shared" si="73"/>
+        <v>2643248.2699999991</v>
+      </c>
+      <c r="T416">
+        <f t="shared" si="74"/>
+        <v>0.25886356734193716</v>
+      </c>
+    </row>
+    <row r="417" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G417">
+        <v>412</v>
+      </c>
+      <c r="H417">
+        <v>7340</v>
+      </c>
+      <c r="I417">
+        <f>SUM($H$5:H417)</f>
+        <v>1380360</v>
+      </c>
+      <c r="J417">
+        <f t="shared" si="75"/>
+        <v>1924.4582333061439</v>
+      </c>
+      <c r="K417">
+        <v>91</v>
+      </c>
+      <c r="L417" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M417" s="7">
+        <f t="shared" si="77"/>
+        <v>67.6357</v>
+      </c>
+      <c r="O417">
+        <v>422</v>
+      </c>
+      <c r="P417" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q417" s="7">
+        <f t="shared" si="72"/>
+        <v>6831.5700000000006</v>
+      </c>
+      <c r="R417">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S417" s="26">
+        <f t="shared" si="73"/>
+        <v>2650079.8399999989</v>
+      </c>
+      <c r="T417">
+        <f t="shared" si="74"/>
+        <v>0.2584535882435226</v>
+      </c>
+    </row>
+    <row r="418" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G418">
+        <v>413</v>
+      </c>
+      <c r="H418">
+        <v>7360</v>
+      </c>
+      <c r="I418">
+        <f>SUM($H$5:H418)</f>
+        <v>1387720</v>
+      </c>
+      <c r="J418">
+        <f t="shared" si="75"/>
+        <v>1934.719333741634</v>
+      </c>
+      <c r="K418">
+        <v>91</v>
+      </c>
+      <c r="L418" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M418" s="7">
+        <f t="shared" si="77"/>
+        <v>67.703400000000002</v>
+      </c>
+      <c r="O418">
+        <v>423</v>
+      </c>
+      <c r="P418" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q418" s="7">
+        <f t="shared" si="72"/>
+        <v>6838.41</v>
+      </c>
+      <c r="R418">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S418" s="26">
+        <f t="shared" si="73"/>
+        <v>2656918.2499999991</v>
+      </c>
+      <c r="T418">
+        <f t="shared" si="74"/>
+        <v>0.25804543307646727</v>
+      </c>
+    </row>
+    <row r="419" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G419">
+        <v>414</v>
+      </c>
+      <c r="H419">
+        <v>7380</v>
+      </c>
+      <c r="I419">
+        <f>SUM($H$5:H419)</f>
+        <v>1395100</v>
+      </c>
+      <c r="J419">
+        <f t="shared" si="75"/>
+        <v>1945.0083176022206</v>
+      </c>
+      <c r="K419">
+        <v>91</v>
+      </c>
+      <c r="L419" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M419" s="7">
+        <f t="shared" si="77"/>
+        <v>67.771199999999993</v>
+      </c>
+      <c r="O419">
+        <v>424</v>
+      </c>
+      <c r="P419" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q419" s="7">
+        <f t="shared" si="72"/>
+        <v>6845.25</v>
+      </c>
+      <c r="R419">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S419" s="26">
+        <f t="shared" si="73"/>
+        <v>2663763.4999999991</v>
+      </c>
+      <c r="T419">
+        <f t="shared" si="74"/>
+        <v>0.25763871357351709</v>
+      </c>
+    </row>
+    <row r="420" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G420">
+        <v>415</v>
+      </c>
+      <c r="H420">
+        <v>7400</v>
+      </c>
+      <c r="I420">
+        <f>SUM($H$5:H420)</f>
+        <v>1402500</v>
+      </c>
+      <c r="J420">
+        <f t="shared" si="75"/>
+        <v>1955.3251848879038</v>
+      </c>
+      <c r="K420">
+        <v>91</v>
+      </c>
+      <c r="L420" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M420" s="7">
+        <f t="shared" si="77"/>
+        <v>67.838999999999999</v>
+      </c>
+      <c r="O420">
+        <v>425</v>
+      </c>
+      <c r="P420" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q420" s="7">
+        <f t="shared" si="72"/>
+        <v>6852.1</v>
+      </c>
+      <c r="R420">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S420" s="26">
+        <f t="shared" si="73"/>
+        <v>2670615.5999999992</v>
+      </c>
+      <c r="T420">
+        <f t="shared" si="74"/>
+        <v>0.25723379721961409</v>
+      </c>
+    </row>
+    <row r="421" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G421">
+        <v>416</v>
+      </c>
+      <c r="H421">
+        <v>7420</v>
+      </c>
+      <c r="I421">
+        <f>SUM($H$5:H421)</f>
+        <v>1409920</v>
+      </c>
+      <c r="J421">
+        <f t="shared" si="75"/>
+        <v>1965.6699355986832</v>
+      </c>
+      <c r="K421">
+        <v>91</v>
+      </c>
+      <c r="L421" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M421" s="7">
+        <f t="shared" si="77"/>
+        <v>67.906900000000007</v>
+      </c>
+      <c r="O421">
+        <v>426</v>
+      </c>
+      <c r="P421" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q421" s="7">
+        <f t="shared" si="72"/>
+        <v>6858.96</v>
+      </c>
+      <c r="R421">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S421" s="26">
+        <f t="shared" si="73"/>
+        <v>2677474.5599999991</v>
+      </c>
+      <c r="T421">
+        <f t="shared" si="74"/>
+        <v>0.25683067229892481</v>
+      </c>
+    </row>
+    <row r="422" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G422">
+        <v>417</v>
+      </c>
+      <c r="H422">
+        <v>7440</v>
+      </c>
+      <c r="I422">
+        <f>SUM($H$5:H422)</f>
+        <v>1417360</v>
+      </c>
+      <c r="J422">
+        <f t="shared" si="75"/>
+        <v>1976.0425697345593</v>
+      </c>
+      <c r="K422">
+        <v>91</v>
+      </c>
+      <c r="L422" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M422" s="7">
+        <f t="shared" si="77"/>
+        <v>67.974899999999991</v>
+      </c>
+      <c r="O422">
+        <v>427</v>
+      </c>
+      <c r="P422" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q422" s="7">
+        <f t="shared" si="72"/>
+        <v>6865.8200000000006</v>
+      </c>
+      <c r="R422">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S422" s="26">
+        <f t="shared" si="73"/>
+        <v>2684340.379999999</v>
+      </c>
+      <c r="T422">
+        <f t="shared" si="74"/>
+        <v>0.25642895370777435</v>
+      </c>
+    </row>
+    <row r="423" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G423">
+        <v>418</v>
+      </c>
+      <c r="H423">
+        <v>7460</v>
+      </c>
+      <c r="I423">
+        <f>SUM($H$5:H423)</f>
+        <v>1424820</v>
+      </c>
+      <c r="J423">
+        <f t="shared" si="75"/>
+        <v>1986.4430872955315</v>
+      </c>
+      <c r="K423">
+        <v>91</v>
+      </c>
+      <c r="L423" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M423" s="7">
+        <f t="shared" si="77"/>
+        <v>68.042900000000003</v>
+      </c>
+      <c r="O423">
+        <v>428</v>
+      </c>
+      <c r="P423" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q423" s="7">
+        <f t="shared" si="72"/>
+        <v>6872.6900000000005</v>
+      </c>
+      <c r="R423">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S423" s="26">
+        <f t="shared" si="73"/>
+        <v>2691213.0699999989</v>
+      </c>
+      <c r="T423">
+        <f t="shared" si="74"/>
+        <v>0.25602900627676534</v>
+      </c>
+    </row>
+    <row r="424" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G424">
+        <v>419</v>
+      </c>
+      <c r="H424">
+        <v>7480</v>
+      </c>
+      <c r="I424">
+        <f>SUM($H$5:H424)</f>
+        <v>1432300</v>
+      </c>
+      <c r="J424">
+        <f t="shared" si="75"/>
+        <v>1996.8714882816003</v>
+      </c>
+      <c r="K424">
+        <v>91</v>
+      </c>
+      <c r="L424" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M424" s="7">
+        <f t="shared" si="77"/>
+        <v>68.111000000000004</v>
+      </c>
+      <c r="O424">
+        <v>429</v>
+      </c>
+      <c r="P424" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q424" s="7">
+        <f t="shared" si="72"/>
+        <v>6879.5700000000006</v>
+      </c>
+      <c r="R424">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S424" s="26">
+        <f t="shared" si="73"/>
+        <v>2698092.6399999987</v>
+      </c>
+      <c r="T424">
+        <f t="shared" si="74"/>
+        <v>0.25563081855870429</v>
+      </c>
+    </row>
+    <row r="425" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G425">
+        <v>420</v>
+      </c>
+      <c r="H425">
+        <v>7500</v>
+      </c>
+      <c r="I425">
+        <f>SUM($H$5:H425)</f>
+        <v>1439800</v>
+      </c>
+      <c r="J425">
+        <f t="shared" si="75"/>
+        <v>2007.3277726927656</v>
+      </c>
+      <c r="K425">
+        <v>91</v>
+      </c>
+      <c r="L425" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M425" s="7">
+        <f t="shared" si="77"/>
+        <v>68.179199999999994</v>
+      </c>
+      <c r="O425">
+        <v>430</v>
+      </c>
+      <c r="P425" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q425" s="7">
+        <f t="shared" si="72"/>
+        <v>6886.45</v>
+      </c>
+      <c r="R425">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S425" s="26">
+        <f t="shared" si="73"/>
+        <v>2704979.0899999989</v>
+      </c>
+      <c r="T425">
+        <f t="shared" si="74"/>
+        <v>0.25523400856985362</v>
+      </c>
+    </row>
+    <row r="426" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G426">
+        <v>421</v>
+      </c>
+      <c r="H426">
+        <v>7520</v>
+      </c>
+      <c r="I426">
+        <f>SUM($H$5:H426)</f>
+        <v>1447320</v>
+      </c>
+      <c r="J426">
+        <f t="shared" si="75"/>
+        <v>2017.8119405290274</v>
+      </c>
+      <c r="K426">
+        <v>91</v>
+      </c>
+      <c r="L426" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M426" s="7">
+        <f t="shared" si="77"/>
+        <v>68.247399999999999</v>
+      </c>
+      <c r="O426">
+        <v>431</v>
+      </c>
+      <c r="P426" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q426" s="7">
+        <f t="shared" si="72"/>
+        <v>6893.34</v>
+      </c>
+      <c r="R426">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S426" s="26">
+        <f t="shared" si="73"/>
+        <v>2711872.4299999988</v>
+      </c>
+      <c r="T426">
+        <f t="shared" si="74"/>
+        <v>0.25483893851467271</v>
+      </c>
+    </row>
+    <row r="427" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G427">
+        <v>422</v>
+      </c>
+      <c r="H427">
+        <v>7540</v>
+      </c>
+      <c r="I427">
+        <f>SUM($H$5:H427)</f>
+        <v>1454860</v>
+      </c>
+      <c r="J427">
+        <f t="shared" si="75"/>
+        <v>2028.3239917903854</v>
+      </c>
+      <c r="K427">
+        <v>91</v>
+      </c>
+      <c r="L427" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M427" s="7">
+        <f t="shared" si="77"/>
+        <v>68.315700000000007</v>
+      </c>
+      <c r="O427">
+        <v>432</v>
+      </c>
+      <c r="P427" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q427" s="7">
+        <f t="shared" si="72"/>
+        <v>6900.24</v>
+      </c>
+      <c r="R427">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S427" s="26">
+        <f t="shared" si="73"/>
+        <v>2718772.669999999</v>
+      </c>
+      <c r="T427">
+        <f t="shared" si="74"/>
+        <v>0.25444559720680615</v>
+      </c>
+    </row>
+    <row r="428" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G428">
+        <v>423</v>
+      </c>
+      <c r="H428">
+        <v>7560</v>
+      </c>
+      <c r="I428">
+        <f>SUM($H$5:H428)</f>
+        <v>1462420</v>
+      </c>
+      <c r="J428">
+        <f t="shared" si="75"/>
+        <v>2038.8639264768401</v>
+      </c>
+      <c r="K428">
+        <v>91</v>
+      </c>
+      <c r="L428" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M428" s="7">
+        <f t="shared" si="77"/>
+        <v>68.384100000000004</v>
+      </c>
+      <c r="O428">
+        <v>433</v>
+      </c>
+      <c r="P428" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q428" s="7">
+        <f t="shared" si="72"/>
+        <v>6907.1500000000005</v>
+      </c>
+      <c r="R428">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S428" s="26">
+        <f t="shared" si="73"/>
+        <v>2725679.8199999989</v>
+      </c>
+      <c r="T428">
+        <f t="shared" si="74"/>
+        <v>0.25405397355270271</v>
+      </c>
+    </row>
+    <row r="429" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G429">
+        <v>424</v>
+      </c>
+      <c r="H429">
+        <v>7580</v>
+      </c>
+      <c r="I429">
+        <f>SUM($H$5:H429)</f>
+        <v>1470000</v>
+      </c>
+      <c r="J429">
+        <f t="shared" si="75"/>
+        <v>2049.4317445883912</v>
+      </c>
+      <c r="K429">
+        <v>91</v>
+      </c>
+      <c r="L429" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M429" s="7">
+        <f t="shared" si="77"/>
+        <v>68.452500000000001</v>
+      </c>
+      <c r="O429">
+        <v>434</v>
+      </c>
+      <c r="P429" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q429" s="7">
+        <f t="shared" si="72"/>
+        <v>6914.06</v>
+      </c>
+      <c r="R429">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S429" s="26">
+        <f t="shared" si="73"/>
+        <v>2732593.879999999</v>
+      </c>
+      <c r="T429">
+        <f t="shared" si="74"/>
+        <v>0.25366368966990621</v>
+      </c>
+    </row>
+    <row r="430" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G430">
+        <v>425</v>
+      </c>
+      <c r="H430">
+        <v>7600</v>
+      </c>
+      <c r="I430">
+        <f>SUM($H$5:H430)</f>
+        <v>1477600</v>
+      </c>
+      <c r="J430">
+        <f t="shared" si="75"/>
+        <v>2060.0274461250388</v>
+      </c>
+      <c r="K430">
+        <v>91</v>
+      </c>
+      <c r="L430" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M430" s="7">
+        <f t="shared" si="77"/>
+        <v>68.521000000000001</v>
+      </c>
+      <c r="O430">
+        <v>435</v>
+      </c>
+      <c r="P430" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q430" s="7">
+        <f t="shared" si="72"/>
+        <v>6920.9800000000005</v>
+      </c>
+      <c r="R430">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S430" s="26">
+        <f t="shared" si="73"/>
+        <v>2739514.8599999989</v>
+      </c>
+      <c r="T430">
+        <f t="shared" si="74"/>
+        <v>0.25327510431224359</v>
+      </c>
+    </row>
+    <row r="431" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G431">
+        <v>426</v>
+      </c>
+      <c r="H431">
+        <v>7620</v>
+      </c>
+      <c r="I431">
+        <f>SUM($H$5:H431)</f>
+        <v>1485220</v>
+      </c>
+      <c r="J431">
+        <f t="shared" si="75"/>
+        <v>2070.6510310867825</v>
+      </c>
+      <c r="K431">
+        <v>91</v>
+      </c>
+      <c r="L431" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M431" s="7">
+        <f t="shared" si="77"/>
+        <v>68.589600000000004</v>
+      </c>
+      <c r="O431">
+        <v>436</v>
+      </c>
+      <c r="P431" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q431" s="7">
+        <f t="shared" si="72"/>
+        <v>6927.91</v>
+      </c>
+      <c r="R431">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S431" s="26">
+        <f t="shared" si="73"/>
+        <v>2746442.7699999991</v>
+      </c>
+      <c r="T431">
+        <f t="shared" si="74"/>
+        <v>0.25288820663670908</v>
+      </c>
+    </row>
+    <row r="432" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G432">
+        <v>427</v>
+      </c>
+      <c r="H432">
+        <v>7640</v>
+      </c>
+      <c r="I432">
+        <f>SUM($H$5:H432)</f>
+        <v>1492860</v>
+      </c>
+      <c r="J432">
+        <f t="shared" si="75"/>
+        <v>2081.3024994736229</v>
+      </c>
+      <c r="K432">
+        <v>91</v>
+      </c>
+      <c r="L432" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M432" s="7">
+        <f t="shared" si="77"/>
+        <v>68.658200000000008</v>
+      </c>
+      <c r="O432">
+        <v>437</v>
+      </c>
+      <c r="P432" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q432" s="7">
+        <f t="shared" si="72"/>
+        <v>6934.84</v>
+      </c>
+      <c r="R432">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S432" s="26">
+        <f t="shared" si="73"/>
+        <v>2753377.6099999989</v>
+      </c>
+      <c r="T432">
+        <f t="shared" si="74"/>
+        <v>0.25250262178227922</v>
+      </c>
+    </row>
+    <row r="433" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G433">
+        <v>428</v>
+      </c>
+      <c r="H433">
+        <v>7660</v>
+      </c>
+      <c r="I433">
+        <f>SUM($H$5:H433)</f>
+        <v>1500520</v>
+      </c>
+      <c r="J433">
+        <f t="shared" si="75"/>
+        <v>2091.9818512855595</v>
+      </c>
+      <c r="K433">
+        <v>91</v>
+      </c>
+      <c r="L433" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M433" s="7">
+        <f t="shared" si="77"/>
+        <v>68.726900000000001</v>
+      </c>
+      <c r="O433">
+        <v>438</v>
+      </c>
+      <c r="P433" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q433" s="7">
+        <f t="shared" si="72"/>
+        <v>6941.7800000000007</v>
+      </c>
+      <c r="R433">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S433" s="26">
+        <f t="shared" si="73"/>
+        <v>2760319.3899999987</v>
+      </c>
+      <c r="T433">
+        <f t="shared" si="74"/>
+        <v>0.25211870594094787</v>
+      </c>
+    </row>
+    <row r="434" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G434">
+        <v>429</v>
+      </c>
+      <c r="H434">
+        <v>7680</v>
+      </c>
+      <c r="I434">
+        <f>SUM($H$5:H434)</f>
+        <v>1508200</v>
+      </c>
+      <c r="J434">
+        <f t="shared" si="75"/>
+        <v>2102.6890865225928</v>
+      </c>
+      <c r="K434">
+        <v>91</v>
+      </c>
+      <c r="L434" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M434" s="7">
+        <f t="shared" si="77"/>
+        <v>68.795700000000011</v>
+      </c>
+      <c r="O434">
+        <v>439</v>
+      </c>
+      <c r="P434" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q434" s="7">
+        <f t="shared" si="72"/>
+        <v>6948.7300000000005</v>
+      </c>
+      <c r="R434">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S434" s="26">
+        <f t="shared" si="73"/>
+        <v>2767268.1199999987</v>
+      </c>
+      <c r="T434">
+        <f t="shared" si="74"/>
+        <v>0.25173644851293764</v>
+      </c>
+    </row>
+    <row r="435" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G435">
+        <v>430</v>
+      </c>
+      <c r="H435">
+        <v>7700</v>
+      </c>
+      <c r="I435">
+        <f>SUM($H$5:H435)</f>
+        <v>1515900</v>
+      </c>
+      <c r="J435">
+        <f t="shared" si="75"/>
+        <v>2113.4242051847223</v>
+      </c>
+      <c r="K435">
+        <v>91</v>
+      </c>
+      <c r="L435" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M435" s="7">
+        <f t="shared" si="77"/>
+        <v>68.864499999999992</v>
+      </c>
+      <c r="O435">
+        <v>440</v>
+      </c>
+      <c r="P435" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q435" s="7">
+        <f t="shared" si="72"/>
+        <v>6955.68</v>
+      </c>
+      <c r="R435">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S435" s="26">
+        <f t="shared" si="73"/>
+        <v>2774223.7999999989</v>
+      </c>
+      <c r="T435">
+        <f t="shared" si="74"/>
+        <v>0.25135547761812721</v>
+      </c>
+    </row>
+    <row r="436" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G436">
+        <v>431</v>
+      </c>
+      <c r="H436">
+        <v>7720</v>
+      </c>
+      <c r="I436">
+        <f>SUM($H$5:H436)</f>
+        <v>1523620</v>
+      </c>
+      <c r="J436">
+        <f t="shared" si="75"/>
+        <v>2124.1872072719484</v>
+      </c>
+      <c r="K436">
+        <v>91</v>
+      </c>
+      <c r="L436" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M436" s="7">
+        <f t="shared" si="77"/>
+        <v>68.933400000000006</v>
+      </c>
+      <c r="O436">
+        <v>441</v>
+      </c>
+      <c r="P436" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q436" s="7">
+        <f t="shared" si="72"/>
+        <v>6962.64</v>
+      </c>
+      <c r="R436">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S436" s="26">
+        <f t="shared" si="73"/>
+        <v>2781186.439999999</v>
+      </c>
+      <c r="T436">
+        <f t="shared" si="74"/>
+        <v>0.25097614691360276</v>
+      </c>
+    </row>
+    <row r="437" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G437">
+        <v>432</v>
+      </c>
+      <c r="H437">
+        <v>7740</v>
+      </c>
+      <c r="I437">
+        <f>SUM($H$5:H437)</f>
+        <v>1531360</v>
+      </c>
+      <c r="J437">
+        <f t="shared" si="75"/>
+        <v>2134.9780927842712</v>
+      </c>
+      <c r="K437">
+        <v>91</v>
+      </c>
+      <c r="L437" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M437" s="7">
+        <f t="shared" si="77"/>
+        <v>69.002399999999994</v>
+      </c>
+      <c r="O437">
+        <v>442</v>
+      </c>
+      <c r="P437" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q437" s="7">
+        <f t="shared" si="72"/>
+        <v>6969.6100000000006</v>
+      </c>
+      <c r="R437">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S437" s="26">
+        <f t="shared" si="73"/>
+        <v>2788156.0499999989</v>
+      </c>
+      <c r="T437">
+        <f t="shared" si="74"/>
+        <v>0.25059844603585341</v>
+      </c>
+    </row>
+    <row r="438" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G438">
+        <v>433</v>
+      </c>
+      <c r="H438">
+        <v>7760</v>
+      </c>
+      <c r="I438">
+        <f>SUM($H$5:H438)</f>
+        <v>1539120</v>
+      </c>
+      <c r="J438">
+        <f t="shared" si="75"/>
+        <v>2145.7968617216902</v>
+      </c>
+      <c r="K438">
+        <v>91</v>
+      </c>
+      <c r="L438" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M438" s="7">
+        <f t="shared" si="77"/>
+        <v>69.0715</v>
+      </c>
+      <c r="O438">
+        <v>443</v>
+      </c>
+      <c r="P438" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q438" s="7">
+        <f t="shared" si="72"/>
+        <v>6976.58</v>
+      </c>
+      <c r="R438">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S438" s="26">
+        <f t="shared" si="73"/>
+        <v>2795132.629999999</v>
+      </c>
+      <c r="T438">
+        <f t="shared" si="74"/>
+        <v>0.25022200604589823</v>
+      </c>
+    </row>
+    <row r="439" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G439">
+        <v>434</v>
+      </c>
+      <c r="H439">
+        <v>7780</v>
+      </c>
+      <c r="I439">
+        <f>SUM($H$5:H439)</f>
+        <v>1546900</v>
+      </c>
+      <c r="J439">
+        <f t="shared" si="75"/>
+        <v>2156.6435140842054</v>
+      </c>
+      <c r="K439">
+        <v>91</v>
+      </c>
+      <c r="L439" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M439" s="7">
+        <f t="shared" si="77"/>
+        <v>69.140600000000006</v>
+      </c>
+      <c r="O439">
+        <v>444</v>
+      </c>
+      <c r="P439" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q439" s="7">
+        <f t="shared" ref="Q439:Q502" si="78">ROUNDUP(Q438*R439,2)</f>
+        <v>6983.56</v>
+      </c>
+      <c r="R439">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S439" s="26">
+        <f t="shared" ref="S439:S502" si="79">Q439+S438</f>
+        <v>2802116.189999999</v>
+      </c>
+      <c r="T439">
+        <f t="shared" ref="T439:T502" si="80">((S439-S438)/S438)*100</f>
+        <v>0.24984717809258514</v>
+      </c>
+    </row>
+    <row r="440" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G440">
+        <v>435</v>
+      </c>
+      <c r="H440">
+        <v>7800</v>
+      </c>
+      <c r="I440">
+        <f>SUM($H$5:H440)</f>
+        <v>1554700</v>
+      </c>
+      <c r="J440">
+        <f t="shared" si="75"/>
+        <v>2167.5180498718173</v>
+      </c>
+      <c r="K440">
+        <v>91</v>
+      </c>
+      <c r="L440" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M440" s="7">
+        <f t="shared" si="77"/>
+        <v>69.209800000000001</v>
+      </c>
+      <c r="O440">
+        <v>445</v>
+      </c>
+      <c r="P440" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q440" s="7">
+        <f t="shared" si="78"/>
+        <v>6990.55</v>
+      </c>
+      <c r="R440">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S440" s="26">
+        <f t="shared" si="79"/>
+        <v>2809106.7399999988</v>
+      </c>
+      <c r="T440">
+        <f t="shared" si="80"/>
+        <v>0.24947395204193215</v>
+      </c>
+    </row>
+    <row r="441" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G441">
+        <v>436</v>
+      </c>
+      <c r="H441">
+        <v>7820</v>
+      </c>
+      <c r="I441">
+        <f>SUM($H$5:H441)</f>
+        <v>1562520</v>
+      </c>
+      <c r="J441">
+        <f t="shared" si="75"/>
+        <v>2178.4204690845258</v>
+      </c>
+      <c r="K441">
+        <v>91</v>
+      </c>
+      <c r="L441" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M441" s="7">
+        <f t="shared" si="77"/>
+        <v>69.2791</v>
+      </c>
+      <c r="O441">
+        <v>446</v>
+      </c>
+      <c r="P441" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q441" s="7">
+        <f t="shared" si="78"/>
+        <v>6997.55</v>
+      </c>
+      <c r="R441">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S441" s="26">
+        <f t="shared" si="79"/>
+        <v>2816104.2899999986</v>
+      </c>
+      <c r="T441">
+        <f t="shared" si="80"/>
+        <v>0.2491023178421414</v>
+      </c>
+    </row>
+    <row r="442" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G442">
+        <v>437</v>
+      </c>
+      <c r="H442">
+        <v>7840</v>
+      </c>
+      <c r="I442">
+        <f>SUM($H$5:H442)</f>
+        <v>1570360</v>
+      </c>
+      <c r="J442">
+        <f t="shared" si="75"/>
+        <v>2189.3507717223306</v>
+      </c>
+      <c r="K442">
+        <v>91</v>
+      </c>
+      <c r="L442" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M442" s="7">
+        <f t="shared" si="77"/>
+        <v>69.348399999999998</v>
+      </c>
+      <c r="O442">
+        <v>447</v>
+      </c>
+      <c r="P442" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q442" s="7">
+        <f t="shared" si="78"/>
+        <v>7004.55</v>
+      </c>
+      <c r="R442">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S442" s="26">
+        <f t="shared" si="79"/>
+        <v>2823108.8399999985</v>
+      </c>
+      <c r="T442">
+        <f t="shared" si="80"/>
+        <v>0.24873191042224566</v>
+      </c>
+    </row>
+    <row r="443" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G443">
+        <v>438</v>
+      </c>
+      <c r="H443">
+        <v>7860</v>
+      </c>
+      <c r="I443">
+        <f>SUM($H$5:H443)</f>
+        <v>1578220</v>
+      </c>
+      <c r="J443">
+        <f t="shared" si="75"/>
+        <v>2200.3089577852315</v>
+      </c>
+      <c r="K443">
+        <v>91</v>
+      </c>
+      <c r="L443" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M443" s="7">
+        <f t="shared" si="77"/>
+        <v>69.4178</v>
+      </c>
+      <c r="O443">
+        <v>448</v>
+      </c>
+      <c r="P443" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q443" s="7">
+        <f t="shared" si="78"/>
+        <v>7011.56</v>
+      </c>
+      <c r="R443">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S443" s="26">
+        <f t="shared" si="79"/>
+        <v>2830120.3999999985</v>
+      </c>
+      <c r="T443">
+        <f t="shared" si="80"/>
+        <v>0.24836307763465684</v>
+      </c>
+    </row>
+    <row r="444" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G444">
+        <v>439</v>
+      </c>
+      <c r="H444">
+        <v>7880</v>
+      </c>
+      <c r="I444">
+        <f>SUM($H$5:H444)</f>
+        <v>1586100</v>
+      </c>
+      <c r="J444">
+        <f t="shared" si="75"/>
+        <v>2211.2950272732292</v>
+      </c>
+      <c r="K444">
+        <v>91</v>
+      </c>
+      <c r="L444" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M444" s="7">
+        <f t="shared" si="77"/>
+        <v>69.487300000000005</v>
+      </c>
+      <c r="O444">
+        <v>449</v>
+      </c>
+      <c r="P444" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q444" s="7">
+        <f t="shared" si="78"/>
+        <v>7018.58</v>
+      </c>
+      <c r="R444">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S444" s="26">
+        <f t="shared" si="79"/>
+        <v>2837138.9799999986</v>
+      </c>
+      <c r="T444">
+        <f t="shared" si="80"/>
+        <v>0.24799580964824244</v>
+      </c>
+    </row>
+    <row r="445" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G445">
+        <v>440</v>
+      </c>
+      <c r="H445">
+        <v>7900</v>
+      </c>
+      <c r="I445">
+        <f>SUM($H$5:H445)</f>
+        <v>1594000</v>
+      </c>
+      <c r="J445">
+        <f t="shared" si="75"/>
+        <v>2222.3089801863234</v>
+      </c>
+      <c r="K445">
+        <v>91</v>
+      </c>
+      <c r="L445" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M445" s="7">
+        <f t="shared" si="77"/>
+        <v>69.55680000000001</v>
+      </c>
+      <c r="O445">
+        <v>450</v>
+      </c>
+      <c r="P445" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q445" s="7">
+        <f t="shared" si="78"/>
+        <v>7025.6</v>
+      </c>
+      <c r="R445">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S445" s="26">
+        <f t="shared" si="79"/>
+        <v>2844164.5799999987</v>
+      </c>
+      <c r="T445">
+        <f t="shared" si="80"/>
+        <v>0.24762974424326922</v>
+      </c>
+    </row>
+    <row r="446" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G446">
+        <v>441</v>
+      </c>
+      <c r="H446">
+        <v>7920</v>
+      </c>
+      <c r="I446">
+        <f>SUM($H$5:H446)</f>
+        <v>1601920</v>
+      </c>
+      <c r="J446">
+        <f t="shared" si="75"/>
+        <v>2233.3508165245139</v>
+      </c>
+      <c r="K446">
+        <v>91</v>
+      </c>
+      <c r="L446" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M446" s="7">
+        <f t="shared" si="77"/>
+        <v>69.626400000000004</v>
+      </c>
+      <c r="O446">
+        <v>451</v>
+      </c>
+      <c r="P446" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q446" s="7">
+        <f t="shared" si="78"/>
+        <v>7032.63</v>
+      </c>
+      <c r="R446">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S446" s="26">
+        <f t="shared" si="79"/>
+        <v>2851197.2099999986</v>
+      </c>
+      <c r="T446">
+        <f t="shared" si="80"/>
+        <v>0.24726522682452823</v>
+      </c>
+    </row>
+    <row r="447" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G447">
+        <v>442</v>
+      </c>
+      <c r="H447">
+        <v>7940</v>
+      </c>
+      <c r="I447">
+        <f>SUM($H$5:H447)</f>
+        <v>1609860</v>
+      </c>
+      <c r="J447">
+        <f t="shared" si="75"/>
+        <v>2244.420536287801</v>
+      </c>
+      <c r="K447">
+        <v>91</v>
+      </c>
+      <c r="L447" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M447" s="7">
+        <f t="shared" si="77"/>
+        <v>69.696100000000001</v>
+      </c>
+      <c r="O447">
+        <v>452</v>
+      </c>
+      <c r="P447" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q447" s="7">
+        <f t="shared" si="78"/>
+        <v>7039.67</v>
+      </c>
+      <c r="R447">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S447" s="26">
+        <f t="shared" si="79"/>
+        <v>2858236.8799999985</v>
+      </c>
+      <c r="T447">
+        <f t="shared" si="80"/>
+        <v>0.24690224777541536</v>
+      </c>
+    </row>
+    <row r="448" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G448">
+        <v>443</v>
+      </c>
+      <c r="H448">
+        <v>7960</v>
+      </c>
+      <c r="I448">
+        <f>SUM($H$5:H448)</f>
+        <v>1617820</v>
+      </c>
+      <c r="J448">
+        <f t="shared" si="75"/>
+        <v>2255.5181394761844</v>
+      </c>
+      <c r="K448">
+        <v>91</v>
+      </c>
+      <c r="L448" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M448" s="7">
+        <f t="shared" si="77"/>
+        <v>69.765799999999999</v>
+      </c>
+      <c r="O448">
+        <v>453</v>
+      </c>
+      <c r="P448" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q448" s="7">
+        <f t="shared" si="78"/>
+        <v>7046.71</v>
+      </c>
+      <c r="R448">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S448" s="26">
+        <f t="shared" si="79"/>
+        <v>2865283.5899999985</v>
+      </c>
+      <c r="T448">
+        <f t="shared" si="80"/>
+        <v>0.24654044769025465</v>
+      </c>
+    </row>
+    <row r="449" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G449">
+        <v>444</v>
+      </c>
+      <c r="H449">
+        <v>7980</v>
+      </c>
+      <c r="I449">
+        <f>SUM($H$5:H449)</f>
+        <v>1625800</v>
+      </c>
+      <c r="J449">
+        <f t="shared" si="75"/>
+        <v>2266.6436260896639</v>
+      </c>
+      <c r="K449">
+        <v>91</v>
+      </c>
+      <c r="L449" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M449" s="7">
+        <f t="shared" si="77"/>
+        <v>69.835599999999999</v>
+      </c>
+      <c r="O449">
+        <v>454</v>
+      </c>
+      <c r="P449" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q449" s="7">
+        <f t="shared" si="78"/>
+        <v>7053.76</v>
+      </c>
+      <c r="R449">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S449" s="26">
+        <f t="shared" si="79"/>
+        <v>2872337.3499999982</v>
+      </c>
+      <c r="T449">
+        <f t="shared" si="80"/>
+        <v>0.24618016955172597</v>
+      </c>
+    </row>
+    <row r="450" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G450">
+        <v>445</v>
+      </c>
+      <c r="H450">
+        <v>8000</v>
+      </c>
+      <c r="I450">
+        <f>SUM($H$5:H450)</f>
+        <v>1633800</v>
+      </c>
+      <c r="J450">
+        <f t="shared" si="75"/>
+        <v>2277.7969961282402</v>
+      </c>
+      <c r="K450">
+        <v>91</v>
+      </c>
+      <c r="L450" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M450" s="7">
+        <f t="shared" si="77"/>
+        <v>69.905500000000004</v>
+      </c>
+      <c r="O450">
+        <v>455</v>
+      </c>
+      <c r="P450" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q450" s="7">
+        <f t="shared" si="78"/>
+        <v>7060.8200000000006</v>
+      </c>
+      <c r="R450">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S450" s="26">
+        <f t="shared" si="79"/>
+        <v>2879398.1699999981</v>
+      </c>
+      <c r="T450">
+        <f t="shared" si="80"/>
+        <v>0.24582140395172722</v>
+      </c>
+    </row>
+    <row r="451" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G451">
+        <v>446</v>
+      </c>
+      <c r="H451">
+        <v>8020</v>
+      </c>
+      <c r="I451">
+        <f>SUM($H$5:H451)</f>
+        <v>1641820</v>
+      </c>
+      <c r="J451">
+        <f t="shared" si="75"/>
+        <v>2288.978249591913</v>
+      </c>
+      <c r="K451">
+        <v>91</v>
+      </c>
+      <c r="L451" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M451" s="7">
+        <f t="shared" si="77"/>
+        <v>69.975499999999997</v>
+      </c>
+      <c r="O451">
+        <v>456</v>
+      </c>
+      <c r="P451" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q451" s="7">
+        <f t="shared" si="78"/>
+        <v>7067.89</v>
+      </c>
+      <c r="R451">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S451" s="26">
+        <f t="shared" si="79"/>
+        <v>2886466.0599999982</v>
+      </c>
+      <c r="T451">
+        <f t="shared" si="80"/>
+        <v>0.24546414155705792</v>
+      </c>
+    </row>
+    <row r="452" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G452">
+        <v>447</v>
+      </c>
+      <c r="H452">
+        <v>8040</v>
+      </c>
+      <c r="I452">
+        <f>SUM($H$5:H452)</f>
+        <v>1649860</v>
+      </c>
+      <c r="J452">
+        <f t="shared" si="75"/>
+        <v>2300.1873864806821</v>
+      </c>
+      <c r="K452">
+        <v>91</v>
+      </c>
+      <c r="L452" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M452" s="7">
+        <f t="shared" si="77"/>
+        <v>70.045500000000004</v>
+      </c>
+      <c r="O452">
+        <v>457</v>
+      </c>
+      <c r="P452" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q452" s="7">
+        <f t="shared" si="78"/>
+        <v>7074.96</v>
+      </c>
+      <c r="R452">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S452" s="26">
+        <f t="shared" si="79"/>
+        <v>2893541.0199999982</v>
+      </c>
+      <c r="T452">
+        <f t="shared" si="80"/>
+        <v>0.24510802666427217</v>
+      </c>
+    </row>
+    <row r="453" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G453">
+        <v>448</v>
+      </c>
+      <c r="H453">
+        <v>8060</v>
+      </c>
+      <c r="I453">
+        <f>SUM($H$5:H453)</f>
+        <v>1657920</v>
+      </c>
+      <c r="J453">
+        <f t="shared" si="75"/>
+        <v>2311.4244067945478</v>
+      </c>
+      <c r="K453">
+        <v>91</v>
+      </c>
+      <c r="L453" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M453" s="7">
+        <f t="shared" si="77"/>
+        <v>70.115600000000001</v>
+      </c>
+      <c r="O453">
+        <v>458</v>
+      </c>
+      <c r="P453" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q453" s="7">
+        <f t="shared" si="78"/>
+        <v>7082.04</v>
+      </c>
+      <c r="R453">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S453" s="26">
+        <f t="shared" si="79"/>
+        <v>2900623.0599999982</v>
+      </c>
+      <c r="T453">
+        <f t="shared" si="80"/>
+        <v>0.24475339907225652</v>
+      </c>
+    </row>
+    <row r="454" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G454">
+        <v>449</v>
+      </c>
+      <c r="H454">
+        <v>8080</v>
+      </c>
+      <c r="I454">
+        <f>SUM($H$5:H454)</f>
+        <v>1666000</v>
+      </c>
+      <c r="J454">
+        <f t="shared" si="75"/>
+        <v>2322.6893105335098</v>
+      </c>
+      <c r="K454">
+        <v>91</v>
+      </c>
+      <c r="L454" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M454" s="7">
+        <f t="shared" si="77"/>
+        <v>70.1858</v>
+      </c>
+      <c r="O454">
+        <v>459</v>
+      </c>
+      <c r="P454" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q454" s="7">
+        <f t="shared" si="78"/>
+        <v>7089.13</v>
+      </c>
+      <c r="R454">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S454" s="26">
+        <f t="shared" si="79"/>
+        <v>2907712.1899999981</v>
+      </c>
+      <c r="T454">
+        <f t="shared" si="80"/>
+        <v>0.24440024964842871</v>
+      </c>
+    </row>
+    <row r="455" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G455">
+        <v>450</v>
+      </c>
+      <c r="H455">
+        <v>8100</v>
+      </c>
+      <c r="I455">
+        <f>SUM($H$5:H455)</f>
+        <v>1674100</v>
+      </c>
+      <c r="J455">
+        <f t="shared" si="75"/>
+        <v>2333.9820976975684</v>
+      </c>
+      <c r="K455">
+        <v>91</v>
+      </c>
+      <c r="L455" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M455" s="7">
+        <f t="shared" si="77"/>
+        <v>70.256</v>
+      </c>
+      <c r="O455">
+        <v>460</v>
+      </c>
+      <c r="P455" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q455" s="7">
+        <f t="shared" si="78"/>
+        <v>7096.22</v>
+      </c>
+      <c r="R455">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S455" s="26">
+        <f t="shared" si="79"/>
+        <v>2914808.4099999983</v>
+      </c>
+      <c r="T455">
+        <f t="shared" si="80"/>
+        <v>0.24404822541945628</v>
+      </c>
+    </row>
+    <row r="456" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G456">
+        <v>451</v>
+      </c>
+      <c r="H456">
+        <v>8120</v>
+      </c>
+      <c r="I456">
+        <f>SUM($H$5:H456)</f>
+        <v>1682220</v>
+      </c>
+      <c r="J456">
+        <f t="shared" si="75"/>
+        <v>2345.3027682867232</v>
+      </c>
+      <c r="K456">
+        <v>91</v>
+      </c>
+      <c r="L456" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M456" s="7">
+        <f t="shared" si="77"/>
+        <v>70.326300000000003</v>
+      </c>
+      <c r="O456">
+        <v>461</v>
+      </c>
+      <c r="P456" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q456" s="7">
+        <f t="shared" si="78"/>
+        <v>7103.3200000000006</v>
+      </c>
+      <c r="R456">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S456" s="26">
+        <f t="shared" si="79"/>
+        <v>2921911.7299999981</v>
+      </c>
+      <c r="T456">
+        <f t="shared" si="80"/>
+        <v>0.24369766382003255</v>
+      </c>
+    </row>
+    <row r="457" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G457">
+        <v>452</v>
+      </c>
+      <c r="H457">
+        <v>8140</v>
+      </c>
+      <c r="I457">
+        <f>SUM($H$5:H457)</f>
+        <v>1690360</v>
+      </c>
+      <c r="J457">
+        <f t="shared" si="75"/>
+        <v>2356.6513223009747</v>
+      </c>
+      <c r="K457">
+        <v>91</v>
+      </c>
+      <c r="L457" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M457" s="7">
+        <f t="shared" si="77"/>
+        <v>70.396699999999996</v>
+      </c>
+      <c r="O457">
+        <v>462</v>
+      </c>
+      <c r="P457" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q457" s="7">
+        <f t="shared" si="78"/>
+        <v>7110.43</v>
+      </c>
+      <c r="R457">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S457" s="26">
+        <f t="shared" si="79"/>
+        <v>2929022.1599999983</v>
+      </c>
+      <c r="T457">
+        <f t="shared" si="80"/>
+        <v>0.24334855591274732</v>
+      </c>
+    </row>
+    <row r="458" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G458">
+        <v>453</v>
+      </c>
+      <c r="H458">
+        <v>8160</v>
+      </c>
+      <c r="I458">
+        <f>SUM($H$5:H458)</f>
+        <v>1698520</v>
+      </c>
+      <c r="J458">
+        <f t="shared" si="75"/>
+        <v>2368.0277597403224</v>
+      </c>
+      <c r="K458">
+        <v>91</v>
+      </c>
+      <c r="L458" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M458" s="7">
+        <f t="shared" si="77"/>
+        <v>70.467100000000002</v>
+      </c>
+      <c r="O458">
+        <v>463</v>
+      </c>
+      <c r="P458" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q458" s="7">
+        <f t="shared" si="78"/>
+        <v>7117.55</v>
+      </c>
+      <c r="R458">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S458" s="26">
+        <f t="shared" si="79"/>
+        <v>2936139.7099999981</v>
+      </c>
+      <c r="T458">
+        <f t="shared" si="80"/>
+        <v>0.24300089283038465</v>
+      </c>
+    </row>
+    <row r="459" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G459">
+        <v>454</v>
+      </c>
+      <c r="H459">
+        <v>8180</v>
+      </c>
+      <c r="I459">
+        <f>SUM($H$5:H459)</f>
+        <v>1706700</v>
+      </c>
+      <c r="J459">
+        <f t="shared" si="75"/>
+        <v>2379.4320806047667</v>
+      </c>
+      <c r="K459">
+        <v>91</v>
+      </c>
+      <c r="L459" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M459" s="7">
+        <f t="shared" si="77"/>
+        <v>70.537599999999998</v>
+      </c>
+      <c r="O459">
+        <v>464</v>
+      </c>
+      <c r="P459" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q459" s="7">
+        <f t="shared" si="78"/>
+        <v>7124.67</v>
+      </c>
+      <c r="R459">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S459" s="26">
+        <f t="shared" si="79"/>
+        <v>2943264.379999998</v>
+      </c>
+      <c r="T459">
+        <f t="shared" si="80"/>
+        <v>0.24265432519217314</v>
+      </c>
+    </row>
+    <row r="460" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G460">
+        <v>455</v>
+      </c>
+      <c r="H460">
+        <v>8200</v>
+      </c>
+      <c r="I460">
+        <f>SUM($H$5:H460)</f>
+        <v>1714900</v>
+      </c>
+      <c r="J460">
+        <f t="shared" si="75"/>
+        <v>2390.8642848943073</v>
+      </c>
+      <c r="K460">
+        <v>91</v>
+      </c>
+      <c r="L460" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M460" s="7">
+        <f t="shared" si="77"/>
+        <v>70.608200000000011</v>
+      </c>
+      <c r="O460">
+        <v>465</v>
+      </c>
+      <c r="P460" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q460" s="7">
+        <f t="shared" si="78"/>
+        <v>7131.8</v>
+      </c>
+      <c r="R460">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S460" s="26">
+        <f t="shared" si="79"/>
+        <v>2950396.1799999978</v>
+      </c>
+      <c r="T460">
+        <f t="shared" si="80"/>
+        <v>0.24230918732485113</v>
+      </c>
+    </row>
+    <row r="461" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G461">
+        <v>456</v>
+      </c>
+      <c r="H461">
+        <v>8220</v>
+      </c>
+      <c r="I461">
+        <f>SUM($H$5:H461)</f>
+        <v>1723120</v>
+      </c>
+      <c r="J461">
+        <f t="shared" si="75"/>
+        <v>2402.3243726089445</v>
+      </c>
+      <c r="K461">
+        <v>91</v>
+      </c>
+      <c r="L461" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M461" s="7">
+        <f t="shared" si="77"/>
+        <v>70.678899999999999</v>
+      </c>
+      <c r="O461">
+        <v>466</v>
+      </c>
+      <c r="P461" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q461" s="7">
+        <f t="shared" si="78"/>
+        <v>7138.9400000000005</v>
+      </c>
+      <c r="R461">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S461" s="26">
+        <f t="shared" si="79"/>
+        <v>2957535.1199999978</v>
+      </c>
+      <c r="T461">
+        <f t="shared" si="80"/>
+        <v>0.24196547054910941</v>
+      </c>
+    </row>
+    <row r="462" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G462">
+        <v>457</v>
+      </c>
+      <c r="H462">
+        <v>8240</v>
+      </c>
+      <c r="I462">
+        <f>SUM($H$5:H462)</f>
+        <v>1731360</v>
+      </c>
+      <c r="J462">
+        <f t="shared" si="75"/>
+        <v>2413.8123437486779</v>
+      </c>
+      <c r="K462">
+        <v>91</v>
+      </c>
+      <c r="L462" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M462" s="7">
+        <f t="shared" si="77"/>
+        <v>70.749600000000001</v>
+      </c>
+      <c r="O462">
+        <v>467</v>
+      </c>
+      <c r="P462" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q462" s="7">
+        <f t="shared" si="78"/>
+        <v>7146.08</v>
+      </c>
+      <c r="R462">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S462" s="26">
+        <f t="shared" si="79"/>
+        <v>2964681.1999999979</v>
+      </c>
+      <c r="T462">
+        <f t="shared" si="80"/>
+        <v>0.24162282813399286</v>
+      </c>
+    </row>
+    <row r="463" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G463">
+        <v>458</v>
+      </c>
+      <c r="H463">
+        <v>8260</v>
+      </c>
+      <c r="I463">
+        <f>SUM($H$5:H463)</f>
+        <v>1739620</v>
+      </c>
+      <c r="J463">
+        <f t="shared" si="75"/>
+        <v>2425.328198313508</v>
+      </c>
+      <c r="K463">
+        <v>91</v>
+      </c>
+      <c r="L463" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M463" s="7">
+        <f t="shared" si="77"/>
+        <v>70.820400000000006</v>
+      </c>
+      <c r="O463">
+        <v>468</v>
+      </c>
+      <c r="P463" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q463" s="7">
+        <f t="shared" si="78"/>
+        <v>7153.2300000000005</v>
+      </c>
+      <c r="R463">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S463" s="26">
+        <f t="shared" si="79"/>
+        <v>2971834.4299999978</v>
+      </c>
+      <c r="T463">
+        <f t="shared" si="80"/>
+        <v>0.24128159209833377</v>
+      </c>
+    </row>
+    <row r="464" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G464">
+        <v>459</v>
+      </c>
+      <c r="H464">
+        <v>8280</v>
+      </c>
+      <c r="I464">
+        <f>SUM($H$5:H464)</f>
+        <v>1747900</v>
+      </c>
+      <c r="J464">
+        <f t="shared" si="75"/>
+        <v>2436.8719363034347</v>
+      </c>
+      <c r="K464">
+        <v>91</v>
+      </c>
+      <c r="L464" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M464" s="7">
+        <f t="shared" si="77"/>
+        <v>70.891300000000001</v>
+      </c>
+      <c r="O464">
+        <v>469</v>
+      </c>
+      <c r="P464" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q464" s="7">
+        <f t="shared" si="78"/>
+        <v>7160.39</v>
+      </c>
+      <c r="R464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S464" s="26">
+        <f t="shared" si="79"/>
+        <v>2978994.819999998</v>
+      </c>
+      <c r="T464">
+        <f t="shared" si="80"/>
+        <v>0.24094175394556339</v>
+      </c>
+    </row>
+    <row r="465" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G465">
+        <v>460</v>
+      </c>
+      <c r="H465">
+        <v>8300</v>
+      </c>
+      <c r="I465">
+        <f>SUM($H$5:H465)</f>
+        <v>1756200</v>
+      </c>
+      <c r="J465">
+        <f t="shared" si="75"/>
+        <v>2448.4435577184572</v>
+      </c>
+      <c r="K465">
+        <v>91</v>
+      </c>
+      <c r="L465" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M465" s="7">
+        <f t="shared" si="77"/>
+        <v>70.962199999999996</v>
+      </c>
+      <c r="O465">
+        <v>470</v>
+      </c>
+      <c r="P465" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q465" s="7">
+        <f t="shared" si="78"/>
+        <v>7167.56</v>
+      </c>
+      <c r="R465">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S465" s="26">
+        <f t="shared" si="79"/>
+        <v>2986162.379999998</v>
+      </c>
+      <c r="T465">
+        <f t="shared" si="80"/>
+        <v>0.24060330524509141</v>
+      </c>
+    </row>
+    <row r="466" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G466">
+        <v>461</v>
+      </c>
+      <c r="H466">
+        <v>8320</v>
+      </c>
+      <c r="I466">
+        <f>SUM($H$5:H466)</f>
+        <v>1764520</v>
+      </c>
+      <c r="J466">
+        <f t="shared" si="75"/>
+        <v>2460.0430625585768</v>
+      </c>
+      <c r="K466">
+        <v>91</v>
+      </c>
+      <c r="L466" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M466" s="7">
+        <f t="shared" si="77"/>
+        <v>71.033200000000008</v>
+      </c>
+      <c r="O466">
+        <v>471</v>
+      </c>
+      <c r="P466" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q466" s="7">
+        <f t="shared" si="78"/>
+        <v>7174.7300000000005</v>
+      </c>
+      <c r="R466">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S466" s="26">
+        <f t="shared" si="79"/>
+        <v>2993337.109999998</v>
+      </c>
+      <c r="T466">
+        <f t="shared" si="80"/>
+        <v>0.24026590275375401</v>
+      </c>
+    </row>
+    <row r="467" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G467">
+        <v>462</v>
+      </c>
+      <c r="H467">
+        <v>8340</v>
+      </c>
+      <c r="I467">
+        <f>SUM($H$5:H467)</f>
+        <v>1772860</v>
+      </c>
+      <c r="J467">
+        <f t="shared" si="75"/>
+        <v>2471.6704508237926</v>
+      </c>
+      <c r="K467">
+        <v>91</v>
+      </c>
+      <c r="L467" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M467" s="7">
+        <f t="shared" si="77"/>
+        <v>71.104300000000009</v>
+      </c>
+      <c r="O467">
+        <v>472</v>
+      </c>
+      <c r="P467" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q467" s="7">
+        <f t="shared" si="78"/>
+        <v>7181.91</v>
+      </c>
+      <c r="R467">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S467" s="26">
+        <f t="shared" si="79"/>
+        <v>3000519.0199999982</v>
+      </c>
+      <c r="T467">
+        <f t="shared" si="80"/>
+        <v>0.23992987545596406</v>
+      </c>
+    </row>
+    <row r="468" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G468">
+        <v>463</v>
+      </c>
+      <c r="H468">
+        <v>8360</v>
+      </c>
+      <c r="I468">
+        <f>SUM($H$5:H468)</f>
+        <v>1781220</v>
+      </c>
+      <c r="J468">
+        <f t="shared" si="75"/>
+        <v>2483.3257225141047</v>
+      </c>
+      <c r="K468">
+        <v>91</v>
+      </c>
+      <c r="L468" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M468" s="7">
+        <f t="shared" si="77"/>
+        <v>71.1755</v>
+      </c>
+      <c r="O468">
+        <v>473</v>
+      </c>
+      <c r="P468" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q468" s="7">
+        <f t="shared" si="78"/>
+        <v>7189.1</v>
+      </c>
+      <c r="R468">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S468" s="26">
+        <f t="shared" si="79"/>
+        <v>3007708.1199999982</v>
+      </c>
+      <c r="T468">
+        <f t="shared" si="80"/>
+        <v>0.23959521509715667</v>
+      </c>
+    </row>
+    <row r="469" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G469">
+        <v>464</v>
+      </c>
+      <c r="H469">
+        <v>8380</v>
+      </c>
+      <c r="I469">
+        <f>SUM($H$5:H469)</f>
+        <v>1789600</v>
+      </c>
+      <c r="J469">
+        <f t="shared" si="75"/>
+        <v>2495.0088776295133</v>
+      </c>
+      <c r="K469">
+        <v>91</v>
+      </c>
+      <c r="L469" t="str">
+        <f t="shared" si="76"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M469" s="7">
+        <f t="shared" si="77"/>
+        <v>71.246700000000004</v>
+      </c>
+      <c r="O469">
+        <v>474</v>
+      </c>
+      <c r="P469" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q469" s="7">
+        <f t="shared" si="78"/>
+        <v>7196.29</v>
+      </c>
+      <c r="R469">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S469" s="26">
+        <f t="shared" si="79"/>
+        <v>3014904.4099999983</v>
+      </c>
+      <c r="T469">
+        <f t="shared" si="80"/>
+        <v>0.23926158100740311</v>
+      </c>
+    </row>
+    <row r="470" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G470">
+        <v>465</v>
+      </c>
+      <c r="H470">
+        <v>8400</v>
+      </c>
+      <c r="I470">
+        <f>SUM($H$5:H470)</f>
+        <v>1798000</v>
+      </c>
+      <c r="J470">
+        <f t="shared" ref="J470:J514" si="81">I470/$A$5</f>
+        <v>2506.7199161700187</v>
+      </c>
+      <c r="K470">
+        <v>91</v>
+      </c>
+      <c r="L470" t="str">
+        <f t="shared" ref="L470:L514" si="82">IF(K470=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M470" s="7">
+        <f t="shared" ref="M470:M514" si="83">VLOOKUP(G470,O:Q,3,FALSE)/100</f>
+        <v>71.317999999999998</v>
+      </c>
+      <c r="O470">
+        <v>475</v>
+      </c>
+      <c r="P470" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q470" s="7">
+        <f t="shared" si="78"/>
+        <v>7203.49</v>
+      </c>
+      <c r="R470">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S470" s="26">
+        <f t="shared" si="79"/>
+        <v>3022107.8999999985</v>
+      </c>
+      <c r="T470">
+        <f t="shared" si="80"/>
+        <v>0.23892929991767889</v>
+      </c>
+    </row>
+    <row r="471" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G471">
+        <v>466</v>
+      </c>
+      <c r="H471">
+        <v>8420</v>
+      </c>
+      <c r="I471">
+        <f>SUM($H$5:H471)</f>
+        <v>1806420</v>
+      </c>
+      <c r="J471">
+        <f t="shared" si="81"/>
+        <v>2518.4588381356198</v>
+      </c>
+      <c r="K471">
+        <v>91</v>
+      </c>
+      <c r="L471" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M471" s="7">
+        <f t="shared" si="83"/>
+        <v>71.389400000000009</v>
+      </c>
+      <c r="O471">
+        <v>476</v>
+      </c>
+      <c r="P471" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q471" s="7">
+        <f t="shared" si="78"/>
+        <v>7210.7</v>
+      </c>
+      <c r="R471">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S471" s="26">
+        <f t="shared" si="79"/>
+        <v>3029318.5999999987</v>
+      </c>
+      <c r="T471">
+        <f t="shared" si="80"/>
+        <v>0.23859836374472898</v>
+      </c>
+    </row>
+    <row r="472" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G472">
+        <v>467</v>
+      </c>
+      <c r="H472">
+        <v>8440</v>
+      </c>
+      <c r="I472">
+        <f>SUM($H$5:H472)</f>
+        <v>1814860</v>
+      </c>
+      <c r="J472">
+        <f t="shared" si="81"/>
+        <v>2530.225643526318</v>
+      </c>
+      <c r="K472">
+        <v>91</v>
+      </c>
+      <c r="L472" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M472" s="7">
+        <f t="shared" si="83"/>
+        <v>71.460800000000006</v>
+      </c>
+      <c r="O472">
+        <v>477</v>
+      </c>
+      <c r="P472" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q472" s="7">
+        <f t="shared" si="78"/>
+        <v>7217.92</v>
+      </c>
+      <c r="R472">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S472" s="26">
+        <f t="shared" si="79"/>
+        <v>3036536.5199999986</v>
+      </c>
+      <c r="T472">
+        <f t="shared" si="80"/>
+        <v>0.23826876446736001</v>
+      </c>
+    </row>
+    <row r="473" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G473">
+        <v>468</v>
+      </c>
+      <c r="H473">
+        <v>8460</v>
+      </c>
+      <c r="I473">
+        <f>SUM($H$5:H473)</f>
+        <v>1823320</v>
+      </c>
+      <c r="J473">
+        <f t="shared" si="81"/>
+        <v>2542.0203323421124</v>
+      </c>
+      <c r="K473">
+        <v>91</v>
+      </c>
+      <c r="L473" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M473" s="7">
+        <f t="shared" si="83"/>
+        <v>71.532300000000006</v>
+      </c>
+      <c r="O473">
+        <v>478</v>
+      </c>
+      <c r="P473" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q473" s="7">
+        <f t="shared" si="78"/>
+        <v>7225.14</v>
+      </c>
+      <c r="R473">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S473" s="26">
+        <f t="shared" si="79"/>
+        <v>3043761.6599999988</v>
+      </c>
+      <c r="T473">
+        <f t="shared" si="80"/>
+        <v>0.23794016480329153</v>
+      </c>
+    </row>
+    <row r="474" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G474">
+        <v>469</v>
+      </c>
+      <c r="H474">
+        <v>8480</v>
+      </c>
+      <c r="I474">
+        <f>SUM($H$5:H474)</f>
+        <v>1831800</v>
+      </c>
+      <c r="J474">
+        <f t="shared" si="81"/>
+        <v>2553.842904583003</v>
+      </c>
+      <c r="K474">
+        <v>91</v>
+      </c>
+      <c r="L474" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M474" s="7">
+        <f t="shared" si="83"/>
+        <v>71.60390000000001</v>
+      </c>
+      <c r="O474">
+        <v>479</v>
+      </c>
+      <c r="P474" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q474" s="7">
+        <f t="shared" si="78"/>
+        <v>7232.37</v>
+      </c>
+      <c r="R474">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S474" s="26">
+        <f t="shared" si="79"/>
+        <v>3050994.0299999989</v>
+      </c>
+      <c r="T474">
+        <f t="shared" si="80"/>
+        <v>0.23761288852032239</v>
+      </c>
+    </row>
+    <row r="475" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G475">
+        <v>470</v>
+      </c>
+      <c r="H475">
+        <v>8500</v>
+      </c>
+      <c r="I475">
+        <f>SUM($H$5:H475)</f>
+        <v>1840300</v>
+      </c>
+      <c r="J475">
+        <f t="shared" si="81"/>
+        <v>2565.6933602489903</v>
+      </c>
+      <c r="K475">
+        <v>91</v>
+      </c>
+      <c r="L475" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M475" s="7">
+        <f t="shared" si="83"/>
+        <v>71.675600000000003</v>
+      </c>
+      <c r="O475">
+        <v>480</v>
+      </c>
+      <c r="P475" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q475" s="7">
+        <f t="shared" si="78"/>
+        <v>7239.6100000000006</v>
+      </c>
+      <c r="R475">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S475" s="26">
+        <f t="shared" si="79"/>
+        <v>3058233.6399999987</v>
+      </c>
+      <c r="T475">
+        <f t="shared" si="80"/>
+        <v>0.23728692776235527</v>
+      </c>
+    </row>
+    <row r="476" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G476">
+        <v>471</v>
+      </c>
+      <c r="H476">
+        <v>8520</v>
+      </c>
+      <c r="I476">
+        <f>SUM($H$5:H476)</f>
+        <v>1848820</v>
+      </c>
+      <c r="J476">
+        <f t="shared" si="81"/>
+        <v>2577.5716993400742</v>
+      </c>
+      <c r="K476">
+        <v>91</v>
+      </c>
+      <c r="L476" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M476" s="7">
+        <f t="shared" si="83"/>
+        <v>71.74730000000001</v>
+      </c>
+      <c r="O476">
+        <v>481</v>
+      </c>
+      <c r="P476" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q476" s="7">
+        <f t="shared" si="78"/>
+        <v>7246.85</v>
+      </c>
+      <c r="R476">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S476" s="26">
+        <f t="shared" si="79"/>
+        <v>3065480.4899999988</v>
+      </c>
+      <c r="T476">
+        <f t="shared" si="80"/>
+        <v>0.2369619477470693</v>
+      </c>
+    </row>
+    <row r="477" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G477">
+        <v>472</v>
+      </c>
+      <c r="H477">
+        <v>8540</v>
+      </c>
+      <c r="I477">
+        <f>SUM($H$5:H477)</f>
+        <v>1857360</v>
+      </c>
+      <c r="J477">
+        <f t="shared" si="81"/>
+        <v>2589.4779218562544</v>
+      </c>
+      <c r="K477">
+        <v>91</v>
+      </c>
+      <c r="L477" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M477" s="7">
+        <f t="shared" si="83"/>
+        <v>71.819099999999992</v>
+      </c>
+      <c r="O477">
+        <v>482</v>
+      </c>
+      <c r="P477" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q477" s="7">
+        <f t="shared" si="78"/>
+        <v>7254.1</v>
+      </c>
+      <c r="R477">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S477" s="26">
+        <f t="shared" si="79"/>
+        <v>3072734.5899999989</v>
+      </c>
+      <c r="T477">
+        <f t="shared" si="80"/>
+        <v>0.23663827004164348</v>
+      </c>
+    </row>
+    <row r="478" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G478">
+        <v>473</v>
+      </c>
+      <c r="H478">
+        <v>8560</v>
+      </c>
+      <c r="I478">
+        <f>SUM($H$5:H478)</f>
+        <v>1865920</v>
+      </c>
+      <c r="J478">
+        <f t="shared" si="81"/>
+        <v>2601.4120277975312</v>
+      </c>
+      <c r="K478">
+        <v>91</v>
+      </c>
+      <c r="L478" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M478" s="7">
+        <f t="shared" si="83"/>
+        <v>71.891000000000005</v>
+      </c>
+      <c r="O478">
+        <v>483</v>
+      </c>
+      <c r="P478" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q478" s="7">
+        <f t="shared" si="78"/>
+        <v>7261.3600000000006</v>
+      </c>
+      <c r="R478">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S478" s="26">
+        <f t="shared" si="79"/>
+        <v>3079995.9499999988</v>
+      </c>
+      <c r="T478">
+        <f t="shared" si="80"/>
+        <v>0.23631588695071357</v>
+      </c>
+    </row>
+    <row r="479" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G479">
+        <v>474</v>
+      </c>
+      <c r="H479">
+        <v>8580</v>
+      </c>
+      <c r="I479">
+        <f>SUM($H$5:H479)</f>
+        <v>1874500</v>
+      </c>
+      <c r="J479">
+        <f t="shared" si="81"/>
+        <v>2613.3740171639042</v>
+      </c>
+      <c r="K479">
+        <v>91</v>
+      </c>
+      <c r="L479" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M479" s="7">
+        <f t="shared" si="83"/>
+        <v>71.962900000000005</v>
+      </c>
+      <c r="O479">
+        <v>484</v>
+      </c>
+      <c r="P479" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q479" s="7">
+        <f t="shared" si="78"/>
+        <v>7268.63</v>
+      </c>
+      <c r="R479">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S479" s="26">
+        <f t="shared" si="79"/>
+        <v>3087264.5799999987</v>
+      </c>
+      <c r="T479">
+        <f t="shared" si="80"/>
+        <v>0.2359947908373026</v>
+      </c>
+    </row>
+    <row r="480" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G480">
+        <v>475</v>
+      </c>
+      <c r="H480">
+        <v>8600</v>
+      </c>
+      <c r="I480">
+        <f>SUM($H$5:H480)</f>
+        <v>1883100</v>
+      </c>
+      <c r="J480">
+        <f t="shared" si="81"/>
+        <v>2625.3638899553735</v>
+      </c>
+      <c r="K480">
+        <v>91</v>
+      </c>
+      <c r="L480" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M480" s="7">
+        <f t="shared" si="83"/>
+        <v>72.034899999999993</v>
+      </c>
+      <c r="O480">
+        <v>485</v>
+      </c>
+      <c r="P480" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q480" s="7">
+        <f t="shared" si="78"/>
+        <v>7275.9000000000005</v>
+      </c>
+      <c r="R480">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S480" s="26">
+        <f t="shared" si="79"/>
+        <v>3094540.4799999986</v>
+      </c>
+      <c r="T480">
+        <f t="shared" si="80"/>
+        <v>0.2356746502108967</v>
+      </c>
+    </row>
+    <row r="481" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G481">
+        <v>476</v>
+      </c>
+      <c r="H481">
+        <v>8620</v>
+      </c>
+      <c r="I481">
+        <f>SUM($H$5:H481)</f>
+        <v>1891720</v>
+      </c>
+      <c r="J481">
+        <f t="shared" si="81"/>
+        <v>2637.3816461719393</v>
+      </c>
+      <c r="K481">
+        <v>91</v>
+      </c>
+      <c r="L481" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M481" s="7">
+        <f t="shared" si="83"/>
+        <v>72.106999999999999</v>
+      </c>
+      <c r="O481">
+        <v>486</v>
+      </c>
+      <c r="P481" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q481" s="7">
+        <f t="shared" si="78"/>
+        <v>7283.18</v>
+      </c>
+      <c r="R481">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S481" s="26">
+        <f t="shared" si="79"/>
+        <v>3101823.6599999988</v>
+      </c>
+      <c r="T481">
+        <f t="shared" si="80"/>
+        <v>0.23535578374467317</v>
+      </c>
+    </row>
+    <row r="482" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G482">
+        <v>477</v>
+      </c>
+      <c r="H482">
+        <v>8640</v>
+      </c>
+      <c r="I482">
+        <f>SUM($H$5:H482)</f>
+        <v>1900360</v>
+      </c>
+      <c r="J482">
+        <f t="shared" si="81"/>
+        <v>2649.4272858136019</v>
+      </c>
+      <c r="K482">
+        <v>91</v>
+      </c>
+      <c r="L482" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M482" s="7">
+        <f t="shared" si="83"/>
+        <v>72.179199999999994</v>
+      </c>
+      <c r="O482">
+        <v>487</v>
+      </c>
+      <c r="P482" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q482" s="7">
+        <f t="shared" si="78"/>
+        <v>7290.47</v>
+      </c>
+      <c r="R482">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S482" s="26">
+        <f t="shared" si="79"/>
+        <v>3109114.129999999</v>
+      </c>
+      <c r="T482">
+        <f t="shared" si="80"/>
+        <v>0.23503818395660209</v>
+      </c>
+    </row>
+    <row r="483" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G483">
+        <v>478</v>
+      </c>
+      <c r="H483">
+        <v>8660</v>
+      </c>
+      <c r="I483">
+        <f>SUM($H$5:H483)</f>
+        <v>1909020</v>
+      </c>
+      <c r="J483">
+        <f t="shared" si="81"/>
+        <v>2661.5008088803606</v>
+      </c>
+      <c r="K483">
+        <v>91</v>
+      </c>
+      <c r="L483" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M483" s="7">
+        <f t="shared" si="83"/>
+        <v>72.251400000000004</v>
+      </c>
+      <c r="O483">
+        <v>488</v>
+      </c>
+      <c r="P483" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q483" s="7">
+        <f t="shared" si="78"/>
+        <v>7297.77</v>
+      </c>
+      <c r="R483">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S483" s="26">
+        <f t="shared" si="79"/>
+        <v>3116411.899999999</v>
+      </c>
+      <c r="T483">
+        <f t="shared" si="80"/>
+        <v>0.23472184342103972</v>
+      </c>
+    </row>
+    <row r="484" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G484">
+        <v>479</v>
+      </c>
+      <c r="H484">
+        <v>8680</v>
+      </c>
+      <c r="I484">
+        <f>SUM($H$5:H484)</f>
+        <v>1917700</v>
+      </c>
+      <c r="J484">
+        <f t="shared" si="81"/>
+        <v>2673.6022153722161</v>
+      </c>
+      <c r="K484">
+        <v>91</v>
+      </c>
+      <c r="L484" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M484" s="7">
+        <f t="shared" si="83"/>
+        <v>72.323700000000002</v>
+      </c>
+      <c r="O484">
+        <v>489</v>
+      </c>
+      <c r="P484" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q484" s="7">
+        <f t="shared" si="78"/>
+        <v>7305.0700000000006</v>
+      </c>
+      <c r="R484">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S484" s="26">
+        <f t="shared" si="79"/>
+        <v>3123716.9699999988</v>
+      </c>
+      <c r="T484">
+        <f t="shared" si="80"/>
+        <v>0.23440643388634971</v>
+      </c>
+    </row>
+    <row r="485" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G485">
+        <v>480</v>
+      </c>
+      <c r="H485">
+        <v>8700</v>
+      </c>
+      <c r="I485">
+        <f>SUM($H$5:H485)</f>
+        <v>1926400</v>
+      </c>
+      <c r="J485">
+        <f t="shared" si="81"/>
+        <v>2685.7315052891677</v>
+      </c>
+      <c r="K485">
+        <v>91</v>
+      </c>
+      <c r="L485" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M485" s="7">
+        <f t="shared" si="83"/>
+        <v>72.396100000000004</v>
+      </c>
+      <c r="O485">
+        <v>490</v>
+      </c>
+      <c r="P485" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q485" s="7">
+        <f t="shared" si="78"/>
+        <v>7312.38</v>
+      </c>
+      <c r="R485">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S485" s="26">
+        <f t="shared" si="79"/>
+        <v>3131029.3499999987</v>
+      </c>
+      <c r="T485">
+        <f t="shared" si="80"/>
+        <v>0.23409227117013395</v>
+      </c>
+    </row>
+    <row r="486" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G486">
+        <v>481</v>
+      </c>
+      <c r="H486">
+        <v>8720</v>
+      </c>
+      <c r="I486">
+        <f>SUM($H$5:H486)</f>
+        <v>1935120</v>
+      </c>
+      <c r="J486">
+        <f t="shared" si="81"/>
+        <v>2697.888678631216</v>
+      </c>
+      <c r="K486">
+        <v>91</v>
+      </c>
+      <c r="L486" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M486" s="7">
+        <f t="shared" si="83"/>
+        <v>72.468500000000006</v>
+      </c>
+      <c r="O486">
+        <v>491</v>
+      </c>
+      <c r="P486" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q486" s="7">
+        <f t="shared" si="78"/>
+        <v>7319.7</v>
+      </c>
+      <c r="R486">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S486" s="26">
+        <f t="shared" si="79"/>
+        <v>3138349.0499999989</v>
+      </c>
+      <c r="T486">
+        <f t="shared" si="80"/>
+        <v>0.23377934799621694</v>
+      </c>
+    </row>
+    <row r="487" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G487">
+        <v>482</v>
+      </c>
+      <c r="H487">
+        <v>8740</v>
+      </c>
+      <c r="I487">
+        <f>SUM($H$5:H487)</f>
+        <v>1943860</v>
+      </c>
+      <c r="J487">
+        <f t="shared" si="81"/>
+        <v>2710.0737353983604</v>
+      </c>
+      <c r="K487">
+        <v>91</v>
+      </c>
+      <c r="L487" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M487" s="7">
+        <f t="shared" si="83"/>
+        <v>72.540999999999997</v>
+      </c>
+      <c r="O487">
+        <v>492</v>
+      </c>
+      <c r="P487" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q487" s="7">
+        <f t="shared" si="78"/>
+        <v>7327.02</v>
+      </c>
+      <c r="R487">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S487" s="26">
+        <f t="shared" si="79"/>
+        <v>3145676.0699999989</v>
+      </c>
+      <c r="T487">
+        <f t="shared" si="80"/>
+        <v>0.23346733850398257</v>
+      </c>
+    </row>
+    <row r="488" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G488">
+        <v>483</v>
+      </c>
+      <c r="H488">
+        <v>8760</v>
+      </c>
+      <c r="I488">
+        <f>SUM($H$5:H488)</f>
+        <v>1952620</v>
+      </c>
+      <c r="J488">
+        <f t="shared" si="81"/>
+        <v>2722.2866755906016</v>
+      </c>
+      <c r="K488">
+        <v>91</v>
+      </c>
+      <c r="L488" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M488" s="7">
+        <f t="shared" si="83"/>
+        <v>72.613600000000005</v>
+      </c>
+      <c r="O488">
+        <v>493</v>
+      </c>
+      <c r="P488" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q488" s="7">
+        <f t="shared" si="78"/>
+        <v>7334.35</v>
+      </c>
+      <c r="R488">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S488" s="26">
+        <f t="shared" si="79"/>
+        <v>3153010.419999999</v>
+      </c>
+      <c r="T488">
+        <f t="shared" si="80"/>
+        <v>0.23315655639012112</v>
+      </c>
+    </row>
+    <row r="489" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G489">
+        <v>484</v>
+      </c>
+      <c r="H489">
+        <v>8780</v>
+      </c>
+      <c r="I489">
+        <f>SUM($H$5:H489)</f>
+        <v>1961400</v>
+      </c>
+      <c r="J489">
+        <f t="shared" si="81"/>
+        <v>2734.5274992079389</v>
+      </c>
+      <c r="K489">
+        <v>91</v>
+      </c>
+      <c r="L489" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M489" s="7">
+        <f t="shared" si="83"/>
+        <v>72.686300000000003</v>
+      </c>
+      <c r="O489">
+        <v>494</v>
+      </c>
+      <c r="P489" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q489" s="7">
+        <f t="shared" si="78"/>
+        <v>7341.6900000000005</v>
+      </c>
+      <c r="R489">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S489" s="26">
+        <f t="shared" si="79"/>
+        <v>3160352.1099999989</v>
+      </c>
+      <c r="T489">
+        <f t="shared" si="80"/>
+        <v>0.23284699452404428</v>
+      </c>
+    </row>
+    <row r="490" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G490">
+        <v>485</v>
+      </c>
+      <c r="H490">
+        <v>8800</v>
+      </c>
+      <c r="I490">
+        <f>SUM($H$5:H490)</f>
+        <v>1970200</v>
+      </c>
+      <c r="J490">
+        <f t="shared" si="81"/>
+        <v>2746.796206250373</v>
+      </c>
+      <c r="K490">
+        <v>91</v>
+      </c>
+      <c r="L490" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M490" s="7">
+        <f t="shared" si="83"/>
+        <v>72.759</v>
+      </c>
+      <c r="O490">
+        <v>495</v>
+      </c>
+      <c r="P490" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q490" s="7">
+        <f t="shared" si="78"/>
+        <v>7349.04</v>
+      </c>
+      <c r="R490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S490" s="26">
+        <f t="shared" si="79"/>
+        <v>3167701.149999999</v>
+      </c>
+      <c r="T490">
+        <f t="shared" si="80"/>
+        <v>0.23253864582829789</v>
+      </c>
+    </row>
+    <row r="491" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G491">
+        <v>486</v>
+      </c>
+      <c r="H491">
+        <v>8820</v>
+      </c>
+      <c r="I491">
+        <f>SUM($H$5:H491)</f>
+        <v>1979020</v>
+      </c>
+      <c r="J491">
+        <f t="shared" si="81"/>
+        <v>2759.0927967179032</v>
+      </c>
+      <c r="K491">
+        <v>91</v>
+      </c>
+      <c r="L491" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M491" s="7">
+        <f t="shared" si="83"/>
+        <v>72.831800000000001</v>
+      </c>
+      <c r="O491">
+        <v>496</v>
+      </c>
+      <c r="P491" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q491" s="7">
+        <f t="shared" si="78"/>
+        <v>7356.39</v>
+      </c>
+      <c r="R491">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S491" s="26">
+        <f t="shared" si="79"/>
+        <v>3175057.5399999991</v>
+      </c>
+      <c r="T491">
+        <f t="shared" si="80"/>
+        <v>0.2322311875916746</v>
+      </c>
+    </row>
+    <row r="492" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G492">
+        <v>487</v>
+      </c>
+      <c r="H492">
+        <v>8840</v>
+      </c>
+      <c r="I492">
+        <f>SUM($H$5:H492)</f>
+        <v>1987860</v>
+      </c>
+      <c r="J492">
+        <f t="shared" si="81"/>
+        <v>2771.4172706105301</v>
+      </c>
+      <c r="K492">
+        <v>91</v>
+      </c>
+      <c r="L492" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M492" s="7">
+        <f t="shared" si="83"/>
+        <v>72.904700000000005</v>
+      </c>
+      <c r="O492">
+        <v>497</v>
+      </c>
+      <c r="P492" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q492" s="7">
+        <f t="shared" si="78"/>
+        <v>7363.75</v>
+      </c>
+      <c r="R492">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S492" s="26">
+        <f t="shared" si="79"/>
+        <v>3182421.2899999991</v>
+      </c>
+      <c r="T492">
+        <f t="shared" si="80"/>
+        <v>0.23192493072109813</v>
+      </c>
+    </row>
+    <row r="493" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G493">
+        <v>488</v>
+      </c>
+      <c r="H493">
+        <v>8860</v>
+      </c>
+      <c r="I493">
+        <f>SUM($H$5:H493)</f>
+        <v>1996720</v>
+      </c>
+      <c r="J493">
+        <f t="shared" si="81"/>
+        <v>2783.7696279282532</v>
+      </c>
+      <c r="K493">
+        <v>91</v>
+      </c>
+      <c r="L493" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M493" s="7">
+        <f t="shared" si="83"/>
+        <v>72.977699999999999</v>
+      </c>
+      <c r="O493">
+        <v>498</v>
+      </c>
+      <c r="P493" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q493" s="7">
+        <f t="shared" si="78"/>
+        <v>7371.12</v>
+      </c>
+      <c r="R493">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S493" s="26">
+        <f t="shared" si="79"/>
+        <v>3189792.4099999992</v>
+      </c>
+      <c r="T493">
+        <f t="shared" si="80"/>
+        <v>0.23161986827960526</v>
+      </c>
+    </row>
+    <row r="494" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G494">
+        <v>489</v>
+      </c>
+      <c r="H494">
+        <v>8880</v>
+      </c>
+      <c r="I494">
+        <f>SUM($H$5:H494)</f>
+        <v>2005600</v>
+      </c>
+      <c r="J494">
+        <f t="shared" si="81"/>
+        <v>2796.1498686710729</v>
+      </c>
+      <c r="K494">
+        <v>91</v>
+      </c>
+      <c r="L494" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M494" s="7">
+        <f t="shared" si="83"/>
+        <v>73.050700000000006</v>
+      </c>
+      <c r="O494">
+        <v>499</v>
+      </c>
+      <c r="P494" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q494" s="7">
+        <f t="shared" si="78"/>
+        <v>7378.5</v>
+      </c>
+      <c r="R494">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S494" s="26">
+        <f t="shared" si="79"/>
+        <v>3197170.9099999992</v>
+      </c>
+      <c r="T494">
+        <f t="shared" si="80"/>
+        <v>0.23131599338152548</v>
+      </c>
+    </row>
+    <row r="495" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G495">
+        <v>490</v>
+      </c>
+      <c r="H495">
+        <v>8900</v>
+      </c>
+      <c r="I495">
+        <f>SUM($H$5:H495)</f>
+        <v>2014500</v>
+      </c>
+      <c r="J495">
+        <f t="shared" si="81"/>
+        <v>2808.5579928389889</v>
+      </c>
+      <c r="K495">
+        <v>91</v>
+      </c>
+      <c r="L495" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M495" s="7">
+        <f t="shared" si="83"/>
+        <v>73.123800000000003</v>
+      </c>
+      <c r="O495">
+        <v>500</v>
+      </c>
+      <c r="P495" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q495" s="7">
+        <f t="shared" si="78"/>
+        <v>7385.88</v>
+      </c>
+      <c r="R495">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S495" s="26">
+        <f t="shared" si="79"/>
+        <v>3204556.7899999991</v>
+      </c>
+      <c r="T495">
+        <f t="shared" si="80"/>
+        <v>0.2310129864155398</v>
+      </c>
+    </row>
+    <row r="496" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G496">
+        <v>491</v>
+      </c>
+      <c r="H496">
+        <v>8920</v>
+      </c>
+      <c r="I496">
+        <f>SUM($H$5:H496)</f>
+        <v>2023420</v>
+      </c>
+      <c r="J496">
+        <f t="shared" si="81"/>
+        <v>2820.9940004320015</v>
+      </c>
+      <c r="K496">
+        <v>91</v>
+      </c>
+      <c r="L496" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M496" s="7">
+        <f t="shared" si="83"/>
+        <v>73.197000000000003</v>
+      </c>
+      <c r="O496">
+        <v>501</v>
+      </c>
+      <c r="P496" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q496" s="7">
+        <f t="shared" si="78"/>
+        <v>7393.27</v>
+      </c>
+      <c r="R496">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S496" s="26">
+        <f t="shared" si="79"/>
+        <v>3211950.0599999991</v>
+      </c>
+      <c r="T496">
+        <f t="shared" si="80"/>
+        <v>0.23071115553549046</v>
+      </c>
+    </row>
+    <row r="497" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G497">
+        <v>492</v>
+      </c>
+      <c r="H497">
+        <v>8940</v>
+      </c>
+      <c r="I497">
+        <f>SUM($H$5:H497)</f>
+        <v>2032360</v>
+      </c>
+      <c r="J497">
+        <f t="shared" si="81"/>
+        <v>2833.4578914501103</v>
+      </c>
+      <c r="K497">
+        <v>91</v>
+      </c>
+      <c r="L497" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M497" s="7">
+        <f t="shared" si="83"/>
+        <v>73.270200000000003</v>
+      </c>
+      <c r="O497">
+        <v>502</v>
+      </c>
+      <c r="P497" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q497" s="7">
+        <f t="shared" si="78"/>
+        <v>7400.67</v>
+      </c>
+      <c r="R497">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S497" s="26">
+        <f t="shared" si="79"/>
+        <v>3219350.7299999991</v>
+      </c>
+      <c r="T497">
+        <f t="shared" si="80"/>
+        <v>0.2304104939913022</v>
+      </c>
+    </row>
+    <row r="498" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G498">
+        <v>493</v>
+      </c>
+      <c r="H498">
+        <v>8960</v>
+      </c>
+      <c r="I498">
+        <f>SUM($H$5:H498)</f>
+        <v>2041320</v>
+      </c>
+      <c r="J498">
+        <f t="shared" si="81"/>
+        <v>2845.9496658933158</v>
+      </c>
+      <c r="K498">
+        <v>91</v>
+      </c>
+      <c r="L498" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M498" s="7">
+        <f t="shared" si="83"/>
+        <v>73.343500000000006</v>
+      </c>
+      <c r="O498">
+        <v>503</v>
+      </c>
+      <c r="P498" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q498" s="7">
+        <f t="shared" si="78"/>
+        <v>7408.08</v>
+      </c>
+      <c r="R498">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S498" s="26">
+        <f t="shared" si="79"/>
+        <v>3226758.8099999991</v>
+      </c>
+      <c r="T498">
+        <f t="shared" si="80"/>
+        <v>0.23011099508254187</v>
+      </c>
+    </row>
+    <row r="499" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G499">
+        <v>494</v>
+      </c>
+      <c r="H499">
+        <v>8980</v>
+      </c>
+      <c r="I499">
+        <f>SUM($H$5:H499)</f>
+        <v>2050300</v>
+      </c>
+      <c r="J499">
+        <f t="shared" si="81"/>
+        <v>2858.4693237616179</v>
+      </c>
+      <c r="K499">
+        <v>91</v>
+      </c>
+      <c r="L499" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M499" s="7">
+        <f t="shared" si="83"/>
+        <v>73.416899999999998</v>
+      </c>
+      <c r="O499">
+        <v>504</v>
+      </c>
+      <c r="P499" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q499" s="7">
+        <f t="shared" si="78"/>
+        <v>7415.49</v>
+      </c>
+      <c r="R499">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S499" s="26">
+        <f t="shared" si="79"/>
+        <v>3234174.2999999993</v>
+      </c>
+      <c r="T499">
+        <f t="shared" si="80"/>
+        <v>0.22981234224941113</v>
+      </c>
+    </row>
+    <row r="500" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G500">
+        <v>495</v>
+      </c>
+      <c r="H500">
+        <v>9000</v>
+      </c>
+      <c r="I500">
+        <f>SUM($H$5:H500)</f>
+        <v>2059300</v>
+      </c>
+      <c r="J500">
+        <f t="shared" si="81"/>
+        <v>2871.0168650550163</v>
+      </c>
+      <c r="K500">
+        <v>91</v>
+      </c>
+      <c r="L500" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M500" s="7">
+        <f t="shared" si="83"/>
+        <v>73.490399999999994</v>
+      </c>
+      <c r="O500">
+        <v>505</v>
+      </c>
+      <c r="P500" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q500" s="7">
+        <f t="shared" si="78"/>
+        <v>7422.91</v>
+      </c>
+      <c r="R500">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S500" s="26">
+        <f t="shared" si="79"/>
+        <v>3241597.2099999995</v>
+      </c>
+      <c r="T500">
+        <f t="shared" si="80"/>
+        <v>0.22951484092864602</v>
+      </c>
+    </row>
+    <row r="501" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G501">
+        <v>496</v>
+      </c>
+      <c r="H501">
+        <v>9020</v>
+      </c>
+      <c r="I501">
+        <f>SUM($H$5:H501)</f>
+        <v>2068320</v>
+      </c>
+      <c r="J501">
+        <f t="shared" si="81"/>
+        <v>2883.5922897735109</v>
+      </c>
+      <c r="K501">
+        <v>91</v>
+      </c>
+      <c r="L501" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M501" s="7">
+        <f t="shared" si="83"/>
+        <v>73.563900000000004</v>
+      </c>
+      <c r="O501">
+        <v>506</v>
+      </c>
+      <c r="P501" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q501" s="7">
+        <f t="shared" si="78"/>
+        <v>7430.34</v>
+      </c>
+      <c r="R501">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S501" s="26">
+        <f t="shared" si="79"/>
+        <v>3249027.5499999993</v>
+      </c>
+      <c r="T501">
+        <f t="shared" si="80"/>
+        <v>0.22921848455070248</v>
+      </c>
+    </row>
+    <row r="502" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G502">
+        <v>497</v>
+      </c>
+      <c r="H502">
+        <v>9040</v>
+      </c>
+      <c r="I502">
+        <f>SUM($H$5:H502)</f>
+        <v>2077360</v>
+      </c>
+      <c r="J502">
+        <f t="shared" si="81"/>
+        <v>2896.1955979171021</v>
+      </c>
+      <c r="K502">
+        <v>91</v>
+      </c>
+      <c r="L502" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M502" s="7">
+        <f t="shared" si="83"/>
+        <v>73.637500000000003</v>
+      </c>
+      <c r="O502">
+        <v>507</v>
+      </c>
+      <c r="P502" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q502" s="7">
+        <f t="shared" si="78"/>
+        <v>7437.7800000000007</v>
+      </c>
+      <c r="R502">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S502" s="26">
+        <f t="shared" si="79"/>
+        <v>3256465.3299999991</v>
+      </c>
+      <c r="T502">
+        <f t="shared" si="80"/>
+        <v>0.22892326659402432</v>
+      </c>
+    </row>
+    <row r="503" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G503">
+        <v>498</v>
+      </c>
+      <c r="H503">
+        <v>9060</v>
+      </c>
+      <c r="I503">
+        <f>SUM($H$5:H503)</f>
+        <v>2086420</v>
+      </c>
+      <c r="J503">
+        <f t="shared" si="81"/>
+        <v>2908.8267894857895</v>
+      </c>
+      <c r="K503">
+        <v>91</v>
+      </c>
+      <c r="L503" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M503" s="7">
+        <f t="shared" si="83"/>
+        <v>73.711200000000005</v>
+      </c>
+      <c r="O503">
+        <v>508</v>
+      </c>
+      <c r="P503" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q503" s="7">
+        <f t="shared" ref="Q503:Q509" si="84">ROUNDUP(Q502*R503,2)</f>
+        <v>7445.22</v>
+      </c>
+      <c r="R503">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S503" s="26">
+        <f t="shared" ref="S503:S509" si="85">Q503+S502</f>
+        <v>3263910.5499999993</v>
+      </c>
+      <c r="T503">
+        <f t="shared" ref="T503:T509" si="86">((S503-S502)/S502)*100</f>
+        <v>0.22862887350316752</v>
+      </c>
+    </row>
+    <row r="504" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G504">
+        <v>499</v>
+      </c>
+      <c r="H504">
+        <v>9080</v>
+      </c>
+      <c r="I504">
+        <f>SUM($H$5:H504)</f>
+        <v>2095500</v>
+      </c>
+      <c r="J504">
+        <f t="shared" si="81"/>
+        <v>2921.4858644795736</v>
+      </c>
+      <c r="K504">
+        <v>91</v>
+      </c>
+      <c r="L504" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M504" s="7">
+        <f t="shared" si="83"/>
+        <v>73.784999999999997</v>
+      </c>
+      <c r="O504">
+        <v>509</v>
+      </c>
+      <c r="P504" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q504" s="7">
+        <f t="shared" si="84"/>
+        <v>7452.67</v>
+      </c>
+      <c r="R504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S504" s="26">
+        <f t="shared" si="85"/>
+        <v>3271363.2199999993</v>
+      </c>
+      <c r="T504">
+        <f t="shared" si="86"/>
+        <v>0.22833560803312844</v>
+      </c>
+    </row>
+    <row r="505" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G505">
+        <v>500</v>
+      </c>
+      <c r="H505">
+        <v>9100</v>
+      </c>
+      <c r="I505">
+        <f>SUM($H$5:H505)</f>
+        <v>2104600</v>
+      </c>
+      <c r="J505">
+        <f t="shared" si="81"/>
+        <v>2934.1728228984543</v>
+      </c>
+      <c r="K505">
+        <v>91</v>
+      </c>
+      <c r="L505" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M505" s="7">
+        <f t="shared" si="83"/>
+        <v>73.858800000000002</v>
+      </c>
+      <c r="O505">
+        <v>510</v>
+      </c>
+      <c r="P505" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q505" s="7">
+        <f t="shared" si="84"/>
+        <v>7460.13</v>
+      </c>
+      <c r="R505">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S505" s="26">
+        <f t="shared" si="85"/>
+        <v>3278823.3499999992</v>
+      </c>
+      <c r="T505">
+        <f t="shared" si="86"/>
+        <v>0.22804346378877152</v>
+      </c>
+    </row>
+    <row r="506" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G506">
+        <v>501</v>
+      </c>
+      <c r="H506">
+        <v>9120</v>
+      </c>
+      <c r="I506">
+        <f>SUM($H$5:H506)</f>
+        <v>2113720</v>
+      </c>
+      <c r="J506">
+        <f t="shared" si="81"/>
+        <v>2946.8876647424313</v>
+      </c>
+      <c r="K506">
+        <v>91</v>
+      </c>
+      <c r="L506" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M506" s="7">
+        <f t="shared" si="83"/>
+        <v>73.932700000000011</v>
+      </c>
+      <c r="O506">
+        <v>511</v>
+      </c>
+      <c r="P506" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q506" s="7">
+        <f t="shared" si="84"/>
+        <v>7467.6</v>
+      </c>
+      <c r="R506">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S506" s="26">
+        <f t="shared" si="85"/>
+        <v>3286290.9499999993</v>
+      </c>
+      <c r="T506">
+        <f t="shared" si="86"/>
+        <v>0.22775243442133275</v>
+      </c>
+    </row>
+    <row r="507" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G507">
+        <v>502</v>
+      </c>
+      <c r="H507">
+        <v>9140</v>
+      </c>
+      <c r="I507">
+        <f>SUM($H$5:H507)</f>
+        <v>2122860</v>
+      </c>
+      <c r="J507">
+        <f t="shared" si="81"/>
+        <v>2959.6303900115045</v>
+      </c>
+      <c r="K507">
+        <v>91</v>
+      </c>
+      <c r="L507" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M507" s="7">
+        <f t="shared" si="83"/>
+        <v>74.006699999999995</v>
+      </c>
+      <c r="O507">
+        <v>512</v>
+      </c>
+      <c r="P507" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q507" s="7">
+        <f t="shared" si="84"/>
+        <v>7475.0700000000006</v>
+      </c>
+      <c r="R507">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S507" s="26">
+        <f t="shared" si="85"/>
+        <v>3293766.0199999991</v>
+      </c>
+      <c r="T507">
+        <f t="shared" si="86"/>
+        <v>0.22746220933359032</v>
+      </c>
+    </row>
+    <row r="508" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G508">
+        <v>503</v>
+      </c>
+      <c r="H508">
+        <v>9160</v>
+      </c>
+      <c r="I508">
+        <f>SUM($H$5:H508)</f>
+        <v>2132020</v>
+      </c>
+      <c r="J508">
+        <f t="shared" si="81"/>
+        <v>2972.4009987056743</v>
+      </c>
+      <c r="K508">
+        <v>91</v>
+      </c>
+      <c r="L508" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M508" s="7">
+        <f t="shared" si="83"/>
+        <v>74.080799999999996</v>
+      </c>
+      <c r="O508">
+        <v>513</v>
+      </c>
+      <c r="P508" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q508" s="7">
+        <f t="shared" si="84"/>
+        <v>7482.55</v>
+      </c>
+      <c r="R508">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S508" s="26">
+        <f t="shared" si="85"/>
+        <v>3301248.5699999989</v>
+      </c>
+      <c r="T508">
+        <f t="shared" si="86"/>
+        <v>0.22717308863365515</v>
+      </c>
+    </row>
+    <row r="509" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G509">
+        <v>504</v>
+      </c>
+      <c r="H509">
+        <v>9180</v>
+      </c>
+      <c r="I509">
+        <f>SUM($H$5:H509)</f>
+        <v>2141200</v>
+      </c>
+      <c r="J509">
+        <f t="shared" si="81"/>
+        <v>2985.1994908249408</v>
+      </c>
+      <c r="K509">
+        <v>91</v>
+      </c>
+      <c r="L509" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M509" s="7">
+        <f t="shared" si="83"/>
+        <v>74.154899999999998</v>
+      </c>
+      <c r="O509">
+        <v>514</v>
+      </c>
+      <c r="P509" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q509" s="7">
+        <f t="shared" si="84"/>
+        <v>7490.04</v>
+      </c>
+      <c r="R509">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S509" s="26">
+        <f t="shared" si="85"/>
+        <v>3308738.6099999989</v>
+      </c>
+      <c r="T509">
+        <f t="shared" si="86"/>
+        <v>0.22688506609485756</v>
+      </c>
+    </row>
+    <row r="510" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G510">
+        <v>505</v>
+      </c>
+      <c r="H510">
+        <v>9200</v>
+      </c>
+      <c r="I510">
+        <f>SUM($H$5:H510)</f>
+        <v>2150400</v>
+      </c>
+      <c r="J510">
+        <f t="shared" si="81"/>
+        <v>2998.0258663693035</v>
+      </c>
+      <c r="K510">
+        <v>91</v>
+      </c>
+      <c r="L510" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M510" s="7">
+        <f t="shared" si="83"/>
+        <v>74.229100000000003</v>
+      </c>
+    </row>
+    <row r="511" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G511">
+        <v>506</v>
+      </c>
+      <c r="H511">
+        <v>9220</v>
+      </c>
+      <c r="I511">
+        <f>SUM($H$5:H511)</f>
+        <v>2159620</v>
+      </c>
+      <c r="J511">
+        <f t="shared" si="81"/>
+        <v>3010.8801253387628</v>
+      </c>
+      <c r="K511">
+        <v>91</v>
+      </c>
+      <c r="L511" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M511" s="7">
+        <f t="shared" si="83"/>
+        <v>74.303399999999996</v>
+      </c>
+    </row>
+    <row r="512" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G512">
+        <v>507</v>
+      </c>
+      <c r="H512">
+        <v>9240</v>
+      </c>
+      <c r="I512">
+        <f>SUM($H$5:H512)</f>
+        <v>2168860</v>
+      </c>
+      <c r="J512">
+        <f t="shared" si="81"/>
+        <v>3023.7622677333184</v>
+      </c>
+      <c r="K512">
+        <v>91</v>
+      </c>
+      <c r="L512" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M512" s="7">
+        <f t="shared" si="83"/>
+        <v>74.377800000000008</v>
+      </c>
+    </row>
+    <row r="513" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G513">
+        <v>508</v>
+      </c>
+      <c r="H513">
+        <v>9260</v>
+      </c>
+      <c r="I513">
+        <f>SUM($H$5:H513)</f>
+        <v>2178120</v>
+      </c>
+      <c r="J513">
+        <f t="shared" si="81"/>
+        <v>3036.6722935529701</v>
+      </c>
+      <c r="K513">
+        <v>91</v>
+      </c>
+      <c r="L513" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M513" s="7">
+        <f t="shared" si="83"/>
+        <v>74.452200000000005</v>
+      </c>
+    </row>
+    <row r="514" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G514">
+        <v>509</v>
+      </c>
+      <c r="H514">
+        <v>9280</v>
+      </c>
+      <c r="I514">
+        <f>SUM($H$5:H514)</f>
+        <v>2187400</v>
+      </c>
+      <c r="J514">
+        <f t="shared" si="81"/>
+        <v>3049.6102027977186</v>
+      </c>
+      <c r="K514">
+        <v>91</v>
+      </c>
+      <c r="L514" t="str">
+        <f t="shared" si="82"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M514" s="7">
+        <f t="shared" si="83"/>
+        <v>74.526700000000005</v>
       </c>
     </row>
   </sheetData>
@@ -26391,7 +33322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="A2:AB207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62DA9AA-1107-4B83-B4D7-4B2E99AD14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09E656-BC1E-4481-80BB-8884A38A4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D487" sqref="D487"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8861,6 +8861,806 @@
       <c r="D502">
         <f>ROUNDUP(VLOOKUP(A502,Balance!G:M,7,FALSE),0)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <f>VLOOKUP(A503,Balance!G:H,2,FALSE)</f>
+        <v>9120</v>
+      </c>
+      <c r="C503">
+        <v>91</v>
+      </c>
+      <c r="D503">
+        <f>ROUNDUP(VLOOKUP(A503,Balance!G:M,7,FALSE),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <f>VLOOKUP(A504,Balance!G:H,2,FALSE)</f>
+        <v>9140</v>
+      </c>
+      <c r="C504">
+        <v>91</v>
+      </c>
+      <c r="D504">
+        <f>ROUNDUP(VLOOKUP(A504,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <f>VLOOKUP(A505,Balance!G:H,2,FALSE)</f>
+        <v>9160</v>
+      </c>
+      <c r="C505">
+        <v>91</v>
+      </c>
+      <c r="D505">
+        <f>ROUNDUP(VLOOKUP(A505,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <f>VLOOKUP(A506,Balance!G:H,2,FALSE)</f>
+        <v>9180</v>
+      </c>
+      <c r="C506">
+        <v>91</v>
+      </c>
+      <c r="D506">
+        <f>ROUNDUP(VLOOKUP(A506,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <f>VLOOKUP(A507,Balance!G:H,2,FALSE)</f>
+        <v>9200</v>
+      </c>
+      <c r="C507">
+        <v>91</v>
+      </c>
+      <c r="D507">
+        <f>ROUNDUP(VLOOKUP(A507,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <f>VLOOKUP(A508,Balance!G:H,2,FALSE)</f>
+        <v>9220</v>
+      </c>
+      <c r="C508">
+        <v>91</v>
+      </c>
+      <c r="D508">
+        <f>ROUNDUP(VLOOKUP(A508,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <f>VLOOKUP(A509,Balance!G:H,2,FALSE)</f>
+        <v>9240</v>
+      </c>
+      <c r="C509">
+        <v>91</v>
+      </c>
+      <c r="D509">
+        <f>ROUNDUP(VLOOKUP(A509,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <f>VLOOKUP(A510,Balance!G:H,2,FALSE)</f>
+        <v>9260</v>
+      </c>
+      <c r="C510">
+        <v>91</v>
+      </c>
+      <c r="D510">
+        <f>ROUNDUP(VLOOKUP(A510,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <f>VLOOKUP(A511,Balance!G:H,2,FALSE)</f>
+        <v>9280</v>
+      </c>
+      <c r="C511">
+        <v>91</v>
+      </c>
+      <c r="D511">
+        <f>ROUNDUP(VLOOKUP(A511,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <f>VLOOKUP(A512,Balance!G:H,2,FALSE)</f>
+        <v>9300</v>
+      </c>
+      <c r="C512">
+        <v>91</v>
+      </c>
+      <c r="D512">
+        <f>ROUNDUP(VLOOKUP(A512,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <f>VLOOKUP(A513,Balance!G:H,2,FALSE)</f>
+        <v>9320</v>
+      </c>
+      <c r="C513">
+        <v>91</v>
+      </c>
+      <c r="D513">
+        <f>ROUNDUP(VLOOKUP(A513,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <f>VLOOKUP(A514,Balance!G:H,2,FALSE)</f>
+        <v>9340</v>
+      </c>
+      <c r="C514">
+        <v>91</v>
+      </c>
+      <c r="D514">
+        <f>ROUNDUP(VLOOKUP(A514,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <f>VLOOKUP(A515,Balance!G:H,2,FALSE)</f>
+        <v>9360</v>
+      </c>
+      <c r="C515">
+        <v>91</v>
+      </c>
+      <c r="D515">
+        <f>ROUNDUP(VLOOKUP(A515,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <f>VLOOKUP(A516,Balance!G:H,2,FALSE)</f>
+        <v>9380</v>
+      </c>
+      <c r="C516">
+        <v>91</v>
+      </c>
+      <c r="D516">
+        <f>ROUNDUP(VLOOKUP(A516,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <f>VLOOKUP(A517,Balance!G:H,2,FALSE)</f>
+        <v>9400</v>
+      </c>
+      <c r="C517">
+        <v>91</v>
+      </c>
+      <c r="D517">
+        <f>ROUNDUP(VLOOKUP(A517,Balance!G:M,7,FALSE),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <f>VLOOKUP(A518,Balance!G:H,2,FALSE)</f>
+        <v>9420</v>
+      </c>
+      <c r="C518">
+        <v>91</v>
+      </c>
+      <c r="D518">
+        <f>ROUNDUP(VLOOKUP(A518,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <f>VLOOKUP(A519,Balance!G:H,2,FALSE)</f>
+        <v>9440</v>
+      </c>
+      <c r="C519">
+        <v>91</v>
+      </c>
+      <c r="D519">
+        <f>ROUNDUP(VLOOKUP(A519,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <f>VLOOKUP(A520,Balance!G:H,2,FALSE)</f>
+        <v>9460</v>
+      </c>
+      <c r="C520">
+        <v>91</v>
+      </c>
+      <c r="D520">
+        <f>ROUNDUP(VLOOKUP(A520,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <f>VLOOKUP(A521,Balance!G:H,2,FALSE)</f>
+        <v>9480</v>
+      </c>
+      <c r="C521">
+        <v>91</v>
+      </c>
+      <c r="D521">
+        <f>ROUNDUP(VLOOKUP(A521,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <f>VLOOKUP(A522,Balance!G:H,2,FALSE)</f>
+        <v>9500</v>
+      </c>
+      <c r="C522">
+        <v>91</v>
+      </c>
+      <c r="D522">
+        <f>ROUNDUP(VLOOKUP(A522,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <f>VLOOKUP(A523,Balance!G:H,2,FALSE)</f>
+        <v>9520</v>
+      </c>
+      <c r="C523">
+        <v>91</v>
+      </c>
+      <c r="D523">
+        <f>ROUNDUP(VLOOKUP(A523,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <f>VLOOKUP(A524,Balance!G:H,2,FALSE)</f>
+        <v>9540</v>
+      </c>
+      <c r="C524">
+        <v>91</v>
+      </c>
+      <c r="D524">
+        <f>ROUNDUP(VLOOKUP(A524,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <f>VLOOKUP(A525,Balance!G:H,2,FALSE)</f>
+        <v>9560</v>
+      </c>
+      <c r="C525">
+        <v>91</v>
+      </c>
+      <c r="D525">
+        <f>ROUNDUP(VLOOKUP(A525,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <f>VLOOKUP(A526,Balance!G:H,2,FALSE)</f>
+        <v>9580</v>
+      </c>
+      <c r="C526">
+        <v>91</v>
+      </c>
+      <c r="D526">
+        <f>ROUNDUP(VLOOKUP(A526,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <f>VLOOKUP(A527,Balance!G:H,2,FALSE)</f>
+        <v>9600</v>
+      </c>
+      <c r="C527">
+        <v>91</v>
+      </c>
+      <c r="D527">
+        <f>ROUNDUP(VLOOKUP(A527,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <f>VLOOKUP(A528,Balance!G:H,2,FALSE)</f>
+        <v>9620</v>
+      </c>
+      <c r="C528">
+        <v>91</v>
+      </c>
+      <c r="D528">
+        <f>ROUNDUP(VLOOKUP(A528,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <f>VLOOKUP(A529,Balance!G:H,2,FALSE)</f>
+        <v>9640</v>
+      </c>
+      <c r="C529">
+        <v>91</v>
+      </c>
+      <c r="D529">
+        <f>ROUNDUP(VLOOKUP(A529,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <f>VLOOKUP(A530,Balance!G:H,2,FALSE)</f>
+        <v>9660</v>
+      </c>
+      <c r="C530">
+        <v>91</v>
+      </c>
+      <c r="D530">
+        <f>ROUNDUP(VLOOKUP(A530,Balance!G:M,7,FALSE),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <f>VLOOKUP(A531,Balance!G:H,2,FALSE)</f>
+        <v>9680</v>
+      </c>
+      <c r="C531">
+        <v>91</v>
+      </c>
+      <c r="D531">
+        <f>ROUNDUP(VLOOKUP(A531,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <f>VLOOKUP(A532,Balance!G:H,2,FALSE)</f>
+        <v>9700</v>
+      </c>
+      <c r="C532">
+        <v>91</v>
+      </c>
+      <c r="D532">
+        <f>ROUNDUP(VLOOKUP(A532,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <f>VLOOKUP(A533,Balance!G:H,2,FALSE)</f>
+        <v>9720</v>
+      </c>
+      <c r="C533">
+        <v>91</v>
+      </c>
+      <c r="D533">
+        <f>ROUNDUP(VLOOKUP(A533,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <f>VLOOKUP(A534,Balance!G:H,2,FALSE)</f>
+        <v>9740</v>
+      </c>
+      <c r="C534">
+        <v>91</v>
+      </c>
+      <c r="D534">
+        <f>ROUNDUP(VLOOKUP(A534,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <f>VLOOKUP(A535,Balance!G:H,2,FALSE)</f>
+        <v>9760</v>
+      </c>
+      <c r="C535">
+        <v>91</v>
+      </c>
+      <c r="D535">
+        <f>ROUNDUP(VLOOKUP(A535,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <f>VLOOKUP(A536,Balance!G:H,2,FALSE)</f>
+        <v>9780</v>
+      </c>
+      <c r="C536">
+        <v>91</v>
+      </c>
+      <c r="D536">
+        <f>ROUNDUP(VLOOKUP(A536,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <f>VLOOKUP(A537,Balance!G:H,2,FALSE)</f>
+        <v>9800</v>
+      </c>
+      <c r="C537">
+        <v>91</v>
+      </c>
+      <c r="D537">
+        <f>ROUNDUP(VLOOKUP(A537,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <f>VLOOKUP(A538,Balance!G:H,2,FALSE)</f>
+        <v>9820</v>
+      </c>
+      <c r="C538">
+        <v>91</v>
+      </c>
+      <c r="D538">
+        <f>ROUNDUP(VLOOKUP(A538,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <f>VLOOKUP(A539,Balance!G:H,2,FALSE)</f>
+        <v>9840</v>
+      </c>
+      <c r="C539">
+        <v>91</v>
+      </c>
+      <c r="D539">
+        <f>ROUNDUP(VLOOKUP(A539,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <f>VLOOKUP(A540,Balance!G:H,2,FALSE)</f>
+        <v>9860</v>
+      </c>
+      <c r="C540">
+        <v>91</v>
+      </c>
+      <c r="D540">
+        <f>ROUNDUP(VLOOKUP(A540,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <f>VLOOKUP(A541,Balance!G:H,2,FALSE)</f>
+        <v>9880</v>
+      </c>
+      <c r="C541">
+        <v>91</v>
+      </c>
+      <c r="D541">
+        <f>ROUNDUP(VLOOKUP(A541,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <f>VLOOKUP(A542,Balance!G:H,2,FALSE)</f>
+        <v>9900</v>
+      </c>
+      <c r="C542">
+        <v>91</v>
+      </c>
+      <c r="D542">
+        <f>ROUNDUP(VLOOKUP(A542,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <f>VLOOKUP(A543,Balance!G:H,2,FALSE)</f>
+        <v>9920</v>
+      </c>
+      <c r="C543">
+        <v>91</v>
+      </c>
+      <c r="D543">
+        <f>ROUNDUP(VLOOKUP(A543,Balance!G:M,7,FALSE),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <f>VLOOKUP(A544,Balance!G:H,2,FALSE)</f>
+        <v>9940</v>
+      </c>
+      <c r="C544">
+        <v>91</v>
+      </c>
+      <c r="D544">
+        <f>ROUNDUP(VLOOKUP(A544,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <f>VLOOKUP(A545,Balance!G:H,2,FALSE)</f>
+        <v>9960</v>
+      </c>
+      <c r="C545">
+        <v>91</v>
+      </c>
+      <c r="D545">
+        <f>ROUNDUP(VLOOKUP(A545,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <f>VLOOKUP(A546,Balance!G:H,2,FALSE)</f>
+        <v>9980</v>
+      </c>
+      <c r="C546">
+        <v>91</v>
+      </c>
+      <c r="D546">
+        <f>ROUNDUP(VLOOKUP(A546,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <f>VLOOKUP(A547,Balance!G:H,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="C547">
+        <v>91</v>
+      </c>
+      <c r="D547">
+        <f>ROUNDUP(VLOOKUP(A547,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <f>VLOOKUP(A548,Balance!G:H,2,FALSE)</f>
+        <v>10020</v>
+      </c>
+      <c r="C548">
+        <v>91</v>
+      </c>
+      <c r="D548">
+        <f>ROUNDUP(VLOOKUP(A548,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <f>VLOOKUP(A549,Balance!G:H,2,FALSE)</f>
+        <v>10040</v>
+      </c>
+      <c r="C549">
+        <v>91</v>
+      </c>
+      <c r="D549">
+        <f>ROUNDUP(VLOOKUP(A549,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <f>VLOOKUP(A550,Balance!G:H,2,FALSE)</f>
+        <v>10060</v>
+      </c>
+      <c r="C550">
+        <v>91</v>
+      </c>
+      <c r="D550">
+        <f>ROUNDUP(VLOOKUP(A550,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <f>VLOOKUP(A551,Balance!G:H,2,FALSE)</f>
+        <v>10080</v>
+      </c>
+      <c r="C551">
+        <v>91</v>
+      </c>
+      <c r="D551">
+        <f>ROUNDUP(VLOOKUP(A551,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <f>VLOOKUP(A552,Balance!G:H,2,FALSE)</f>
+        <v>10100</v>
+      </c>
+      <c r="C552">
+        <v>91</v>
+      </c>
+      <c r="D552">
+        <f>ROUNDUP(VLOOKUP(A552,Balance!G:M,7,FALSE),0)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8877,10 +9677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453AAC7-AFB1-4CF3-9E66-1D0C6477225E}">
-  <dimension ref="A3:T514"/>
+  <dimension ref="A3:T601"/>
   <sheetViews>
-    <sheetView topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J502" sqref="J502"/>
+    <sheetView topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9135,7 +9935,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIFS(M:M,K:K,91)*100</f>
-        <v>3271363.22</v>
+        <v>3949131.2600000035</v>
       </c>
       <c r="B9">
         <f>SUMIFS(M:M,K:K,92)</f>
@@ -32874,18 +33674,18 @@
         <v>92</v>
       </c>
       <c r="Q503" s="7">
-        <f t="shared" ref="Q503:Q509" si="84">ROUNDUP(Q502*R503,2)</f>
+        <f t="shared" ref="Q503:Q511" si="84">ROUNDUP(Q502*R503,2)</f>
         <v>7445.22</v>
       </c>
       <c r="R503">
         <v>1.0009999999999999</v>
       </c>
       <c r="S503" s="26">
-        <f t="shared" ref="S503:S509" si="85">Q503+S502</f>
+        <f t="shared" ref="S503:S511" si="85">Q503+S502</f>
         <v>3263910.5499999993</v>
       </c>
       <c r="T503">
-        <f t="shared" ref="T503:T509" si="86">((S503-S502)/S502)*100</f>
+        <f t="shared" ref="T503:T511" si="86">((S503-S502)/S502)*100</f>
         <v>0.22862887350316752</v>
       </c>
     </row>
@@ -33203,6 +34003,27 @@
         <f t="shared" si="83"/>
         <v>74.229100000000003</v>
       </c>
+      <c r="O510">
+        <v>515</v>
+      </c>
+      <c r="P510" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q510" s="7">
+        <f t="shared" si="84"/>
+        <v>7497.54</v>
+      </c>
+      <c r="R510">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S510" s="26">
+        <f t="shared" si="85"/>
+        <v>3316236.149999999</v>
+      </c>
+      <c r="T510">
+        <f t="shared" si="86"/>
+        <v>0.22659813553540389</v>
+      </c>
     </row>
     <row r="511" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G511">
@@ -33230,6 +34051,27 @@
         <f t="shared" si="83"/>
         <v>74.303399999999996</v>
       </c>
+      <c r="O511">
+        <v>516</v>
+      </c>
+      <c r="P511" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q511" s="7">
+        <f t="shared" si="84"/>
+        <v>7505.04</v>
+      </c>
+      <c r="R511">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S511" s="26">
+        <f t="shared" si="85"/>
+        <v>3323741.189999999</v>
+      </c>
+      <c r="T511">
+        <f t="shared" si="86"/>
+        <v>0.22631198927133217</v>
+      </c>
     </row>
     <row r="512" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G512">
@@ -33257,8 +34099,29 @@
         <f t="shared" si="83"/>
         <v>74.377800000000008</v>
       </c>
-    </row>
-    <row r="513" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O512">
+        <v>517</v>
+      </c>
+      <c r="P512" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q512" s="7">
+        <f t="shared" ref="Q512:Q575" si="87">ROUNDUP(Q511*R512,2)</f>
+        <v>7512.55</v>
+      </c>
+      <c r="R512">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S512" s="26">
+        <f t="shared" ref="S512:S575" si="88">Q512+S511</f>
+        <v>3331253.7399999988</v>
+      </c>
+      <c r="T512">
+        <f t="shared" ref="T512:T575" si="89">((S512-S511)/S511)*100</f>
+        <v>0.22602692479795081</v>
+      </c>
+    </row>
+    <row r="513" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G513">
         <v>508</v>
       </c>
@@ -33284,8 +34147,29 @@
         <f t="shared" si="83"/>
         <v>74.452200000000005</v>
       </c>
-    </row>
-    <row r="514" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="O513">
+        <v>518</v>
+      </c>
+      <c r="P513" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q513" s="7">
+        <f t="shared" si="87"/>
+        <v>7520.0700000000006</v>
+      </c>
+      <c r="R513">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S513" s="26">
+        <f t="shared" si="88"/>
+        <v>3338773.8099999987</v>
+      </c>
+      <c r="T513">
+        <f t="shared" si="89"/>
+        <v>0.22574293605145296</v>
+      </c>
+    </row>
+    <row r="514" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G514">
         <v>509</v>
       </c>
@@ -33310,6 +34194,4203 @@
       <c r="M514" s="7">
         <f t="shared" si="83"/>
         <v>74.526700000000005</v>
+      </c>
+      <c r="O514">
+        <v>519</v>
+      </c>
+      <c r="P514" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q514" s="7">
+        <f t="shared" si="87"/>
+        <v>7527.6</v>
+      </c>
+      <c r="R514">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S514" s="26">
+        <f t="shared" si="88"/>
+        <v>3346301.4099999988</v>
+      </c>
+      <c r="T514">
+        <f t="shared" si="89"/>
+        <v>0.22546001701145776</v>
+      </c>
+    </row>
+    <row r="515" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G515">
+        <v>510</v>
+      </c>
+      <c r="H515">
+        <v>9300</v>
+      </c>
+      <c r="I515">
+        <f>SUM($H$5:H515)</f>
+        <v>2196700</v>
+      </c>
+      <c r="J515">
+        <f t="shared" ref="J515:J578" si="90">I515/$A$5</f>
+        <v>3062.5759954675636</v>
+      </c>
+      <c r="K515">
+        <v>91</v>
+      </c>
+      <c r="L515" t="str">
+        <f t="shared" ref="L515:L578" si="91">IF(K515=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M515" s="7">
+        <f t="shared" ref="M515:M578" si="92">VLOOKUP(G515,O:Q,3,FALSE)/100</f>
+        <v>74.601299999999995</v>
+      </c>
+      <c r="O515">
+        <v>520</v>
+      </c>
+      <c r="P515" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q515" s="7">
+        <f t="shared" si="87"/>
+        <v>7535.13</v>
+      </c>
+      <c r="R515">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S515" s="26">
+        <f t="shared" si="88"/>
+        <v>3353836.5399999986</v>
+      </c>
+      <c r="T515">
+        <f t="shared" si="89"/>
+        <v>0.22517786286322281</v>
+      </c>
+    </row>
+    <row r="516" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G516">
+        <v>511</v>
+      </c>
+      <c r="H516">
+        <v>9320</v>
+      </c>
+      <c r="I516">
+        <f>SUM($H$5:H516)</f>
+        <v>2206020</v>
+      </c>
+      <c r="J516">
+        <f t="shared" si="90"/>
+        <v>3075.5696715625049</v>
+      </c>
+      <c r="K516">
+        <v>91</v>
+      </c>
+      <c r="L516" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M516" s="7">
+        <f t="shared" si="92"/>
+        <v>74.676000000000002</v>
+      </c>
+      <c r="O516">
+        <v>521</v>
+      </c>
+      <c r="P516" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q516" s="7">
+        <f t="shared" si="87"/>
+        <v>7542.67</v>
+      </c>
+      <c r="R516">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S516" s="26">
+        <f t="shared" si="88"/>
+        <v>3361379.2099999986</v>
+      </c>
+      <c r="T516">
+        <f t="shared" si="89"/>
+        <v>0.22489676852289076</v>
+      </c>
+    </row>
+    <row r="517" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G517">
+        <v>512</v>
+      </c>
+      <c r="H517">
+        <v>9340</v>
+      </c>
+      <c r="I517">
+        <f>SUM($H$5:H517)</f>
+        <v>2215360</v>
+      </c>
+      <c r="J517">
+        <f t="shared" si="90"/>
+        <v>3088.5912310825429</v>
+      </c>
+      <c r="K517">
+        <v>91</v>
+      </c>
+      <c r="L517" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M517" s="7">
+        <f t="shared" si="92"/>
+        <v>74.750700000000009</v>
+      </c>
+      <c r="O517">
+        <v>522</v>
+      </c>
+      <c r="P517" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q517" s="7">
+        <f t="shared" si="87"/>
+        <v>7550.22</v>
+      </c>
+      <c r="R517">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S517" s="26">
+        <f t="shared" si="88"/>
+        <v>3368929.4299999988</v>
+      </c>
+      <c r="T517">
+        <f t="shared" si="89"/>
+        <v>0.22461672808407143</v>
+      </c>
+    </row>
+    <row r="518" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G518">
+        <v>513</v>
+      </c>
+      <c r="H518">
+        <v>9360</v>
+      </c>
+      <c r="I518">
+        <f>SUM($H$5:H518)</f>
+        <v>2224720</v>
+      </c>
+      <c r="J518">
+        <f t="shared" si="90"/>
+        <v>3101.6406740276771</v>
+      </c>
+      <c r="K518">
+        <v>91</v>
+      </c>
+      <c r="L518" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M518" s="7">
+        <f t="shared" si="92"/>
+        <v>74.825500000000005</v>
+      </c>
+      <c r="O518">
+        <v>523</v>
+      </c>
+      <c r="P518" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q518" s="7">
+        <f t="shared" si="87"/>
+        <v>7557.7800000000007</v>
+      </c>
+      <c r="R518">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S518" s="26">
+        <f t="shared" si="88"/>
+        <v>3376487.2099999986</v>
+      </c>
+      <c r="T518">
+        <f t="shared" si="89"/>
+        <v>0.22433773568239446</v>
+      </c>
+    </row>
+    <row r="519" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G519">
+        <v>514</v>
+      </c>
+      <c r="H519">
+        <v>9380</v>
+      </c>
+      <c r="I519">
+        <f>SUM($H$5:H519)</f>
+        <v>2234100</v>
+      </c>
+      <c r="J519">
+        <f t="shared" si="90"/>
+        <v>3114.7180003979079</v>
+      </c>
+      <c r="K519">
+        <v>91</v>
+      </c>
+      <c r="L519" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M519" s="7">
+        <f t="shared" si="92"/>
+        <v>74.900400000000005</v>
+      </c>
+      <c r="O519">
+        <v>524</v>
+      </c>
+      <c r="P519" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q519" s="7">
+        <f t="shared" si="87"/>
+        <v>7565.34</v>
+      </c>
+      <c r="R519">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S519" s="26">
+        <f t="shared" si="88"/>
+        <v>3384052.5499999984</v>
+      </c>
+      <c r="T519">
+        <f t="shared" si="89"/>
+        <v>0.22405948932943992</v>
+      </c>
+    </row>
+    <row r="520" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G520">
+        <v>515</v>
+      </c>
+      <c r="H520">
+        <v>9400</v>
+      </c>
+      <c r="I520">
+        <f>SUM($H$5:H520)</f>
+        <v>2243500</v>
+      </c>
+      <c r="J520">
+        <f t="shared" si="90"/>
+        <v>3127.8232101932349</v>
+      </c>
+      <c r="K520">
+        <v>91</v>
+      </c>
+      <c r="L520" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M520" s="7">
+        <f t="shared" si="92"/>
+        <v>74.975399999999993</v>
+      </c>
+      <c r="O520">
+        <v>525</v>
+      </c>
+      <c r="P520" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q520" s="7">
+        <f t="shared" si="87"/>
+        <v>7572.91</v>
+      </c>
+      <c r="R520">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S520" s="26">
+        <f t="shared" si="88"/>
+        <v>3391625.4599999986</v>
+      </c>
+      <c r="T520">
+        <f t="shared" si="89"/>
+        <v>0.2237822813951324</v>
+      </c>
+    </row>
+    <row r="521" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G521">
+        <v>516</v>
+      </c>
+      <c r="H521">
+        <v>9420</v>
+      </c>
+      <c r="I521">
+        <f>SUM($H$5:H521)</f>
+        <v>2252920</v>
+      </c>
+      <c r="J521">
+        <f t="shared" si="90"/>
+        <v>3140.9563034136586</v>
+      </c>
+      <c r="K521">
+        <v>91</v>
+      </c>
+      <c r="L521" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M521" s="7">
+        <f t="shared" si="92"/>
+        <v>75.050399999999996</v>
+      </c>
+      <c r="O521">
+        <v>526</v>
+      </c>
+      <c r="P521" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q521" s="7">
+        <f t="shared" si="87"/>
+        <v>7580.49</v>
+      </c>
+      <c r="R521">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S521" s="26">
+        <f t="shared" si="88"/>
+        <v>3399205.9499999988</v>
+      </c>
+      <c r="T521">
+        <f t="shared" si="89"/>
+        <v>0.223506106125298</v>
+      </c>
+    </row>
+    <row r="522" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G522">
+        <v>517</v>
+      </c>
+      <c r="H522">
+        <v>9440</v>
+      </c>
+      <c r="I522">
+        <f>SUM($H$5:H522)</f>
+        <v>2262360</v>
+      </c>
+      <c r="J522">
+        <f t="shared" si="90"/>
+        <v>3154.1172800591785</v>
+      </c>
+      <c r="K522">
+        <v>91</v>
+      </c>
+      <c r="L522" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M522" s="7">
+        <f t="shared" si="92"/>
+        <v>75.125500000000002</v>
+      </c>
+      <c r="O522">
+        <v>527</v>
+      </c>
+      <c r="P522" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q522" s="7">
+        <f t="shared" si="87"/>
+        <v>7588.08</v>
+      </c>
+      <c r="R522">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S522" s="26">
+        <f t="shared" si="88"/>
+        <v>3406794.0299999989</v>
+      </c>
+      <c r="T522">
+        <f t="shared" si="89"/>
+        <v>0.22323095780648647</v>
+      </c>
+    </row>
+    <row r="523" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G523">
+        <v>518</v>
+      </c>
+      <c r="H523">
+        <v>9460</v>
+      </c>
+      <c r="I523">
+        <f>SUM($H$5:H523)</f>
+        <v>2271820</v>
+      </c>
+      <c r="J523">
+        <f t="shared" si="90"/>
+        <v>3167.306140129795</v>
+      </c>
+      <c r="K523">
+        <v>91</v>
+      </c>
+      <c r="L523" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M523" s="7">
+        <f t="shared" si="92"/>
+        <v>75.200700000000012</v>
+      </c>
+      <c r="O523">
+        <v>528</v>
+      </c>
+      <c r="P523" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q523" s="7">
+        <f t="shared" si="87"/>
+        <v>7595.67</v>
+      </c>
+      <c r="R523">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S523" s="26">
+        <f t="shared" si="88"/>
+        <v>3414389.6999999988</v>
+      </c>
+      <c r="T523">
+        <f t="shared" si="89"/>
+        <v>0.22295653723450748</v>
+      </c>
+    </row>
+    <row r="524" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G524">
+        <v>519</v>
+      </c>
+      <c r="H524">
+        <v>9480</v>
+      </c>
+      <c r="I524">
+        <f>SUM($H$5:H524)</f>
+        <v>2281300</v>
+      </c>
+      <c r="J524">
+        <f t="shared" si="90"/>
+        <v>3180.5228836255078</v>
+      </c>
+      <c r="K524">
+        <v>91</v>
+      </c>
+      <c r="L524" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M524" s="7">
+        <f t="shared" si="92"/>
+        <v>75.27600000000001</v>
+      </c>
+      <c r="O524">
+        <v>529</v>
+      </c>
+      <c r="P524" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q524" s="7">
+        <f t="shared" si="87"/>
+        <v>7603.27</v>
+      </c>
+      <c r="R524">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S524" s="26">
+        <f t="shared" si="88"/>
+        <v>3421992.9699999988</v>
+      </c>
+      <c r="T524">
+        <f t="shared" si="89"/>
+        <v>0.22268313426554742</v>
+      </c>
+    </row>
+    <row r="525" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G525">
+        <v>520</v>
+      </c>
+      <c r="H525">
+        <v>9500</v>
+      </c>
+      <c r="I525">
+        <f>SUM($H$5:H525)</f>
+        <v>2290800</v>
+      </c>
+      <c r="J525">
+        <f t="shared" si="90"/>
+        <v>3193.7675105463172</v>
+      </c>
+      <c r="K525">
+        <v>91</v>
+      </c>
+      <c r="L525" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M525" s="7">
+        <f t="shared" si="92"/>
+        <v>75.351299999999995</v>
+      </c>
+      <c r="O525">
+        <v>530</v>
+      </c>
+      <c r="P525" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q525" s="7">
+        <f t="shared" si="87"/>
+        <v>7610.88</v>
+      </c>
+      <c r="R525">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S525" s="26">
+        <f t="shared" si="88"/>
+        <v>3429603.8499999987</v>
+      </c>
+      <c r="T525">
+        <f t="shared" si="89"/>
+        <v>0.2224107432926693</v>
+      </c>
+    </row>
+    <row r="526" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G526">
+        <v>521</v>
+      </c>
+      <c r="H526">
+        <v>9520</v>
+      </c>
+      <c r="I526">
+        <f>SUM($H$5:H526)</f>
+        <v>2300320</v>
+      </c>
+      <c r="J526">
+        <f t="shared" si="90"/>
+        <v>3207.0400208922229</v>
+      </c>
+      <c r="K526">
+        <v>91</v>
+      </c>
+      <c r="L526" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M526" s="7">
+        <f t="shared" si="92"/>
+        <v>75.426699999999997</v>
+      </c>
+      <c r="O526">
+        <v>531</v>
+      </c>
+      <c r="P526" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q526" s="7">
+        <f t="shared" si="87"/>
+        <v>7618.5</v>
+      </c>
+      <c r="R526">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S526" s="26">
+        <f t="shared" si="88"/>
+        <v>3437222.3499999987</v>
+      </c>
+      <c r="T526">
+        <f t="shared" si="89"/>
+        <v>0.22213935874838731</v>
+      </c>
+    </row>
+    <row r="527" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G527">
+        <v>522</v>
+      </c>
+      <c r="H527">
+        <v>9540</v>
+      </c>
+      <c r="I527">
+        <f>SUM($H$5:H527)</f>
+        <v>2309860</v>
+      </c>
+      <c r="J527">
+        <f t="shared" si="90"/>
+        <v>3220.3404146632251</v>
+      </c>
+      <c r="K527">
+        <v>91</v>
+      </c>
+      <c r="L527" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M527" s="7">
+        <f t="shared" si="92"/>
+        <v>75.502200000000002</v>
+      </c>
+      <c r="O527">
+        <v>532</v>
+      </c>
+      <c r="P527" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q527" s="7">
+        <f t="shared" si="87"/>
+        <v>7626.12</v>
+      </c>
+      <c r="R527">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S527" s="26">
+        <f t="shared" si="88"/>
+        <v>3444848.4699999988</v>
+      </c>
+      <c r="T527">
+        <f t="shared" si="89"/>
+        <v>0.22186868417168634</v>
+      </c>
+    </row>
+    <row r="528" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G528">
+        <v>523</v>
+      </c>
+      <c r="H528">
+        <v>9560</v>
+      </c>
+      <c r="I528">
+        <f>SUM($H$5:H528)</f>
+        <v>2319420</v>
+      </c>
+      <c r="J528">
+        <f t="shared" si="90"/>
+        <v>3233.6686918593236</v>
+      </c>
+      <c r="K528">
+        <v>91</v>
+      </c>
+      <c r="L528" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M528" s="7">
+        <f t="shared" si="92"/>
+        <v>75.577800000000011</v>
+      </c>
+      <c r="O528">
+        <v>533</v>
+      </c>
+      <c r="P528" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q528" s="7">
+        <f t="shared" si="87"/>
+        <v>7633.75</v>
+      </c>
+      <c r="R528">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S528" s="26">
+        <f t="shared" si="88"/>
+        <v>3452482.2199999988</v>
+      </c>
+      <c r="T528">
+        <f t="shared" si="89"/>
+        <v>0.22159900693687123</v>
+      </c>
+    </row>
+    <row r="529" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G529">
+        <v>524</v>
+      </c>
+      <c r="H529">
+        <v>9580</v>
+      </c>
+      <c r="I529">
+        <f>SUM($H$5:H529)</f>
+        <v>2329000</v>
+      </c>
+      <c r="J529">
+        <f t="shared" si="90"/>
+        <v>3247.0248524805188</v>
+      </c>
+      <c r="K529">
+        <v>91</v>
+      </c>
+      <c r="L529" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M529" s="7">
+        <f t="shared" si="92"/>
+        <v>75.653400000000005</v>
+      </c>
+      <c r="O529">
+        <v>534</v>
+      </c>
+      <c r="P529" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q529" s="7">
+        <f t="shared" si="87"/>
+        <v>7641.39</v>
+      </c>
+      <c r="R529">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S529" s="26">
+        <f t="shared" si="88"/>
+        <v>3460123.6099999989</v>
+      </c>
+      <c r="T529">
+        <f t="shared" si="89"/>
+        <v>0.22133032157947313</v>
+      </c>
+    </row>
+    <row r="530" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G530">
+        <v>525</v>
+      </c>
+      <c r="H530">
+        <v>9600</v>
+      </c>
+      <c r="I530">
+        <f>SUM($H$5:H530)</f>
+        <v>2338600</v>
+      </c>
+      <c r="J530">
+        <f t="shared" si="90"/>
+        <v>3260.4088965268106</v>
+      </c>
+      <c r="K530">
+        <v>91</v>
+      </c>
+      <c r="L530" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M530" s="7">
+        <f t="shared" si="92"/>
+        <v>75.729100000000003</v>
+      </c>
+      <c r="O530">
+        <v>535</v>
+      </c>
+      <c r="P530" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q530" s="7">
+        <f t="shared" si="87"/>
+        <v>7649.04</v>
+      </c>
+      <c r="R530">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S530" s="26">
+        <f t="shared" si="88"/>
+        <v>3467772.649999999</v>
+      </c>
+      <c r="T530">
+        <f t="shared" si="89"/>
+        <v>0.22106262267318363</v>
+      </c>
+    </row>
+    <row r="531" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G531">
+        <v>526</v>
+      </c>
+      <c r="H531">
+        <v>9620</v>
+      </c>
+      <c r="I531">
+        <f>SUM($H$5:H531)</f>
+        <v>2348220</v>
+      </c>
+      <c r="J531">
+        <f t="shared" si="90"/>
+        <v>3273.8208239981982</v>
+      </c>
+      <c r="K531">
+        <v>91</v>
+      </c>
+      <c r="L531" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M531" s="7">
+        <f t="shared" si="92"/>
+        <v>75.804900000000004</v>
+      </c>
+      <c r="O531">
+        <v>536</v>
+      </c>
+      <c r="P531" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q531" s="7">
+        <f t="shared" si="87"/>
+        <v>7656.6900000000005</v>
+      </c>
+      <c r="R531">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S531" s="26">
+        <f t="shared" si="88"/>
+        <v>3475429.3399999989</v>
+      </c>
+      <c r="T531">
+        <f t="shared" si="89"/>
+        <v>0.22079561646003368</v>
+      </c>
+    </row>
+    <row r="532" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G532">
+        <v>527</v>
+      </c>
+      <c r="H532">
+        <v>9640</v>
+      </c>
+      <c r="I532">
+        <f>SUM($H$5:H532)</f>
+        <v>2357860</v>
+      </c>
+      <c r="J532">
+        <f t="shared" si="90"/>
+        <v>3287.2606348946829</v>
+      </c>
+      <c r="K532">
+        <v>91</v>
+      </c>
+      <c r="L532" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M532" s="7">
+        <f t="shared" si="92"/>
+        <v>75.880799999999994</v>
+      </c>
+      <c r="O532">
+        <v>537</v>
+      </c>
+      <c r="P532" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q532" s="7">
+        <f t="shared" si="87"/>
+        <v>7664.35</v>
+      </c>
+      <c r="R532">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S532" s="26">
+        <f t="shared" si="88"/>
+        <v>3483093.689999999</v>
+      </c>
+      <c r="T532">
+        <f t="shared" si="89"/>
+        <v>0.22052958786381469</v>
+      </c>
+    </row>
+    <row r="533" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G533">
+        <v>528</v>
+      </c>
+      <c r="H533">
+        <v>9660</v>
+      </c>
+      <c r="I533">
+        <f>SUM($H$5:H533)</f>
+        <v>2367520</v>
+      </c>
+      <c r="J533">
+        <f t="shared" si="90"/>
+        <v>3300.7283292162638</v>
+      </c>
+      <c r="K533">
+        <v>91</v>
+      </c>
+      <c r="L533" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M533" s="7">
+        <f t="shared" si="92"/>
+        <v>75.956699999999998</v>
+      </c>
+      <c r="O533">
+        <v>538</v>
+      </c>
+      <c r="P533" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q533" s="7">
+        <f t="shared" si="87"/>
+        <v>7672.02</v>
+      </c>
+      <c r="R533">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S533" s="26">
+        <f t="shared" si="88"/>
+        <v>3490765.709999999</v>
+      </c>
+      <c r="T533">
+        <f t="shared" si="89"/>
+        <v>0.22026453155786405</v>
+      </c>
+    </row>
+    <row r="534" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G534">
+        <v>529</v>
+      </c>
+      <c r="H534">
+        <v>9680</v>
+      </c>
+      <c r="I534">
+        <f>SUM($H$5:H534)</f>
+        <v>2377200</v>
+      </c>
+      <c r="J534">
+        <f t="shared" si="90"/>
+        <v>3314.2239069629409</v>
+      </c>
+      <c r="K534">
+        <v>91</v>
+      </c>
+      <c r="L534" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M534" s="7">
+        <f t="shared" si="92"/>
+        <v>76.032700000000006</v>
+      </c>
+      <c r="O534">
+        <v>539</v>
+      </c>
+      <c r="P534" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q534" s="7">
+        <f t="shared" si="87"/>
+        <v>7679.7</v>
+      </c>
+      <c r="R534">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S534" s="26">
+        <f t="shared" si="88"/>
+        <v>3498445.4099999992</v>
+      </c>
+      <c r="T534">
+        <f t="shared" si="89"/>
+        <v>0.22000044225254489</v>
+      </c>
+    </row>
+    <row r="535" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G535">
+        <v>530</v>
+      </c>
+      <c r="H535">
+        <v>9700</v>
+      </c>
+      <c r="I535">
+        <f>SUM($H$5:H535)</f>
+        <v>2386900</v>
+      </c>
+      <c r="J535">
+        <f t="shared" si="90"/>
+        <v>3327.7473681347146</v>
+      </c>
+      <c r="K535">
+        <v>91</v>
+      </c>
+      <c r="L535" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M535" s="7">
+        <f t="shared" si="92"/>
+        <v>76.108800000000002</v>
+      </c>
+      <c r="O535">
+        <v>540</v>
+      </c>
+      <c r="P535" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q535" s="7">
+        <f t="shared" si="87"/>
+        <v>7687.38</v>
+      </c>
+      <c r="R535">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S535" s="26">
+        <f t="shared" si="88"/>
+        <v>3506132.7899999991</v>
+      </c>
+      <c r="T535">
+        <f t="shared" si="89"/>
+        <v>0.21973702885362129</v>
+      </c>
+    </row>
+    <row r="536" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G536">
+        <v>531</v>
+      </c>
+      <c r="H536">
+        <v>9720</v>
+      </c>
+      <c r="I536">
+        <f>SUM($H$5:H536)</f>
+        <v>2396620</v>
+      </c>
+      <c r="J536">
+        <f t="shared" si="90"/>
+        <v>3341.2987127315851</v>
+      </c>
+      <c r="K536">
+        <v>91</v>
+      </c>
+      <c r="L536" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M536" s="7">
+        <f t="shared" si="92"/>
+        <v>76.185000000000002</v>
+      </c>
+      <c r="O536">
+        <v>541</v>
+      </c>
+      <c r="P536" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q536" s="7">
+        <f t="shared" si="87"/>
+        <v>7695.0700000000006</v>
+      </c>
+      <c r="R536">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S536" s="26">
+        <f t="shared" si="88"/>
+        <v>3513827.8599999989</v>
+      </c>
+      <c r="T536">
+        <f t="shared" si="89"/>
+        <v>0.21947457386517966</v>
+      </c>
+    </row>
+    <row r="537" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G537">
+        <v>532</v>
+      </c>
+      <c r="H537">
+        <v>9740</v>
+      </c>
+      <c r="I537">
+        <f>SUM($H$5:H537)</f>
+        <v>2406360</v>
+      </c>
+      <c r="J537">
+        <f t="shared" si="90"/>
+        <v>3354.8779407535517</v>
+      </c>
+      <c r="K537">
+        <v>91</v>
+      </c>
+      <c r="L537" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M537" s="7">
+        <f t="shared" si="92"/>
+        <v>76.261200000000002</v>
+      </c>
+      <c r="O537">
+        <v>542</v>
+      </c>
+      <c r="P537" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q537" s="7">
+        <f t="shared" si="87"/>
+        <v>7702.77</v>
+      </c>
+      <c r="R537">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S537" s="26">
+        <f t="shared" si="88"/>
+        <v>3521530.629999999</v>
+      </c>
+      <c r="T537">
+        <f t="shared" si="89"/>
+        <v>0.2192130720939762</v>
+      </c>
+    </row>
+    <row r="538" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G538">
+        <v>533</v>
+      </c>
+      <c r="H538">
+        <v>9760</v>
+      </c>
+      <c r="I538">
+        <f>SUM($H$5:H538)</f>
+        <v>2416120</v>
+      </c>
+      <c r="J538">
+        <f t="shared" si="90"/>
+        <v>3368.4850522006145</v>
+      </c>
+      <c r="K538">
+        <v>91</v>
+      </c>
+      <c r="L538" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M538" s="7">
+        <f t="shared" si="92"/>
+        <v>76.337500000000006</v>
+      </c>
+      <c r="O538">
+        <v>543</v>
+      </c>
+      <c r="P538" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q538" s="7">
+        <f t="shared" si="87"/>
+        <v>7710.4800000000005</v>
+      </c>
+      <c r="R538">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S538" s="26">
+        <f t="shared" si="88"/>
+        <v>3529241.1099999989</v>
+      </c>
+      <c r="T538">
+        <f t="shared" si="89"/>
+        <v>0.21895251838260979</v>
+      </c>
+    </row>
+    <row r="539" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G539">
+        <v>534</v>
+      </c>
+      <c r="H539">
+        <v>9780</v>
+      </c>
+      <c r="I539">
+        <f>SUM($H$5:H539)</f>
+        <v>2425900</v>
+      </c>
+      <c r="J539">
+        <f t="shared" si="90"/>
+        <v>3382.120047072774</v>
+      </c>
+      <c r="K539">
+        <v>91</v>
+      </c>
+      <c r="L539" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M539" s="7">
+        <f t="shared" si="92"/>
+        <v>76.413899999999998</v>
+      </c>
+      <c r="O539">
+        <v>544</v>
+      </c>
+      <c r="P539" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q539" s="7">
+        <f t="shared" si="87"/>
+        <v>7718.2</v>
+      </c>
+      <c r="R539">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S539" s="26">
+        <f t="shared" si="88"/>
+        <v>3536959.3099999991</v>
+      </c>
+      <c r="T539">
+        <f t="shared" si="89"/>
+        <v>0.21869290760925622</v>
+      </c>
+    </row>
+    <row r="540" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G540">
+        <v>535</v>
+      </c>
+      <c r="H540">
+        <v>9800</v>
+      </c>
+      <c r="I540">
+        <f>SUM($H$5:H540)</f>
+        <v>2435700</v>
+      </c>
+      <c r="J540">
+        <f t="shared" si="90"/>
+        <v>3395.7829253700302</v>
+      </c>
+      <c r="K540">
+        <v>91</v>
+      </c>
+      <c r="L540" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M540" s="7">
+        <f t="shared" si="92"/>
+        <v>76.490399999999994</v>
+      </c>
+      <c r="O540">
+        <v>545</v>
+      </c>
+      <c r="P540" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q540" s="7">
+        <f t="shared" si="87"/>
+        <v>7725.92</v>
+      </c>
+      <c r="R540">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S540" s="26">
+        <f t="shared" si="88"/>
+        <v>3544685.2299999991</v>
+      </c>
+      <c r="T540">
+        <f t="shared" si="89"/>
+        <v>0.21843395195858015</v>
+      </c>
+    </row>
+    <row r="541" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G541">
+        <v>536</v>
+      </c>
+      <c r="H541">
+        <v>9820</v>
+      </c>
+      <c r="I541">
+        <f>SUM($H$5:H541)</f>
+        <v>2445520</v>
+      </c>
+      <c r="J541">
+        <f t="shared" si="90"/>
+        <v>3409.4736870923825</v>
+      </c>
+      <c r="K541">
+        <v>91</v>
+      </c>
+      <c r="L541" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M541" s="7">
+        <f t="shared" si="92"/>
+        <v>76.566900000000004</v>
+      </c>
+      <c r="O541">
+        <v>546</v>
+      </c>
+      <c r="P541" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q541" s="7">
+        <f t="shared" si="87"/>
+        <v>7733.6500000000005</v>
+      </c>
+      <c r="R541">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S541" s="26">
+        <f t="shared" si="88"/>
+        <v>3552418.879999999</v>
+      </c>
+      <c r="T541">
+        <f t="shared" si="89"/>
+        <v>0.21817593095564961</v>
+      </c>
+    </row>
+    <row r="542" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G542">
+        <v>537</v>
+      </c>
+      <c r="H542">
+        <v>9840</v>
+      </c>
+      <c r="I542">
+        <f>SUM($H$5:H542)</f>
+        <v>2455360</v>
+      </c>
+      <c r="J542">
+        <f t="shared" si="90"/>
+        <v>3423.1923322398311</v>
+      </c>
+      <c r="K542">
+        <v>91</v>
+      </c>
+      <c r="L542" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M542" s="7">
+        <f t="shared" si="92"/>
+        <v>76.643500000000003</v>
+      </c>
+      <c r="O542">
+        <v>547</v>
+      </c>
+      <c r="P542" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q542" s="7">
+        <f t="shared" si="87"/>
+        <v>7741.39</v>
+      </c>
+      <c r="R542">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S542" s="26">
+        <f t="shared" si="88"/>
+        <v>3560160.2699999991</v>
+      </c>
+      <c r="T542">
+        <f t="shared" si="89"/>
+        <v>0.21791883957108493</v>
+      </c>
+    </row>
+    <row r="543" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G543">
+        <v>538</v>
+      </c>
+      <c r="H543">
+        <v>9860</v>
+      </c>
+      <c r="I543">
+        <f>SUM($H$5:H543)</f>
+        <v>2465220</v>
+      </c>
+      <c r="J543">
+        <f t="shared" si="90"/>
+        <v>3436.9388608123763</v>
+      </c>
+      <c r="K543">
+        <v>91</v>
+      </c>
+      <c r="L543" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M543" s="7">
+        <f t="shared" si="92"/>
+        <v>76.720200000000006</v>
+      </c>
+      <c r="O543">
+        <v>548</v>
+      </c>
+      <c r="P543" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q543" s="7">
+        <f t="shared" si="87"/>
+        <v>7749.14</v>
+      </c>
+      <c r="R543">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S543" s="26">
+        <f t="shared" si="88"/>
+        <v>3567909.4099999992</v>
+      </c>
+      <c r="T543">
+        <f t="shared" si="89"/>
+        <v>0.2176626728099556</v>
+      </c>
+    </row>
+    <row r="544" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G544">
+        <v>539</v>
+      </c>
+      <c r="H544">
+        <v>9880</v>
+      </c>
+      <c r="I544">
+        <f>SUM($H$5:H544)</f>
+        <v>2475100</v>
+      </c>
+      <c r="J544">
+        <f t="shared" si="90"/>
+        <v>3450.7132728100182</v>
+      </c>
+      <c r="K544">
+        <v>91</v>
+      </c>
+      <c r="L544" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M544" s="7">
+        <f t="shared" si="92"/>
+        <v>76.796999999999997</v>
+      </c>
+      <c r="O544">
+        <v>549</v>
+      </c>
+      <c r="P544" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q544" s="7">
+        <f t="shared" si="87"/>
+        <v>7756.89</v>
+      </c>
+      <c r="R544">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S544" s="26">
+        <f t="shared" si="88"/>
+        <v>3575666.2999999993</v>
+      </c>
+      <c r="T544">
+        <f t="shared" si="89"/>
+        <v>0.21740714543534703</v>
+      </c>
+    </row>
+    <row r="545" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G545">
+        <v>540</v>
+      </c>
+      <c r="H545">
+        <v>9900</v>
+      </c>
+      <c r="I545">
+        <f>SUM($H$5:H545)</f>
+        <v>2485000</v>
+      </c>
+      <c r="J545">
+        <f t="shared" si="90"/>
+        <v>3464.5155682327563</v>
+      </c>
+      <c r="K545">
+        <v>91</v>
+      </c>
+      <c r="L545" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M545" s="7">
+        <f t="shared" si="92"/>
+        <v>76.873800000000003</v>
+      </c>
+      <c r="O545">
+        <v>550</v>
+      </c>
+      <c r="P545" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q545" s="7">
+        <f t="shared" si="87"/>
+        <v>7764.6500000000005</v>
+      </c>
+      <c r="R545">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S545" s="26">
+        <f t="shared" si="88"/>
+        <v>3583430.9499999993</v>
+      </c>
+      <c r="T545">
+        <f t="shared" si="89"/>
+        <v>0.21715253461990869</v>
+      </c>
+    </row>
+    <row r="546" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G546">
+        <v>541</v>
+      </c>
+      <c r="H546">
+        <v>9920</v>
+      </c>
+      <c r="I546">
+        <f>SUM($H$5:H546)</f>
+        <v>2494920</v>
+      </c>
+      <c r="J546">
+        <f t="shared" si="90"/>
+        <v>3478.3457470805911</v>
+      </c>
+      <c r="K546">
+        <v>91</v>
+      </c>
+      <c r="L546" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M546" s="7">
+        <f t="shared" si="92"/>
+        <v>76.950700000000012</v>
+      </c>
+      <c r="O546">
+        <v>551</v>
+      </c>
+      <c r="P546" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q546" s="7">
+        <f t="shared" si="87"/>
+        <v>7772.42</v>
+      </c>
+      <c r="R546">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S546" s="26">
+        <f t="shared" si="88"/>
+        <v>3591203.3699999992</v>
+      </c>
+      <c r="T546">
+        <f t="shared" si="89"/>
+        <v>0.21689883545823388</v>
+      </c>
+    </row>
+    <row r="547" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G547">
+        <v>542</v>
+      </c>
+      <c r="H547">
+        <v>9940</v>
+      </c>
+      <c r="I547">
+        <f>SUM($H$5:H547)</f>
+        <v>2504860</v>
+      </c>
+      <c r="J547">
+        <f t="shared" si="90"/>
+        <v>3492.203809353522</v>
+      </c>
+      <c r="K547">
+        <v>91</v>
+      </c>
+      <c r="L547" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M547" s="7">
+        <f t="shared" si="92"/>
+        <v>77.02770000000001</v>
+      </c>
+      <c r="O547">
+        <v>552</v>
+      </c>
+      <c r="P547" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q547" s="7">
+        <f t="shared" si="87"/>
+        <v>7780.2</v>
+      </c>
+      <c r="R547">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S547" s="26">
+        <f t="shared" si="88"/>
+        <v>3598983.5699999994</v>
+      </c>
+      <c r="T547">
+        <f t="shared" si="89"/>
+        <v>0.21664604307831745</v>
+      </c>
+    </row>
+    <row r="548" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G548">
+        <v>543</v>
+      </c>
+      <c r="H548">
+        <v>9960</v>
+      </c>
+      <c r="I548">
+        <f>SUM($H$5:H548)</f>
+        <v>2514820</v>
+      </c>
+      <c r="J548">
+        <f t="shared" si="90"/>
+        <v>3506.0897550515492</v>
+      </c>
+      <c r="K548">
+        <v>91</v>
+      </c>
+      <c r="L548" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M548" s="7">
+        <f t="shared" si="92"/>
+        <v>77.104800000000012</v>
+      </c>
+      <c r="O548">
+        <v>553</v>
+      </c>
+      <c r="P548" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q548" s="7">
+        <f t="shared" si="87"/>
+        <v>7787.99</v>
+      </c>
+      <c r="R548">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S548" s="26">
+        <f t="shared" si="88"/>
+        <v>3606771.5599999996</v>
+      </c>
+      <c r="T548">
+        <f t="shared" si="89"/>
+        <v>0.21639415264127546</v>
+      </c>
+    </row>
+    <row r="549" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G549">
+        <v>544</v>
+      </c>
+      <c r="H549">
+        <v>9980</v>
+      </c>
+      <c r="I549">
+        <f>SUM($H$5:H549)</f>
+        <v>2524800</v>
+      </c>
+      <c r="J549">
+        <f t="shared" si="90"/>
+        <v>3520.0035841746735</v>
+      </c>
+      <c r="K549">
+        <v>91</v>
+      </c>
+      <c r="L549" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M549" s="7">
+        <f t="shared" si="92"/>
+        <v>77.182000000000002</v>
+      </c>
+      <c r="O549">
+        <v>554</v>
+      </c>
+      <c r="P549" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q549" s="7">
+        <f t="shared" si="87"/>
+        <v>7795.7800000000007</v>
+      </c>
+      <c r="R549">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S549" s="26">
+        <f t="shared" si="88"/>
+        <v>3614567.3399999994</v>
+      </c>
+      <c r="T549">
+        <f t="shared" si="89"/>
+        <v>0.21614288208482479</v>
+      </c>
+    </row>
+    <row r="550" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G550">
+        <v>545</v>
+      </c>
+      <c r="H550">
+        <v>10000</v>
+      </c>
+      <c r="I550">
+        <f>SUM($H$5:H550)</f>
+        <v>2534800</v>
+      </c>
+      <c r="J550">
+        <f t="shared" si="90"/>
+        <v>3533.9452967228935</v>
+      </c>
+      <c r="K550">
+        <v>91</v>
+      </c>
+      <c r="L550" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M550" s="7">
+        <f t="shared" si="92"/>
+        <v>77.259200000000007</v>
+      </c>
+      <c r="O550">
+        <v>555</v>
+      </c>
+      <c r="P550" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q550" s="7">
+        <f t="shared" si="87"/>
+        <v>7803.58</v>
+      </c>
+      <c r="R550">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S550" s="26">
+        <f t="shared" si="88"/>
+        <v>3622370.9199999995</v>
+      </c>
+      <c r="T550">
+        <f t="shared" si="89"/>
+        <v>0.21589250568506704</v>
+      </c>
+    </row>
+    <row r="551" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G551">
+        <v>546</v>
+      </c>
+      <c r="H551">
+        <v>10020</v>
+      </c>
+      <c r="I551">
+        <f>SUM($H$5:H551)</f>
+        <v>2544820</v>
+      </c>
+      <c r="J551">
+        <f t="shared" si="90"/>
+        <v>3547.9148926962102</v>
+      </c>
+      <c r="K551">
+        <v>91</v>
+      </c>
+      <c r="L551" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M551" s="7">
+        <f t="shared" si="92"/>
+        <v>77.336500000000001</v>
+      </c>
+      <c r="O551">
+        <v>556</v>
+      </c>
+      <c r="P551" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q551" s="7">
+        <f t="shared" si="87"/>
+        <v>7811.39</v>
+      </c>
+      <c r="R551">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S551" s="26">
+        <f t="shared" si="88"/>
+        <v>3630182.3099999996</v>
+      </c>
+      <c r="T551">
+        <f t="shared" si="89"/>
+        <v>0.2156430186889898</v>
+      </c>
+    </row>
+    <row r="552" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G552">
+        <v>547</v>
+      </c>
+      <c r="H552">
+        <v>10040</v>
+      </c>
+      <c r="I552">
+        <f>SUM($H$5:H552)</f>
+        <v>2554860</v>
+      </c>
+      <c r="J552">
+        <f t="shared" si="90"/>
+        <v>3561.9123720946236</v>
+      </c>
+      <c r="K552">
+        <v>91</v>
+      </c>
+      <c r="L552" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M552" s="7">
+        <f t="shared" si="92"/>
+        <v>77.413899999999998</v>
+      </c>
+      <c r="O552">
+        <v>557</v>
+      </c>
+      <c r="P552" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q552" s="7">
+        <f t="shared" si="87"/>
+        <v>7819.21</v>
+      </c>
+      <c r="R552">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S552" s="26">
+        <f t="shared" si="88"/>
+        <v>3638001.5199999996</v>
+      </c>
+      <c r="T552">
+        <f t="shared" si="89"/>
+        <v>0.21539441637574297</v>
+      </c>
+    </row>
+    <row r="553" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G553">
+        <v>548</v>
+      </c>
+      <c r="H553">
+        <v>10060</v>
+      </c>
+      <c r="I553">
+        <f>SUM($H$5:H553)</f>
+        <v>2564920</v>
+      </c>
+      <c r="J553">
+        <f t="shared" si="90"/>
+        <v>3575.9377349181332</v>
+      </c>
+      <c r="K553">
+        <v>91</v>
+      </c>
+      <c r="L553" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M553" s="7">
+        <f t="shared" si="92"/>
+        <v>77.491399999999999</v>
+      </c>
+      <c r="O553">
+        <v>558</v>
+      </c>
+      <c r="P553" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q553" s="7">
+        <f t="shared" si="87"/>
+        <v>7827.0300000000007</v>
+      </c>
+      <c r="R553">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S553" s="26">
+        <f t="shared" si="88"/>
+        <v>3645828.5499999993</v>
+      </c>
+      <c r="T553">
+        <f t="shared" si="89"/>
+        <v>0.21514641918016011</v>
+      </c>
+    </row>
+    <row r="554" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G554">
+        <v>549</v>
+      </c>
+      <c r="H554">
+        <v>10080</v>
+      </c>
+      <c r="I554">
+        <f>SUM($H$5:H554)</f>
+        <v>2575000</v>
+      </c>
+      <c r="J554">
+        <f t="shared" si="90"/>
+        <v>3589.9909811667394</v>
+      </c>
+      <c r="K554">
+        <v>91</v>
+      </c>
+      <c r="L554" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M554" s="7">
+        <f t="shared" si="92"/>
+        <v>77.568899999999999</v>
+      </c>
+      <c r="O554">
+        <v>559</v>
+      </c>
+      <c r="P554" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q554" s="7">
+        <f t="shared" si="87"/>
+        <v>7834.8600000000006</v>
+      </c>
+      <c r="R554">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S554" s="26">
+        <f t="shared" si="88"/>
+        <v>3653663.4099999992</v>
+      </c>
+      <c r="T554">
+        <f t="shared" si="89"/>
+        <v>0.21489929909073402</v>
+      </c>
+    </row>
+    <row r="555" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G555">
+        <v>550</v>
+      </c>
+      <c r="H555">
+        <v>10100</v>
+      </c>
+      <c r="I555">
+        <f>SUM($H$5:H555)</f>
+        <v>2585100</v>
+      </c>
+      <c r="J555">
+        <f t="shared" si="90"/>
+        <v>3604.0721108404418</v>
+      </c>
+      <c r="K555">
+        <v>91</v>
+      </c>
+      <c r="L555" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M555" s="7">
+        <f t="shared" si="92"/>
+        <v>77.646500000000003</v>
+      </c>
+      <c r="O555">
+        <v>560</v>
+      </c>
+      <c r="P555" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q555" s="7">
+        <f t="shared" si="87"/>
+        <v>7842.7</v>
+      </c>
+      <c r="R555">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S555" s="26">
+        <f t="shared" si="88"/>
+        <v>3661506.1099999994</v>
+      </c>
+      <c r="T555">
+        <f t="shared" si="89"/>
+        <v>0.21465305146979008</v>
+      </c>
+    </row>
+    <row r="556" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G556">
+        <v>551</v>
+      </c>
+      <c r="H556">
+        <v>10120</v>
+      </c>
+      <c r="I556">
+        <f>SUM($H$5:H556)</f>
+        <v>2595220</v>
+      </c>
+      <c r="J556">
+        <f t="shared" si="90"/>
+        <v>3618.1811239392409</v>
+      </c>
+      <c r="K556">
+        <v>91</v>
+      </c>
+      <c r="L556" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M556" s="7">
+        <f t="shared" si="92"/>
+        <v>77.724199999999996</v>
+      </c>
+      <c r="O556">
+        <v>561</v>
+      </c>
+      <c r="P556" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q556" s="7">
+        <f t="shared" si="87"/>
+        <v>7850.55</v>
+      </c>
+      <c r="R556">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S556" s="26">
+        <f t="shared" si="88"/>
+        <v>3669356.6599999992</v>
+      </c>
+      <c r="T556">
+        <f t="shared" si="89"/>
+        <v>0.2144076717108036</v>
+      </c>
+    </row>
+    <row r="557" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G557">
+        <v>552</v>
+      </c>
+      <c r="H557">
+        <v>10140</v>
+      </c>
+      <c r="I557">
+        <f>SUM($H$5:H557)</f>
+        <v>2605360</v>
+      </c>
+      <c r="J557">
+        <f t="shared" si="90"/>
+        <v>3632.3180204631362</v>
+      </c>
+      <c r="K557">
+        <v>91</v>
+      </c>
+      <c r="L557" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M557" s="7">
+        <f t="shared" si="92"/>
+        <v>77.801999999999992</v>
+      </c>
+      <c r="O557">
+        <v>562</v>
+      </c>
+      <c r="P557" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q557" s="7">
+        <f t="shared" si="87"/>
+        <v>7858.41</v>
+      </c>
+      <c r="R557">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S557" s="26">
+        <f t="shared" si="88"/>
+        <v>3677215.0699999994</v>
+      </c>
+      <c r="T557">
+        <f t="shared" si="89"/>
+        <v>0.21416315523823054</v>
+      </c>
+    </row>
+    <row r="558" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G558">
+        <v>553</v>
+      </c>
+      <c r="H558">
+        <v>10160</v>
+      </c>
+      <c r="I558">
+        <f>SUM($H$5:H558)</f>
+        <v>2615520</v>
+      </c>
+      <c r="J558">
+        <f t="shared" si="90"/>
+        <v>3646.4828004121282</v>
+      </c>
+      <c r="K558">
+        <v>91</v>
+      </c>
+      <c r="L558" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M558" s="7">
+        <f t="shared" si="92"/>
+        <v>77.879899999999992</v>
+      </c>
+      <c r="O558">
+        <v>563</v>
+      </c>
+      <c r="P558" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q558" s="7">
+        <f t="shared" si="87"/>
+        <v>7866.27</v>
+      </c>
+      <c r="R558">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S558" s="26">
+        <f t="shared" si="88"/>
+        <v>3685081.3399999994</v>
+      </c>
+      <c r="T558">
+        <f t="shared" si="89"/>
+        <v>0.21391922556218665</v>
+      </c>
+    </row>
+    <row r="559" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G559">
+        <v>554</v>
+      </c>
+      <c r="H559">
+        <v>10180</v>
+      </c>
+      <c r="I559">
+        <f>SUM($H$5:H559)</f>
+        <v>2625700</v>
+      </c>
+      <c r="J559">
+        <f t="shared" si="90"/>
+        <v>3660.6754637862168</v>
+      </c>
+      <c r="K559">
+        <v>91</v>
+      </c>
+      <c r="L559" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M559" s="7">
+        <f t="shared" si="92"/>
+        <v>77.957800000000006</v>
+      </c>
+      <c r="O559">
+        <v>564</v>
+      </c>
+      <c r="P559" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q559" s="7">
+        <f t="shared" si="87"/>
+        <v>7874.14</v>
+      </c>
+      <c r="R559">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S559" s="26">
+        <f t="shared" si="88"/>
+        <v>3692955.4799999995</v>
+      </c>
+      <c r="T559">
+        <f t="shared" si="89"/>
+        <v>0.21367615185395425</v>
+      </c>
+    </row>
+    <row r="560" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G560">
+        <v>555</v>
+      </c>
+      <c r="H560">
+        <v>10200</v>
+      </c>
+      <c r="I560">
+        <f>SUM($H$5:H560)</f>
+        <v>2635900</v>
+      </c>
+      <c r="J560">
+        <f t="shared" si="90"/>
+        <v>3674.8960105854012</v>
+      </c>
+      <c r="K560">
+        <v>91</v>
+      </c>
+      <c r="L560" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M560" s="7">
+        <f t="shared" si="92"/>
+        <v>78.035799999999995</v>
+      </c>
+      <c r="O560">
+        <v>565</v>
+      </c>
+      <c r="P560" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q560" s="7">
+        <f t="shared" si="87"/>
+        <v>7882.02</v>
+      </c>
+      <c r="R560">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S560" s="26">
+        <f t="shared" si="88"/>
+        <v>3700837.4999999995</v>
+      </c>
+      <c r="T560">
+        <f t="shared" si="89"/>
+        <v>0.21343392961780355</v>
+      </c>
+    </row>
+    <row r="561" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G561">
+        <v>556</v>
+      </c>
+      <c r="H561">
+        <v>10220</v>
+      </c>
+      <c r="I561">
+        <f>SUM($H$5:H561)</f>
+        <v>2646120</v>
+      </c>
+      <c r="J561">
+        <f t="shared" si="90"/>
+        <v>3689.1444408096827</v>
+      </c>
+      <c r="K561">
+        <v>91</v>
+      </c>
+      <c r="L561" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M561" s="7">
+        <f t="shared" si="92"/>
+        <v>78.113900000000001</v>
+      </c>
+      <c r="O561">
+        <v>566</v>
+      </c>
+      <c r="P561" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q561" s="7">
+        <f t="shared" si="87"/>
+        <v>7889.91</v>
+      </c>
+      <c r="R561">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S561" s="26">
+        <f t="shared" si="88"/>
+        <v>3708727.4099999997</v>
+      </c>
+      <c r="T561">
+        <f t="shared" si="89"/>
+        <v>0.21319255438803109</v>
+      </c>
+    </row>
+    <row r="562" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G562">
+        <v>557</v>
+      </c>
+      <c r="H562">
+        <v>10240</v>
+      </c>
+      <c r="I562">
+        <f>SUM($H$5:H562)</f>
+        <v>2656360</v>
+      </c>
+      <c r="J562">
+        <f t="shared" si="90"/>
+        <v>3703.4207544590604</v>
+      </c>
+      <c r="K562">
+        <v>91</v>
+      </c>
+      <c r="L562" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M562" s="7">
+        <f t="shared" si="92"/>
+        <v>78.192099999999996</v>
+      </c>
+      <c r="O562">
+        <v>567</v>
+      </c>
+      <c r="P562" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q562" s="7">
+        <f t="shared" si="87"/>
+        <v>7897.8</v>
+      </c>
+      <c r="R562">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S562" s="26">
+        <f t="shared" si="88"/>
+        <v>3716625.2099999995</v>
+      </c>
+      <c r="T562">
+        <f t="shared" si="89"/>
+        <v>0.21295175209438794</v>
+      </c>
+    </row>
+    <row r="563" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G563">
+        <v>558</v>
+      </c>
+      <c r="H563">
+        <v>10260</v>
+      </c>
+      <c r="I563">
+        <f>SUM($H$5:H563)</f>
+        <v>2666620</v>
+      </c>
+      <c r="J563">
+        <f t="shared" si="90"/>
+        <v>3717.7249515335343</v>
+      </c>
+      <c r="K563">
+        <v>91</v>
+      </c>
+      <c r="L563" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M563" s="7">
+        <f t="shared" si="92"/>
+        <v>78.270300000000006</v>
+      </c>
+      <c r="O563">
+        <v>568</v>
+      </c>
+      <c r="P563" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q563" s="7">
+        <f t="shared" si="87"/>
+        <v>7905.7</v>
+      </c>
+      <c r="R563">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S563" s="26">
+        <f t="shared" si="88"/>
+        <v>3724530.9099999997</v>
+      </c>
+      <c r="T563">
+        <f t="shared" si="89"/>
+        <v>0.21271178968299007</v>
+      </c>
+    </row>
+    <row r="564" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G564">
+        <v>559</v>
+      </c>
+      <c r="H564">
+        <v>10280</v>
+      </c>
+      <c r="I564">
+        <f>SUM($H$5:H564)</f>
+        <v>2676900</v>
+      </c>
+      <c r="J564">
+        <f t="shared" si="90"/>
+        <v>3732.0570320331049</v>
+      </c>
+      <c r="K564">
+        <v>91</v>
+      </c>
+      <c r="L564" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M564" s="7">
+        <f t="shared" si="92"/>
+        <v>78.348600000000005</v>
+      </c>
+      <c r="O564">
+        <v>569</v>
+      </c>
+      <c r="P564" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q564" s="7">
+        <f t="shared" si="87"/>
+        <v>7913.6100000000006</v>
+      </c>
+      <c r="R564">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S564" s="26">
+        <f t="shared" si="88"/>
+        <v>3732444.5199999996</v>
+      </c>
+      <c r="T564">
+        <f t="shared" si="89"/>
+        <v>0.21247266276546678</v>
+      </c>
+    </row>
+    <row r="565" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G565">
+        <v>560</v>
+      </c>
+      <c r="H565">
+        <v>10300</v>
+      </c>
+      <c r="I565">
+        <f>SUM($H$5:H565)</f>
+        <v>2687200</v>
+      </c>
+      <c r="J565">
+        <f t="shared" si="90"/>
+        <v>3746.4169959577716</v>
+      </c>
+      <c r="K565">
+        <v>91</v>
+      </c>
+      <c r="L565" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M565" s="7">
+        <f t="shared" si="92"/>
+        <v>78.426999999999992</v>
+      </c>
+      <c r="O565">
+        <v>570</v>
+      </c>
+      <c r="P565" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q565" s="7">
+        <f t="shared" si="87"/>
+        <v>7921.5300000000007</v>
+      </c>
+      <c r="R565">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S565" s="26">
+        <f t="shared" si="88"/>
+        <v>3740366.0499999993</v>
+      </c>
+      <c r="T565">
+        <f t="shared" si="89"/>
+        <v>0.21223436698262821</v>
+      </c>
+    </row>
+    <row r="566" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G566">
+        <v>561</v>
+      </c>
+      <c r="H566">
+        <v>10320</v>
+      </c>
+      <c r="I566">
+        <f>SUM($H$5:H566)</f>
+        <v>2697520</v>
+      </c>
+      <c r="J566">
+        <f t="shared" si="90"/>
+        <v>3760.8048433075351</v>
+      </c>
+      <c r="K566">
+        <v>91</v>
+      </c>
+      <c r="L566" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M566" s="7">
+        <f t="shared" si="92"/>
+        <v>78.505499999999998</v>
+      </c>
+      <c r="O566">
+        <v>571</v>
+      </c>
+      <c r="P566" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q566" s="7">
+        <f t="shared" si="87"/>
+        <v>7929.46</v>
+      </c>
+      <c r="R566">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S566" s="26">
+        <f t="shared" si="88"/>
+        <v>3748295.5099999993</v>
+      </c>
+      <c r="T566">
+        <f t="shared" si="89"/>
+        <v>0.21199689800413957</v>
+      </c>
+    </row>
+    <row r="567" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G567">
+        <v>562</v>
+      </c>
+      <c r="H567">
+        <v>10340</v>
+      </c>
+      <c r="I567">
+        <f>SUM($H$5:H567)</f>
+        <v>2707860</v>
+      </c>
+      <c r="J567">
+        <f t="shared" si="90"/>
+        <v>3775.2205740823952</v>
+      </c>
+      <c r="K567">
+        <v>91</v>
+      </c>
+      <c r="L567" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M567" s="7">
+        <f t="shared" si="92"/>
+        <v>78.584099999999992</v>
+      </c>
+      <c r="O567">
+        <v>572</v>
+      </c>
+      <c r="P567" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q567" s="7">
+        <f t="shared" si="87"/>
+        <v>7937.39</v>
+      </c>
+      <c r="R567">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S567" s="26">
+        <f t="shared" si="88"/>
+        <v>3756232.8999999994</v>
+      </c>
+      <c r="T567">
+        <f t="shared" si="89"/>
+        <v>0.21175998474037422</v>
+      </c>
+    </row>
+    <row r="568" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G568">
+        <v>563</v>
+      </c>
+      <c r="H568">
+        <v>10360</v>
+      </c>
+      <c r="I568">
+        <f>SUM($H$5:H568)</f>
+        <v>2718220</v>
+      </c>
+      <c r="J568">
+        <f t="shared" si="90"/>
+        <v>3789.6641882823515</v>
+      </c>
+      <c r="K568">
+        <v>91</v>
+      </c>
+      <c r="L568" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M568" s="7">
+        <f t="shared" si="92"/>
+        <v>78.662700000000001</v>
+      </c>
+      <c r="O568">
+        <v>573</v>
+      </c>
+      <c r="P568" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q568" s="7">
+        <f t="shared" si="87"/>
+        <v>7945.33</v>
+      </c>
+      <c r="R568">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S568" s="26">
+        <f t="shared" si="88"/>
+        <v>3764178.2299999995</v>
+      </c>
+      <c r="T568">
+        <f t="shared" si="89"/>
+        <v>0.21152389139661906</v>
+      </c>
+    </row>
+    <row r="569" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G569">
+        <v>564</v>
+      </c>
+      <c r="H569">
+        <v>10380</v>
+      </c>
+      <c r="I569">
+        <f>SUM($H$5:H569)</f>
+        <v>2728600</v>
+      </c>
+      <c r="J569">
+        <f t="shared" si="90"/>
+        <v>3804.135685907404</v>
+      </c>
+      <c r="K569">
+        <v>91</v>
+      </c>
+      <c r="L569" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M569" s="7">
+        <f t="shared" si="92"/>
+        <v>78.741399999999999</v>
+      </c>
+      <c r="O569">
+        <v>574</v>
+      </c>
+      <c r="P569" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q569" s="7">
+        <f t="shared" si="87"/>
+        <v>7953.2800000000007</v>
+      </c>
+      <c r="R569">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S569" s="26">
+        <f t="shared" si="88"/>
+        <v>3772131.5099999993</v>
+      </c>
+      <c r="T569">
+        <f t="shared" si="89"/>
+        <v>0.21128861371688545</v>
+      </c>
+    </row>
+    <row r="570" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G570">
+        <v>565</v>
+      </c>
+      <c r="H570">
+        <v>10400</v>
+      </c>
+      <c r="I570">
+        <f>SUM($H$5:H570)</f>
+        <v>2739000</v>
+      </c>
+      <c r="J570">
+        <f t="shared" si="90"/>
+        <v>3818.6350669575531</v>
+      </c>
+      <c r="K570">
+        <v>91</v>
+      </c>
+      <c r="L570" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M570" s="7">
+        <f t="shared" si="92"/>
+        <v>78.8202</v>
+      </c>
+      <c r="O570">
+        <v>575</v>
+      </c>
+      <c r="P570" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q570" s="7">
+        <f t="shared" si="87"/>
+        <v>7961.24</v>
+      </c>
+      <c r="R570">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S570" s="26">
+        <f t="shared" si="88"/>
+        <v>3780092.7499999995</v>
+      </c>
+      <c r="T570">
+        <f t="shared" si="89"/>
+        <v>0.21105414747324716</v>
+      </c>
+    </row>
+    <row r="571" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G571">
+        <v>566</v>
+      </c>
+      <c r="H571">
+        <v>10420</v>
+      </c>
+      <c r="I571">
+        <f>SUM($H$5:H571)</f>
+        <v>2749420</v>
+      </c>
+      <c r="J571">
+        <f t="shared" si="90"/>
+        <v>3833.162331432799</v>
+      </c>
+      <c r="K571">
+        <v>91</v>
+      </c>
+      <c r="L571" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M571" s="7">
+        <f t="shared" si="92"/>
+        <v>78.899100000000004</v>
+      </c>
+      <c r="O571">
+        <v>576</v>
+      </c>
+      <c r="P571" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q571" s="7">
+        <f t="shared" si="87"/>
+        <v>7969.21</v>
+      </c>
+      <c r="R571">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S571" s="26">
+        <f t="shared" si="88"/>
+        <v>3788061.9599999995</v>
+      </c>
+      <c r="T571">
+        <f t="shared" si="89"/>
+        <v>0.21082048846552676</v>
+      </c>
+    </row>
+    <row r="572" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G572">
+        <v>567</v>
+      </c>
+      <c r="H572">
+        <v>10440</v>
+      </c>
+      <c r="I572">
+        <f>SUM($H$5:H572)</f>
+        <v>2759860</v>
+      </c>
+      <c r="J572">
+        <f t="shared" si="90"/>
+        <v>3847.717479333141</v>
+      </c>
+      <c r="K572">
+        <v>91</v>
+      </c>
+      <c r="L572" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M572" s="7">
+        <f t="shared" si="92"/>
+        <v>78.978000000000009</v>
+      </c>
+      <c r="O572">
+        <v>577</v>
+      </c>
+      <c r="P572" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q572" s="7">
+        <f t="shared" si="87"/>
+        <v>7977.18</v>
+      </c>
+      <c r="R572">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S572" s="26">
+        <f t="shared" si="88"/>
+        <v>3796039.1399999997</v>
+      </c>
+      <c r="T572">
+        <f t="shared" si="89"/>
+        <v>0.21058736853396581</v>
+      </c>
+    </row>
+    <row r="573" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G573">
+        <v>568</v>
+      </c>
+      <c r="H573">
+        <v>10460</v>
+      </c>
+      <c r="I573">
+        <f>SUM($H$5:H573)</f>
+        <v>2770320</v>
+      </c>
+      <c r="J573">
+        <f t="shared" si="90"/>
+        <v>3862.3005106585792</v>
+      </c>
+      <c r="K573">
+        <v>91</v>
+      </c>
+      <c r="L573" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M573" s="7">
+        <f t="shared" si="92"/>
+        <v>79.057000000000002</v>
+      </c>
+      <c r="O573">
+        <v>578</v>
+      </c>
+      <c r="P573" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q573" s="7">
+        <f t="shared" si="87"/>
+        <v>7985.16</v>
+      </c>
+      <c r="R573">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S573" s="26">
+        <f t="shared" si="88"/>
+        <v>3804024.3</v>
+      </c>
+      <c r="T573">
+        <f t="shared" si="89"/>
+        <v>0.21035504918424391</v>
+      </c>
+    </row>
+    <row r="574" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G574">
+        <v>569</v>
+      </c>
+      <c r="H574">
+        <v>10480</v>
+      </c>
+      <c r="I574">
+        <f>SUM($H$5:H574)</f>
+        <v>2780800</v>
+      </c>
+      <c r="J574">
+        <f t="shared" si="90"/>
+        <v>3876.9114254091141</v>
+      </c>
+      <c r="K574">
+        <v>91</v>
+      </c>
+      <c r="L574" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M574" s="7">
+        <f t="shared" si="92"/>
+        <v>79.136099999999999</v>
+      </c>
+      <c r="O574">
+        <v>579</v>
+      </c>
+      <c r="P574" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q574" s="7">
+        <f t="shared" si="87"/>
+        <v>7993.1500000000005</v>
+      </c>
+      <c r="R574">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S574" s="26">
+        <f t="shared" si="88"/>
+        <v>3812017.4499999997</v>
+      </c>
+      <c r="T574">
+        <f t="shared" si="89"/>
+        <v>0.21012352628767139</v>
+      </c>
+    </row>
+    <row r="575" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G575">
+        <v>570</v>
+      </c>
+      <c r="H575">
+        <v>10500</v>
+      </c>
+      <c r="I575">
+        <f>SUM($H$5:H575)</f>
+        <v>2791300</v>
+      </c>
+      <c r="J575">
+        <f t="shared" si="90"/>
+        <v>3891.5502235847457</v>
+      </c>
+      <c r="K575">
+        <v>91</v>
+      </c>
+      <c r="L575" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M575" s="7">
+        <f t="shared" si="92"/>
+        <v>79.215300000000013</v>
+      </c>
+      <c r="O575">
+        <v>580</v>
+      </c>
+      <c r="P575" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q575" s="7">
+        <f t="shared" si="87"/>
+        <v>8001.1500000000005</v>
+      </c>
+      <c r="R575">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S575" s="26">
+        <f t="shared" si="88"/>
+        <v>3820018.5999999996</v>
+      </c>
+      <c r="T575">
+        <f t="shared" si="89"/>
+        <v>0.20989279574257741</v>
+      </c>
+    </row>
+    <row r="576" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G576">
+        <v>571</v>
+      </c>
+      <c r="H576">
+        <v>10520</v>
+      </c>
+      <c r="I576">
+        <f>SUM($H$5:H576)</f>
+        <v>2801820</v>
+      </c>
+      <c r="J576">
+        <f t="shared" si="90"/>
+        <v>3906.2169051854735</v>
+      </c>
+      <c r="K576">
+        <v>91</v>
+      </c>
+      <c r="L576" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M576" s="7">
+        <f t="shared" si="92"/>
+        <v>79.294600000000003</v>
+      </c>
+      <c r="O576">
+        <v>581</v>
+      </c>
+      <c r="P576" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q576" s="7">
+        <f t="shared" ref="Q576:Q601" si="93">ROUNDUP(Q575*R576,2)</f>
+        <v>8009.16</v>
+      </c>
+      <c r="R576">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S576" s="26">
+        <f t="shared" ref="S576:S601" si="94">Q576+S575</f>
+        <v>3828027.76</v>
+      </c>
+      <c r="T576">
+        <f t="shared" ref="T576:T601" si="95">((S576-S575)/S575)*100</f>
+        <v>0.20966285347406816</v>
+      </c>
+    </row>
+    <row r="577" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G577">
+        <v>572</v>
+      </c>
+      <c r="H577">
+        <v>10540</v>
+      </c>
+      <c r="I577">
+        <f>SUM($H$5:H577)</f>
+        <v>2812360</v>
+      </c>
+      <c r="J577">
+        <f t="shared" si="90"/>
+        <v>3920.9114702112975</v>
+      </c>
+      <c r="K577">
+        <v>91</v>
+      </c>
+      <c r="L577" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M577" s="7">
+        <f t="shared" si="92"/>
+        <v>79.373900000000006</v>
+      </c>
+      <c r="O577">
+        <v>582</v>
+      </c>
+      <c r="P577" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q577" s="7">
+        <f t="shared" si="93"/>
+        <v>8017.17</v>
+      </c>
+      <c r="R577">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S577" s="26">
+        <f t="shared" si="94"/>
+        <v>3836044.9299999997</v>
+      </c>
+      <c r="T577">
+        <f t="shared" si="95"/>
+        <v>0.20943343420268004</v>
+      </c>
+    </row>
+    <row r="578" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G578">
+        <v>573</v>
+      </c>
+      <c r="H578">
+        <v>10560</v>
+      </c>
+      <c r="I578">
+        <f>SUM($H$5:H578)</f>
+        <v>2822920</v>
+      </c>
+      <c r="J578">
+        <f t="shared" si="90"/>
+        <v>3935.6339186622181</v>
+      </c>
+      <c r="K578">
+        <v>91</v>
+      </c>
+      <c r="L578" t="str">
+        <f t="shared" si="91"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M578" s="7">
+        <f t="shared" si="92"/>
+        <v>79.453299999999999</v>
+      </c>
+      <c r="O578">
+        <v>583</v>
+      </c>
+      <c r="P578" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q578" s="7">
+        <f t="shared" si="93"/>
+        <v>8025.1900000000005</v>
+      </c>
+      <c r="R578">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S578" s="26">
+        <f t="shared" si="94"/>
+        <v>3844070.1199999996</v>
+      </c>
+      <c r="T578">
+        <f t="shared" si="95"/>
+        <v>0.20920479677488932</v>
+      </c>
+    </row>
+    <row r="579" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G579">
+        <v>574</v>
+      </c>
+      <c r="H579">
+        <v>10580</v>
+      </c>
+      <c r="I579">
+        <f>SUM($H$5:H579)</f>
+        <v>2833500</v>
+      </c>
+      <c r="J579">
+        <f t="shared" ref="J579:J601" si="96">I579/$A$5</f>
+        <v>3950.3842505382354</v>
+      </c>
+      <c r="K579">
+        <v>91</v>
+      </c>
+      <c r="L579" t="str">
+        <f t="shared" ref="L579:L601" si="97">IF(K579=91,"진 요도 피해량","요도 발동 필요 타수 감소")</f>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M579" s="7">
+        <f t="shared" ref="M579:M601" si="98">VLOOKUP(G579,O:Q,3,FALSE)/100</f>
+        <v>79.532800000000009</v>
+      </c>
+      <c r="O579">
+        <v>584</v>
+      </c>
+      <c r="P579" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q579" s="7">
+        <f t="shared" si="93"/>
+        <v>8033.22</v>
+      </c>
+      <c r="R579">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S579" s="26">
+        <f t="shared" si="94"/>
+        <v>3852103.34</v>
+      </c>
+      <c r="T579">
+        <f t="shared" si="95"/>
+        <v>0.20897693718449148</v>
+      </c>
+    </row>
+    <row r="580" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G580">
+        <v>575</v>
+      </c>
+      <c r="H580">
+        <v>10600</v>
+      </c>
+      <c r="I580">
+        <f>SUM($H$5:H580)</f>
+        <v>2844100</v>
+      </c>
+      <c r="J580">
+        <f t="shared" si="96"/>
+        <v>3965.1624658393489</v>
+      </c>
+      <c r="K580">
+        <v>91</v>
+      </c>
+      <c r="L580" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M580" s="7">
+        <f t="shared" si="98"/>
+        <v>79.612399999999994</v>
+      </c>
+      <c r="O580">
+        <v>585</v>
+      </c>
+      <c r="P580" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q580" s="7">
+        <f t="shared" si="93"/>
+        <v>8041.26</v>
+      </c>
+      <c r="R580">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S580" s="26">
+        <f t="shared" si="94"/>
+        <v>3860144.5999999996</v>
+      </c>
+      <c r="T580">
+        <f t="shared" si="95"/>
+        <v>0.20874985145127953</v>
+      </c>
+    </row>
+    <row r="581" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G581">
+        <v>576</v>
+      </c>
+      <c r="H581">
+        <v>10620</v>
+      </c>
+      <c r="I581">
+        <f>SUM($H$5:H581)</f>
+        <v>2854720</v>
+      </c>
+      <c r="J581">
+        <f t="shared" si="96"/>
+        <v>3979.9685645655591</v>
+      </c>
+      <c r="K581">
+        <v>91</v>
+      </c>
+      <c r="L581" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M581" s="7">
+        <f t="shared" si="98"/>
+        <v>79.692099999999996</v>
+      </c>
+      <c r="O581">
+        <v>586</v>
+      </c>
+      <c r="P581" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q581" s="7">
+        <f t="shared" si="93"/>
+        <v>8049.31</v>
+      </c>
+      <c r="R581">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S581" s="26">
+        <f t="shared" si="94"/>
+        <v>3868193.9099999997</v>
+      </c>
+      <c r="T581">
+        <f t="shared" si="95"/>
+        <v>0.20852353562092096</v>
+      </c>
+    </row>
+    <row r="582" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G582">
+        <v>577</v>
+      </c>
+      <c r="H582">
+        <v>10640</v>
+      </c>
+      <c r="I582">
+        <f>SUM($H$5:H582)</f>
+        <v>2865360</v>
+      </c>
+      <c r="J582">
+        <f t="shared" si="96"/>
+        <v>3994.8025467168654</v>
+      </c>
+      <c r="K582">
+        <v>91</v>
+      </c>
+      <c r="L582" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M582" s="7">
+        <f t="shared" si="98"/>
+        <v>79.771799999999999</v>
+      </c>
+      <c r="O582">
+        <v>587</v>
+      </c>
+      <c r="P582" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q582" s="7">
+        <f t="shared" si="93"/>
+        <v>8057.3600000000006</v>
+      </c>
+      <c r="R582">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S582" s="26">
+        <f t="shared" si="94"/>
+        <v>3876251.2699999996</v>
+      </c>
+      <c r="T582">
+        <f t="shared" si="95"/>
+        <v>0.20829772724604365</v>
+      </c>
+    </row>
+    <row r="583" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G583">
+        <v>578</v>
+      </c>
+      <c r="H583">
+        <v>10660</v>
+      </c>
+      <c r="I583">
+        <f>SUM($H$5:H583)</f>
+        <v>2876020</v>
+      </c>
+      <c r="J583">
+        <f t="shared" si="96"/>
+        <v>4009.6644122932685</v>
+      </c>
+      <c r="K583">
+        <v>91</v>
+      </c>
+      <c r="L583" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M583" s="7">
+        <f t="shared" si="98"/>
+        <v>79.851600000000005</v>
+      </c>
+      <c r="O583">
+        <v>588</v>
+      </c>
+      <c r="P583" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q583" s="7">
+        <f t="shared" si="93"/>
+        <v>8065.42</v>
+      </c>
+      <c r="R583">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S583" s="26">
+        <f t="shared" si="94"/>
+        <v>3884316.6899999995</v>
+      </c>
+      <c r="T583">
+        <f t="shared" si="95"/>
+        <v>0.20807268255341782</v>
+      </c>
+    </row>
+    <row r="584" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G584">
+        <v>579</v>
+      </c>
+      <c r="H584">
+        <v>10680</v>
+      </c>
+      <c r="I584">
+        <f>SUM($H$5:H584)</f>
+        <v>2886700</v>
+      </c>
+      <c r="J584">
+        <f t="shared" si="96"/>
+        <v>4024.5541612947677</v>
+      </c>
+      <c r="K584">
+        <v>91</v>
+      </c>
+      <c r="L584" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M584" s="7">
+        <f t="shared" si="98"/>
+        <v>79.9315</v>
+      </c>
+      <c r="O584">
+        <v>589</v>
+      </c>
+      <c r="P584" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q584" s="7">
+        <f t="shared" si="93"/>
+        <v>8073.49</v>
+      </c>
+      <c r="R584">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S584" s="26">
+        <f t="shared" si="94"/>
+        <v>3892390.1799999997</v>
+      </c>
+      <c r="T584">
+        <f t="shared" si="95"/>
+        <v>0.20784839765472943</v>
+      </c>
+    </row>
+    <row r="585" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G585">
+        <v>580</v>
+      </c>
+      <c r="H585">
+        <v>10700</v>
+      </c>
+      <c r="I585">
+        <f>SUM($H$5:H585)</f>
+        <v>2897400</v>
+      </c>
+      <c r="J585">
+        <f t="shared" si="96"/>
+        <v>4039.4717937213636</v>
+      </c>
+      <c r="K585">
+        <v>91</v>
+      </c>
+      <c r="L585" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M585" s="7">
+        <f t="shared" si="98"/>
+        <v>80.011500000000012</v>
+      </c>
+      <c r="O585">
+        <v>590</v>
+      </c>
+      <c r="P585" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q585" s="7">
+        <f t="shared" si="93"/>
+        <v>8081.5700000000006</v>
+      </c>
+      <c r="R585">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S585" s="26">
+        <f t="shared" si="94"/>
+        <v>3900471.7499999995</v>
+      </c>
+      <c r="T585">
+        <f t="shared" si="95"/>
+        <v>0.20762486868672125</v>
+      </c>
+    </row>
+    <row r="586" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G586">
+        <v>581</v>
+      </c>
+      <c r="H586">
+        <v>10720</v>
+      </c>
+      <c r="I586">
+        <f>SUM($H$5:H586)</f>
+        <v>2908120</v>
+      </c>
+      <c r="J586">
+        <f t="shared" si="96"/>
+        <v>4054.4173095730557</v>
+      </c>
+      <c r="K586">
+        <v>91</v>
+      </c>
+      <c r="L586" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M586" s="7">
+        <f t="shared" si="98"/>
+        <v>80.0916</v>
+      </c>
+      <c r="O586">
+        <v>591</v>
+      </c>
+      <c r="P586" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q586" s="7">
+        <f t="shared" si="93"/>
+        <v>8089.66</v>
+      </c>
+      <c r="R586">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S586" s="26">
+        <f t="shared" si="94"/>
+        <v>3908561.4099999997</v>
+      </c>
+      <c r="T586">
+        <f t="shared" si="95"/>
+        <v>0.20740209181107772</v>
+      </c>
+    </row>
+    <row r="587" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G587">
+        <v>582</v>
+      </c>
+      <c r="H587">
+        <v>10740</v>
+      </c>
+      <c r="I587">
+        <f>SUM($H$5:H587)</f>
+        <v>2918860</v>
+      </c>
+      <c r="J587">
+        <f t="shared" si="96"/>
+        <v>4069.3907088498445</v>
+      </c>
+      <c r="K587">
+        <v>91</v>
+      </c>
+      <c r="L587" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M587" s="7">
+        <f t="shared" si="98"/>
+        <v>80.171700000000001</v>
+      </c>
+      <c r="O587">
+        <v>592</v>
+      </c>
+      <c r="P587" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q587" s="7">
+        <f t="shared" si="93"/>
+        <v>8097.75</v>
+      </c>
+      <c r="R587">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S587" s="26">
+        <f t="shared" si="94"/>
+        <v>3916659.1599999997</v>
+      </c>
+      <c r="T587">
+        <f t="shared" si="95"/>
+        <v>0.20717980736549307</v>
+      </c>
+    </row>
+    <row r="588" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G588">
+        <v>583</v>
+      </c>
+      <c r="H588">
+        <v>10760</v>
+      </c>
+      <c r="I588">
+        <f>SUM($H$5:H588)</f>
+        <v>2929620</v>
+      </c>
+      <c r="J588">
+        <f t="shared" si="96"/>
+        <v>4084.3919915517295</v>
+      </c>
+      <c r="K588">
+        <v>91</v>
+      </c>
+      <c r="L588" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M588" s="7">
+        <f t="shared" si="98"/>
+        <v>80.251900000000006</v>
+      </c>
+      <c r="O588">
+        <v>593</v>
+      </c>
+      <c r="P588" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q588" s="7">
+        <f t="shared" si="93"/>
+        <v>8105.85</v>
+      </c>
+      <c r="R588">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S588" s="26">
+        <f t="shared" si="94"/>
+        <v>3924765.01</v>
+      </c>
+      <c r="T588">
+        <f t="shared" si="95"/>
+        <v>0.20695826899576561</v>
+      </c>
+    </row>
+    <row r="589" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G589">
+        <v>584</v>
+      </c>
+      <c r="H589">
+        <v>10780</v>
+      </c>
+      <c r="I589">
+        <f>SUM($H$5:H589)</f>
+        <v>2940400</v>
+      </c>
+      <c r="J589">
+        <f t="shared" si="96"/>
+        <v>4099.4211576787111</v>
+      </c>
+      <c r="K589">
+        <v>91</v>
+      </c>
+      <c r="L589" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M589" s="7">
+        <f t="shared" si="98"/>
+        <v>80.3322</v>
+      </c>
+      <c r="O589">
+        <v>594</v>
+      </c>
+      <c r="P589" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q589" s="7">
+        <f t="shared" si="93"/>
+        <v>8113.96</v>
+      </c>
+      <c r="R589">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S589" s="26">
+        <f t="shared" si="94"/>
+        <v>3932878.9699999997</v>
+      </c>
+      <c r="T589">
+        <f t="shared" si="95"/>
+        <v>0.20673747292707248</v>
+      </c>
+    </row>
+    <row r="590" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G590">
+        <v>585</v>
+      </c>
+      <c r="H590">
+        <v>10800</v>
+      </c>
+      <c r="I590">
+        <f>SUM($H$5:H590)</f>
+        <v>2951200</v>
+      </c>
+      <c r="J590">
+        <f t="shared" si="96"/>
+        <v>4114.4782072307889</v>
+      </c>
+      <c r="K590">
+        <v>91</v>
+      </c>
+      <c r="L590" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M590" s="7">
+        <f t="shared" si="98"/>
+        <v>80.412599999999998</v>
+      </c>
+      <c r="O590">
+        <v>595</v>
+      </c>
+      <c r="P590" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q590" s="7">
+        <f t="shared" si="93"/>
+        <v>8122.08</v>
+      </c>
+      <c r="R590">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S590" s="26">
+        <f t="shared" si="94"/>
+        <v>3941001.05</v>
+      </c>
+      <c r="T590">
+        <f t="shared" si="95"/>
+        <v>0.20651741540879592</v>
+      </c>
+    </row>
+    <row r="591" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G591">
+        <v>586</v>
+      </c>
+      <c r="H591">
+        <v>10820</v>
+      </c>
+      <c r="I591">
+        <f>SUM($H$5:H591)</f>
+        <v>2962020</v>
+      </c>
+      <c r="J591">
+        <f t="shared" si="96"/>
+        <v>4129.5631402079634</v>
+      </c>
+      <c r="K591">
+        <v>91</v>
+      </c>
+      <c r="L591" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M591" s="7">
+        <f t="shared" si="98"/>
+        <v>80.493099999999998</v>
+      </c>
+      <c r="O591">
+        <v>596</v>
+      </c>
+      <c r="P591" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q591" s="7">
+        <f t="shared" si="93"/>
+        <v>8130.21</v>
+      </c>
+      <c r="R591">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S591" s="26">
+        <f t="shared" si="94"/>
+        <v>3949131.26</v>
+      </c>
+      <c r="T591">
+        <f t="shared" si="95"/>
+        <v>0.20629809271428545</v>
+      </c>
+    </row>
+    <row r="592" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G592">
+        <v>587</v>
+      </c>
+      <c r="H592">
+        <v>10840</v>
+      </c>
+      <c r="I592">
+        <f>SUM($H$5:H592)</f>
+        <v>2972860</v>
+      </c>
+      <c r="J592">
+        <f t="shared" si="96"/>
+        <v>4144.6759566102346</v>
+      </c>
+      <c r="K592">
+        <v>91</v>
+      </c>
+      <c r="L592" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M592" s="7">
+        <f t="shared" si="98"/>
+        <v>80.573599999999999</v>
+      </c>
+      <c r="O592">
+        <v>597</v>
+      </c>
+      <c r="P592" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q592" s="7">
+        <f t="shared" si="93"/>
+        <v>8138.35</v>
+      </c>
+      <c r="R592">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S592" s="26">
+        <f t="shared" si="94"/>
+        <v>3957269.61</v>
+      </c>
+      <c r="T592">
+        <f t="shared" si="95"/>
+        <v>0.20607950114071655</v>
+      </c>
+    </row>
+    <row r="593" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G593">
+        <v>588</v>
+      </c>
+      <c r="H593">
+        <v>10860</v>
+      </c>
+      <c r="I593">
+        <f>SUM($H$5:H593)</f>
+        <v>2983720</v>
+      </c>
+      <c r="J593">
+        <f t="shared" si="96"/>
+        <v>4159.8166564376015</v>
+      </c>
+      <c r="K593">
+        <v>91</v>
+      </c>
+      <c r="L593" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M593" s="7">
+        <f t="shared" si="98"/>
+        <v>80.654200000000003</v>
+      </c>
+      <c r="O593">
+        <v>598</v>
+      </c>
+      <c r="P593" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q593" s="7">
+        <f t="shared" si="93"/>
+        <v>8146.49</v>
+      </c>
+      <c r="R593">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S593" s="26">
+        <f t="shared" si="94"/>
+        <v>3965416.1</v>
+      </c>
+      <c r="T593">
+        <f t="shared" si="95"/>
+        <v>0.20586138430937545</v>
+      </c>
+    </row>
+    <row r="594" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G594">
+        <v>589</v>
+      </c>
+      <c r="H594">
+        <v>10880</v>
+      </c>
+      <c r="I594">
+        <f>SUM($H$5:H594)</f>
+        <v>2994600</v>
+      </c>
+      <c r="J594">
+        <f t="shared" si="96"/>
+        <v>4174.9852396900651</v>
+      </c>
+      <c r="K594">
+        <v>91</v>
+      </c>
+      <c r="L594" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M594" s="7">
+        <f t="shared" si="98"/>
+        <v>80.734899999999996</v>
+      </c>
+      <c r="O594">
+        <v>599</v>
+      </c>
+      <c r="P594" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q594" s="7">
+        <f t="shared" si="93"/>
+        <v>8154.64</v>
+      </c>
+      <c r="R594">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S594" s="26">
+        <f t="shared" si="94"/>
+        <v>3973570.74</v>
+      </c>
+      <c r="T594">
+        <f t="shared" si="95"/>
+        <v>0.20564399282083234</v>
+      </c>
+    </row>
+    <row r="595" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G595">
+        <v>590</v>
+      </c>
+      <c r="H595">
+        <v>10900</v>
+      </c>
+      <c r="I595">
+        <f>SUM($H$5:H595)</f>
+        <v>3005500</v>
+      </c>
+      <c r="J595">
+        <f t="shared" si="96"/>
+        <v>4190.1817063676253</v>
+      </c>
+      <c r="K595">
+        <v>91</v>
+      </c>
+      <c r="L595" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M595" s="7">
+        <f t="shared" si="98"/>
+        <v>80.815700000000007</v>
+      </c>
+      <c r="O595">
+        <v>600</v>
+      </c>
+      <c r="P595" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q595" s="7">
+        <f t="shared" si="93"/>
+        <v>8162.8</v>
+      </c>
+      <c r="R595">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S595" s="26">
+        <f t="shared" si="94"/>
+        <v>3981733.54</v>
+      </c>
+      <c r="T595">
+        <f t="shared" si="95"/>
+        <v>0.20542732303288036</v>
+      </c>
+    </row>
+    <row r="596" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G596">
+        <v>591</v>
+      </c>
+      <c r="H596">
+        <v>10920</v>
+      </c>
+      <c r="I596">
+        <f>SUM($H$5:H596)</f>
+        <v>3016420</v>
+      </c>
+      <c r="J596">
+        <f t="shared" si="96"/>
+        <v>4205.4060564702822</v>
+      </c>
+      <c r="K596">
+        <v>91</v>
+      </c>
+      <c r="L596" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M596" s="7">
+        <f t="shared" si="98"/>
+        <v>80.896599999999992</v>
+      </c>
+      <c r="O596">
+        <v>601</v>
+      </c>
+      <c r="P596" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q596" s="7">
+        <f t="shared" si="93"/>
+        <v>8170.97</v>
+      </c>
+      <c r="R596">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S596" s="26">
+        <f t="shared" si="94"/>
+        <v>3989904.5100000002</v>
+      </c>
+      <c r="T596">
+        <f t="shared" si="95"/>
+        <v>0.20521137132647518</v>
+      </c>
+    </row>
+    <row r="597" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G597">
+        <v>592</v>
+      </c>
+      <c r="H597">
+        <v>10940</v>
+      </c>
+      <c r="I597">
+        <f>SUM($H$5:H597)</f>
+        <v>3027360</v>
+      </c>
+      <c r="J597">
+        <f t="shared" si="96"/>
+        <v>4220.6582899980349</v>
+      </c>
+      <c r="K597">
+        <v>91</v>
+      </c>
+      <c r="L597" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M597" s="7">
+        <f t="shared" si="98"/>
+        <v>80.977500000000006</v>
+      </c>
+      <c r="O597">
+        <v>602</v>
+      </c>
+      <c r="P597" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q597" s="7">
+        <f t="shared" si="93"/>
+        <v>8179.1500000000005</v>
+      </c>
+      <c r="R597">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S597" s="26">
+        <f t="shared" si="94"/>
+        <v>3998083.66</v>
+      </c>
+      <c r="T597">
+        <f t="shared" si="95"/>
+        <v>0.20499613410547277</v>
+      </c>
+    </row>
+    <row r="598" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G598">
+        <v>593</v>
+      </c>
+      <c r="H598">
+        <v>10960</v>
+      </c>
+      <c r="I598">
+        <f>SUM($H$5:H598)</f>
+        <v>3038320</v>
+      </c>
+      <c r="J598">
+        <f t="shared" si="96"/>
+        <v>4235.9384069508842</v>
+      </c>
+      <c r="K598">
+        <v>91</v>
+      </c>
+      <c r="L598" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M598" s="7">
+        <f t="shared" si="98"/>
+        <v>81.058500000000009</v>
+      </c>
+      <c r="O598">
+        <v>603</v>
+      </c>
+      <c r="P598" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q598" s="7">
+        <f t="shared" si="93"/>
+        <v>8187.33</v>
+      </c>
+      <c r="R598">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S598" s="26">
+        <f t="shared" si="94"/>
+        <v>4006270.99</v>
+      </c>
+      <c r="T598">
+        <f t="shared" si="95"/>
+        <v>0.20478135767674441</v>
+      </c>
+    </row>
+    <row r="599" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G599">
+        <v>594</v>
+      </c>
+      <c r="H599">
+        <v>10980</v>
+      </c>
+      <c r="I599">
+        <f>SUM($H$5:H599)</f>
+        <v>3049300</v>
+      </c>
+      <c r="J599">
+        <f t="shared" si="96"/>
+        <v>4251.2464073288302</v>
+      </c>
+      <c r="K599">
+        <v>91</v>
+      </c>
+      <c r="L599" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M599" s="7">
+        <f t="shared" si="98"/>
+        <v>81.139600000000002</v>
+      </c>
+      <c r="O599">
+        <v>604</v>
+      </c>
+      <c r="P599" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q599" s="7">
+        <f t="shared" si="93"/>
+        <v>8195.52</v>
+      </c>
+      <c r="R599">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S599" s="26">
+        <f t="shared" si="94"/>
+        <v>4014466.5100000002</v>
+      </c>
+      <c r="T599">
+        <f t="shared" si="95"/>
+        <v>0.2045672901422981</v>
+      </c>
+    </row>
+    <row r="600" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G600">
+        <v>595</v>
+      </c>
+      <c r="H600">
+        <v>11000</v>
+      </c>
+      <c r="I600">
+        <f>SUM($H$5:H600)</f>
+        <v>3060300</v>
+      </c>
+      <c r="J600">
+        <f t="shared" si="96"/>
+        <v>4266.5822911318728</v>
+      </c>
+      <c r="K600">
+        <v>91</v>
+      </c>
+      <c r="L600" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M600" s="7">
+        <f t="shared" si="98"/>
+        <v>81.220799999999997</v>
+      </c>
+      <c r="O600">
+        <v>605</v>
+      </c>
+      <c r="P600" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q600" s="7">
+        <f t="shared" si="93"/>
+        <v>8203.7199999999993</v>
+      </c>
+      <c r="R600">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S600" s="26">
+        <f t="shared" si="94"/>
+        <v>4022670.2300000004</v>
+      </c>
+      <c r="T600">
+        <f t="shared" si="95"/>
+        <v>0.20435392796439603</v>
+      </c>
+    </row>
+    <row r="601" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G601">
+        <v>596</v>
+      </c>
+      <c r="H601">
+        <v>11020</v>
+      </c>
+      <c r="I601">
+        <f>SUM($H$5:H601)</f>
+        <v>3071320</v>
+      </c>
+      <c r="J601">
+        <f t="shared" si="96"/>
+        <v>4281.9460583600121</v>
+      </c>
+      <c r="K601">
+        <v>91</v>
+      </c>
+      <c r="L601" t="str">
+        <f t="shared" si="97"/>
+        <v>진 요도 피해량</v>
+      </c>
+      <c r="M601" s="7">
+        <f t="shared" si="98"/>
+        <v>81.302099999999996</v>
+      </c>
+      <c r="O601">
+        <v>606</v>
+      </c>
+      <c r="P601" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q601" s="7">
+        <f t="shared" si="93"/>
+        <v>8211.93</v>
+      </c>
+      <c r="R601">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S601" s="26">
+        <f t="shared" si="94"/>
+        <v>4030882.1600000006</v>
+      </c>
+      <c r="T601">
+        <f t="shared" si="95"/>
+        <v>0.20414126762760185</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2671BF2B-CBF1-48B2-988A-A6A7A43692C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124472D6-B723-4BB4-8115-83CD88DF9C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D701"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A691" sqref="A691"/>
+      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C797" sqref="C797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12045,6 +12045,1606 @@
       <c r="D701">
         <f>ROUNDUP(VLOOKUP(A701,Balance!G:M,7,FALSE),0)</f>
         <v>91</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <f>VLOOKUP(A702,Balance!G:H,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="C702">
+        <v>91</v>
+      </c>
+      <c r="D702">
+        <f>ROUNDUP(VLOOKUP(A702,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <f>VLOOKUP(A703,Balance!G:H,2,FALSE)</f>
+        <v>13120</v>
+      </c>
+      <c r="C703">
+        <v>91</v>
+      </c>
+      <c r="D703">
+        <f>ROUNDUP(VLOOKUP(A703,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <f>VLOOKUP(A704,Balance!G:H,2,FALSE)</f>
+        <v>13140</v>
+      </c>
+      <c r="C704">
+        <v>91</v>
+      </c>
+      <c r="D704">
+        <f>ROUNDUP(VLOOKUP(A704,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <f>VLOOKUP(A705,Balance!G:H,2,FALSE)</f>
+        <v>13160</v>
+      </c>
+      <c r="C705">
+        <v>91</v>
+      </c>
+      <c r="D705">
+        <f>ROUNDUP(VLOOKUP(A705,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <f>VLOOKUP(A706,Balance!G:H,2,FALSE)</f>
+        <v>13180</v>
+      </c>
+      <c r="C706">
+        <v>91</v>
+      </c>
+      <c r="D706">
+        <f>ROUNDUP(VLOOKUP(A706,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <f>VLOOKUP(A707,Balance!G:H,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="C707">
+        <v>91</v>
+      </c>
+      <c r="D707">
+        <f>ROUNDUP(VLOOKUP(A707,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <f>VLOOKUP(A708,Balance!G:H,2,FALSE)</f>
+        <v>13220</v>
+      </c>
+      <c r="C708">
+        <v>91</v>
+      </c>
+      <c r="D708">
+        <f>ROUNDUP(VLOOKUP(A708,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <f>VLOOKUP(A709,Balance!G:H,2,FALSE)</f>
+        <v>13240</v>
+      </c>
+      <c r="C709">
+        <v>91</v>
+      </c>
+      <c r="D709">
+        <f>ROUNDUP(VLOOKUP(A709,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <f>VLOOKUP(A710,Balance!G:H,2,FALSE)</f>
+        <v>13260</v>
+      </c>
+      <c r="C710">
+        <v>91</v>
+      </c>
+      <c r="D710">
+        <f>ROUNDUP(VLOOKUP(A710,Balance!G:M,7,FALSE),0)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <f>VLOOKUP(A711,Balance!G:H,2,FALSE)</f>
+        <v>13280</v>
+      </c>
+      <c r="C711">
+        <v>91</v>
+      </c>
+      <c r="D711">
+        <f>ROUNDUP(VLOOKUP(A711,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <f>VLOOKUP(A712,Balance!G:H,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="C712">
+        <v>91</v>
+      </c>
+      <c r="D712">
+        <f>ROUNDUP(VLOOKUP(A712,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <f>VLOOKUP(A713,Balance!G:H,2,FALSE)</f>
+        <v>13320</v>
+      </c>
+      <c r="C713">
+        <v>91</v>
+      </c>
+      <c r="D713">
+        <f>ROUNDUP(VLOOKUP(A713,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <f>VLOOKUP(A714,Balance!G:H,2,FALSE)</f>
+        <v>13340</v>
+      </c>
+      <c r="C714">
+        <v>91</v>
+      </c>
+      <c r="D714">
+        <f>ROUNDUP(VLOOKUP(A714,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <f>VLOOKUP(A715,Balance!G:H,2,FALSE)</f>
+        <v>13360</v>
+      </c>
+      <c r="C715">
+        <v>91</v>
+      </c>
+      <c r="D715">
+        <f>ROUNDUP(VLOOKUP(A715,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <f>VLOOKUP(A716,Balance!G:H,2,FALSE)</f>
+        <v>13380</v>
+      </c>
+      <c r="C716">
+        <v>91</v>
+      </c>
+      <c r="D716">
+        <f>ROUNDUP(VLOOKUP(A716,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <f>VLOOKUP(A717,Balance!G:H,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="C717">
+        <v>91</v>
+      </c>
+      <c r="D717">
+        <f>ROUNDUP(VLOOKUP(A717,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <f>VLOOKUP(A718,Balance!G:H,2,FALSE)</f>
+        <v>13420</v>
+      </c>
+      <c r="C718">
+        <v>91</v>
+      </c>
+      <c r="D718">
+        <f>ROUNDUP(VLOOKUP(A718,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <f>VLOOKUP(A719,Balance!G:H,2,FALSE)</f>
+        <v>13440</v>
+      </c>
+      <c r="C719">
+        <v>91</v>
+      </c>
+      <c r="D719">
+        <f>ROUNDUP(VLOOKUP(A719,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <f>VLOOKUP(A720,Balance!G:H,2,FALSE)</f>
+        <v>13460</v>
+      </c>
+      <c r="C720">
+        <v>91</v>
+      </c>
+      <c r="D720">
+        <f>ROUNDUP(VLOOKUP(A720,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <f>VLOOKUP(A721,Balance!G:H,2,FALSE)</f>
+        <v>13480</v>
+      </c>
+      <c r="C721">
+        <v>91</v>
+      </c>
+      <c r="D721">
+        <f>ROUNDUP(VLOOKUP(A721,Balance!G:M,7,FALSE),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <f>VLOOKUP(A722,Balance!G:H,2,FALSE)</f>
+        <v>13500</v>
+      </c>
+      <c r="C722">
+        <v>91</v>
+      </c>
+      <c r="D722">
+        <f>ROUNDUP(VLOOKUP(A722,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <f>VLOOKUP(A723,Balance!G:H,2,FALSE)</f>
+        <v>13520</v>
+      </c>
+      <c r="C723">
+        <v>91</v>
+      </c>
+      <c r="D723">
+        <f>ROUNDUP(VLOOKUP(A723,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <f>VLOOKUP(A724,Balance!G:H,2,FALSE)</f>
+        <v>13540</v>
+      </c>
+      <c r="C724">
+        <v>91</v>
+      </c>
+      <c r="D724">
+        <f>ROUNDUP(VLOOKUP(A724,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <f>VLOOKUP(A725,Balance!G:H,2,FALSE)</f>
+        <v>13560</v>
+      </c>
+      <c r="C725">
+        <v>91</v>
+      </c>
+      <c r="D725">
+        <f>ROUNDUP(VLOOKUP(A725,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <f>VLOOKUP(A726,Balance!G:H,2,FALSE)</f>
+        <v>13580</v>
+      </c>
+      <c r="C726">
+        <v>91</v>
+      </c>
+      <c r="D726">
+        <f>ROUNDUP(VLOOKUP(A726,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <f>VLOOKUP(A727,Balance!G:H,2,FALSE)</f>
+        <v>13600</v>
+      </c>
+      <c r="C727">
+        <v>91</v>
+      </c>
+      <c r="D727">
+        <f>ROUNDUP(VLOOKUP(A727,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <f>VLOOKUP(A728,Balance!G:H,2,FALSE)</f>
+        <v>13620</v>
+      </c>
+      <c r="C728">
+        <v>91</v>
+      </c>
+      <c r="D728">
+        <f>ROUNDUP(VLOOKUP(A728,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <f>VLOOKUP(A729,Balance!G:H,2,FALSE)</f>
+        <v>13640</v>
+      </c>
+      <c r="C729">
+        <v>91</v>
+      </c>
+      <c r="D729">
+        <f>ROUNDUP(VLOOKUP(A729,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <f>VLOOKUP(A730,Balance!G:H,2,FALSE)</f>
+        <v>13660</v>
+      </c>
+      <c r="C730">
+        <v>91</v>
+      </c>
+      <c r="D730">
+        <f>ROUNDUP(VLOOKUP(A730,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <f>VLOOKUP(A731,Balance!G:H,2,FALSE)</f>
+        <v>13680</v>
+      </c>
+      <c r="C731">
+        <v>91</v>
+      </c>
+      <c r="D731">
+        <f>ROUNDUP(VLOOKUP(A731,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <f>VLOOKUP(A732,Balance!G:H,2,FALSE)</f>
+        <v>13700</v>
+      </c>
+      <c r="C732">
+        <v>91</v>
+      </c>
+      <c r="D732">
+        <f>ROUNDUP(VLOOKUP(A732,Balance!G:M,7,FALSE),0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <f>VLOOKUP(A733,Balance!G:H,2,FALSE)</f>
+        <v>13720</v>
+      </c>
+      <c r="C733">
+        <v>91</v>
+      </c>
+      <c r="D733">
+        <f>ROUNDUP(VLOOKUP(A733,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <f>VLOOKUP(A734,Balance!G:H,2,FALSE)</f>
+        <v>13740</v>
+      </c>
+      <c r="C734">
+        <v>91</v>
+      </c>
+      <c r="D734">
+        <f>ROUNDUP(VLOOKUP(A734,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <f>VLOOKUP(A735,Balance!G:H,2,FALSE)</f>
+        <v>13760</v>
+      </c>
+      <c r="C735">
+        <v>91</v>
+      </c>
+      <c r="D735">
+        <f>ROUNDUP(VLOOKUP(A735,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <f>VLOOKUP(A736,Balance!G:H,2,FALSE)</f>
+        <v>13780</v>
+      </c>
+      <c r="C736">
+        <v>91</v>
+      </c>
+      <c r="D736">
+        <f>ROUNDUP(VLOOKUP(A736,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <f>VLOOKUP(A737,Balance!G:H,2,FALSE)</f>
+        <v>13800</v>
+      </c>
+      <c r="C737">
+        <v>91</v>
+      </c>
+      <c r="D737">
+        <f>ROUNDUP(VLOOKUP(A737,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <f>VLOOKUP(A738,Balance!G:H,2,FALSE)</f>
+        <v>13820</v>
+      </c>
+      <c r="C738">
+        <v>91</v>
+      </c>
+      <c r="D738">
+        <f>ROUNDUP(VLOOKUP(A738,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <f>VLOOKUP(A739,Balance!G:H,2,FALSE)</f>
+        <v>13840</v>
+      </c>
+      <c r="C739">
+        <v>91</v>
+      </c>
+      <c r="D739">
+        <f>ROUNDUP(VLOOKUP(A739,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <f>VLOOKUP(A740,Balance!G:H,2,FALSE)</f>
+        <v>13860</v>
+      </c>
+      <c r="C740">
+        <v>91</v>
+      </c>
+      <c r="D740">
+        <f>ROUNDUP(VLOOKUP(A740,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <f>VLOOKUP(A741,Balance!G:H,2,FALSE)</f>
+        <v>13880</v>
+      </c>
+      <c r="C741">
+        <v>91</v>
+      </c>
+      <c r="D741">
+        <f>ROUNDUP(VLOOKUP(A741,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <f>VLOOKUP(A742,Balance!G:H,2,FALSE)</f>
+        <v>13900</v>
+      </c>
+      <c r="C742">
+        <v>91</v>
+      </c>
+      <c r="D742">
+        <f>ROUNDUP(VLOOKUP(A742,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <f>VLOOKUP(A743,Balance!G:H,2,FALSE)</f>
+        <v>13920</v>
+      </c>
+      <c r="C743">
+        <v>91</v>
+      </c>
+      <c r="D743">
+        <f>ROUNDUP(VLOOKUP(A743,Balance!G:M,7,FALSE),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <f>VLOOKUP(A744,Balance!G:H,2,FALSE)</f>
+        <v>13940</v>
+      </c>
+      <c r="C744">
+        <v>91</v>
+      </c>
+      <c r="D744">
+        <f>ROUNDUP(VLOOKUP(A744,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <f>VLOOKUP(A745,Balance!G:H,2,FALSE)</f>
+        <v>13960</v>
+      </c>
+      <c r="C745">
+        <v>91</v>
+      </c>
+      <c r="D745">
+        <f>ROUNDUP(VLOOKUP(A745,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <f>VLOOKUP(A746,Balance!G:H,2,FALSE)</f>
+        <v>13980</v>
+      </c>
+      <c r="C746">
+        <v>91</v>
+      </c>
+      <c r="D746">
+        <f>ROUNDUP(VLOOKUP(A746,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <f>VLOOKUP(A747,Balance!G:H,2,FALSE)</f>
+        <v>14000</v>
+      </c>
+      <c r="C747">
+        <v>91</v>
+      </c>
+      <c r="D747">
+        <f>ROUNDUP(VLOOKUP(A747,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <f>VLOOKUP(A748,Balance!G:H,2,FALSE)</f>
+        <v>14020</v>
+      </c>
+      <c r="C748">
+        <v>91</v>
+      </c>
+      <c r="D748">
+        <f>ROUNDUP(VLOOKUP(A748,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <f>VLOOKUP(A749,Balance!G:H,2,FALSE)</f>
+        <v>14040</v>
+      </c>
+      <c r="C749">
+        <v>91</v>
+      </c>
+      <c r="D749">
+        <f>ROUNDUP(VLOOKUP(A749,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <f>VLOOKUP(A750,Balance!G:H,2,FALSE)</f>
+        <v>14060</v>
+      </c>
+      <c r="C750">
+        <v>91</v>
+      </c>
+      <c r="D750">
+        <f>ROUNDUP(VLOOKUP(A750,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <f>VLOOKUP(A751,Balance!G:H,2,FALSE)</f>
+        <v>14080</v>
+      </c>
+      <c r="C751">
+        <v>91</v>
+      </c>
+      <c r="D751">
+        <f>ROUNDUP(VLOOKUP(A751,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <f>VLOOKUP(A752,Balance!G:H,2,FALSE)</f>
+        <v>14100</v>
+      </c>
+      <c r="C752">
+        <v>91</v>
+      </c>
+      <c r="D752">
+        <f>ROUNDUP(VLOOKUP(A752,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <f>VLOOKUP(A753,Balance!G:H,2,FALSE)</f>
+        <v>14120</v>
+      </c>
+      <c r="C753">
+        <v>91</v>
+      </c>
+      <c r="D753">
+        <f>ROUNDUP(VLOOKUP(A753,Balance!G:M,7,FALSE),0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <f>VLOOKUP(A754,Balance!G:H,2,FALSE)</f>
+        <v>14140</v>
+      </c>
+      <c r="C754">
+        <v>91</v>
+      </c>
+      <c r="D754">
+        <f>ROUNDUP(VLOOKUP(A754,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <f>VLOOKUP(A755,Balance!G:H,2,FALSE)</f>
+        <v>14160</v>
+      </c>
+      <c r="C755">
+        <v>91</v>
+      </c>
+      <c r="D755">
+        <f>ROUNDUP(VLOOKUP(A755,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <f>VLOOKUP(A756,Balance!G:H,2,FALSE)</f>
+        <v>14180</v>
+      </c>
+      <c r="C756">
+        <v>91</v>
+      </c>
+      <c r="D756">
+        <f>ROUNDUP(VLOOKUP(A756,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <f>VLOOKUP(A757,Balance!G:H,2,FALSE)</f>
+        <v>14200</v>
+      </c>
+      <c r="C757">
+        <v>91</v>
+      </c>
+      <c r="D757">
+        <f>ROUNDUP(VLOOKUP(A757,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <f>VLOOKUP(A758,Balance!G:H,2,FALSE)</f>
+        <v>14220</v>
+      </c>
+      <c r="C758">
+        <v>91</v>
+      </c>
+      <c r="D758">
+        <f>ROUNDUP(VLOOKUP(A758,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <f>VLOOKUP(A759,Balance!G:H,2,FALSE)</f>
+        <v>14240</v>
+      </c>
+      <c r="C759">
+        <v>91</v>
+      </c>
+      <c r="D759">
+        <f>ROUNDUP(VLOOKUP(A759,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <f>VLOOKUP(A760,Balance!G:H,2,FALSE)</f>
+        <v>14260</v>
+      </c>
+      <c r="C760">
+        <v>91</v>
+      </c>
+      <c r="D760">
+        <f>ROUNDUP(VLOOKUP(A760,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <f>VLOOKUP(A761,Balance!G:H,2,FALSE)</f>
+        <v>14280</v>
+      </c>
+      <c r="C761">
+        <v>91</v>
+      </c>
+      <c r="D761">
+        <f>ROUNDUP(VLOOKUP(A761,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <f>VLOOKUP(A762,Balance!G:H,2,FALSE)</f>
+        <v>14300</v>
+      </c>
+      <c r="C762">
+        <v>91</v>
+      </c>
+      <c r="D762">
+        <f>ROUNDUP(VLOOKUP(A762,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <f>VLOOKUP(A763,Balance!G:H,2,FALSE)</f>
+        <v>14320</v>
+      </c>
+      <c r="C763">
+        <v>91</v>
+      </c>
+      <c r="D763">
+        <f>ROUNDUP(VLOOKUP(A763,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <f>VLOOKUP(A764,Balance!G:H,2,FALSE)</f>
+        <v>14340</v>
+      </c>
+      <c r="C764">
+        <v>91</v>
+      </c>
+      <c r="D764">
+        <f>ROUNDUP(VLOOKUP(A764,Balance!G:M,7,FALSE),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <f>VLOOKUP(A765,Balance!G:H,2,FALSE)</f>
+        <v>14360</v>
+      </c>
+      <c r="C765">
+        <v>91</v>
+      </c>
+      <c r="D765">
+        <f>ROUNDUP(VLOOKUP(A765,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <f>VLOOKUP(A766,Balance!G:H,2,FALSE)</f>
+        <v>14380</v>
+      </c>
+      <c r="C766">
+        <v>91</v>
+      </c>
+      <c r="D766">
+        <f>ROUNDUP(VLOOKUP(A766,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <f>VLOOKUP(A767,Balance!G:H,2,FALSE)</f>
+        <v>14400</v>
+      </c>
+      <c r="C767">
+        <v>91</v>
+      </c>
+      <c r="D767">
+        <f>ROUNDUP(VLOOKUP(A767,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <f>VLOOKUP(A768,Balance!G:H,2,FALSE)</f>
+        <v>14420</v>
+      </c>
+      <c r="C768">
+        <v>91</v>
+      </c>
+      <c r="D768">
+        <f>ROUNDUP(VLOOKUP(A768,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <f>VLOOKUP(A769,Balance!G:H,2,FALSE)</f>
+        <v>14440</v>
+      </c>
+      <c r="C769">
+        <v>91</v>
+      </c>
+      <c r="D769">
+        <f>ROUNDUP(VLOOKUP(A769,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <f>VLOOKUP(A770,Balance!G:H,2,FALSE)</f>
+        <v>14460</v>
+      </c>
+      <c r="C770">
+        <v>91</v>
+      </c>
+      <c r="D770">
+        <f>ROUNDUP(VLOOKUP(A770,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <f>VLOOKUP(A771,Balance!G:H,2,FALSE)</f>
+        <v>14480</v>
+      </c>
+      <c r="C771">
+        <v>91</v>
+      </c>
+      <c r="D771">
+        <f>ROUNDUP(VLOOKUP(A771,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <f>VLOOKUP(A772,Balance!G:H,2,FALSE)</f>
+        <v>14500</v>
+      </c>
+      <c r="C772">
+        <v>91</v>
+      </c>
+      <c r="D772">
+        <f>ROUNDUP(VLOOKUP(A772,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <f>VLOOKUP(A773,Balance!G:H,2,FALSE)</f>
+        <v>14520</v>
+      </c>
+      <c r="C773">
+        <v>91</v>
+      </c>
+      <c r="D773">
+        <f>ROUNDUP(VLOOKUP(A773,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <f>VLOOKUP(A774,Balance!G:H,2,FALSE)</f>
+        <v>14540</v>
+      </c>
+      <c r="C774">
+        <v>91</v>
+      </c>
+      <c r="D774">
+        <f>ROUNDUP(VLOOKUP(A774,Balance!G:M,7,FALSE),0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <f>VLOOKUP(A775,Balance!G:H,2,FALSE)</f>
+        <v>14560</v>
+      </c>
+      <c r="C775">
+        <v>91</v>
+      </c>
+      <c r="D775">
+        <f>ROUNDUP(VLOOKUP(A775,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <f>VLOOKUP(A776,Balance!G:H,2,FALSE)</f>
+        <v>14580</v>
+      </c>
+      <c r="C776">
+        <v>91</v>
+      </c>
+      <c r="D776">
+        <f>ROUNDUP(VLOOKUP(A776,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <f>VLOOKUP(A777,Balance!G:H,2,FALSE)</f>
+        <v>14600</v>
+      </c>
+      <c r="C777">
+        <v>91</v>
+      </c>
+      <c r="D777">
+        <f>ROUNDUP(VLOOKUP(A777,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <f>VLOOKUP(A778,Balance!G:H,2,FALSE)</f>
+        <v>14620</v>
+      </c>
+      <c r="C778">
+        <v>91</v>
+      </c>
+      <c r="D778">
+        <f>ROUNDUP(VLOOKUP(A778,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <f>VLOOKUP(A779,Balance!G:H,2,FALSE)</f>
+        <v>14640</v>
+      </c>
+      <c r="C779">
+        <v>91</v>
+      </c>
+      <c r="D779">
+        <f>ROUNDUP(VLOOKUP(A779,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <f>VLOOKUP(A780,Balance!G:H,2,FALSE)</f>
+        <v>14660</v>
+      </c>
+      <c r="C780">
+        <v>91</v>
+      </c>
+      <c r="D780">
+        <f>ROUNDUP(VLOOKUP(A780,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <f>VLOOKUP(A781,Balance!G:H,2,FALSE)</f>
+        <v>14680</v>
+      </c>
+      <c r="C781">
+        <v>91</v>
+      </c>
+      <c r="D781">
+        <f>ROUNDUP(VLOOKUP(A781,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <f>VLOOKUP(A782,Balance!G:H,2,FALSE)</f>
+        <v>14700</v>
+      </c>
+      <c r="C782">
+        <v>91</v>
+      </c>
+      <c r="D782">
+        <f>ROUNDUP(VLOOKUP(A782,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <f>VLOOKUP(A783,Balance!G:H,2,FALSE)</f>
+        <v>14720</v>
+      </c>
+      <c r="C783">
+        <v>91</v>
+      </c>
+      <c r="D783">
+        <f>ROUNDUP(VLOOKUP(A783,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <f>VLOOKUP(A784,Balance!G:H,2,FALSE)</f>
+        <v>14740</v>
+      </c>
+      <c r="C784">
+        <v>91</v>
+      </c>
+      <c r="D784">
+        <f>ROUNDUP(VLOOKUP(A784,Balance!G:M,7,FALSE),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <f>VLOOKUP(A785,Balance!G:H,2,FALSE)</f>
+        <v>14760</v>
+      </c>
+      <c r="C785">
+        <v>91</v>
+      </c>
+      <c r="D785">
+        <f>ROUNDUP(VLOOKUP(A785,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <f>VLOOKUP(A786,Balance!G:H,2,FALSE)</f>
+        <v>14780</v>
+      </c>
+      <c r="C786">
+        <v>91</v>
+      </c>
+      <c r="D786">
+        <f>ROUNDUP(VLOOKUP(A786,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <f>VLOOKUP(A787,Balance!G:H,2,FALSE)</f>
+        <v>14800</v>
+      </c>
+      <c r="C787">
+        <v>91</v>
+      </c>
+      <c r="D787">
+        <f>ROUNDUP(VLOOKUP(A787,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <f>VLOOKUP(A788,Balance!G:H,2,FALSE)</f>
+        <v>14820</v>
+      </c>
+      <c r="C788">
+        <v>91</v>
+      </c>
+      <c r="D788">
+        <f>ROUNDUP(VLOOKUP(A788,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <f>VLOOKUP(A789,Balance!G:H,2,FALSE)</f>
+        <v>14840</v>
+      </c>
+      <c r="C789">
+        <v>91</v>
+      </c>
+      <c r="D789">
+        <f>ROUNDUP(VLOOKUP(A789,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <f>VLOOKUP(A790,Balance!G:H,2,FALSE)</f>
+        <v>14860</v>
+      </c>
+      <c r="C790">
+        <v>91</v>
+      </c>
+      <c r="D790">
+        <f>ROUNDUP(VLOOKUP(A790,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <f>VLOOKUP(A791,Balance!G:H,2,FALSE)</f>
+        <v>14880</v>
+      </c>
+      <c r="C791">
+        <v>91</v>
+      </c>
+      <c r="D791">
+        <f>ROUNDUP(VLOOKUP(A791,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <f>VLOOKUP(A792,Balance!G:H,2,FALSE)</f>
+        <v>14900</v>
+      </c>
+      <c r="C792">
+        <v>91</v>
+      </c>
+      <c r="D792">
+        <f>ROUNDUP(VLOOKUP(A792,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <f>VLOOKUP(A793,Balance!G:H,2,FALSE)</f>
+        <v>14920</v>
+      </c>
+      <c r="C793">
+        <v>91</v>
+      </c>
+      <c r="D793">
+        <f>ROUNDUP(VLOOKUP(A793,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <f>VLOOKUP(A794,Balance!G:H,2,FALSE)</f>
+        <v>14940</v>
+      </c>
+      <c r="C794">
+        <v>91</v>
+      </c>
+      <c r="D794">
+        <f>ROUNDUP(VLOOKUP(A794,Balance!G:M,7,FALSE),0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <f>VLOOKUP(A795,Balance!G:H,2,FALSE)</f>
+        <v>14960</v>
+      </c>
+      <c r="C795">
+        <v>91</v>
+      </c>
+      <c r="D795">
+        <f>ROUNDUP(VLOOKUP(A795,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <f>VLOOKUP(A796,Balance!G:H,2,FALSE)</f>
+        <v>14980</v>
+      </c>
+      <c r="C796">
+        <v>91</v>
+      </c>
+      <c r="D796">
+        <f>ROUNDUP(VLOOKUP(A796,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <f>VLOOKUP(A797,Balance!G:H,2,FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="C797">
+        <v>91</v>
+      </c>
+      <c r="D797">
+        <f>ROUNDUP(VLOOKUP(A797,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <f>VLOOKUP(A798,Balance!G:H,2,FALSE)</f>
+        <v>15020</v>
+      </c>
+      <c r="C798">
+        <v>91</v>
+      </c>
+      <c r="D798">
+        <f>ROUNDUP(VLOOKUP(A798,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <f>VLOOKUP(A799,Balance!G:H,2,FALSE)</f>
+        <v>15040</v>
+      </c>
+      <c r="C799">
+        <v>91</v>
+      </c>
+      <c r="D799">
+        <f>ROUNDUP(VLOOKUP(A799,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <f>VLOOKUP(A800,Balance!G:H,2,FALSE)</f>
+        <v>15060</v>
+      </c>
+      <c r="C800">
+        <v>91</v>
+      </c>
+      <c r="D800">
+        <f>ROUNDUP(VLOOKUP(A800,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <f>VLOOKUP(A801,Balance!G:H,2,FALSE)</f>
+        <v>15080</v>
+      </c>
+      <c r="C801">
+        <v>91</v>
+      </c>
+      <c r="D801">
+        <f>ROUNDUP(VLOOKUP(A801,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordEvolution.xlsx
+++ b/Assets/06.Table/SealSwordEvolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124472D6-B723-4BB4-8115-83CD88DF9C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25179D-C194-4A58-8EC9-BA42F30BA965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1019,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D801"/>
+  <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C797" sqref="C797"/>
+      <pane ySplit="1" topLeftCell="A976" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1002" sqref="D1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13645,6 +13645,3222 @@
       <c r="D801">
         <f>ROUNDUP(VLOOKUP(A801,Balance!G:M,7,FALSE),0)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <f>VLOOKUP(A802,Balance!G:H,2,FALSE)</f>
+        <v>15100</v>
+      </c>
+      <c r="C802">
+        <v>91</v>
+      </c>
+      <c r="D802">
+        <f>ROUNDUP(VLOOKUP(A802,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <f>VLOOKUP(A803,Balance!G:H,2,FALSE)</f>
+        <v>15120</v>
+      </c>
+      <c r="C803">
+        <v>91</v>
+      </c>
+      <c r="D803">
+        <f>ROUNDUP(VLOOKUP(A803,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <f>VLOOKUP(A804,Balance!G:H,2,FALSE)</f>
+        <v>15140</v>
+      </c>
+      <c r="C804">
+        <v>91</v>
+      </c>
+      <c r="D804">
+        <f>ROUNDUP(VLOOKUP(A804,Balance!G:M,7,FALSE),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <f>VLOOKUP(A805,Balance!G:H,2,FALSE)</f>
+        <v>15160</v>
+      </c>
+      <c r="C805">
+        <v>91</v>
+      </c>
+      <c r="D805">
+        <f>ROUNDUP(VLOOKUP(A805,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <f>VLOOKUP(A806,Balance!G:H,2,FALSE)</f>
+        <v>15180</v>
+      </c>
+      <c r="C806">
+        <v>91</v>
+      </c>
+      <c r="D806">
+        <f>ROUNDUP(VLOOKUP(A806,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <f>VLOOKUP(A807,Balance!G:H,2,FALSE)</f>
+        <v>15200</v>
+      </c>
+      <c r="C807">
+        <v>91</v>
+      </c>
+      <c r="D807">
+        <f>ROUNDUP(VLOOKUP(A807,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <f>VLOOKUP(A808,Balance!G:H,2,FALSE)</f>
+        <v>15220</v>
+      </c>
+      <c r="C808">
+        <v>91</v>
+      </c>
+      <c r="D808">
+        <f>ROUNDUP(VLOOKUP(A808,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <f>VLOOKUP(A809,Balance!G:H,2,FALSE)</f>
+        <v>15240</v>
+      </c>
+      <c r="C809">
+        <v>91</v>
+      </c>
+      <c r="D809">
+        <f>ROUNDUP(VLOOKUP(A809,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <f>VLOOKUP(A810,Balance!G:H,2,FALSE)</f>
+        <v>15260</v>
+      </c>
+      <c r="C810">
+        <v>91</v>
+      </c>
+      <c r="D810">
+        <f>ROUNDUP(VLOOKUP(A810,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <f>VLOOKUP(A811,Balance!G:H,2,FALSE)</f>
+        <v>15280</v>
+      </c>
+      <c r="C811">
+        <v>91</v>
+      </c>
+      <c r="D811">
+        <f>ROUNDUP(VLOOKUP(A811,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <f>VLOOKUP(A812,Balance!G:H,2,FALSE)</f>
+        <v>15300</v>
+      </c>
+      <c r="C812">
+        <v>91</v>
+      </c>
+      <c r="D812">
+        <f>ROUNDUP(VLOOKUP(A812,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <f>VLOOKUP(A813,Balance!G:H,2,FALSE)</f>
+        <v>15320</v>
+      </c>
+      <c r="C813">
+        <v>91</v>
+      </c>
+      <c r="D813">
+        <f>ROUNDUP(VLOOKUP(A813,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <f>VLOOKUP(A814,Balance!G:H,2,FALSE)</f>
+        <v>15340</v>
+      </c>
+      <c r="C814">
+        <v>91</v>
+      </c>
+      <c r="D814">
+        <f>ROUNDUP(VLOOKUP(A814,Balance!G:M,7,FALSE),0)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <f>VLOOKUP(A815,Balance!G:H,2,FALSE)</f>
+        <v>15360</v>
+      </c>
+      <c r="C815">
+        <v>91</v>
+      </c>
+      <c r="D815">
+        <f>ROUNDUP(VLOOKUP(A815,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <f>VLOOKUP(A816,Balance!G:H,2,FALSE)</f>
+        <v>15380</v>
+      </c>
+      <c r="C816">
+        <v>91</v>
+      </c>
+      <c r="D816">
+        <f>ROUNDUP(VLOOKUP(A816,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <f>VLOOKUP(A817,Balance!G:H,2,FALSE)</f>
+        <v>15400</v>
+      </c>
+      <c r="C817">
+        <v>91</v>
+      </c>
+      <c r="D817">
+        <f>ROUNDUP(VLOOKUP(A817,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <f>VLOOKUP(A818,Balance!G:H,2,FALSE)</f>
+        <v>15420</v>
+      </c>
+      <c r="C818">
+        <v>91</v>
+      </c>
+      <c r="D818">
+        <f>ROUNDUP(VLOOKUP(A818,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <f>VLOOKUP(A819,Balance!G:H,2,FALSE)</f>
+        <v>15440</v>
+      </c>
+      <c r="C819">
+        <v>91</v>
+      </c>
+      <c r="D819">
+        <f>ROUNDUP(VLOOKUP(A819,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <f>VLOOKUP(A820,Balance!G:H,2,FALSE)</f>
+        <v>15460</v>
+      </c>
+      <c r="C820">
+        <v>91</v>
+      </c>
+      <c r="D820">
+        <f>ROUNDUP(VLOOKUP(A820,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <f>VLOOKUP(A821,Balance!G:H,2,FALSE)</f>
+        <v>15480</v>
+      </c>
+      <c r="C821">
+        <v>91</v>
+      </c>
+      <c r="D821">
+        <f>ROUNDUP(VLOOKUP(A821,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <f>VLOOKUP(A822,Balance!G:H,2,FALSE)</f>
+        <v>15500</v>
+      </c>
+      <c r="C822">
+        <v>91</v>
+      </c>
+      <c r="D822">
+        <f>ROUNDUP(VLOOKUP(A822,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <f>VLOOKUP(A823,Balance!G:H,2,FALSE)</f>
+        <v>15520</v>
+      </c>
+      <c r="C823">
+        <v>91</v>
+      </c>
+      <c r="D823">
+        <f>ROUNDUP(VLOOKUP(A823,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <f>VLOOKUP(A824,Balance!G:H,2,FALSE)</f>
+        <v>15540</v>
+      </c>
+      <c r="C824">
+        <v>91</v>
+      </c>
+      <c r="D824">
+        <f>ROUNDUP(VLOOKUP(A824,Balance!G:M,7,FALSE),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <f>VLOOKUP(A825,Balance!G:H,2,FALSE)</f>
+        <v>15560</v>
+      </c>
+      <c r="C825">
+        <v>91</v>
+      </c>
+      <c r="D825">
+        <f>ROUNDUP(VLOOKUP(A825,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <f>VLOOKUP(A826,Balance!G:H,2,FALSE)</f>
+        <v>15580</v>
+      </c>
+      <c r="C826">
+        <v>91</v>
+      </c>
+      <c r="D826">
+        <f>ROUNDUP(VLOOKUP(A826,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <f>VLOOKUP(A827,Balance!G:H,2,FALSE)</f>
+        <v>15600</v>
+      </c>
+      <c r="C827">
+        <v>91</v>
+      </c>
+      <c r="D827">
+        <f>ROUNDUP(VLOOKUP(A827,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <f>VLOOKUP(A828,Balance!G:H,2,FALSE)</f>
+        <v>15620</v>
+      </c>
+      <c r="C828">
+        <v>91</v>
+      </c>
+      <c r="D828">
+        <f>ROUNDUP(VLOOKUP(A828,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <f>VLOOKUP(A829,Balance!G:H,2,FALSE)</f>
+        <v>15640</v>
+      </c>
+      <c r="C829">
+        <v>91</v>
+      </c>
+      <c r="D829">
+        <f>ROUNDUP(VLOOKUP(A829,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <f>VLOOKUP(A830,Balance!G:H,2,FALSE)</f>
+        <v>15660</v>
+      </c>
+      <c r="C830">
+        <v>91</v>
+      </c>
+      <c r="D830">
+        <f>ROUNDUP(VLOOKUP(A830,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <f>VLOOKUP(A831,Balance!G:H,2,FALSE)</f>
+        <v>15680</v>
+      </c>
+      <c r="C831">
+        <v>91</v>
+      </c>
+      <c r="D831">
+        <f>ROUNDUP(VLOOKUP(A831,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <f>VLOOKUP(A832,Balance!G:H,2,FALSE)</f>
+        <v>15700</v>
+      </c>
+      <c r="C832">
+        <v>91</v>
+      </c>
+      <c r="D832">
+        <f>ROUNDUP(VLOOKUP(A832,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <f>VLOOKUP(A833,Balance!G:H,2,FALSE)</f>
+        <v>15720</v>
+      </c>
+      <c r="C833">
+        <v>91</v>
+      </c>
+      <c r="D833">
+        <f>ROUNDUP(VLOOKUP(A833,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <f>VLOOKUP(A834,Balance!G:H,2,FALSE)</f>
+        <v>15740</v>
+      </c>
+      <c r="C834">
+        <v>91</v>
+      </c>
+      <c r="D834">
+        <f>ROUNDUP(VLOOKUP(A834,Balance!G:M,7,FALSE),0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <f>VLOOKUP(A835,Balance!G:H,2,FALSE)</f>
+        <v>15760</v>
+      </c>
+      <c r="C835">
+        <v>91</v>
+      </c>
+      <c r="D835">
+        <f>ROUNDUP(VLOOKUP(A835,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <f>VLOOKUP(A836,Balance!G:H,2,FALSE)</f>
+        <v>15780</v>
+      </c>
+      <c r="C836">
+        <v>91</v>
+      </c>
+      <c r="D836">
+        <f>ROUNDUP(VLOOKUP(A836,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <f>VLOOKUP(A837,Balance!G:H,2,FALSE)</f>
+        <v>15800</v>
+      </c>
+      <c r="C837">
+        <v>91</v>
+      </c>
+      <c r="D837">
+        <f>ROUNDUP(VLOOKUP(A837,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <f>VLOOKUP(A838,Balance!G:H,2,FALSE)</f>
+        <v>15820</v>
+      </c>
+      <c r="C838">
+        <v>91</v>
+      </c>
+      <c r="D838">
+        <f>ROUNDUP(VLOOKUP(A838,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <f>VLOOKUP(A839,Balance!G:H,2,FALSE)</f>
+        <v>15840</v>
+      </c>
+      <c r="C839">
+        <v>91</v>
+      </c>
+      <c r="D839">
+        <f>ROUNDUP(VLOOKUP(A839,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <f>VLOOKUP(A840,Balance!G:H,2,FALSE)</f>
+        <v>15860</v>
+      </c>
+      <c r="C840">
+        <v>91</v>
+      </c>
+      <c r="D840">
+        <f>ROUNDUP(VLOOKUP(A840,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <f>VLOOKUP(A841,Balance!G:H,2,FALSE)</f>
+        <v>15880</v>
+      </c>
+      <c r="C841">
+        <v>91</v>
+      </c>
+      <c r="D841">
+        <f>ROUNDUP(VLOOKUP(A841,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <f>VLOOKUP(A842,Balance!G:H,2,FALSE)</f>
+        <v>15900</v>
+      </c>
+      <c r="C842">
+        <v>91</v>
+      </c>
+      <c r="D842">
+        <f>ROUNDUP(VLOOKUP(A842,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <f>VLOOKUP(A843,Balance!G:H,2,FALSE)</f>
+        <v>15920</v>
+      </c>
+      <c r="C843">
+        <v>91</v>
+      </c>
+      <c r="D843">
+        <f>ROUNDUP(VLOOKUP(A843,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <f>VLOOKUP(A844,Balance!G:H,2,FALSE)</f>
+        <v>15940</v>
+      </c>
+      <c r="C844">
+        <v>91</v>
+      </c>
+      <c r="D844">
+        <f>ROUNDUP(VLOOKUP(A844,Balance!G:M,7,FALSE),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <f>VLOOKUP(A845,Balance!G:H,2,FALSE)</f>
+        <v>15960</v>
+      </c>
+      <c r="C845">
+        <v>91</v>
+      </c>
+      <c r="D845">
+        <f>ROUNDUP(VLOOKUP(A845,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <f>VLOOKUP(A846,Balance!G:H,2,FALSE)</f>
+        <v>15980</v>
+      </c>
+      <c r="C846">
+        <v>91</v>
+      </c>
+      <c r="D846">
+        <f>ROUNDUP(VLOOKUP(A846,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <f>VLOOKUP(A847,Balance!G:H,2,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="C847">
+        <v>91</v>
+      </c>
+      <c r="D847">
+        <f>ROUNDUP(VLOOKUP(A847,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <f>VLOOKUP(A848,Balance!G:H,2,FALSE)</f>
+        <v>16020</v>
+      </c>
+      <c r="C848">
+        <v>91</v>
+      </c>
+      <c r="D848">
+        <f>ROUNDUP(VLOOKUP(A848,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <f>VLOOKUP(A849,Balance!G:H,2,FALSE)</f>
+        <v>16040</v>
+      </c>
+      <c r="C849">
+        <v>91</v>
+      </c>
+      <c r="D849">
+        <f>ROUNDUP(VLOOKUP(A849,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <f>VLOOKUP(A850,Balance!G:H,2,FALSE)</f>
+        <v>16060</v>
+      </c>
+      <c r="C850">
+        <v>91</v>
+      </c>
+      <c r="D850">
+        <f>ROUNDUP(VLOOKUP(A850,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <f>VLOOKUP(A851,Balance!G:H,2,FALSE)</f>
+        <v>16080</v>
+      </c>
+      <c r="C851">
+        <v>91</v>
+      </c>
+      <c r="D851">
+        <f>ROUNDUP(VLOOKUP(A851,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <f>VLOOKUP(A852,Balance!G:H,2,FALSE)</f>
+        <v>16100</v>
+      </c>
+      <c r="C852">
+        <v>91</v>
+      </c>
+      <c r="D852">
+        <f>ROUNDUP(VLOOKUP(A852,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <f>VLOOKUP(A853,Balance!G:H,2,FALSE)</f>
+        <v>16120</v>
+      </c>
+      <c r="C853">
+        <v>91</v>
+      </c>
+      <c r="D853">
+        <f>ROUNDUP(VLOOKUP(A853,Balance!G:M,7,FALSE),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <f>VLOOKUP(A854,Balance!G:H,2,FALSE)</f>
+        <v>16140</v>
+      </c>
+      <c r="C854">
+        <v>91</v>
+      </c>
+      <c r="D854">
+        <f>ROUNDUP(VLOOKUP(A854,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <f>VLOOKUP(A855,Balance!G:H,2,FALSE)</f>
+        <v>16160</v>
+      </c>
+      <c r="C855">
+        <v>91</v>
+      </c>
+      <c r="D855">
+        <f>ROUNDUP(VLOOKUP(A855,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <f>VLOOKUP(A856,Balance!G:H,2,FALSE)</f>
+        <v>16180</v>
+      </c>
+      <c r="C856">
+        <v>91</v>
+      </c>
+      <c r="D856">
+        <f>ROUNDUP(VLOOKUP(A856,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <f>VLOOKUP(A857,Balance!G:H,2,FALSE)</f>
+        <v>16200</v>
+      </c>
+      <c r="C857">
+        <v>91</v>
+      </c>
+      <c r="D857">
+        <f>ROUNDUP(VLOOKUP(A857,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <f>VLOOKUP(A858,Balance!G:H,2,FALSE)</f>
+        <v>16220</v>
+      </c>
+      <c r="C858">
+        <v>91</v>
+      </c>
+      <c r="D858">
+        <f>ROUNDUP(VLOOKUP(A858,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <f>VLOOKUP(A859,Balance!G:H,2,FALSE)</f>
+        <v>16240</v>
+      </c>
+      <c r="C859">
+        <v>91</v>
+      </c>
+      <c r="D859">
+        <f>ROUNDUP(VLOOKUP(A859,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <f>VLOOKUP(A860,Balance!G:H,2,FALSE)</f>
+        <v>16260</v>
+      </c>
+      <c r="C860">
+        <v>91</v>
+      </c>
+      <c r="D860">
+        <f>ROUNDUP(VLOOKUP(A860,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <f>VLOOKUP(A861,Balance!G:H,2,FALSE)</f>
+        <v>16280</v>
+      </c>
+      <c r="C861">
+        <v>91</v>
+      </c>
+      <c r="D861">
+        <f>ROUNDUP(VLOOKUP(A861,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <f>VLOOKUP(A862,Balance!G:H,2,FALSE)</f>
+        <v>16300</v>
+      </c>
+      <c r="C862">
+        <v>91</v>
+      </c>
+      <c r="D862">
+        <f>ROUNDUP(VLOOKUP(A862,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <f>VLOOKUP(A863,Balance!G:H,2,FALSE)</f>
+        <v>16320</v>
+      </c>
+      <c r="C863">
+        <v>91</v>
+      </c>
+      <c r="D863">
+        <f>ROUNDUP(VLOOKUP(A863,Balance!G:M,7,FALSE),0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <f>VLOOKUP(A864,Balance!G:H,2,FALSE)</f>
+        <v>16340</v>
+      </c>
+      <c r="C864">
+        <v>91</v>
+      </c>
+      <c r="D864">
+        <f>ROUNDUP(VLOOKUP(A864,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <f>VLOOKUP(A865,Balance!G:H,2,FALSE)</f>
+        <v>16360</v>
+      </c>
+      <c r="C865">
+        <v>91</v>
+      </c>
+      <c r="D865">
+        <f>ROUNDUP(VLOOKUP(A865,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <f>VLOOKUP(A866,Balance!G:H,2,FALSE)</f>
+        <v>16380</v>
+      </c>
+      <c r="C866">
+        <v>91</v>
+      </c>
+      <c r="D866">
+        <f>ROUNDUP(VLOOKUP(A866,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <f>VLOOKUP(A867,Balance!G:H,2,FALSE)</f>
+        <v>16400</v>
+      </c>
+      <c r="C867">
+        <v>91</v>
+      </c>
+      <c r="D867">
+        <f>ROUNDUP(VLOOKUP(A867,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <f>VLOOKUP(A868,Balance!G:H,2,FALSE)</f>
+        <v>16420</v>
+      </c>
+      <c r="C868">
+        <v>91</v>
+      </c>
+      <c r="D868">
+        <f>ROUNDUP(VLOOKUP(A868,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <f>VLOOKUP(A869,Balance!G:H,2,FALSE)</f>
+        <v>16440</v>
+      </c>
+      <c r="C869">
+        <v>91</v>
+      </c>
+      <c r="D869">
+        <f>ROUNDUP(VLOOKUP(A869,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <f>VLOOKUP(A870,Balance!G:H,2,FALSE)</f>
+        <v>16460</v>
+      </c>
+      <c r="C870">
+        <v>91</v>
+      </c>
+      <c r="D870">
+        <f>ROUNDUP(VLOOKUP(A870,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <f>VLOOKUP(A871,Balance!G:H,2,FALSE)</f>
+        <v>16480</v>
+      </c>
+      <c r="C871">
+        <v>91</v>
+      </c>
+      <c r="D871">
+        <f>ROUNDUP(VLOOKUP(A871,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <f>VLOOKUP(A872,Balance!G:H,2,FALSE)</f>
+        <v>16500</v>
+      </c>
+      <c r="C872">
+        <v>91</v>
+      </c>
+      <c r="D872">
+        <f>ROUNDUP(VLOOKUP(A872,Balance!G:M,7,FALSE),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <f>VLOOKUP(A873,Balance!G:H,2,FALSE)</f>
+        <v>16520</v>
+      </c>
+      <c r="C873">
+        <v>91</v>
+      </c>
+      <c r="D873">
+        <f>ROUNDUP(VLOOKUP(A873,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <f>VLOOKUP(A874,Balance!G:H,2,FALSE)</f>
+        <v>16540</v>
+      </c>
+      <c r="C874">
+        <v>91</v>
+      </c>
+      <c r="D874">
+        <f>ROUNDUP(VLOOKUP(A874,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <f>VLOOKUP(A875,Balance!G:H,2,FALSE)</f>
+        <v>16560</v>
+      </c>
+      <c r="C875">
+        <v>91</v>
+      </c>
+      <c r="D875">
+        <f>ROUNDUP(VLOOKUP(A875,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <f>VLOOKUP(A876,Balance!G:H,2,FALSE)</f>
+        <v>16580</v>
+      </c>
+      <c r="C876">
+        <v>91</v>
+      </c>
+      <c r="D876">
+        <f>ROUNDUP(VLOOKUP(A876,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <f>VLOOKUP(A877,Balance!G:H,2,FALSE)</f>
+        <v>16600</v>
+      </c>
+      <c r="C877">
+        <v>91</v>
+      </c>
+      <c r="D877">
+        <f>ROUNDUP(VLOOKUP(A877,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <f>VLOOKUP(A878,Balance!G:H,2,FALSE)</f>
+        <v>16620</v>
+      </c>
+      <c r="C878">
+        <v>91</v>
+      </c>
+      <c r="D878">
+        <f>ROUNDUP(VLOOKUP(A878,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <f>VLOOKUP(A879,Balance!G:H,2,FALSE)</f>
+        <v>16640</v>
+      </c>
+      <c r="C879">
+        <v>91</v>
+      </c>
+      <c r="D879">
+        <f>ROUNDUP(VLOOKUP(A879,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <f>VLOOKUP(A880,Balance!G:H,2,FALSE)</f>
+        <v>16660</v>
+      </c>
+      <c r="C880">
+        <v>91</v>
+      </c>
+      <c r="D880">
+        <f>ROUNDUP(VLOOKUP(A880,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <f>VLOOKUP(A881,Balance!G:H,2,FALSE)</f>
+        <v>16680</v>
+      </c>
+      <c r="C881">
+        <v>91</v>
+      </c>
+      <c r="D881">
+        <f>ROUNDUP(VLOOKUP(A881,Balance!G:M,7,FALSE),0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <f>VLOOKUP(A882,Balance!G:H,2,FALSE)</f>
+        <v>16700</v>
+      </c>
+      <c r="C882">
+        <v>91</v>
+      </c>
+      <c r="D882">
+        <f>ROUNDUP(VLOOKUP(A882,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <f>VLOOKUP(A883,Balance!G:H,2,FALSE)</f>
+        <v>16720</v>
+      </c>
+      <c r="C883">
+        <v>91</v>
+      </c>
+      <c r="D883">
+        <f>ROUNDUP(VLOOKUP(A883,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <f>VLOOKUP(A884,Balance!G:H,2,FALSE)</f>
+        <v>16740</v>
+      </c>
+      <c r="C884">
+        <v>91</v>
+      </c>
+      <c r="D884">
+        <f>ROUNDUP(VLOOKUP(A884,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <f>VLOOKUP(A885,Balance!G:H,2,FALSE)</f>
+        <v>16760</v>
+      </c>
+      <c r="C885">
+        <v>91</v>
+      </c>
+      <c r="D885">
+        <f>ROUNDUP(VLOOKUP(A885,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <f>VLOOKUP(A886,Balance!G:H,2,FALSE)</f>
+        <v>16780</v>
+      </c>
+      <c r="C886">
+        <v>91</v>
+      </c>
+      <c r="D886">
+        <f>ROUNDUP(VLOOKUP(A886,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <f>VLOOKUP(A887,Balance!G:H,2,FALSE)</f>
+        <v>16800</v>
+      </c>
+      <c r="C887">
+        <v>91</v>
+      </c>
+      <c r="D887">
+        <f>ROUNDUP(VLOOKUP(A887,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <f>VLOOKUP(A888,Balance!G:H,2,FALSE)</f>
+        <v>16820</v>
+      </c>
+      <c r="C888">
+        <v>91</v>
+      </c>
+      <c r="D888">
+        <f>ROUNDUP(VLOOKUP(A888,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <f>VLOOKUP(A889,Balance!G:H,2,FALSE)</f>
+        <v>16840</v>
+      </c>
+      <c r="C889">
+        <v>91</v>
+      </c>
+      <c r="D889">
+        <f>ROUNDUP(VLOOKUP(A889,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <f>VLOOKUP(A890,Balance!G:H,2,FALSE)</f>
+        <v>16860</v>
+      </c>
+      <c r="C890">
+        <v>91</v>
+      </c>
+      <c r="D890">
+        <f>ROUNDUP(VLOOKUP(A890,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <f>VLOOKUP(A891,Balance!G:H,2,FALSE)</f>
+        <v>16880</v>
+      </c>
+      <c r="C891">
+        <v>91</v>
+      </c>
+      <c r="D891">
+        <f>ROUNDUP(VLOOKUP(A891,Balance!G:M,7,FALSE),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <f>VLOOKUP(A892,Balance!G:H,2,FALSE)</f>
+        <v>16900</v>
+      </c>
+      <c r="C892">
+        <v>91</v>
+      </c>
+      <c r="D892">
+        <f>ROUNDUP(VLOOKUP(A892,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <f>VLOOKUP(A893,Balance!G:H,2,FALSE)</f>
+        <v>16920</v>
+      </c>
+      <c r="C893">
+        <v>91</v>
+      </c>
+      <c r="D893">
+        <f>ROUNDUP(VLOOKUP(A893,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <f>VLOOKUP(A894,Balance!G:H,2,FALSE)</f>
+        <v>16940</v>
+      </c>
+      <c r="C894">
+        <v>91</v>
+      </c>
+      <c r="D894">
+        <f>ROUNDUP(VLOOKUP(A894,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <f>VLOOKUP(A895,Balance!G:H,2,FALSE)</f>
+        <v>16960</v>
+      </c>
+      <c r="C895">
+        <v>91</v>
+      </c>
+      <c r="D895">
+        <f>ROUNDUP(VLOOKUP(A895,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <f>VLOOKUP(A896,Balance!G:H,2,FALSE)</f>
+        <v>16980</v>
+      </c>
+      <c r="C896">
+        <v>91</v>
+      </c>
+      <c r="D896">
+        <f>ROUNDUP(VLOOKUP(A896,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <f>VLOOKUP(A897,Balance!G:H,2,FALSE)</f>
+        <v>17000</v>
+      </c>
+      <c r="C897">
+        <v>91</v>
+      </c>
+      <c r="D897">
+        <f>ROUNDUP(VLOOKUP(A897,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <f>VLOOKUP(A898,Balance!G:H,2,FALSE)</f>
+        <v>17020</v>
+      </c>
+      <c r="C898">
+        <v>91</v>
+      </c>
+      <c r="D898">
+        <f>ROUNDUP(VLOOKUP(A898,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <f>VLOOKUP(A899,Balance!G:H,2,FALSE)</f>
+        <v>17040</v>
+      </c>
+      <c r="C899">
+        <v>91</v>
+      </c>
+      <c r="D899">
+        <f>ROUNDUP(VLOOKUP(A899,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <f>VLOOKUP(A900,Balance!G:H,2,FALSE)</f>
+        <v>17060</v>
+      </c>
+      <c r="C900">
+        <v>91</v>
+      </c>
+      <c r="D900">
+        <f>ROUNDUP(VLOOKUP(A900,Balance!G:M,7,FALSE),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <f>VLOOKUP(A901,Balance!G:H,2,FALSE)</f>
+        <v>17080</v>
+      </c>
+      <c r="C901">
+        <v>91</v>
+      </c>
+      <c r="D901">
+        <f>ROUNDUP(VLOOKUP(A901,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <f>VLOOKUP(A902,Balance!G:H,2,FALSE)</f>
+        <v>17100</v>
+      </c>
+      <c r="C902">
+        <v>91</v>
+      </c>
+      <c r="D902">
+        <f>ROUNDUP(VLOOKUP(A902,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <f>VLOOKUP(A903,Balance!G:H,2,FALSE)</f>
+        <v>17120</v>
+      </c>
+      <c r="C903">
+        <v>91</v>
+      </c>
+      <c r="D903">
+        <f>ROUNDUP(VLOOKUP(A903,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <f>VLOOKUP(A904,Balance!G:H,2,FALSE)</f>
+        <v>17140</v>
+      </c>
+      <c r="C904">
+        <v>91</v>
+      </c>
+      <c r="D904">
+        <f>ROUNDUP(VLOOKUP(A904,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <f>VLOOKUP(A905,Balance!G:H,2,FALSE)</f>
+        <v>17160</v>
+      </c>
+      <c r="C905">
+        <v>91</v>
+      </c>
+      <c r="D905">
+        <f>ROUNDUP(VLOOKUP(A905,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <f>VLOOKUP(A906,Balance!G:H,2,FALSE)</f>
+        <v>17180</v>
+      </c>
+      <c r="C906">
+        <v>91</v>
+      </c>
+      <c r="D906">
+        <f>ROUNDUP(VLOOKUP(A906,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <f>VLOOKUP(A907,Balance!G:H,2,FALSE)</f>
+        <v>17200</v>
+      </c>
+      <c r="C907">
+        <v>91</v>
+      </c>
+      <c r="D907">
+        <f>ROUNDUP(VLOOKUP(A907,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <f>VLOOKUP(A908,Balance!G:H,2,FALSE)</f>
+        <v>17220</v>
+      </c>
+      <c r="C908">
+        <v>91</v>
+      </c>
+      <c r="D908">
+        <f>ROUNDUP(VLOOKUP(A908,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <f>VLOOKUP(A909,Balance!G:H,2,FALSE)</f>
+        <v>17240</v>
+      </c>
+      <c r="C909">
+        <v>91</v>
+      </c>
+      <c r="D909">
+        <f>ROUNDUP(VLOOKUP(A909,Balance!G:M,7,FALSE),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <f>VLOOKUP(A910,Balance!G:H,2,FALSE)</f>
+        <v>17260</v>
+      </c>
+      <c r="C910">
+        <v>91</v>
+      </c>
+      <c r="D910">
+        <f>ROUNDUP(VLOOKUP(A910,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <f>VLOOKUP(A911,Balance!G:H,2,FALSE)</f>
+        <v>17280</v>
+      </c>
+      <c r="C911">
+        <v>91</v>
+      </c>
+      <c r="D911">
+        <f>ROUNDUP(VLOOKUP(A911,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <f>VLOOKUP(A912,Balance!G:H,2,FALSE)</f>
+        <v>17300</v>
+      </c>
+      <c r="C912">
+        <v>91</v>
+      </c>
+      <c r="D912">
+        <f>ROUNDUP(VLOOKUP(A912,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <f>VLOOKUP(A913,Balance!G:H,2,FALSE)</f>
+        <v>17320</v>
+      </c>
+      <c r="C913">
+        <v>91</v>
+      </c>
+      <c r="D913">
+        <f>ROUNDUP(VLOOKUP(A913,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <f>VLOOKUP(A914,Balance!G:H,2,FALSE)</f>
+        <v>17340</v>
+      </c>
+      <c r="C914">
+        <v>91</v>
+      </c>
+      <c r="D914">
+        <f>ROUNDUP(VLOOKUP(A914,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <f>VLOOKUP(A915,Balance!G:H,2,FALSE)</f>
+        <v>17360</v>
+      </c>
+      <c r="C915">
+        <v>91</v>
+      </c>
+      <c r="D915">
+        <f>ROUNDUP(VLOOKUP(A915,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <f>VLOOKUP(A916,Balance!G:H,2,FALSE)</f>
+        <v>17380</v>
+      </c>
+      <c r="C916">
+        <v>91</v>
+      </c>
+      <c r="D916">
+        <f>ROUNDUP(VLOOKUP(A916,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <f>VLOOKUP(A917,Balance!G:H,2,FALSE)</f>
+        <v>17400</v>
+      </c>
+      <c r="C917">
+        <v>91</v>
+      </c>
+      <c r="D917">
+        <f>ROUNDUP(VLOOKUP(A917,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <f>VLOOKUP(A918,Balance!G:H,2,FALSE)</f>
+        <v>17420</v>
+      </c>
+      <c r="C918">
+        <v>91</v>
+      </c>
+      <c r="D918">
+        <f>ROUNDUP(VLOOKUP(A918,Balance!G:M,7,FALSE),0)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <f>VLOOKUP(A919,Balance!G:H,2,FALSE)</f>
+        <v>17440</v>
+      </c>
+      <c r="C919">
+        <v>91</v>
+      </c>
+      <c r="D919">
+        <f>ROUNDUP(VLOOKUP(A919,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <f>VLOOKUP(A920,Balance!G:H,2,FALSE)</f>
+        <v>17460</v>
+      </c>
+      <c r="C920">
+        <v>91</v>
+      </c>
+      <c r="D920">
+        <f>ROUNDUP(VLOOKUP(A920,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <f>VLOOKUP(A921,Balance!G:H,2,FALSE)</f>
+        <v>17480</v>
+      </c>
+      <c r="C921">
+        <v>91</v>
+      </c>
+      <c r="D921">
+        <f>ROUNDUP(VLOOKUP(A921,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <f>VLOOKUP(A922,Balance!G:H,2,FALSE)</f>
+        <v>17500</v>
+      </c>
+      <c r="C922">
+        <v>91</v>
+      </c>
+      <c r="D922">
+        <f>ROUNDUP(VLOOKUP(A922,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <f>VLOOKUP(A923,Balance!G:H,2,FALSE)</f>
+        <v>17520</v>
+      </c>
+      <c r="C923">
+        <v>91</v>
+      </c>
+      <c r="D923">
+        <f>ROUNDUP(VLOOKUP(A923,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <f>VLOOKUP(A924,Balance!G:H,2,FALSE)</f>
+        <v>17540</v>
+      </c>
+      <c r="C924">
+        <v>91</v>
+      </c>
+      <c r="D924">
+        <f>ROUNDUP(VLOOKUP(A924,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <f>VLOOKUP(A925,Balance!G:H,2,FALSE)</f>
+        <v>17560</v>
+      </c>
+      <c r="C925">
+        <v>91</v>
+      </c>
+      <c r="D925">
+        <f>ROUNDUP(VLOOKUP(A925,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <f>VLOOKUP(A926,Balance!G:H,2,FALSE)</f>
+        <v>17580</v>
+      </c>
+      <c r="C926">
+        <v>91</v>
+      </c>
+      <c r="D926">
+        <f>ROUNDUP(VLOOKUP(A926,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <f>VLOOKUP(A927,Balance!G:H,2,FALSE)</f>
+        <v>17600</v>
+      </c>
+      <c r="C927">
+        <v>91</v>
+      </c>
+      <c r="D927">
+        <f>ROUNDUP(VLOOKUP(A927,Balance!G:M,7,FALSE),0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <f>VLOOKUP(A928,Balance!G:H,2,FALSE)</f>
+        <v>17620</v>
+      </c>
+      <c r="C928">
+        <v>91</v>
+      </c>
+      <c r="D928">
+        <f>ROUNDUP(VLOOKUP(A928,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <f>VLOOKUP(A929,Balance!G:H,2,FALSE)</f>
+        <v>17640</v>
+      </c>
+      <c r="C929">
+        <v>91</v>
+      </c>
+      <c r="D929">
+        <f>ROUNDUP(VLOOKUP(A929,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <f>VLOOKUP(A930,Balance!G:H,2,FALSE)</f>
+        <v>17660</v>
+      </c>
+      <c r="C930">
+        <v>91</v>
+      </c>
+      <c r="D930">
+        <f>ROUNDUP(VLOOKUP(A930,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <f>VLOOKUP(A931,Balance!G:H,2,FALSE)</f>
+        <v>17680</v>
+      </c>
+      <c r="C931">
+        <v>91</v>
+      </c>
+      <c r="D931">
+        <f>ROUNDUP(VLOOKUP(A931,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <f>VLOOKUP(A932,Balance!G:H,2,FALSE)</f>
+        <v>17700</v>
+      </c>
+      <c r="C932">
+        <v>91</v>
+      </c>
+      <c r="D932">
+        <f>ROUNDUP(VLOOKUP(A932,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <f>VLOOKUP(A933,Balance!G:H,2,FALSE)</f>
+        <v>17720</v>
+      </c>
+      <c r="C933">
+        <v>91</v>
+      </c>
+      <c r="D933">
+        <f>ROUNDUP(VLOOKUP(A933,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <f>VLOOKUP(A934,Balance!G:H,2,FALSE)</f>
+        <v>17740</v>
+      </c>
+      <c r="C934">
+        <v>91</v>
+      </c>
+      <c r="D934">
+        <f>ROUNDUP(VLOOKUP(A934,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <f>VLOOKUP(A935,Balance!G:H,2,FALSE)</f>
+        <v>17760</v>
+      </c>
+      <c r="C935">
+        <v>91</v>
+      </c>
+      <c r="D935">
+        <f>ROUNDUP(VLOOKUP(A935,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <f>VLOOKUP(A936,Balance!G:H,2,FALSE)</f>
+        <v>17780</v>
+      </c>
+      <c r="C936">
+        <v>91</v>
+      </c>
+      <c r="D936">
+        <f>ROUNDUP(VLOOKUP(A936,Balance!G:M,7,FALSE),0)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <f>VLOOKUP(A937,Balance!G:H,2,FALSE)</f>
+        <v>17800</v>
+      </c>
+      <c r="C937">
+        <v>91</v>
+      </c>
+      <c r="D937">
+        <f>ROUNDUP(VLOOKUP(A937,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <f>VLOOKUP(A938,Balance!G:H,2,FALSE)</f>
+        <v>17820</v>
+      </c>
+      <c r="C938">
+        <v>91</v>
+      </c>
+      <c r="D938">
+        <f>ROUNDUP(VLOOKUP(A938,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <f>VLOOKUP(A939,Balance!G:H,2,FALSE)</f>
+        <v>17840</v>
+      </c>
+      <c r="C939">
+        <v>91</v>
+      </c>
+      <c r="D939">
+        <f>ROUNDUP(VLOOKUP(A939,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <f>VLOOKUP(A940,Balance!G:H,2,FALSE)</f>
+        <v>17860</v>
+      </c>
+      <c r="C940">
+        <v>91</v>
+      </c>
+      <c r="D940">
+        <f>ROUNDUP(VLOOKUP(A940,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <f>VLOOKUP(A941,Balance!G:H,2,FALSE)</f>
+        <v>17880</v>
+      </c>
+      <c r="C941">
+        <v>91</v>
+      </c>
+      <c r="D941">
+        <f>ROUNDUP(VLOOKUP(A941,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <f>VLOOKUP(A942,Balance!G:H,2,FALSE)</f>
+        <v>17900</v>
+      </c>
+      <c r="C942">
+        <v>91</v>
+      </c>
+      <c r="D942">
+        <f>ROUNDUP(VLOOKUP(A942,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <f>VLOOKUP(A943,Balance!G:H,2,FALSE)</f>
+        <v>17920</v>
+      </c>
+      <c r="C943">
+        <v>91</v>
+      </c>
+      <c r="D943">
+        <f>ROUNDUP(VLOOKUP(A943,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <f>VLOOKUP(A944,Balance!G:H,2,FALSE)</f>
+        <v>17940</v>
+      </c>
+      <c r="C944">
+        <v>91</v>
+      </c>
+      <c r="D944">
+        <f>ROUNDUP(VLOOKUP(A944,Balance!G:M,7,FALSE),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <f>VLOOKUP(A945,Balance!G:H,2,FALSE)</f>
+        <v>17960</v>
+      </c>
+      <c r="C945">
+        <v>91</v>
+      </c>
+      <c r="D945">
+        <f>ROUNDUP(VLOOKUP(A945,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <f>VLOOKUP(A946,Balance!G:H,2,FALSE)</f>
+        <v>17980</v>
+      </c>
+      <c r="C946">
+        <v>91</v>
+      </c>
+      <c r="D946">
+        <f>ROUNDUP(VLOOKUP(A946,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <f>VLOOKUP(A947,Balance!G:H,2,FALSE)</f>
+        <v>18000</v>
+      </c>
+      <c r="C947">
+        <v>91</v>
+      </c>
+      <c r="D947">
+        <f>ROUNDUP(VLOOKUP(A947,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <f>VLOOKUP(A948,Balance!G:H,2,FALSE)</f>
+        <v>18020</v>
+      </c>
+      <c r="C948">
+        <v>91</v>
+      </c>
+      <c r="D948">
+        <f>ROUNDUP(VLOOKUP(A948,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <f>VLOOKUP(A949,Balance!G:H,2,FALSE)</f>
+        <v>18040</v>
+      </c>
+      <c r="C949">
+        <v>91</v>
+      </c>
+      <c r="D949">
+        <f>ROUNDUP(VLOOKUP(A949,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <f>VLOOKUP(A950,Balance!G:H,2,FALSE)</f>
+        <v>18060</v>
+      </c>
+      <c r="C950">
+        <v>91</v>
+      </c>
+      <c r="D950">
+        <f>ROUNDUP(VLOOKUP(A950,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <f>VLOOKUP(A951,Balance!G:H,2,FALSE)</f>
+        <v>18080</v>
+      </c>
+      <c r="C951">
+        <v>91</v>
+      </c>
+      <c r="D951">
+        <f>ROUNDUP(VLOOKUP(A951,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <f>VLOOKUP(A952,Balance!G:H,2,FALSE)</f>
+        <v>18100</v>
+      </c>
+      <c r="C952">
+        <v>91</v>
+      </c>
+      <c r="D952">
+        <f>ROUNDUP(VLOOKUP(A952,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <f>VLOOKUP(A953,Balance!G:H,2,FALSE)</f>
+        <v>18120</v>
+      </c>
+      <c r="C953">
+        <v>91</v>
+      </c>
+      <c r="D953">
+        <f>ROUNDUP(VLOOKUP(A953,Balance!G:M,7,FALSE),0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <f>VLOOKUP(A954,Balance!G:H,2,FALSE)</f>
+        <v>18140</v>
+      </c>
+      <c r="C954">
+        <v>91</v>
+      </c>
+      <c r="D954">
+        <f>ROUNDUP(VLOOKUP(A954,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <f>VLOOKUP(A955,Balance!G:H,2,FALSE)</f>
+        <v>18160</v>
+      </c>
+      <c r="C955">
+        <v>91</v>
+      </c>
+      <c r="D955">
+        <f>ROUNDUP(VLOOKUP(A955,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <f>VLOOKUP(A956,Balance!G:H,2,FALSE)</f>
+        <v>18180</v>
+      </c>
+      <c r="C956">
+        <v>91</v>
+      </c>
+      <c r="D956">
+        <f>ROUNDUP(VLOOKUP(A956,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <f>VLOOKUP(A957,Balance!G:H,2,FALSE)</f>
+        <v>18200</v>
+      </c>
+      <c r="C957">
+        <v>91</v>
+      </c>
+      <c r="D957">
+        <f>ROUNDUP(VLOOKUP(A957,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <f>VLOOKUP(A958,Balance!G:H,2,FALSE)</f>
+        <v>18220</v>
+      </c>
+      <c r="C958">
+        <v>91</v>
+      </c>
+      <c r="D958">
+        <f>ROUNDUP(VLOOKUP(A958,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <f>VLOOKUP(A959,Balance!G:H,2,FALSE)</f>
+        <v>18240</v>
+      </c>
+      <c r="C959">
+        <v>91</v>
+      </c>
+      <c r="D959">
+        <f>ROUNDUP(VLOOKUP(A959,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <f>VLOOKUP(A960,Balance!G:H,2,FALSE)</f>
+        <v>18260</v>
+      </c>
+      <c r="C960">
+        <v>91</v>
+      </c>
+      <c r="D960">
+        <f>ROUNDUP(VLOOKUP(A960,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <f>VLOOKUP(A961,Balance!G:H,2,FALSE)</f>
+        <v>18280</v>
+      </c>
+      <c r="C961">
+        <v>91</v>
+      </c>
+      <c r="D961">
+        <f>ROUNDUP(VLOOKUP(A961,Balance!G:M,7,FALSE),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <f>VLOOKUP(A962,Balance!G:H,2,FALSE)</f>
+        <v>18300</v>
+      </c>
+      <c r="C962">
+        <v>91</v>
+      </c>
+      <c r="D962">
+        <f>ROUNDUP(VLOOKUP(A962,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <f>VLOOKUP(A963,Balance!G:H,2,FALSE)</f>
+        <v>18320</v>
+      </c>
+      <c r="C963">
+        <v>91</v>
+      </c>
+      <c r="D963">
+        <f>ROUNDUP(VLOOKUP(A963,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <f>VLOOKUP(A964,Balance!G:H,2,FALSE)</f>
+        <v>18340</v>
+      </c>
+      <c r="C964">
+        <v>91</v>
+      </c>
+      <c r="D964">
+        <f>ROUNDUP(VLOOKUP(A964,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <f>VLOOKUP(A965,Balance!G:H,2,FALSE)</f>
+        <v>18360</v>
+      </c>
+      <c r="C965">
+        <v>91</v>
+      </c>
+      <c r="D965">
+        <f>ROUNDUP(VLOOKUP(A965,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <f>VLOOKUP(A966,Balance!G:H,2,FALSE)</f>
+        <v>18380</v>
+      </c>
+      <c r="C966">
+        <v>91</v>
+      </c>
+      <c r="D966">
+        <f>ROUNDUP(VLOOKUP(A966,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <f>VLOOKUP(A967,Balance!G:H,2,FALSE)</f>
+        <v>18400</v>
+      </c>
+      <c r="C967">
+        <v>91</v>
+      </c>
+      <c r="D967">
+        <f>ROUNDUP(VLOOKUP(A967,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <f>VLOOKUP(A968,Balance!G:H,2,FALSE)</f>
+        <v>18420</v>
+      </c>
+      <c r="C968">
+        <v>91</v>
+      </c>
+      <c r="D968">
+        <f>ROUNDUP(VLOOKUP(A968,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <f>VLOOKUP(A969,Balance!G:H,2,FALSE)</f>
+        <v>18440</v>
+      </c>
+      <c r="C969">
+        <v>91</v>
+      </c>
+      <c r="D969">
+        <f>ROUNDUP(VLOOKUP(A969,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <f>VLOOKUP(A970,Balance!G:H,2,FALSE)</f>
+        <v>18460</v>
+      </c>
+      <c r="C970">
+        <v>91</v>
+      </c>
+      <c r="D970">
+        <f>ROUNDUP(VLOOKUP(A970,Balance!G:M,7,FALSE),0)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <f>VLOOKUP(A971,Balance!G:H,2,FALSE)</f>
+        <v>18480</v>
+      </c>
+      <c r="C971">
+        <v>91</v>
+      </c>
+      <c r="D971">
+        <f>ROUNDUP(VLOOKUP(A971,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <f>VLOOKUP(A972,Balance!G:H,2,FALSE)</f>
+        <v>18500</v>
+      </c>
+      <c r="C972">
+        <v>91</v>
+      </c>
+      <c r="D972">
+        <f>ROUNDUP(VLOOKUP(A972,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <f>VLOOKUP(A973,Balance!G:H,2,FALSE)</f>
+        <v>18520</v>
+      </c>
+      <c r="C973">
+        <v>91</v>
+      </c>
+      <c r="D973">
+        <f>ROUNDUP(VLOOKUP(A973,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <f>VLOOKUP(A974,Balance!G:H,2,FALSE)</f>
+        <v>18540</v>
+      </c>
+      <c r="C974">
+        <v>91</v>
+      </c>
+      <c r="D974">
+        <f>ROUNDUP(VLOOKUP(A974,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <f>VLOOKUP(A975,Balance!G:H,2,FALSE)</f>
+        <v>18560</v>
+      </c>
+      <c r="C975">
+        <v>91</v>
+      </c>
+      <c r="D975">
+        <f>ROUNDUP(VLOOKUP(A975,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <f>VLOOKUP(A976,Balance!G:H,2,FALSE)</f>
+        <v>18580</v>
+      </c>
+      <c r="C976">
+        <v>91</v>
+      </c>
+      <c r="D976">
+        <f>ROUNDUP(VLOOKUP(A976,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <f>VLOOKUP(A977,Balance!G:H,2,FALSE)</f>
+        <v>18600</v>
+      </c>
+      <c r="C977">
+        <v>91</v>
+      </c>
+      <c r="D977">
+        <f>ROUNDUP(VLOOKUP(A977,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <f>VLOOKUP(A978,Balance!G:H,2,FALSE)</f>
+        <v>18620</v>
+      </c>
+      <c r="C978">
+        <v>91</v>
+      </c>
+      <c r="D978">
+        <f>ROUNDUP(VLOOKUP(A978,Balance!G:M,7,FALSE),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <f>VLOOKUP(A979,Balance!G:H,2,FALSE)</f>
+        <v>18640</v>
+      </c>
+      <c r="C979">
+        <v>91</v>
+      </c>
+      <c r="D979">
+        <f>ROUNDUP(VLOOKUP(A979,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <f>VLOOKUP(A980,Balance!G:H,2,FALSE)</f>
+        <v>18660</v>
+      </c>
+      <c r="C980">
+        <v>91</v>
+      </c>
+      <c r="D980">
+        <f>ROUNDUP(VLOOKUP(A980,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <f>VLOOKUP(A981,Balance!G:H,2,FALSE)</f>
+        <v>18680</v>
+      </c>
+      <c r="C981">
+        <v>91</v>
+      </c>
+      <c r="D981">
+        <f>ROUNDUP(VLOOKUP(A981,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <f>VLOOKUP(A982,Balance!G:H,2,FALSE)</f>
+        <v>18700</v>
+      </c>
+      <c r="C982">
+        <v>91</v>
+      </c>
+      <c r="D982">
+        <f>ROUNDUP(VLOOKUP(A982,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <f>VLOOKUP(A983,Balance!G:H,2,FALSE)</f>
+        <v>18720</v>
+      </c>
+      <c r="C983">
+        <v>91</v>
+      </c>
+      <c r="D983">
+        <f>ROUNDUP(VLOOKUP(A983,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <f>VLOOKUP(A984,Balance!G:H,2,FALSE)</f>
+        <v>18740</v>
+      </c>
+      <c r="C984">
+        <v>91</v>
+      </c>
+      <c r="D984">
+        <f>ROUNDUP(VLOOKUP(A984,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <f>VLOOKUP(A985,Balance!G:H,2,FALSE)</f>
+        <v>18760</v>
+      </c>
+      <c r="C985">
+        <v>91</v>
+      </c>
+      <c r="D985">
+        <f>ROUNDUP(VLOOKUP(A985,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <f>VLOOKUP(A986,Balance!G:H,2,FALSE)</f>
+        <v>18780</v>
+      </c>
+      <c r="C986">
+        <v>91</v>
+      </c>
+      <c r="D986">
+        <f>ROUNDUP(VLOOKUP(A986,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <f>VLOOKUP(A987,Balance!G:H,2,FALSE)</f>
+        <v>18800</v>
+      </c>
+      <c r="C987">
+        <v>91</v>
+      </c>
+      <c r="D987">
+        <f>ROUNDUP(VLOOKUP(A987,Balance!G:M,7,FALSE),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <f>VLOOKUP(A988,Balance!G:H,2,FALSE)</f>
+        <v>18820</v>
+      </c>
+      <c r="C988">
+        <v>91</v>
+      </c>
+      <c r="D988">
+        <f>ROUNDUP(VLOOKUP(A988,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <f>VLOOKUP(A989,Balance!G:H,2,FALSE)</f>
+        <v>18840</v>
+      </c>
+      <c r="C989">
+        <v>91</v>
+      </c>
+      <c r="D989">
+        <f>ROUNDUP(VLOOKUP(A989,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <f>VLOOKUP(A990,Balance!G:H,2,FALSE)</f>
+        <v>18860</v>
+      </c>
+      <c r="C990">
+        <v>91</v>
+      </c>
+      <c r="D990">
+        <f>ROUNDUP(VLOOKUP(A990,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <f>VLOOKUP(A991,Balance!G:H,2,FALSE)</f>
+        <v>18880</v>
+      </c>
+      <c r="C991">
+        <v>91</v>
+      </c>
+      <c r="D991">
+        <f>ROUNDUP(VLOOKUP(A991,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <f>VLOOKUP(A992,Balance!G:H,2,FALSE)</f>
+        <v>18900</v>
+      </c>
+      <c r="C992">
+        <v>91</v>
+      </c>
+      <c r="D992">
+        <f>ROUNDUP(VLOOKUP(A992,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <f>VLOOKUP(A993,Balance!G:H,2,FALSE)</f>
+        <v>18920</v>
+      </c>
+      <c r="C993">
+        <v>91</v>
+      </c>
+      <c r="D993">
+        <f>ROUNDUP(VLOOKUP(A993,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <f>VLOOKUP(A994,Balance!G:H,2,FALSE)</f>
+        <v>18940</v>
+      </c>
+      <c r="C994">
+        <v>91</v>
+      </c>
+      <c r="D994">
+        <f>ROUNDUP(VLOOKUP(A994,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <f>VLOOKUP(A995,Balance!G:H,2,FALSE)</f>
+        <v>18960</v>
+      </c>
+      <c r="C995">
+        <v>91</v>
+      </c>
+      <c r="D995">
+        <f>ROUNDUP(VLOOKUP(A995,Balance!G:M,7,FALSE),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <f>VLOOKUP(A996,Balance!G:H,2,FALSE)</f>
+        <v>18980</v>
+      </c>
+      <c r="C996">
+        <v>91</v>
+      </c>
+      <c r="D996">
+        <f>ROUNDUP(VLOOKUP(A996,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <f>VLOOKUP(A997,Balance!G:H,2,FALSE)</f>
+        <v>19000</v>
+      </c>
+      <c r="C997">
+        <v>91</v>
+      </c>
+      <c r="D997">
+        <f>ROUNDUP(VLOOKUP(A997,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <f>VLOOKUP(A998,Balance!G:H,2,FALSE)</f>
+        <v>19020</v>
+      </c>
+      <c r="C998">
+        <v>91</v>
+      </c>
+      <c r="D998">
+        <f>ROUNDUP(VLOOKUP(A998,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <f>VLOOKUP(A999,Balance!G:H,2,FALSE)</f>
+        <v>19040</v>
+      </c>
+      <c r="C999">
+        <v>91</v>
+      </c>
+      <c r="D999">
+        <f>ROUNDUP(VLOOKUP(A999,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <f>VLOOKUP(A1000,Balance!G:H,2,FALSE)</f>
+        <v>19060</v>
+      </c>
+      <c r="C1000">
+        <v>91</v>
+      </c>
+      <c r="D1000">
+        <f>ROUNDUP(VLOOKUP(A1000,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <f>VLOOKUP(A1001,Balance!G:H,2,FALSE)</f>
+        <v>19080</v>
+      </c>
+      <c r="C1001">
+        <v>91</v>
+      </c>
+      <c r="D1001">
+        <f>ROUNDUP(VLOOKUP(A1001,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>1000</v>
+      </c>
+      <c r="B1002">
+        <f>VLOOKUP(A1002,Balance!G:H,2,FALSE)</f>
+        <v>19100</v>
+      </c>
+      <c r="C1002">
+        <v>91</v>
+      </c>
+      <c r="D1002">
+        <f>ROUNDUP(VLOOKUP(A1002,Balance!G:M,7,FALSE),0)</f>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
